--- a/datasets/sift-128-euclidean-true-labels.xlsx
+++ b/datasets/sift-128-euclidean-true-labels.xlsx
@@ -489,10 +489,10 @@
         <is>
           <t>[413247 413071 706838 880592 249062 400194 942339 880462 987636 941776
  420802 586780 833054 248426 849742 208391 192537 271353 987215 832927
-  20845 948375 202612 266890 980641 183334 517923 976547 517238 133524
+  20845 948375 266890 202612 980641 183334 517923 976547 517238 133524
  833335 974985 560219 731804  71819 980027 538702 766416 987696 122309
  541805 480949 826670 974930 522078  14836 543219 239335 250786 833086
- 406020 598353 491737 957556 956542 214501 133522 974481 250884 395932
+ 406020 598353 491737 957556 956542 214501 133522 974481 395932 250884
  123544 207435 522482 913887 807790 808402 850854 509041 378239 411149
  868337 837940 704973 196686 275502 915764  17970 678724 908803 855295
  741996 913942 490751 739835 730127 618740 394982 253083 993635   2781
@@ -561,13 +561,13 @@
         <is>
           <t>[970797 125539  48044 191115 889039 546470 123985 546496 207768 831905
  832999 190692 191317 190621 855554 443320 722075 993773 907380 919152
- 546767 899013 546122 914682 885741 546766 190728 191905 190587 967144
+ 899013 546767 546122 914682 885741 546766 190728 191905 190587 967144
  190999 191092 190630 190795 889916 857203 393121 546487 941084 191161
  852717 443311 852354 839734 545314 886001 900649 956544 191169  81001
  546469 545926 919489 192051 885710 190996 190895  81147 191822 768705
  678788 609251 681907 122827 102152 994263 703398 848283 889896 832895
  801041 960691 708739 210617 930433 852240 545164 443513 947002 681846
-  14185 889094 996934 867686 900638 885838 502128 912148 912689  13832
+  14185 889094 996934 867686 900638 885838 502128 912689 912148  13832
  855019 564021 190979 807831 847143 885894 190642 443325 886122 780591]</t>
         </is>
       </c>
@@ -600,7 +600,7 @@
  755045  81533 549359 956898 108257 278744 151654 279356 548521 279274
  110691 279095 355111 278801   4719 760097 495828 566738  30116 101436
  748799 122623 112076 533494 671857 292169 535022 305983 662906 292963
- 421011 201628 265906 822312 293118 236863 997836 953177 358802 292804
+ 421011 265906 201628 822312 293118 236863 997836 953177 358802 292804
  322138 105778 199903 264181 592673 489692 123410 170547 866737 713777
  724160 106921 720273  60607 295813 259196 291948 292815 694164 472001
  547650 279883 279725   5164 292129 780441 115897 280705 352135 535320
@@ -631,12 +631,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[187470  67875 220473 460733 896005  27746 943689 669622 947299 515025
+          <t>[187470 220473  67875 460733 896005  27746 943689 669622 947299 515025
  682308 974597 998531 947091 538844   1097 884534 883854 884645 690807
  425904 187569 462444  47504 627930 895895 220026 974381 221336 893231
- 939004 489179 426199 884471 207170 167626 196513 275329  25763 836747
+ 939004 489179 426199 884471 207170 167626 275329 196513  25763 836747
  172901 281457 668296 404526 426436 726717 670336 947153 391572 463571
- 202033 266311 947500 464669   1239 930125 929813 491185 209626  27206
+ 266311 202033 947500 464669   1239 930125 929813 491185 209626  27206
   14279 564657 976161 226696 185411 403958 463353 222790 434396 168136
  520833 183814 599042 530422 821288 126433 225852 767710 875009 425748
  888753 951179 501261 813939 105686 207290 207212 670495 250269  28960
@@ -747,7 +747,7 @@
  690655 126634 121179 351719 353257 519420 567762 485895 770827 389108
    9628 384850 262609 134502 278729 281770 354520 162410 171817 113490
  690374 699682 343105 320826 467265 340781 389095 810241 686147 599095
-  79518 723692 376619 389392 163910 530192 195048 273864 315322 279955
+  79518 723692 376619 389392 163910 530192 273864 195048 315322 279955
  686904 723941  30391 105954 306389 164055 474705 963296 180141 481098]</t>
         </is>
       </c>
@@ -776,7 +776,7 @@
       <c r="B11" t="inlineStr">
         <is>
           <t>[178811 177646 181997 181605 821938 807785 716433 358802 803100 866737
- 153488 279356 581962 236863 292077 660288 193016 271832 322138 172219
+ 153488 279356 581962 236863 292077 660288 271832 193016 322138 172219
  495449 514258 748397 279082 261319 151491 514230 610681 548521 278861
  748193 535022 466909 278883 671857 244946 956762 182520 610628 175407
  669381 549359 253710 291945 324445 612270 732351 746863 159154 883543
@@ -817,7 +817,7 @@
  841174  63826 430058  22110 425926 316441 291302 949727 312110 209723
  930391 298169 880356 300398 523802 904681 179253 169528 752817 366974
  623693 508279  17748 313022  20123 520098 432255 331623 533853 210067
- 941307 210295 429823 827391 703585 692150 286106 154522 279569 473448
+ 941307 210295 429823 827391 703585 692150 286106 279569 154522 473448
  519795 209454 176721 507186 947449 291507  46842 465248 465687 294726
  239866 508549 688353 172901 801311 928942 219862  64497 125142 520502
  220275 625121 313303 298066 516193 433775 549922 526576 362376 213963]</t>
@@ -886,13 +886,13 @@
           <t>[390776 563997 923810 931688 564008 191546  13183 564079 564042 224306
  725107 670225  99745 878854 518898 857201 696683  60576  49919 216184
  886629 798973 756088 911255 730999  14819  15266 746930 563093  16439
- 932968 919423 725111 201516 265794 670437 595638 677878 843137 957511
+ 932968 919423 725111 265794 201516 670437 595638 677878 843137 957511
  826569 855040 963040 670137 635998 561467 706804 724917 868704 378008
- 206138 270416  75771 201328 265606 561976 197634 276450 932004 734522
- 560974 889345 194905 273721 781361 635838 831793 848558 223919 562041
+ 206138 270416  75771 265606 201328 561976 197634 276450 932004 734522
+ 560974 889345 273721 194905 781361 635838 831793 848558 223919 562041
  390263 853890  60813 842692 847480 842806 207040 905527 733579 201414
  265692 880176 916432 866210 743788 912816 517060 113088 215972 540520
- 708626   2113  74617 260029 193332 272148 843042 200194 264472 847451]</t>
+ 708626   2113  74617 260029 272148 193332 843042 264472 200194 847451]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -922,13 +922,13 @@
           <t>[522078 134090 596084 795468 565610 988161 868867 522080 861121 990875
  997112 906497 844432 542941 582149 513250 652476 932152 481526  81759
  543219 594141 170030 678602 133524 196124 274940 832528 904713  13102
-  21179 864860 542392 942769 197552 276368 248902 942665 867988 974689
- 201118 265396 170076 513985 376097 863703  15015 957547 991196 918545
-  18319 201476 265754  16808 200828 265106 503553 587110 248427 864170
- 169659 682539 809562 133095 596481 865240 991031 122511 249063 997013
+  21179 864860 542392 942769 276368 197552 248902 942665 867988 974689
+ 265396 201118 170076 513985 376097 863703  15015 957547 991196 918545
+  18319 201476 265754  16808 265106 200828 503553 587110 248427 864170
+ 169659 809562 682539 133095 596481 865240 991031 122511 249063 997013
  985511 710374 931891 561274   3609 825865 561211  66957 945734 857411
  833633 872157 496661 303406  99025 543711 680146 855997 843919 202612
- 266890 941157 974951 413072 133522 533552 207984 307216 542638 192538]</t>
+ 266890 941157 974951 413072 133522 533552 207984 307216 542638 271354]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -960,11 +960,11 @@
  391711 454795 565920 111651 528271 156120  22144 148622  14341 583570
  649785 861015 380938  82815 773223 983167 204999 269277 482972  83049
  584652 433093 565207 874905 103181  82652 155663 450297 681654 289330
- 299867 505280 637066 208474  84496 881298 206711 270989  91790 860104
+ 299867 505280 637066 208474  84496 881298 270989 206711  91790 860104
  223628 452493 501457 185882 636919 804378 637382 110262 429434 493040
  515239  44273 551817 409538 322536 897009 874496 649234 185789 416526
   12330 514554 488633 691380  64727 973247 130820  92440 130251 555866
- 802436 878764 204944 269222 706695 871611 208548    797 526540  63989]</t>
+ 802436 878764 269222 204944 706695 871611 208548    797 526540  63989]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1031,7 +1031,7 @@
  390404 201328 265606 107170 364369 832118 986823 714583 224188  94646
  832092 102595 223877 867765 798929 728773 832431 157702 692899 867801
  684893 108265 245048 934854 224186 432058 867806 225161 223703  69606
- 987336 218249 841932 863583 864066 883108 844703 351792 202196 266474
+ 987336 218249 841932 863583 864066 883108 844703 351792 266474 202196
  960091 425717 722073 686634 750924 679790 618936 103148 967417 255788
  391440 780753 124994 391053 658428 925276 719601  58485 152370 831187
  224453 663426 403421 714896 224196 474159 728687 878041 260074 223902
@@ -1064,15 +1064,15 @@
       <c r="B19" t="inlineStr">
         <is>
           <t>[394163 882972 117181 724211 803788 579505 865734 862392 862676 481816
- 601678 111360 227468 108814 394502 225270 203958 268236 521733 579460
+ 601678 111360 227468 108814 394502 225270 268236 203958 521733 579460
  487873 628584 573566 223218 874263 628248 411979 209842 519816 595553
  718511 247788 868528 393719 381253 736195 931087 862031 629123 720428
  839553 956811 191606 870832 620307 224693 869050 316810 538855 419279
- 541921  17874 104866 868610  48560 158092 704965 679383 200755 265033
+ 541921  17874 104866 868610  48560 158092 704965 679383 265033 200755
  629630 394280  58507 393902 241606 104901 526944 598854 836844 190505
  966358 460179  17002  70466 111601 597015 864452 106690  48735  16758
  989070 931812 840781 696111  13655 840857 130155 222908 158608 843523
- 739920 956920 886242 394157 202084 266362 203964 268242 520541 931611]</t>
+ 739920 956920 886242 394157 266362 202084 268242 203964 520541 931611]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1135,13 +1135,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[222535 193620 272436 258797 394974 921304 868610 905999 226575 629123
+          <t>[222535 272436 193620 258797 394974 921304 868610 905999 226575 629123
  224830 885665 840629 395043 514347  12648 563976 962557  19151 885687
   14576 391453 842163 396533 206975 153107 249859 905787 664178  70562
- 879323  45826 954492 876201 878541 664793 217914 543068 363189 394034
- 840298 395889 885927 803526 594154 223218 902150 867974 901163 929510
+ 879323  45826 954492 876201 878541 664793 217914 543068 363189 840298
+ 394034 395889 885927 803526 594154 223218 902150 867974 901163 929510
  579460 394288 886542 540600 868726 682279  60460 909628 914346  13797
- 205703 269981 885815 410152 732020 103756 103682 732243 848558 832855
+ 269981 205703 885815 410152 732020 103756 103682 732243 848558 832855
  394168 223991  59707  61507 126182 839998 383744 879326 362604 841936
  868889  13414 987478 511159 390821 869051  14514 564018  67466 123984
   14960  15901  50185 886251 594618 101155 123042 663356 124171 543885]</t>
@@ -1172,8 +1172,8 @@
       <c r="B22" t="inlineStr">
         <is>
           <t>[587404 666481 929092  82246 601801 541161 860624 928637 481713 448233
- 475757 359780 546573 195737 274553 519210 589531  54836 306578 442761
- 346559 113419 307708  57580 382669 422112 344579 468112 682558 827227
+ 475757 359780 546573 274553 195737 519210 589531  54836 306578 442761
+ 346559 113419 307708  57580 382669 422112 468112 344579 682558 827227
  887759 774710 379032 505422 306186 386628 421453  55132 888901 473167
  559021 105722 113885 954796 374273 341223 925843 682630 357486 704584
  344185 350127 543353  12369  55736 196025 274841 520678 920816 442696
@@ -1354,7 +1354,7 @@
           <t>[719083  87978 292469 814403 381318 514619 514508 292181 814205 465858
  422089 530271 467307  28601 279639 385549 474871 364028 717127 248829
  252643 249846  69173  70085 326511  16519  70812 921842 724669 421917
- 985176 279170 120476 465958 203895 268173  87042 559788 717097 529970
+ 985176 279170 120476 465958 268173 203895  87042 559788 717097 529970
  497622  31170 735152 726190 717049 214972 684686 397242 449988 720672
  436170  14510 545524 133396 524487 434296 957604 342814 345829 660761
   89562 467450  82790 569078 169364 531606 234769 485958 124579  85624
@@ -1393,7 +1393,7 @@
   29483 790870 336645 106152 433174 525274 527457 790153 925006  13776
    6827 924153 559733 918783 369459 208379 305119 336660 353367 566528
   29924 427104 510252 717813 978851 718019 780133 590943  29576  68364
- 510247 309588  54540 869861 713978 784788 729927 368856 414181 979585
+ 510247 309588  54540 869861 784788 713978 729927 368856 414181 979585
  432501 202541 266819 174766  80054 371380 302247 350478 458358 600663
  926623 368838 600852 414358 499584  23448 422856 961155 427087 960990
  872699 141701 946094 291931 151338 391789 557461 784949 905618 168672]</t>
@@ -1537,7 +1537,7 @@
  524882 795510 524808 502151 719163 825758 116973 569579 122240 510127
  551695 724754 960914 505300 364268 340557 401003 806530 175211 763423
  106715 117094 698837 292422 923172 157737 151183 283707 365808 823965
- 292109 197251 276067 502156  59670 525648 894264 960983 547506 534714
+ 292109 276067 197251 502156  59670 525648 894264 960983 547506 534714
  458177 842355 448353 524952 725716 636192 333397 343125 350511 521888
  410004 297413 151172 117162 534571 790718 969390 821949 792762 684705
  430621 502178 854028 960798  31454  51123 829424 554654 795262 285066]</t>
@@ -1574,7 +1574,7 @@
  168613 787668 989428 370864 721404 900185 899679 436009 989037 631699
  282661 667784 750304 243300 526258 583240 376386 668010 323878 179627
  530176 465281 371070 523760 376274  18758 151226 102201 458054  15010
- 586862 458050 248615 200253 264531 183077  70890 297317 693085 254878
+ 586862 458050 248615 264531 200253 183077  70890 297317 693085 254878
  432658 708782  14293 703439 326827  19416 149478 787844 584940 718058
  889157 292145 847845 498381 151349 525328 466857 699988 631108 595426]</t>
         </is>
@@ -1648,7 +1648,7 @@
  995152 358964 757505 112809 696333 621330 159461 648424 983195 676298
  767626 802664  87176  60910 504958 667349 722054 942247 771648 778559
  675058 222050  60789 212718 664093 977834 646347 931278 674609 471657
- 544109 889662 318481 281884  11231 781270 604323 884643  40007 333304]</t>
+ 544109 889662 318481 281884 781270  11231 604323 884643  40007 333304]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1680,7 +1680,7 @@
  511429  10746 630175  30621 854040 854149  68341 430472 439789 854005
  174611 193690 272506 822600 466643 317042 413105 789023 720753 699646
  588070 190187 522141 703322 124832 518561 753345  77775  10487 359420
-  76140 205606 269884 822342 229320 550220 694517 474592  59436 703655
+  76140 269884 205606 822342 229320 550220 694517 474592  59436 703655
   78905 664053 755276 466613 295774 485398 474575   8862 189879 434379
  390014 601810 690065 892453 390045 784981 295030 429957 182136  20579
  257381 550076 323971  68319 583772 665382 822944 965621 296680 362341
@@ -1719,8 +1719,8 @@
  988596 192500 271316  94193 760621 515367 382435 312806 506093 244431
  844668 920180 527049  58830 888056 393598 729611 394052  22387  93909
  319857 864368 151098 871529 619435 291631  42446 770693  70005 942539
- 872156  70112 940727 181341 238245 122635 931208 205087 269365 949398
- 690271 691156 947282 310348 311336 741908 946484  42017 400032 983456]</t>
+ 872156  70112 940727 181341 238245 122635 931208 269365 205087 949398
+ 690271 947282 691156 310348 311336 741908 946484  42017 400032 983456]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1754,7 +1754,7 @@
   17441 392767 799787  57038 739897 345977 348492  69075 184270 681364
  534191 579946  61578 106938 803749 314940  22889 920181 211985 419865
  181566 315923 935076 399396 368612 509662 791494  70113 349634 435441
- 225492 346088 802732 860443  15260 108051 798777  23300 357155 515232
+ 346088 225492 802732 860443  15260 108051 798777  23300 357155 515232
  620591 595335 171479 393308 245985 181091  19047 693574 729904 750055
   42612 126058 122505 917897 462774  59486 166352  15971 888057 126273]</t>
         </is>
@@ -1857,8 +1857,8 @@
         <is>
           <t>[720244 477601 750411 690413 415493 587405 869342 689683 458649  23749
  503844  82274 619321 149730 110656  85693 895177 113545 458341 685204
-  83290 988792  84515 280540 826917 862986 132758 763496 988921 201683
- 265961 304150 602063 552374 726383 972870  69110 157219 742529 155808
+  83290 988792  84515 826917 280540 862986 132758 763496 988921 265961
+ 201683 304150 602063 552374 726383 972870  69110 157219 742529 155808
  518357 406204 601802 979661 777319 254670 892914 761038 458434  55363
  412144 788450 749820 112304  23805 861652 116079  53175  81722  82928
  887370 279994 646254 898568 131141 859139 682606 222813  82479 415581
@@ -2042,7 +2042,7 @@
  994228 843983 933029 665033 894565 775113 773772 772314 773125 410068
  996731  46845 775023 632914 972904 226692 541327 539990 774383 481886
  226901 477591 489463 754089 668083  56554 586436 689382 396970 650400
- 386187 845923 977550  63837 546221 400694 261807 777906 375898 477566
+ 386187 977550 845923  63837 546221 400694 261807 777906 375898 477566
  805968 560339 734959 476619 901141 962544 199584 278400 961551 475387
  964239 132715 575291 379180 421465 738473 837541 474804 554846 573085]</t>
         </is>
@@ -2147,7 +2147,7 @@
  124883  17798 598094 392988 388098 125623 926549 925045 483060 388928
  864010  88749 327485 124194 858681 701171 931313 593578 888229 747813
  729611 922091 708193 437086 138342 806645 482706 253953 594575  47390
-  93258 210301 705430 700195 432438 919634  47422 852745 885958 766706
+  93258 210301 705430 700195 919634 432438  47422 852745 885958 766706
  246043 450250  77035 138833 681290 786811 951167 149945 195858 274674
    3948 184296 786826 946182 326040 671876 908463   6707 915935 813577
   47356 948965 594698 383385 393103 793704 631935 437570 129387 184577
@@ -2256,11 +2256,11 @@
   73934 236987 777955 128833 254878 227502 353396 165711 163440 310416
  861794   5110 794441 114434 229294 293303 125796 327211 260306 227212
   78406 599680 752847 402766 466700 177369 234908 958648 573496 977037
- 279324 313229 200801 265079 512802   3846 757246 147567 599831 406601
+ 279324 313229 265079 200801 512802   3846 757246 147567 599831 406601
  999880 165247 803838  65300 335756 586262 335838 233710  66464 440191
  293468 188789 172264 376573 451712 330007 691421 412272 290021 402512
  228907 579403  92323 717617 234074 718205  31835 758380 182244 402920
- 757366 658121  72824 328290  70576   7994 969445 201525 265803 358000]</t>
+ 757366 658121  72824 328290  70576   7994 969445 265803 201525 358000]</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2326,7 +2326,7 @@
           <t>[353210 352562 339633 781593 892861 781199 315815 517274 336721 541539
  453455 457767 541492 300557 457133 340296 340182 336943 292941 294174
  303901 141067 236677 122642 500929 714059  82912 122872 365006 305954
- 200796 265074 515030 188705 226027 390009 511660 924156 321785  44394
+ 265074 200796 515030 188705 226027 390009 511660 924156 321785  44394
  915493  84010 713982 781390 601599 230345 934337   5673 286143 356701
  188729 923686 602233 342291 896322 335881 435564 430245 497632 426586
  430373 334696 560543 458433 305782 701089 310841 235349  50256 572638
@@ -2470,7 +2470,7 @@
           <t>[308262  79553 307829 279070 279393 419768  84208 312604  79528 105292
  540901 331837 748000   4903 472375 736291 324833 363623 152096  31920
  603409 152552 514182 518988 732965 168143  37090 369637 424310  79638
- 177666 279049 480475 605061 363522 524947 699421 389803 206087 270365
+ 177666 279049 480475 605061 363522 524947 699421 389803 270365 206087
  748306 499357 544114 261443 279486 805039  11738 823540 744752 695973
  994018  89135 521678 821923 368542 116336 278928 190484 694509 169938
  742279 749482 584162 808819  30847  63929 190423 227743 311418 684189
@@ -2512,7 +2512,7 @@
  334038 205153 269431 452782 548680 632838 809488 699696 509559 255200
  563047 329065 307958 659362 866053 125217 493440 256662  15098 258930
  490814 950376  52810 547928   5637  52500 469551 523955  13212 682235
- 668267 310987 689882 699797 377427 198806 277622 430423 208523 608554]</t>
+ 668267 310987 689882 699797 377427 277622 198806 430423 208523 608554]</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2545,7 +2545,7 @@
  228555 364587 700689 360957 517634 420107 517464 359231  47553 624885
   14869 316639 868268 309138 990735  47561 212191  31643 352335   7024
  527386 170811 889646 315139 624324 499252 526638 581124 795913 459258
- 153738 481609 308065 863285 201643 265921 455651 778060  65747 928201
+ 153738 481609 308065 863285 265921 201643 455651 778060  65747 928201
  477667 255084 232747 309312 565765 634623 453711 202896 267174 339708
  199305 278121 565316 517450 613991 504072 349077 517935 871138 330193
  216247 767420 977111 467859 488001  48359 215834 795842 111477 227748]</t>
@@ -2620,7 +2620,7 @@
  635456  29576 503094 280355 102079 432178 961039 292798 786447  98279
  321539 431084 533520 100263 505370 351270 686072 215202 448452 227485
  735010 548561 610061 548617 432257 395339  39579 438428  39592 567963
- 434294 748223 601633 835279 948052  94440 151346 151298 321805 293954]</t>
+ 434294 748223 835279 601633 948052  94440 151346 151298 321805 293954]</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2648,9 +2648,9 @@
       <c r="B63" t="inlineStr">
         <is>
           <t>[  8402 777151   8564 101592  47079 566368 103322 848323 816034 781951
-  46221 192440 271256 426645 660891 112043 418312 593594 689947 331430
- 244500 845815 655667  46261 203911 268189 192428 271244 307615 689998
- 192436 271252 263578 228878  46395 364882  46025 238179 349114 791909
+  46221 271256 192440 426645 660891 112043 418312 593594 689947 331430
+ 244500 845815 655667  46261 268189 203911 192428 271244 307615 689998
+ 271252 192436 263578 228878  46395 364882  46025 238179 349114 791909
  781011 358336 238801 287403 593887 780843 935964 442116 356855 635689
  363958 635448 238205 203538 267816 358460 426655  47155 309905 781187
   42746 263056 103327 364308 246365 698795 780505 816276 711142 717549
@@ -2721,7 +2721,7 @@
         <is>
           <t>[  6321   6413   5989   7094 439221 694080 590708 682414 989396 512491
  536232 151890 353904 930044 413918 453913 518559 574046 151552 535994
-  54160 889767 198171 276987 940151 453362   6440 582589 186222 754676
+  54160 889767 276987 198171 940151 453362   6440 582589 186222 754676
  828400 415603 140118 339276 754772 307515 473385 437995 480169 413913
  754909  72174 614806 516851 973329 490019 480148 988559 536201 536560
  828324 560776 890063  50827 628014 697452 991038 310677 829023   5863
@@ -2761,7 +2761,7 @@
  846637  49136 769997 641249 218073 374204 502781   5440 474320 375986
   45284 994248 616527 543998 891546  55683 191270 204901 269179  37808
  985255 421939 701190 809881  51863 131425 855596 641508 415658 327223
- 800032 617683 616858 687323 476878 826824 987885  55346 190345 294117
+ 800032 617683 616858 687323 476878 826824 987885  55346 294117 190345
  698884 190120 125833 553013 476609 641593   6937 376130 399747 754748
  809668  33124 904107 243792 995472 122499 698109 891096 903231 571831
  880243 622733   9058  54478 191532 306605 935872  37873 754392  49027]</t>
@@ -2828,7 +2828,7 @@
       <c r="B68" t="inlineStr">
         <is>
           <t>[  5390   5669 686362   7346 376423 414228   7758  53298 102274 997979
- 476878   5242  54581 854558 540216 995472 102476 230466   7159 558026
+ 476878   5242  54581 854558 995472 540216 102476 230466   7159 558026
  755173 389087 688542  51560 774849 685523 552589  55410 974770 805921
   74154 669398 848716 807550 821585  54553 230142 478315 477646  57115
  876631  51841 386754 612136 542174 643394 970835 552772 472352 475437
@@ -2836,7 +2836,7 @@
  558455 555352 475902  39072 852201 558714 821430 669491  55361 411859
  826585 855824 473989 579031 476592 409020 378795 754515 477823  57068
   53513 685641  57652 388345 442924 479192   7338 700120  51514 542213
-  55500 360817 475704 775270  39033 697367 705476 734920 891666 241155]</t>
+  55500 360817 775270 475704  39033 697367 705476 734920 891666 241155]</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2906,7 +2906,7 @@
  281763 536348 657975  10966 458077  23243 855200 161340 972834 487390
  415786 188989 596171 281331 972355 516836  54599 339463 493473 257491
  189130  53860 188839 745466 188863  86067  55241 487377 125709 768202
- 216665 106848 477643 201509 265787 935682 716041 814169 358357 477616
+ 216665 106848 477643 265787 201509 935682 716041 814169 358357 477616
  772246 909313  97216 250413 537023 741321 855045 158664 254458 141582
  963131 911388 917352 587059 792414 141169 741609 738002 381829 600939]</t>
         </is>
@@ -3013,10 +3013,10 @@
  540523 398093 788552 188181 913106  56535 480069 824228  92112 616437
   78764 921447 540526 493397 640970 475138  57775 782102 762493 411467
  426230 760868 811185 913286 498683 770357 887490 306773 688321 769128
- 713307 807844 578585 473252 413734  84315  84587 418509 598735 502929
+ 807844 713307 578585 473252 413734  84315  84587 418509 598735 502929
  221702 788911 888061 955044 735945   7157 426419 578138 887224 913284
  480307 864249 807472 588693   6342  83351 424914 416654 979650 633124
- 890609 796081 617191 810281 379079 378841 792366 633031 810720 310547]</t>
+ 890609 796081 617191 810281 379079 378841 792366 810720 633031 310547]</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3043,14 +3043,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[448667  57922 699496 906834 204614 268892 198752 277568 700028 483587
- 226993 753746 703272 379088 204280 268558 435928 469341  99093 433657
- 193492 272308 935570 200667 264945  23285 205579 269857 753861 711790
+          <t>[448667  57922 699496 906834 268892 204614 198752 277568 700028 483587
+ 226993 753746 703272 379088 268558 204280 435928 469341  99093 433657
+ 193492 272308 935570 200667 264945  23285 269857 205579 753861 711790
  461696 711409 139670  30766 311658 898552 365060  32620 192727 271543
  612577 174187 476181 118536 685837   6609 438646 742311 435407 739320
  495455 381789 168946  55928 503042 370111 469328 419927 261850 107323
  816921 503449 464842 506257 334617 492724 329805 721365 711414  98957
- 176816 419990  97407 965283 168452 694441 333464 413983 686318 284246
+ 419990 176816  97407 965283 168452 694441 333464 413983 686318 284246
  281165 238606 407988 200534 264812 651909 791699 448804 481645 170787
   31647  56030 726890 704220 169197 663156 524281 408167 459359 697895]</t>
         </is>
@@ -3081,14 +3081,14 @@
         <is>
           <t>[  6853 190271 405640 470408  86188 573991 986963 574996  88691 256424
  184197 119401 553386 747466 934377 381435 233221 873454 986975 869540
- 894402 196356 275172 598327 489825 381782 345777 492135  75711 132457
- 410992 691026 881561 218875 414709 121226 232737 167398 196754 275570
+ 894402 275172 196356 598327 489825 381782 345777 492135  75711 132457
+ 410992 691026 881561 218875 414709 121226 232737 167398 275570 196754
  385278 475262 479994 199687 278503 106294 630755 879150 156157 459180
  900541  49027 633873 869615 130152 150838 898465 383272 793684 106635
- 492565 156433 967316 592640 646968 190493 939380 258419 946426 196411
- 275227 414034   2771   4240 690388 125408 458876 428364 456268  39252
+ 492565 156433 967316 592640 646968 190493 939380 258419 946426 275227
+ 196411 414034   2771   4240 690388 125408 458876 428364 456268  39252
  118875 624202 861657 257332 148815 494374 476076   3239 171093 432979
- 182269 411186 557599 490927 105937 387447 743226 202524 266802 768943]</t>
+ 182269 411186 557599 490927 105937 387447 743226 266802 202524 768943]</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3153,7 +3153,7 @@
         <is>
           <t>[  6553 874762 937405 106343 823106   7616 481177 952748 335363 456105
  812890 112907 543058 734888 923001 917157 924024 953370 107018 823588
- 222183 197815 276631 461998 456833 429113 936145 455580 234784 226375
+ 222183 276631 197815 461998 456833 936145 429113 455580 234784 226375
  188398 368552 404281 107717 197218 276034 790536 873903 124910 797012
  237354 322388 526746 397769 667393 119691  87582 762021 179380 563616
  703915 107873 646139 298956 745846 945038 916330 484433 661211 125158
@@ -3195,7 +3195,7 @@
  664932 508737 877080 335662 120265 283433 707771 499712 298867   7903
  197164 275980 503919 347215 296492 539659 509881 508178 394342 436004
  374748 412019 296704  10466 609360  90581  87440 393450 354842 890509
- 709057 609085  60707 594726 834922 161745   7367 194815 273631 775310
+ 709057 609085  60707 594726 834922 161745   7367 273631 194815 775310
  222441 295360 826025 580511 665579  90463 950888 660005 581984 532383]</t>
         </is>
       </c>
@@ -3338,7 +3338,7 @@
  165357 807512 319934 348842 257772  81795 296696 293607 345923 693571
  605571 537245 694771 875942 188742 171509 925783 243295 755782 745636
  896741 771732 367992 862223 121347 870792 601682 455179 587679 954139
- 353189 335185 199167 277983 592503 332192 592576 258925 989221 869748
+ 353189 335185 277983 199167 592503 332192 592576 258925 989221 869748
  964135 807502 329277 974431 939284 530826 475041 774100 636068 863928
  319365 605501 817529 478810 778816 687120 779663 619538   7742 478780]</t>
         </is>
@@ -3442,7 +3442,7 @@
           <t>[296270   6005 714059 847922 414280  74493  40878   6778 566213 905839
  295098  54762 497742 298752 241559 953426 284452 490403 573192 512845
  601940 283766 429803 281565 414381 230489 341561 188921 391952 355016
- 132176 989983 112314 350864 212563 157088  22720 112483 112255 427528
+ 132176 989983 350864 112314 212563 157088  22720 112483 112255 427528
  905055 505779 350967 990957 353210 496840 351945 699842 540678 228881
  874494 340296 351517 340182 600968 261322 489580 490986 305026  97539
  937883 373154 790990 336943 341188 336721 241641 465608 426566 332008
@@ -3483,7 +3483,7 @@
  693977 433969 305994 305411 448489 414710 965855 623627 781336 322337
  248508 858236 723383 748498 431642 465536 101511 326736 746914 306920
  765053 448382 634518 152427 664594 227558 423589 343294 352609 329052
- 196016 274832 142603 359513 467023 105048 955531 551773 429307 601303
+ 274832 196016 142603 359513 467023 105048 955531 551773 429307 601303
  663618 227269 736949 338652 421861 244520 613805 530406 283157 548617]</t>
         </is>
       </c>
@@ -3550,7 +3550,7 @@
           <t>[807714 642062  73061 910669 900912 424719 253067 808513 526166 114829
  134680 108005   9151 808036 478027 428316 476815 760649 785275  39017
   83495 747899 703186 912460 981664 126237  36806 312394 258387 785536
-  56780 312212 469859 807854 420247 138743 695632 197809 276625 469908
+  56780 312212 469859 807854 420247 138743 695632 276625 197809 469908
   38774 381877 795313 156898 855820 465932  81539 759897 771146 543126
   53824 754760 700874 429399 538616 902331 517762 635130  88701  37796
  462477 243353 771528 366427 543520 741475  45315 754115 884536 745633
@@ -3765,8 +3765,8 @@
         <is>
           <t>[  8356   7797 511325 806838 792323 349404 183768 956233 942656 863588
  106024 407483 742445 144181 886757 304418 733031 889940 805419 290641
- 886884 733167 500032 296168 795002 501537 671698 408964 887238 196552
- 275368 289347 830240 250636 367522 890209 367422 892453 395227 251424
+ 886884 733167 500032 296168 795002 501537 671698 408964 887238 275368
+ 196552 289347 830240 250636 367522 890209 367422 892453 395227 251424
  132739 738486 465852 193362 272178 738694 949077 407604 842798 520017
  515363 949970 313624 408205 185244 418410    956 736490 987842 409028
   73494 600861 943763 795020 418144 469734 252333  63278 873974 286121
@@ -3799,15 +3799,15 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[991587 437379 338664 742678 742597 742556 311426 826938 963357 196106
- 274922  44017 733866 526930 905040 742850 948690 436811 884723 181033
+          <t>[991587 437379 338664 742678 742597 742556 311426 826938 963357 274922
+ 196106  44017 733866 526930 905040 742850 948690 436811 884723 181033
  441175 615796 545573 195954 274770 812041 432156 545419 527477 407598
  281733 253004 493002 307928 440674 882048  98494 634001 894057  60194
  658938 603308 363707 873277 826354 523474 411004 491027  57969 308913
  322001 499684 392585 120609  62398 793887 881375 881369 247865 281785
  956580 438897  62466 312167 434141 104233 639134 556845 993390  69046
  214937  51954 383445 768476 639208 239360 905095 486552 898409 221642
- 551918 854830 794214 341021 995481 892434 516908 919497 806779 615786
+ 551918 854830 794214 341021 995481 892434 919497 516908 806779 615786
  912637  64522 478139 466919 616835  51965 435801 203642 267920 422108]</t>
         </is>
       </c>
@@ -3909,7 +3909,7 @@
         <is>
           <t>[436416 309650 203122 267400 656723 519686 354583 307804 518456  24937
  983966 868142 358009  73429 128112 517586  36819 192977 271793 848519
- 983347 310778 462594 726537 179836 297306 289024 435117 200979 265257
+ 983347 310778 462594 726537 179836 297306 289024 435117 265257 200979
  938268 339705 157710 169470 192696 271512  60563 193771 272587 783187
  590372 187557 365817 238768 706856 249904 502862 705349 352042 197675
  276491 287647 134385 812528 146526 141129 352402 784414  84414  18349
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[  8825 807683  84825  84157  57297 381144 260607 397268 202377 266655
+          <t>[  8825 807683  84825  84157  57297 381144 260607 397268 266655 202377
  770374 694617 384898 419693 414932  53327 143788 552173 514937 494846
  322257 978147 948033 562757 553526  85311 797800  83294 800076 696751
  386859 985128 888995 478927  52248  72359 174004 904676 935257 316114
@@ -3952,7 +3952,7 @@
  978499 164463 407997 904687 244416 616512 694012 145312 658683 745272
  770194 681198 459333 401002 976541 687185 999181 988216  43649 874603
  598593 829895 413780 985851 538226 991139 909131 405391 690834 920883
- 389676 409589 892260 185789 196604 275420 416759 215391 479876 888258]</t>
+ 389676 409589 892260 185789 275420 196604 416759 215391 479876 888258]</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4020,7 +4020,7 @@
  473248 424272 865353 423878 795130 904965 130332 699594 972068 991128
  855332 237049 234154 237241 104646 635818 940971 637375 693005 872503
  991783 694745 867292 128188 369776 311081 693211 552859 778173 947577
- 200887 265165 901918 221073 438162 114260 520249 913614 765387 766439
+ 265165 200887 901918 221073 438162 114260 520249 913614 765387 766439
  474229 250594 576269 872179 129980  88692 857975 867256 339999 940224
  537738 730959 182940  86508 413780 372685 328331 915296 793997 595181
  320679 285583 694679 794297 165040 178749 223024 590817 637633 939906
@@ -4058,7 +4058,7 @@
  405063 743391 161559 131824 516346  80223  55240 390237  81562  30145
  359998 279689 338096 603407 415199 342254 699526 292834 502152 230014
  318637 704297 182024 297207 791529  54335 603386 305414 763290 421575
- 292115 668091 101341 261745 368334 502169 155486 203719 267997 364906
+ 292115 668091 101341 261745 368334 502169 155486 267997 203719 364906
  670268 410005 615686  59719  80083 142992 771291 181799 438145 439326
  423674 502224 684129 367780 101297 741345  98706 510689 293293 987179]</t>
         </is>
@@ -4095,7 +4095,7 @@
  553198 809667 793546 598735 754927 478082  42734 409185 679871 478837
  763181 479118 640983 820552 986748 837417 795787 546684   9313 412726
   50020 546723 476383 899831 398021 498251 188181 700585 697542 306773
- 409119 188199 551206 193139 271955 253452  53474 476205 503067  57775
+ 409119 188199 551206 271955 193139 253452  53474 476205 503067  57775
  190154 399103 696610 411342 571230 477998 681989 848715 189665  53308]</t>
         </is>
       </c>
@@ -4129,10 +4129,10 @@
  229861 281082 425639 853993 425615 690426 854025 195047 273863 849982
  294531 913232 854183 547368 424581 211195 289668 491388 497783 321755
  177872 611276 435544 795280 229367 719628 930711 730982 204689 268967
- 420837 521972 390772  88259 244241 478625 731146 436310 421187 203838
- 268116 926999 555063 143316 851342 754259 957604 127952 343244 688204
+ 420837 521972 390772  88259 244241 478625 731146 436310 421187 268116
+ 203838 926999 555063 143316 851342 754259 957604 127952 343244 688204
  897297 289560 358159 211012 880509 931058 415977 185157 584461 721761
- 698642 185111 689495 424777 194210 273026 350245 489449 120860 420569]</t>
+ 698642 185111 689495 424777 273026 350245 194210 489449 120860 420569]</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4159,13 +4159,13 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>[642707 614360 851333 641279 122290 141685 869694 869927 566430 933239
+          <t>[642707 614360 851333 641279 122290 869694 141685 869927 566430 933239
  364322  19426 862120  40902 141401 997178 744093 846024 846326 997482
  619212 824121 856988 932208 550616 181364 869849 743889 856093 566386
  103709 940704 969119 906832 181044 933160 855788 122446 102248 733631
  540520 969178 853167 826305 885744 122246 849747 849223 223692 553839
  103823 846642 946951  92672 854550 907298 550666 833375  98017 488534
- 848367 995625 364780 206198 270476 374963 637844 852471 614795 851098
+ 848367 995625 364780 270476 206198 374963 637844 852471 614795 851098
  946978 756707  98155 848722 208422 941049 869931 995555 480351 103026
  212152 895225 848977 887198 940631 381458 104109 858030 764575 861265
  947565 858171 852476 911255 894969 102308 614025 933429 857795 768991]</t>
@@ -4201,7 +4201,7 @@
  378272 478583  57622  41023 782528 308135 115312 694916 431618 768605
  340337 783018   2892 588408  10103 685832 890059 666502  41312 694596
   57029 570282 960312 586549 419371 537229 448650 579814 929525 207701
- 846663 295063  52521 107809  83127  38633 759760 192677 271493 798858
+ 846663 295063  52521 107809  83127  38633 759760 271493 192677 798858
  852849  54606   5787 606102  51980 559042 537614 783889 247719  47927
   80774 478103 216779  79789 407424 295247 439711 994366  42825 771135
  158434 633454 414658 947542  54999 708950 798918 419394 448712 854769]</t>
@@ -4237,10 +4237,10 @@
   64038 121513 153334 671406 769977 577390  71840 689434 481451 537574
  409762 771202 560119 108281  36129 511173 523247 406236 319179 102904
  608789 504783 688009 718951 600327  72237  59104 875943 810251 592963
-  93657 780993  91569 478035 765129 701636 716350 319878 190220 199946
- 264224 153517 243352 688491 851870 109939 696844 559866 949698 409960
+  93657 780993  91569 478035 765129 701636 716350 319878 190220 264224
+ 199946 153517 243352 688491 851870 109939 696844 559866 949698 409960
   57024 464350 127110 408749  46024 495365 472479 747381 374429 404805
- 424628  73384 190161 204538 268816 372688 318835  45550 818700 485811]</t>
+ 424628  73384 190161 268816 204538 372688 318835  45550 818700 485811]</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4269,9 +4269,9 @@
         <is>
           <t>[908531 116079 112707 987365 845979 215969  79463 427847 556067 715617
  278749 908685 937445 246597 699410  37577 476539  38662 112461 535354
- 158416 869342 693506 572470   4556 433986 599249 427767 204835 269113
- 112774 615192 366726   4609 556216 905239 888044 216152  47186 424425
- 607588 246975 814215 770379 933947 661469 458556 374597 814265 887760
+ 158416 869342 693506 572470   4556 433986 599249 427767 269113 204835
+ 112774 615192 366726   4609 556216 905239 888044 216152  47186 607588
+ 424425 246975 814215 770379 933947 661469 458556 374597 814265 887760
  863606 541355 827228 996275 793630 864617 366651 108772 280462 732091
  791407 953021 768373 207980 112763 306024 692805 607568  37584 382636
  122928 889670  38712 793356 953023 953040 602627 124431 713737 905600
@@ -4307,7 +4307,7 @@
  617426 615196 571581 839308 770517 814439 988883 894382  42486 770662
    2195 538505 552434 568866 520980 810068 536131  53590 991661 423727
    4866 768355 768694 644898 816337 536196   7737 536070 569065 102909
- 979629 552850 196556 275372 407306   8435  52151 202177 266455 792344
+ 979629 552850 275372 196556 407306   8435  52151 266455 202177 792344
  856622 195886 274702 203621 267899 848083 764435 212426 886483 651993
  423771 295124 847892 756288 424151 922722 817674 208006 642916 386314
  816051  41596 782835 442397 774273 810465 100283   8877 457251 640168
@@ -4382,7 +4382,7 @@
   65752 798776 102706 808826 241046 474121 671076 287559 993724 669609
  810454 554231 916984 257352 873533 772113 889305  55378 166263 368656
  233334 671633 780381 770188 464084  55016 476430 414684 128419 414176
- 130737  36439 768900 671750 475285 794233 476906  63776 379150  47236
+ 130737  36439 768900 671750 475285 794233 476906 379150  63776  47236
  414116 957518 407593 555814  51215 808774 596441 340093 375903  61424
  650374 811951  43834 647672 254024 162560 378972 820356 993608 657364]</t>
         </is>
@@ -4450,7 +4450,7 @@
           <t>[470540 707760 474579 470424 730156 741600 805586 101510  99614 254329
  470370 109631 599314  99232 359133  98938 314339 566817 737072 735369
  670635 797937   1423 425328 938566 378865 810666 436551 384962 470193
- 955728 180384 668430 381124 936429 178865 518503 949688 748383 725020
+ 955728 180384 668430 381124 936429 178865 949688 518503 748383 725020
  738668 190214 746336   9356 988793 548227 448826 819245 353817 429443
  475459 376202 738885 548616 925000 182434 474927 470323 925668 597990
  440906 904554 744940 390607 429504 838015 750015 774360 124657 389810
@@ -4520,7 +4520,7 @@
       <c r="B115" t="inlineStr">
         <is>
           <t>[414105 384488 736229 875866  32755 248419 735948  32618  32069 332146
- 245443  87492 198263 277079 373182 145710  86683  32711 723429  31909
+ 245443  87492 277079 198263 373182 145710  86683  32711 723429  31909
  697512 248856 373259 705153 199608 278424 576911 189168 484316 593129
  414189 754291 289443 163808 727573 753224 312119 709440 491506 693166
  754429 479186 311044  91773 927860 608578 208585 133553 231625 230147
@@ -4594,13 +4594,13 @@
           <t>[706821 370872   9236 678197 915850 946259 951029 472205 517794 474285
  944294  20478 752140  20611 915625 887236 667967 372207 826932 849733
  481481 352639  61579 931809 239490  99077 534100 298168 932288 919198
-  99803 472040 429672  70465 882929 515109 778590  15145 919472  71186
- 457418 534272 300413 522111 208344 797248 200963 265241 839646  18206
+  99803 472040 429672  70465 882929 515109 778590 919472  15145  71186
+ 457418 534272 300413 522111 208344 797248 265241 200963 839646  18206
   17482  71599 224506 482161  45618  70657 387168 941554 208501 820177
- 839927 844130 420832  16074 996442 495259 472085 670641 472057 200462
- 264740 752532 288179 906115 398678 843682 396295 208386 195243 274059
+ 839927 844130 420832  16074 996442 495259 472085 670641 472057 264740
+ 200462 752532 288179 906115 398678 843682 396295 208386 274059 195243
  860444 859108 515632    185  69910 100490 596279 778505 205936 270214
- 343828   1580  16594 197265 276081 795887  14328 915697 919645 524389]</t>
+ 343828   1580  16594 276081 197265 795887  14328 915697 919645 524389]</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4664,12 +4664,12 @@
         <is>
           <t>[696572 165045   8874 965307 150517 697607 164963 166667  17615 118601
  822418 379662 986031 938716 937451 986073 511836 431348 985984 619666
- 202168 266446 965182 174219 806919 822415 183671 151743 822536  30637
+ 266446 202168 965182 174219 806919 822415 183671 151743 822536  30637
  531646 903372 939203 822823 399951 166083 377200 172825 384684 379692
  840301 913338 822533 223070 658074 527358  17760 117839 171818 339290
  414148 618979 263747 690464 657870 301619 580190 806654 152027 629727
  174879 776186 161317 368703 288809 136938 384742 365940 371253 292216
- 936247 984939 775878  19983 202348 266626 510621 696831 172707 366789
+ 984939 936247 775878  19983 202348 266626 510621 696831 172707 366789
  114477 630476 122298 938791 171887 379809 172080 553241 631153 510475
  397484 414231 164375 844136 366329 667924 695229 185788 680903 699942]</t>
         </is>
@@ -4702,12 +4702,12 @@
  122526 104883 742321 925829 429911 429702 519489 522774 512532 104923
  523613  11854 105026 519861 249950 908636 372944 292129 913621  12179
  523355 154939 430356 522631 182347 105085 502237 595126 288550 416913
- 797981 489530 861177 263659 728692 925342 611831 344851 206435 270713
+ 797981 489530 861177 263659 728692 925342 611831 344851 270713 206435
  416778 146952 721956 953331 338726 639209 431247 453371 962046 549248
  502291 888619 155965 226764 751706 519416 724674 182332 112099 504175
  753776 735280 999451 662861 371208 502259 523431 865496 341821 165469
  176295 111423 371867 523750 529911 348252 514667 679106 967170 451169
- 254829 115026 206479 270757 450834 865697 532157 216016 256599 694943]</t>
+ 254829 115026 270757 206479 450834 865697 532157 216016 256599 694943]</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4778,7 +4778,7 @@
  860709 164157 998718 443219 869679 237914 981279 245105 315529 583514
  768905 482517 251657 407574 118633 157924 375684 114839 151056 418769
  623557 739113 161272 385273 865869 954465 582965 100426 847990 210404
- 406842 740918 796875 616124  65862 450961 565497 198808 277624 419898
+ 406842 740918 796875 616124  65862 450961 565497 277624 198808 419898
  810096 633206 711612 580407 167914 246799 621072  17543 381700 804336]</t>
         </is>
       </c>
@@ -4810,12 +4810,12 @@
  577154 334127 353165 289387 142648 286094 127917 148663  46657 800868
  258240 584726 591074 682150 961245 413553 918594 963589 259354 927715
  225550 357519 260530 972221  38117 124509 252811 339939 315626 871264
- 429077 970328 993993 576500 232157 205812 270090 200678 264956 888488
+ 429077 970328 993993 576500 232157 205812 270090 264956 200678 888488
  582088 933645 327200 123613 520577 995732 211212 397762 584661 318363
   65155 381561 396780 150607  75072 532456 163100 697173 341342  77782
  211459 873668 245983 889706 495505 222995 819556 405866 185103 960636
- 774318 101111 831775 206923 271201 461142 243269 242355 377849 968967
- 959707 201749 266027 347952  47496 251878 242707 476832 928534 577860]</t>
+ 774318 101111 831775 271201 206923 461142 243269 242355 377849 968967
+ 959707 266027 201749 347952  47496 251878 242707 476832 928534 577860]</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4844,13 +4844,13 @@
         <is>
           <t>[  8307   8409   5214   4773 474658 474697   4867 854607 352379 352902
  736313 634783   5163 979414 308538 783939 678598 632378 807956 503266
- 475506  21556 204740 269018 989211 189283 383836 553730 455692 727929
+ 475506  21556 269018 204740 989211 189283 383836 553730 455692 727929
  104983 979270 553985 736242 704820 854329 380521 504124 236974  18868
  468403 632199 825848 365762 784414 205462 269740 254667 181963  11633
  789788 467365   3206 669033  25488 684268 379937 122463  46150 634694
    2221 189638 917691 972798 897543 456195 859935 978894 631678   1420
  539906 348811 141230  38762 923283 920292 519599 634745 825939 989042
- 573704 930719  11434 468347 181860 705641 213595 651103 173475 100823
+ 930719 573704 468347  11434 181860 705641 213595 651103 173475 100823
  437276 204889 269167 988943 148769 478838 468120 348882 415081 475666]</t>
         </is>
       </c>
@@ -4883,7 +4883,7 @@
   43718 563174  42343 562794  42536 892139 207640 949464 107817  43552
  900887 461193 110604 980912 545113 107347 720729 127136 770353 313998
  250741 186283 553409 786614  82002 901020 760575 901418 939372 972336
- 604920 617265 935753 241605 859239  42268 730240 186337 111808 894387
+ 604920 935753 617265 241605 859239  42268 730240 186337 111808 894387
  778426 656905 107168 383687 655768 948804 802241 616040 983612 959880
  381782 637608 644430  74233 207055 980657 127883 125810 126444 770515
  651455 253140 189570 887520 993934 894455 106635 878374 775596 795494
@@ -4916,8 +4916,8 @@
         <is>
           <t>[103994  89140 311515  91969 469622 482505 280016  43944 768536 298447
  250203 370749 367891  93824 541273 662921 634967 232097 663102 342152
- 590850  53621 363456 302447 713614 469498 696040 201272 265550 104127
- 201662 265940 278653 310029 162820 712410  95324 659901 166199 839810
+ 590850  53621 363456 302447 713614 469498 696040 265550 201272 104127
+ 265940 201662 278653 310029 162820 712410  95324 659901 166199 839810
  919726 785260 472142 555424  43996 231957 659197 743023 672326 663949
  305441 697169 279147 502173 790088 713562 799504  56122 785577 450039
  123560 477655 663771 505220 431645 590515 473716 794382 861799 862176
@@ -4989,13 +4989,13 @@
           <t>[182672 173110 488061 262864 789067 380421 525156 391811 431196 420271
  136554 391796 120007 250204 912699  93724 704685 353113 515716 748148
  350581  72000  30442 523819 941646 840243 524916 924174 420374 521863
- 637450 659193 763294 523851 792760 450134 168768 123718 964819 199911
- 264189 135408   6353 532968 351338 160034 262048 151672 449890 603394
+ 637450 659193 763294 523851 792760 450134 168768 123718 964819 264189
+ 199911 135408   6353 532968 351338 160034 262048 151672 449890 603394
  732426 303011 188144 434506 305997 156309 188801 732307 129278  30611
  523664 219342  36726 789690  94254 466619 523081 146237 147955  93624
   59068 105233 743095 803997 324243 112210 668862  16823 129934  36556
  116343 524703 513823 684369 601199  42572 742847 140689 500773 526602
- 372448 429598 483715 121610 525636  30391 633191 743205  30534 686922]</t>
+ 372448 429598 483715 525636 121610  30391 633191 743205  30534 686922]</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5174,7 +5174,7 @@
  362171 316863 314830 470416 968513 153811 734772 480145 442159 144268
  819923 123434  61649 304118  28802 668150 824131 302051 297777 402858
  764902 369978 165453 142129 336383 991569 627776 302647 874745 531487
-  90170 347174 875407 347280 611783 336559  36407 302550 766107 956038
+  90170 347174 875407 347280 611783 336559  36407 766107 302550 956038
  776085 776486 935281 891667 995789 300678 824174 937754 812236 330853]</t>
         </is>
       </c>
@@ -5277,7 +5277,7 @@
           <t>[134221 716879 713854 989765 648730 673214   6648 667549 247071 610011
  760219  28194 313758 827330  27397 760002 881396 649047 816074 303460
  908739 569542 228301 647778 872837   6316 610125 762293 762444 404994
- 759330 769134 840285 756701 768304 673996 217060 673464 841073 557879
+ 759330 769134 840285 768304 756701 673996 217060 673464 841073 557879
  768366 287094 756900 760525 837763 871710 137290 737505 856745 313418
  856427 356816 757756 851784 583446 646278 255371 373717 673597  43986
  255555 566911 834973 310793 758594 769625 646180 769162 567550 650758
@@ -5384,8 +5384,8 @@
         <is>
           <t>[488577 455363 496085 644274 140019  66519 171299 501998 404841 235824
  337499 672113 118753 121165 545308 454545 499786 629235 147551 356419
- 105582 234658 691126 581285 972523 740564 312757 351003 148770 200712
- 264990 321795 531202 358990 691060  29369 194325 273141 832819 170215
+ 105582 234658 691126 581285 972523 740564 312757 351003 148770 264990
+ 200712 321795 531202 358990 691060  29369 194325 273141 832819 170215
  138357 317639 297271 455840 325864 669737  70935 669724 461761  75786
  580321 383973  12559 432714 320128 146126 463443 950833 172581 706396
  933966 999993 149577 935567 314827 832814 882891 303237 253800 741139
@@ -5421,7 +5421,7 @@
           <t>[  9036   8812 138980 129963 171064 240491 362563 120109 611881 401243
  138202 235906 661782  43185 611856 118860 116116 602455 732806 230253
  172024  43534 660537  75669 476008 731702 194062 272878 630579 732855
- 162730  76368 770469 772363 748606 111012 202400 266678 372688  77010
+ 162730  76368 770469 772363 748606 111012 266678 202400 372688  77010
  336556 283895 381029 977117  51235  91330 801358  20935  34888 240620
   22140 320019 847047   9366 943476 602491 612375 218108 406706 349501
  338153 174338  21001 352938 964329 771202 760671 146297 688022 579165
@@ -5457,11 +5457,11 @@
           <t>[524261  58893 813949 780464 193257 272073 152581 494414  59148 350759
   59094 305852 139211  77208 287576  58625 240562 280355 549097 474217
  497700 799600 193887 272703 432051 769382 531167 687874  68447 486697
- 195152 273968 548608 292250 931630 578140 262759 306300  79772 253864
+ 273968 195152 548608 292250 931630 578140 262759 306300  79772 253864
  532862  82856 480959 302117 352192 547306 517176  79627 323823 931701
  481250 321575 567110 745258 426855 454779 459496 792023 363538 663144
  825419 487568 322242 453456  64734 227416  94081 306347  92448 744266
- 808353 420936   9617 532599 192464 271280 481577  43933 511060 192792
+ 808353 420936   9617 532599 271280 192464 481577  43933 511060 192792
  271608  43878  68028  93648 562422 735035 689907 687948 523384 566958
  351313 799435 499757 422291 799268 306138 665187 437167 735010 525150]</t>
         </is>
@@ -5562,12 +5562,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>[519620 870286 319064  15567 619624 319835 465269 200957 265235 320828
- 862502 398910 199736 278552 431311 520296 596247 205317 269595 795683
- 936088 390776 871933 870344 876023 206053 270331 947655 198633 277449
+          <t>[519620 870286 319064  15567 619624 319835 465269 265235 200957 320828
+ 862502 398910 199736 278552 431311 520296 596247 269595 205317 795683
+ 936088 390776 871933 870344 876023 206053 270331 947655 277449 198633
  595919  58506 929694 320291 390462 574288   1033 433258 386560 122705
-  17054 998298  99745 168172 595638 290257 417141 538807 586683 299435
- 485528 813933 710428 349048 938020 390875 764616 934555 797100 930903
+  17054 998298  99745 168172 595638 290257 417141 538807 586683 485528
+ 299435 813933 710428 349048 938020 390875 764616 934555 797100 930903
    3401 628000  16439 862647 691734 628627 192379 298654 390487 485403
  930610 542184 395081 843522 216881 391065 430713 542207 842414 299427
  862544 842673  92038 225869 413469 474490 936028 983268 533734 682236
@@ -5639,7 +5639,7 @@
  117629 156238 153064 252444 582737 500418 116404 424342 817336 104305
  796499 686930 980629 800132 854917 950594 923330 770079 693556 291585
  692279 768598 913722 559351 893624 143296 473477 334254 143090 696617
- 310710 901380 201448 265726  91484 849211 307470 334775 506080 773894
+ 310710 901380 265726 201448  91484 849211 307470 334775 506080 773894
  735252 259246 310112 591535 414057 489775 161477 333477 770436 507130
  424757 471863 718330 489304 833947  87141 339127 664070 500335 798048
  880414 757597  25343 325407 237906  93275 800281 593470 724323 696031
@@ -5744,12 +5744,12 @@
         <is>
           <t>[878059 668414 913130 515741 842512 711700 677800 546632 516085 943305
  712857 941432 624311 391081 908349 389782 916590  99965 872639 941675
- 870664 225894 546486 622763 205888 270166 204731 269009 938975 181259
+ 870664 225894 546486 622763 205888 270166 269009 204731 938975 181259
  623463 933276 862319 921448 867775 929157 546765 752771 710889 996473
  929132 929240 542314 930383 878371 519260 862476 710804 634139 224710
- 103629 205652 269930 546499 546770 104601 546467 715738 391654 201118
- 265396  62799 849504 914787 207576 746163 202981 267259 668966 541787
- 511187 677785 670868 783578  14912 966469 200194 264472 950503 935717
+ 103629 205652 269930 546499 546770 104601 546467 715738 391654 265396
+ 201118  62799 849504 914787 207576 746163 202981 267259 668966 541787
+ 511187 677785 670868 783578  14912 966469 264472 200194 950503 935717
  390999 703280 996368 919742 929554 881005 917842 784583 933720 880567
   42310 886067 783081 996943 190995  74597 911071 832981 122826 101156]</t>
         </is>
@@ -5779,14 +5779,14 @@
       <c r="B150" t="inlineStr">
         <is>
           <t>[457569 928736 113668 460190 508579  98120 782871 256702 929735 555134
- 223330 205628 269906 701866 281394 345394 343963 860420 262764 440606
-  12427 205964 270242 550435 529522 572039 256390 113375 822784 500216
+ 223330 269906 205628 701866 281394 345394 343963 860420 262764 440606
+  12427 270242 205964 550435 529522 572039 256390 113375 822784 500216
   80665 975875 747569  46871 507796 457154 981683 312976 823448 553609
  392451 489915 262597 383679 320565 675676  75166 502039    423 930022
  356736 255691 228803 399878 125168  26853  75062 530249 399514 555242
  491025 136085 822893 860636 747309  45561 466525 860348  77772 520918
- 200517 264795 652730 225320 204353 268631 318347 555264 395206  86440
- 595796 328504 954751 650613  53102 281428 910285  46204 584509  80362
+ 264795 200517 652730 225320 204353 268631 318347 555264 395206  86440
+ 595796 328504 954751 650613  53102 281428 910285 584509  46204  80362
  958912 671774 925747  75347 649903 296664 286248 981979 499904 180094]</t>
         </is>
       </c>
@@ -5820,7 +5820,7 @@
  716439 382401 198445 277261 436483 711665 260557 386354 454593 547567
  107537  47828 702626 407731 234321 372481 694908 261048 490815 257350
   48356 413727 485421 294232 160246 415399 121109 143178 386188 400519
- 167835 372921 885017 490353 282138 648864 202887 267165 695218 280961
+ 167835 372921 885017 490353 282138 648864 267165 202887 695218 280961
  291176  49041 922140  11355 597515 108357 143668 442291 991117 694847
  984446 530965 712547 713934 733692 721267 707164  49161 547774 361908
  533988  50132 435086 825741  51979 858919 582398 729839 240200 918361]</t>
@@ -5894,7 +5894,7 @@
  443084 824285 768015 150364 667645 765156 824526 814373 814579 539577
  808076 667219 787930 667530 446728 541480 539601 886345 190782 957980
  890987 798789 541404 615866 191068 768461 765674 447189 830218 762378
- 676271 430117 813424 768120 648480 853085 677252 667002 768158 447718
+ 676271 430117 813424 768120 853085 648480 677252 667002 768158 447718
  667018 825140 672718 666896 539619 539702 952895 447776 768284 764684]</t>
         </is>
       </c>
@@ -5997,7 +5997,7 @@
           <t>[ 57520 148982 185664 496360 959163 492552 493254 820394 138946 320347
  442948 321248 440277 879239 363045 790207 495004 478073 900776 790403
  615740 616119 794518 735823 148847 802686 316352 901082 187361 250367
- 424256 317591 148960 914875 814552 149716 676779 900892 200377 264655
+ 424256 317591 148960 914875 814552 149716 676779 900892 264655 200377
   57293  88505 938637 222558 517785 634397 959344 787116 873273  39920
  199168 277984 136324 546897 984898 879520 166262  49623 103639 466205
  166073 626020 620039 419097 616606 626566 680416 402825 137842 626563
@@ -6034,7 +6034,7 @@
  486696 465648 996131 471899 549127 512156 414754 485075 913296  88765
  566421 636187 698671 815564 727215 430110 232387   2194 698475 308289
  130829 730558  26516 259720 513832 910736 465713 778642 822749 465980
- 124182 302442 111209 562221 823382 469561  45444   6683 540682 342669
+ 124182 302442 111209 562221 823382 469561  45444 540682   6683 342669
  367219 350447 608403 730415   8222 470800  86525 621993 466218   2084
  693914 504292  91943 566409 372724 739269 186698 729893  80928 530571
  200017 264295 231048 190546 542933 685917 964882 698383 955245 465766
@@ -6068,8 +6068,8 @@
         <is>
           <t>[487346 617990 485029 390946 397108 482986 615205 257560 615031 400955
  346995 665096 400214 837296 141472 368878  71913 615217 791874 837461
- 780700 397356 751270 839290 618270 203009 267287 837276 569353 366126
- 345801  14695  70965 829980 776957 533563 197535 276351 569290  14626
+ 780700 397356 751270 839290 618270 267287 203009 837276 569353 366126
+ 345801  14695  70965 829980 776957 533563 276351 197535 569290  14626
  177542 369700 219402 623161 532659 132441 625063 842425 729079 141176
  406587 430802 974335 573218 344237 343632 401744 419030 397110 578704
  704473 262525 141372 658822 933487 576772 310718 572249 821607 237506
@@ -6110,8 +6110,8 @@
  437547  14509 713269 797453 419422 626784 256215 169688 432951 738330
   21263 112488 662785 811924 988406 531933 558736 139814 115069 821932
  419745 106719 771847  65151 351299 782305 176201  65928  81976 837110
- 717211 811999 200722 265000 763682 113526 522703 428215 975078 291889
- 547830 111188 821063 723602  37063 357626 699500 575344 306271 522813]</t>
+ 717211 811999 265000 200722 763682 113526 522703 975078 428215 291889
+ 547830 111188 821063 723602  37063 357626 699500 575344 522813 306271]</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6144,7 +6144,7 @@
  322715 615838 152076 154173 809542 279027 774898 236893 505526 293453
  291970 531499 748647   7573 122588 500295 526001 293806 422289 105139
  513802 228574 391762 170870 850084 549000  68991  86119  89104 105732
- 157797 130475 616325 193146 271962 170352  23006 214620 406418 106562
+ 157797 130475 616325 271962 193146 170352  23006 214620 406418 106562
  430257 208854 700940 431293 170185 560063 658243  78543  21059  70659
  737152 535131 548661 780320 560036 429872 860391 104912 124487  21117
   78914 180832 287312 257285 719374 291413 516599  70191  79379 219259]</t>
@@ -6211,11 +6211,11 @@
       <c r="B162" t="inlineStr">
         <is>
           <t>[834181 228440 685960 833334 845807  67744 398352 635122 569836 948041
- 570081 598752 854375 884116 570423 842415 947734 376392  16094 200391
- 264669 376237 827142 223493 703042  67520 198631 277447  15633 630842
+ 570081 598752 854375 884116 570423 842415 947734 376392  16094 264669
+ 200391 376237 827142 223493 703042  67520 198631 277447  15633 630842
  854265 854105 570365 250844 930275 170056 199734 278550  99137 751926
  393594 693309 327347 586551 705205 942358 344882 633108 842891 705713
- 204266 268544 112138 199868 264146 883015 608767 888601 598879 703000
+ 268544 204266 112138 264146 199868 883015 608767 888601 598879 703000
  961784 893046 851568 632682  73275 691005 543743 942709 596332 211122
  780996 474188 916023 633129 210736 916778 251606 527051  22184 988645
  831273 632885 852668 784673 541818 491670 170158 751460  73217 827362
@@ -6283,14 +6283,14 @@
       <c r="B164" t="inlineStr">
         <is>
           <t>[468128 182366 490102 679034 917518 113031 467690 287966 376226 376004
- 215303 129535 467537 528853 772252 209200 184045 436977 528651 204842
- 269120 196264 275080 611507 401186 484325  70974 529790 156269 972634
+ 215303 129535 467537 528853 772252 209200 184045 436977 528651 269120
+ 204842 196264 275080 611507 401186 484325  70974 529790 156269 972634
  141314 554149 468309 796571 814881 175054 548815 865656 680151 806655
  906195 439335 691489 166973 610338 707801 685198 156280 783306 968180
   76220 390530 380823 988013  11446 696279 209888  60354 210995  95465
  363883 823710 917864 168475 933545 467629 154808  63065    461 108782
  752373 911879  24013 488319 633120 520321 149045   7511 185555 233179
- 327783 407030  18813 198336 277152 483345 551811 380811 195071 273887
+ 327783 407030  18813 277152 198336 483345 551811 380811 195071 273887
  704403  71496 584929 237339 822611 511129    860 724265 634966 208785]</t>
         </is>
       </c>
@@ -6321,8 +6321,8 @@
           <t>[609734 234367 603373 367097 366857 603401 544536 392887 959092 725890
  367792 390317 308776 261691 392692 188970 956778 122934 453034 139194
  600577 503814 868943 669046 368470 544411 926865  91884 431699 670966
- 259087 726393 181884 193563 272379 420776 283153 544455 472888 412477
- 389863 942682 234082 210611 532611 806655 510751  59929 735213 473329
+ 259087 726393 181884 272379 193563 420776 283153 544455 472888 412477
+ 389863 942682 234082 210611 806655 532611 510751  59929 735213 473329
  845419 295599 337433 307455 130055 671098 390251 458260 693784 671097
  366646 368334  91899 452411 189060 690418 522918  19388 179891 506440
  408707  59372 168589 439121 510770 814668 168563  73496 258070 367311
@@ -6399,7 +6399,7 @@
  905938 891908 420639 249838 223904 956195 248940 900641 226642 919725
  842389 885910 911163 880622 877177 914188 703397 856180 756675 729440
  226136 473658 261241 994257 546472 915912 845667 993998 380718 932476
- 566101 725772 961282 879323 486770 480288 877028 546498 529805 668988]</t>
+ 566101 725772 961282 879323 486770 480288 877028 546498 668988 529805]</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>[734397 908654 204246 268524 165199 908742 107773 860598 293083 679958
+          <t>[734397 908654 268524 204246 165199 908742 107773 860598 293083 679958
  743505 919985 461190 359092 368048  22825 106988  61853 931322 569723
   63852 737500 974940 181346 571028 737790 908637 145182  74061 865481
    9886 377327 348575 853164 960272 687945 125272 381134 910595 392127
@@ -6463,7 +6463,7 @@
       <c r="B169" t="inlineStr">
         <is>
           <t>[ 23724 530237 426541 737211 392029 245995 548516 529906 528815 469824
-  63184 713198 193226 272042 699314 530372 392090 105181 157678 295255
+  63184 713198 272042 193226 699314 530372 392090 105181 157678 295255
  452733 349239 391812 306633  61808 392047 324932 923159 620344 193229
  272045 613503 903652 957290 531232 529174 529950 529365 206745 271023
  547757 335580 517501 528722 529082 281783 530071 293572 407234 540628
@@ -6502,7 +6502,7 @@
  482699 658696 669881 542634 986564 704192 104397 220227 840849 762299
  879702 842016 762187 200143 264421 626990 762078 925313  17313 246268
  215778 545266 229600 522996 660419 998841 850949 985692 957482 543041
- 559769 762098 738870 762109 796299 922999 200561 264839 481489  45684
+ 559769 762098 738870 762109 796299 922999 264839 200561 481489  45684
  623934 755196 863302 871659 907409 801434 888304 894471 894391 858266
  762049 740556 998169 448774 832517 482557 933004 634246 905566 857185
  574938 872647 522584 831892 833045 746390 918788 738081 708604 830885
@@ -6542,7 +6542,7 @@
  413145 281951 547288 472425 849671 471623 523333 924805 502277 699853
  950391 912515 125083 123087 947018 665187 285164 929804 968942 736337
  180942 337480 774362 193862 272678 431007 237667 718310 432257 778753
- 452550 690570 718207 295144 937484 841449 494414 200600 264878  44623
+ 452550 690570 718207 295144 937484 841449 494414 264878 200600  44623
  925424 278738 617272 255904 736729 653817 452890 234146  91483 239397]</t>
         </is>
       </c>
@@ -6571,10 +6571,10 @@
       <c r="B172" t="inlineStr">
         <is>
           <t>[670975 842018 664297 535797 831273 832706 681753 797773  83761 196049
- 274865 197083 275899 692590 681749 668576 681777 247689 400448 751370
- 196246 275062 104217 618380 133145 691261 842089 664468 876645 209999
- 100900 834915 193100 271916 248939 522890 562240 832267 562019 199778
- 278594 842577 197603 276419 260575 411289 247920 670325 605599 485970
+ 274865 275899 197083 692590 681749 668576 681777 247689 400448 751370
+ 275062 196246 104217 618380 133145 691261 842089 664468 876645 209999
+ 100900 834915 271916 193100 248939 522890 562240 832267 562019 278594
+ 199778 842577 197603 276419 260575 411289 247920 670325 605599 485970
  830712 103802   1981 876672 539988 576877 541608 482882 482326 193891
  272707 481018  65513 103831 247523 681755  15662 668219 553260  83177
  839872 619081 935940 899428 481832 858495 400897  89083 492903 698163
@@ -6608,7 +6608,7 @@
         <is>
           <t>[600558 843299  20536 842359 470543 619082 843868 387543 404768 635283
  434137  41478 433469 679790 618145 663659 839442 685720  13505 849915
- 194932 273748 600570 240190 849759 670219 626194 147707 404660 541868
+ 273748 194932 600570 240190 849759 670219 626194 147707 404660 541868
  618987 622393 940673 681132 594108 220530 623550 597655 842733 470614
    1294 940868 780077 681782 748199 254657 867760  60204 990967 748833
  748576 470584 124026 440768 299361 238132 226489 915346   3056  15399
@@ -6650,7 +6650,7 @@
  514640 240757 106452 477667 597258 763422 460213 815477 658868 105048
  870405 156080 454341 805138 433524 523081 370682 109108 690464 888583
  703418 209340 750299 585878 541110 390315 725160 506092 231272  63647
- 430610 500740  58794 181435 719263 230420 527566 293651 370590 742854
+ 430610 500740  58794 719263 181435 230420 527566 293651 370590 742854
  532175 243701  99720 318760 528667 322030 312946 803991 517134 122391]</t>
         </is>
       </c>
@@ -6831,7 +6831,7 @@
  407840 484479 585448 942662 880357 309144  15017 123042 899716 407386
  867956 845709  70199 294458 988960 210491 747897  53036  69351 183110
  503928 869142 390074 182344 652304 901163 286492 182714 407433  70762
- 900889 678913 194906 273722 796040 572692 842725  97483 194371 273187]</t>
+ 900889 678913 273722 194906 796040 572692 842725  97483 194371 273187]</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6860,7 +6860,7 @@
         <is>
           <t>[583981 583826 731164  21085 228797  25613 548761 184470 279390 175963
  584334 610146  98673 390421 366525 604241 228120 748067 123527 968962
- 573025 441038 942234 738834 747888 114693 727834 993848 182753 177003
+ 573025 441038 942234 738834 747888 114693 993848 727834 182753 177003
  467017 250041 297307 800195 227184 249098 998878 755911  24334 235110
  948506 741636 429644 678698 789023 833439 679367 548714 390258  98746
  130536 248951 610448 695579 431921 747877 668313 482224 121951 469745
@@ -6895,7 +6895,7 @@
       <c r="B181" t="inlineStr">
         <is>
           <t>[803291 800931  21890  68600 965132 689911 712737 165995 706013  52510
- 988823 177667 466912 698221 196527 275343 459153 467322 859451 459053
+ 988823 177667 466912 698221 275343 196527 459153 467322 859451 459053
  461208 562020 459039 157582 296201 716640 923921 518768 628090 525974
  435908 832232 525862 125478 129124   4509 385360  19675 684346 352981
  811444 627982  53563 677812 390048 324926 719192 173363  16476 753320
@@ -6934,7 +6934,7 @@
  984152 585179 476372 415508 877165 807579 864085 598426  83623 461843
  166855 543154 766932  86438 866947 409018 880094 669429 979174 696112
  773240 475364 489599 807685 410117 367950 255348 176109 854391 454330
-  37486 197294 276110 325049 155553 344689 854470 389350  80139 205635
+  37486 276110 197294 325049 155553 344689 854470 389350  80139 205635
  269913 543244 177844 851704 476314 700423 772914 846400 559209 195373
  274189 962583 164980  16978 553663 663473 380921 984818 135240 826625
  233754 395776 711863 398682 281818 156985 866314 414298  38268 193921
@@ -6972,7 +6972,7 @@
   30769 490024 781512 154242 176785 496784  70286 122275 364759 105048
  282324 511337 840355 914083 825975 710746 338988 515989 511484 363956
  839680 278729 402714 291903  83877 314305 429526 188526 321959 534983
- 723136  75254  70536 203622 267900 490906 599759 579003 797112 353757
+ 723136  75254  70536 267900 203622 490906 599759 579003 797112 353757
  339360  86185 171913 279955 514594 637479 431865 364714 292384 458413
  188521  31316 418109 486228  96619 321863 352171 322576  89982 501004
  305221 169380 631926 322390  87373 502208 658191 364297 677921 558558]</t>
@@ -7010,7 +7010,7 @@
  121712 719106 659361 856926 376194 738729 711963 318553 969155 455102
  617502 376563 663815  13200 178779 928195 495243 166284 209122 240762
  619724 215233 995541 917740 721399 988553 699140 855479 484095   9649
-  99255 760701 241748 531487 289184 247688   1191 854408 125079 391585
+  99255 760701 241748 531487 289184 247688 854408   1191 125079 391585
  127836 995726 978346 750280 779917 247522 378013  70381 215432 309053]</t>
         </is>
       </c>
@@ -7038,11 +7038,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>[562172 286625 204181 268459 773315 249573 342788 231174 229571 708104
+          <t>[562172 286625 268459 204181 773315 249573 342788 231174 229571 708104
  510982 228781 314390 373041 841778 658860 941605 573177 837203 598378
  240837 229150 553260 841972 229335  75628 574692 590069  45719 289972
  339945 617964 574324 408399  74655 936624 255173 520308 574607 230412
- 485970 966946 194227 273043 489821 140981 920439 772665 241863 196040
+ 485970 966946 273043 194227 489821 140981 920439 772665 241863 196040
  274856  42078 968051 229922 743942 208798 345114 218944 543165 204914
  269192 238243 341793 326924 739901 223609 773383 966027 396669 500189
  772606 153415 411558 304292 255786 707058  41662 523723 495605 523575
@@ -7083,7 +7083,7 @@
  859765 606419 160253 413404 587054 141970 832806 618721 232504 878326
  885895 523373 834090 101299 100735 288266   9837 563128 989958 113153
  158813 629840 140943 425671 966156 101332 990047 282068 877023 229111
- 476249 391397  22063 202970 267248 565832   9663 965370 289534  87767]</t>
+ 476249 391397  22063 267248 202970 565832   9663 965370 289534  87767]</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -7222,12 +7222,12 @@
  607204 797003 698429 905092 607783 217952 417060 585281 299870 323619
  369069  80912 364804 397385 131824 780152 996604 538092 740841 181169
  259204 369070 520735 397828 163837 400670  20659 520734 490339 417024
- 413930 424132 209533   8188 554851 492966 840417 587156 862179 200773
- 265051 509729 726089 588390 528878 527563 607202 885946 378695 730968
+ 413930 424132 209533   8188 554851 492966 840417 587156 862179 265051
+ 200773 509729 726089 588390 528878 527563 607202 885946 378695 730968
  308593 335040 746979   5560 334258 261576 369900 780105 773834 637663
- 723466 975195 349360 200956 265234 910315 790920 179540 714196 885937
+ 723466 975195 349360 265234 200956 910315 790920 179540 714196 885937
  120993 238535 450984 261579 550077 305145 718516 721568 859615 468411
- 682359 969162 606838 215291 423690 585423 197695 276511 995459 335109]</t>
+ 682359 969162 606838 215291 423690 585423 276511 197695 995459 335109]</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -7434,13 +7434,13 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>[ 33867 525288 841031  31028 393359  97061 526083 974394 194757 273573
+          <t>[ 33867 525288 841031  31028 393359  97061 526083 974394 273573 194757
  153386  33053 694677 353152  85217 324746  96478 532001 174242 394662
  861084 449754  32982  63164 694519 387562 297787 183870 574416 106952
  695086  14015 438228 599514 339746 184207 390354 578488 750218 171717
  181673 551653 403754 108441 128526  73054 788256  30934  34991 738622
- 302532 297930 422896 816062 504085 192605 271421 860724 183954  32598
- 156688  62964 695792 417051 184175 888517 332689 696107 193705 272521
+ 302532 297930 422896 816062 504085 271421 192605 860724 183954  32598
+ 156688  62964 695792 417051 184175 888517 332689 696107 272521 193705
  988313 135281  89993 332443 367796 530970 924604 740682 917873  32840
   33193 656039 731340 431964 243393 378006 980273 949925 548987 422060
   85909 362259 295380 297679 146247  70444 904099 704256 656478 526668]</t>
@@ -7477,9 +7477,9 @@
  499503 398925 162894 225050 806995 481244 753149 807313 553480 243691
  765077 672030 175507 981335 177197 363621 235762 698777 437147 175573
  850595 635771 988508 764713 920652 773813 174924 172502 788811  64596
- 175105 564787 764364 692514 206321 270599 224947 177526 897720 958984
- 484995 299316 740508 459629 723024 860699 399136 514946 398428 771597
- 600227 774402 480940 726072 530640  96732  95837 924412 299617 663474]</t>
+ 175105 564787 764364 692514 270599 206321 224947 177526 897720 958984
+ 484995 740508 299316 459629 723024 860699 399136 514946 398428 771597
+ 774402 600227 480940 726072 530640  96732  95837 924412 299617 663474]</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7511,7 +7511,7 @@
  668947 950915 251055 399566 417848  32301 185864 244225 248393 983418
  431154 932556 424545 515036 394894 342463  43892 704982 510481 431723
  825658 448490 521793 844927 485977 979088 696058 749118 169163 754710
- 926077 141856 402863 104034 197318 276134 826072 781387 604476 671306
+ 926077 141856 402863 104034 276134 197318 826072 781387 604476 671306
  719157 190489 628962 756826 157450 393346 603657 120143 465524 997772
  754899 314824 397892  79444 169482 929396 723041 323641  76726 997788
  410859 312016  33245 597907 756807 792085 750159 825767 122873 484775
@@ -7542,16 +7542,16 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>[  7491 844554 156627 532848 515010 981510 206386 270664 515359 513537
- 202990 267268 174366 522105 515454 482491 182020  20390 236488 192587
+          <t>[  7491 844554 156627 532848 515010 981510 270664 206386 515359 513537
+ 267268 202990 174366 522105 515454 482491 182020  20390 236488 192587
  271403 193873 272689 843247 114689 138142 316805 967889 550916 402944
- 137669 197512 276328 205016 269294 526593 259249 521571 984144 918795
+ 137669 276328 197512 269294 205016 526593 259249 521571 984144 918795
  205287 269565 562447 522815 918798 426369 597862 562310 539421 499527
  779722 976118  72951 899667 484121 400054 317428 917710 950404 203174
  267452 411221 182915 688325  10381 813052 988608 522266 174070 526933
  413121 983480 501200 583162 412681 681796 610017 904711 960154 481384
  403692 947229 886497 779729 807270 483330 665778  21873 900668 224854
- 525390 245680 771583 616187  74828 492790 877595 260247 585828 198388]</t>
+ 525390 245680 771583 616187  74828 492790 877595 260247 585828 277204]</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7584,7 +7584,7 @@
  755407 603212 858573 831669 544453 165441 610849 857303 610011  24183
  612481 610999 673105 373721 804327 755931 132105 374235 830958 713854
  610125 449748 910726 566911 830349 838954 568095 836653 833445 755800
- 784696 952346 388216 623116 672675 610400 833456 835672 856427 165059
+ 784696 952346 623116 388216 672675 610400 833456 835672 856427 165059
  759937 611870 784417  28194 759226 826806 387993 610367 310793 672413
  793522 762293 716879 674125 755938 762444   6834  27475 673343 190972
  374105 373717 446344 673353 672572 569542 830326 313418 835736 717310]</t>
@@ -7620,10 +7620,10 @@
  430860 936400 106719 499859 309594 968870 451960 263606 787682 519650
  420778 546842  65151 115069 790944 338398 927842 308347 950824 467414
  741242 119705    963 288728 469251 141856 723173 519507 138685 471860
- 682256 575543 799824 420864 120204 401376 415476 169201 297624 465271
+ 682256 575543 799824 420864 120204 401376 415476 169201 465271 297624
  503156 798484 601201 104920 255955 467386 601466 397866  67217 508771
  227298 525402 968761 705679 599206 309549 416912 397563 732931 138893
- 323789 712200 189314 133582 351561 561600 981443 405266 131735 721645]</t>
+ 323789 712200 189314 133582 351561 981443 561600 405266 131735 721645]</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7656,7 +7656,7 @@
  599240  85732 534587  93865 336833 363652 548546 702980  92125 658370
   95762  85155  91043 658260 821994 690396 466004 524885 638036 253977
   81806 998188 242162 500838 548252 242013 365374 325261  60173 684304
-  88581 512466 658301  81704 998969 366539  94005 192507 271323 158799
+  88581 512466 658301  81704 998969 366539  94005 271323 192507 158799
   37218 416841 495466 236210 237800 477204 494559  89921  86978 352789
  431869 254404 655830 719134 305105 175135 392601 815652  26514 511965
  175106 763533 254379  84279 337238 790721 466216 230723 525167 658596]</t>
@@ -7689,7 +7689,7 @@
           <t>[225982 967074 164031 678815 626551 485927 505328 402116 795271 486343
  836835 804786 282596 503246 630411 978149 123019 834630  69161 976824
   77746  75593 414761 258175 475193 282068 577262 257785 971224 314744
- 837775 908775 392348 854535 104143 857371  76996 359236 856913 290489
+ 908775 837775 392348 854535 104143 857371  76996 359236 856913 290489
  576892 922428 137583 879387 504049 165334 534874 124562 767594 772310
  358492 627933 104212 837700 282285  76921  46730 849601 404709 861116
  847070 283890 130311 830852  53747 678003 414731 580600 225938 319368
@@ -7724,13 +7724,13 @@
         <is>
           <t>[322843 529532 551007 860961 242719 258159 413500 216986  88564 482184
  225229 169383 613214 106066  73927  91680 495654 355348 184976 247832
- 344295 505152 281264 252920 513132 256789 689758  88279 225006 201196
- 265474 844700 151402 530401  75790 156237 726400 634300 482904 984845
+ 344295 505152 281264 252920 513132 256789 689758  88279 225006 265474
+ 201196 844700 151402 530401  75790 156237 726400 634300 482904 984845
  669342 258409 962224 784274 611405 805528 611671 243049 950395 633246
  194612 273428 753311 156515 550953 633937 636102 249154 805911 929448
- 454611 716304  88793 943011 964160 801584 205798 270076 451620 492915
+ 454611 716304  88793 964160 943011 801584 205798 270076 451620 492915
  964602 962782 461884 616639 341652 240720 293955  75893 462072 529583
- 549919 685566 628409  72166 484850  13781 195912 274728 678807 538213
+ 549919 685566 628409  72166 484850 274728  13781 195912 678807 538213
  460563 194333 273149 222145 106707 460467 553482 223590 354118  89174]</t>
         </is>
       </c>
@@ -7766,8 +7766,8 @@
  470088 573488 311195 645480 859727 878765 794561 240605 461153 424379
  707551 873524 816195 918342  42690 680786 832283 349568 810477 728274
  296935 604681 606270 574699 918429 917729 435877 751885 917730 131431
- 200996 265274 392945 643918 832139 777543 573291 930958 309070 499698
-   2020 566620 956166 201592 265870 205080 269358 232800 930402 882538]</t>
+ 265274 200996 392945 643918 832139 777543 573291 930958 309070 499698
+   2020 566620 956166 265870 201592 269358 205080 232800 930402 882538]</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7797,11 +7797,11 @@
           <t>[324884 601658 780277 696040 803306 934511 895306 473548 367461 314013
  696589 238760 120837 156024 869686  50264 716447 600976 153898 628660
   90973 120159  87406  85545 680454 729502  72214 110221 870689  90069
- 207054 697796 557248 280450 193724 272540 539134 196196 275012 899005
- 793291 355933 910703 510715 663559 608862 765504 628155 134214 203018
- 267296 222084 314716 282645 628261 861959  24168 541279 406391  83375
- 556844 524765 193178 271994 875032 844583 204490 268768  64494 200924
- 265202 126980 301995 947910 501359 667267 155616 191747 240362 948092
+ 207054 697796 557248 280450 272540 193724 539134 196196 275012 899005
+ 793291 355933 910703 510715 663559 608862 765504 628155 134214 267296
+ 203018 222084 314716 282645 628261 861959  24168 541279 406391  83375
+ 556844 524765 271994 193178 875032 844583 204490 268768  64494 265202
+ 200924 126980 301995 947910 501359 667267 155616 191747 240362 948092
  697169 608699 658750 194336 273152 280191 537821 813962 735582 430535
  612932 893582 241422 486353 256195 870581  23888 437318 280040 385886]</t>
         </is>
@@ -7835,7 +7835,7 @@
  122553 452263 347698 228711 247825 693638 345865 122354 361900 665077
  579929 577681 603704  11454 825299 699141 513735 660130   9642 993513
  576778 342779 360175 229855 341757 340196 148895 603523 533721 299360
- 663814 289128 342121 232095 998003 248384 552427 495967 185129 752900
+ 663814 289128 342121 998003 232095 248384 552427 495967 185129 752900
  951963 969372 285817 495186  84388 542359 452323 153810 553081 524201
  995542 110780 361775 183881 441675 970212 545691 493024 494131 913241
  136763 883940 820299 662101   9620  35034 883818 665233 992766 531488
@@ -8012,11 +8012,11 @@
         <is>
           <t>[176331 658774 136554 866152 629141  33937 371960 419098 151619 434905
  527412 160034 899228 658329 720538 182209 107821 765782 398395 184154
- 263175 138855 137659 289032 193362 272178 660219 628079  45059 199486
- 278302 519025 245086 681210 658235 433719 182109 658796 574660 672010
+ 263175 138855 137659 289032 272178 193362 660219 628079  45059 278302
+ 199486 519025 245086 681210 658235 433719 182109 658796 574660 672010
  683716 859679 874661 720195 709535  89963 517964 471233 424310 964785
  659064 573700 420554 936130 998104 263843 999038 175045 526718 612260
- 234323   1098 346505 194070 272886 663878 966299 710099 194832 273648
+ 234323   1098 346505 194070 272886 663878 966299 710099 273648 194832
  899052 947145 235025 598096 339162 826219 598085 550498  88426 719633
  424082 808247 598811 482492 471535 510310  18931 729719 485895 807169
  244424 227326 950352 859824 630453 182150 694687 145839 669746 280480]</t>
@@ -8051,9 +8051,9 @@
  338662 714133  10429 549911 230893 555386 240446 965414 215047 937315
  892606 601388 609079 603484 218372 603294 338986 555456 947503 217015
  892155 319088 780244 423490 241466 981015 318303 995482 318774 902828
- 891730 217547 603505 939987  88060 947542 197372 276188 827539 777249
+ 891730 217547 603505 939987  88060 947542 276188 197372 827539 777249
  603507 341821 919741 696287 592619 913621 281084 151543 340494 227343
- 255963 999394  51530 562429 118463 634180 659886 358944 433094 920219
+ 999394 255963  51530 562429 118463 634180 659886 358944 433094 920219
  278774 562968 112493   4909 870445 851327 355518 735793 385722 324900
  472028 827189 989692 291493 355317 354495 779947 440573 138530  51568]</t>
         </is>
@@ -8083,7 +8083,7 @@
       <c r="B214" t="inlineStr">
         <is>
           <t>[902479 902143 335064 902120 319089 475278 416900 117015 118464 714762
- 912102 221694 160263 440572 198621 277437  80205  10430 509397 107277
+ 912102 221694 160263 440572 277437 198621  80205  10430 509397 107277
  923052 218373 717958 960071 217446  55703 409802 318775 913620 646455
  580307 476759 475315 475648 326765 909472 550994 465013 609078 725211
  143949 476175 477407 999393 414920 616760 603295 102430 535359 714134
@@ -8127,7 +8127,7 @@
  724437 175284 321632 822689 547111  25786 620173 389817 833188 526090
  172517 159090 134104 672188 474706 989695 684725 436944 915702 883189
  748149 483341 229914 522488 684460 718879 795343 704766  73362  87236
- 291888 689897 195149 273965 305938 734923 667911 684407 965086 151455]</t>
+ 291888 689897 273965 195149 305938 734923 667911 684407 965086 151455]</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -8162,7 +8162,7 @@
  988851  13473 633388 712367 285915 950453 367650  51508 209977 711599
  438360  66969 753008 184447 560928   5391 692111 296697 653680 518200
  851186 286944 827672  74981 341419 138596 978323 889721 131398 184801
- 807171 560921 710598 805655 665717 925243 488050 205851 270129 653821
+ 807171 560921 710598 805655 665717 925243 488050 270129 205851 653821
  588906 591267  73167 693018 392252 618112 869731 900487 436003  20305]</t>
         </is>
       </c>
@@ -8192,7 +8192,7 @@
         <is>
           <t>[960303 141037 160535 593979 556900 177663 825014 653127 878619 446595
  824858 653581 159894 133648 178356 357725 667234 889793  28667 833831
- 995304 873268 805198 734172 101855 757635 825041 831704 613354 748902
+ 995304 873268 805198 734172 757635 101855 825041 831704 613354 748902
  653055 641647 103944 841197  52162 343264 643871 673375 835631 757757
  830355 819856 737321 708844 541936 328026 889701 141476 610313 653306
  178322 356850 541924 593955 763405 113508 406009 805111 611029 232532
@@ -8232,9 +8232,9 @@
  145774 595168 707320 733428 435511 224824 461504 408476 851801 947704
  403571 948477 695468 968088 316145 707433 577413 392639 456303 853037
  951004 664313 420832  10293 573320 577027 595269 873403 206633 270911
- 744115 225635 197995 276811 880097 519673  44537 251113 632755 844717
+ 744115 225635 276811 197995 880097 519673  44537 251113 632755 844717
  929661 777032 844008 934464 391052 842689  59116 784215 854920 740203
- 598531 777058 194604 205621 269899 273420 733017 398924 206601 270879
+ 598531 777058 273420 205621 269899 194604 733017 398924 270879 206601
  504579 597406 782247 306249 834260 201093 265371 742214 393913 810697]</t>
         </is>
       </c>
@@ -8266,10 +8266,10 @@
  366857 367097 684608 806121 506513 718996 208925 230524 232012 157886
  485445 392887 719262  92255 977704 830589  83873 521546 401210 513181
  261962 470068 800283 392692  28442 719622 603419 525452 156343 485881
- 570031 116661 397419 470776 529999 685019 157035 987750 540768 201019
- 265297 560408 214278 105007 799251 704609 250482 482000 851621 685236
+ 570031 116661 397419 470776 529999 685019 157035 987750 540768 265297
+ 201019 560408 214278 105007 799251 704609 250482 482000 851621 685236
  796705 725786 376656 799259  12523  89536 544412 527883  79833 177144
- 294275 143917 743205 195446 274262 928599 713863 389439 521678 170025
+ 294275 143917 743205 274262 195446 928599 713863 389439 521678 170025
  122137 630175 513725 498448 131248 452354 987322  92872   1466 528883
  191973 280517 512776 305252 189023 917267 734837 111750 233427 742854]</t>
         </is>
@@ -8334,7 +8334,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>[200181 264459 562041 199811 264089 191485 803140 191610 561222  13183
+          <t>[264459 200181 562041 264089 199811 191485 803140 191610 561222  13183
  908441 103784 895009 596304 906857 210541 921807 564079 961456  15266
  921851 859316 224355 958339 563997 755248 207587 288815 956833 560974
  915724 157196 876671 223692 291226  59425 112555 208242 755152 473503
@@ -8375,7 +8375,7 @@
  911036 857684 439890  19422 801462 650205 591267 402008 183872 861506
  790946 480897 663736  19445 122692 340226 595152 663555 769410 329127
  170851 368010 170040 817201 960940 841873 763635 403972 654488 842907
- 116402 322453 375650 663491 228281 203398 267676 662363 681343 818079
+ 116402 322453 375650 663491 228281 267676 203398 662363 681343 818079
  911041 563511 361182 115590 149709 326208 594664 170086 800874 332044
  401309 943760 247707 112885 869478 285503 145957 628681 482420 585361
  763169 280622 988466 331008 145837 736808 481854 666447 182038 941670
@@ -8407,7 +8407,7 @@
       <c r="B223" t="inlineStr">
         <is>
           <t>[494574 501735 688874 748670 797153 280029 433642 819850 682184 925025
- 429985 485883 424587 511735 424720 205371 269649 368951 429419 187260
+ 429985 485883 424587 511735 424720 269649 205371 368951 429419 187260
  523836  79833  78427 628648 962114 518412 695205 511440 797453  69551
    1179 310610  77774 605192 511377 525925  82254  76139 292489 464965
  694020 126043 192469 271285 136609 359353 429485 518461 723920 693951
@@ -8443,9 +8443,9 @@
       <c r="B224" t="inlineStr">
         <is>
           <t>[484703 408775 168684 229417 162401 158929 177715 112365 230648 685039
-   6956 504040 201624 265902 193281 272097 262686 755069 822988  31624
- 480545 876434 947217 529263 151950 193516 272332  63973 423318 466751
- 500565 860297 386075 684206 151584  65118 573646 400792 760005 295576
+   6956 504040 265902 201624 193281 272097 262686 755069 822988  31624
+ 480545 876434 947217 529263 151950 272332 193516  63973 423318 466751
+ 500565 860297 386075 684206 151584 573646  65118 400792 760005 295576
  500802 966857 725819 688949 528265 860630 423380 573146 527685 260829
   15317 112340 523447 465902 123799 438238 152028 434847 797950 684620
  822650  99052 607536 466702 122383 576696 986743 798813 168834 390554
@@ -8555,7 +8555,7 @@
  124691  68495 534766 487814 472384 282173 135655 190213 338176 686753
      30 184819 106071 153901 101443 466984 516558 630943 189846 804065
  592643 432226 240931 110848 782776 520838 419563  65839 806261 122763
- 754316 613092 521283 152581 106781 738704 805138 635373 810380 795128
+ 754316 613092 521283 152581 106781 805138 738704 635373 810380 795128
  282319  90222 172724 977428 148678  24858 685136 516979 616696 119904
  806143 630283 632452 611010  69232 839411 172143 952126 241403 692243
  286058 466833 466891 475474 503951      9  88154 810574 600747  11324
@@ -8593,9 +8593,9 @@
   20456 386218 205102 269380 526933 907966 478143 775284 557176 324115
  771229 948987  97962  27529 736703 343853 822458 369806 594804 668674
  823378 420076 482379 668289 766457 243127 436144 975693 791738 434532
- 416370 404110 159993 486779 463385 179768 196960 275776 284006 320083
+ 416370 404110 159993 486779 463385 179768 275776 196960 284006 320083
  145852  87647 913812 526593 434216 318849  67578 428498 668047 822254
- 398166 160116 204114 268392 347040 953249 539402 366385 320716 369724]</t>
+ 398166 160116 268392 204114 347040 953249 539402 366385 320716 369724]</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8846,8 +8846,8 @@
  801353 587089 317489 711542 732298 858304  63270 488248  70236 313807
   21563 981254 697773 576953 182207 387097 398459 789818 386820 120067
  971545  37298 481791  23219  68111 520736 107572 501690 369627 574936
- 596410 108410 402578 343245  67067 234577 874381 214727 359318 314546
- 398571 181771 134054 224281 484555 402037 387860 396662 396450 177727]</t>
+ 596410 402578 108410 343245  67067 234577 874381 214727 359318 314546
+ 398571 181771 134054 484555 224281 402037 387860 396662 396450 177727]</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8876,13 +8876,13 @@
         <is>
           <t>[822700 540293 579291 367084    310 344325 162208 214558 709316 579119
  540322 634272 203672 267950 803023 214888 632041 776605 317463    369
- 414799 103471 776723 202374 266652 833944 757779 717026 958706 766677
+ 414799 103471 776723 266652 202374 833944 757779 717026 958706 766677
  884720 660544 163986 493513 595702 386794 366424 988346 561942 214670
  540300 560185 959357 585587 835956 721274 208658 100544 709292 203120
  267398 894491 596667 438293    299 486942 914769 169244 773901 831517
  503055  88868 561821 687155 797170 776644 394171 812597 201886 266164
- 540305 721214 972823 817929 709051 145200 412855 252539 959442  15606
-  80315 540360 144835 289056 512447 394124 495968 560183 590282 596373
+ 540305 721214 972823 817929 709051 145200 412855 252539 959442  80315
+  15606 540360 144835 289056 512447 394124 495968 560183 590282 596373
  684844 931263 958735 765776 166155 393738 262961 721402 192150 913987]</t>
         </is>
       </c>
@@ -8915,8 +8915,8 @@
  660013 886989 893017  76092 767151 893065 979262 989806 144768 894897
  143776 579731 917386 709680 144713 954875 236083 893290 954569 888053
  969155 198991 277807 887398 553945  69528  13200 215305 375193 920094
- 150960 878082 581368 894392 486959 627697 233089 812433 405213 196201
- 275017 620317 457510 577557 633347 162957 422468 955091 893684 375128
+ 150960 878082 581368 894392 486959 627697 233089 812433 405213 275017
+ 196201 620317 457510 577557 633347 162957 422468 955091 893684 375128
  634909 484778 877056 808922 215432 635563 251662 508723 630892 134716
  596503 374070 283356 676019 246261 529597 922528 610160 119591 711581
  646140 247806 146941 634257 252613 634538 983642 647590 374260 853448]</t>
@@ -8947,8 +8947,8 @@
       <c r="B238" t="inlineStr">
         <is>
           <t>[904857 478875 912576 846890 637283 411898 637459 476216  81930  82132
- 479018  94641  59517 889708 200344 264622 517800 865863 800816 419725
- 294185 770611 295360 814588 452804 684861 478653 683953 205082 269360
+ 479018  94641  59517 889708 264622 200344 517800 865863 800816 419725
+ 294185 770611 295360 814588 452804 684861 478653 683953 269360 205082
  738883 238827 821776 307368  42451  50658 794872 545437 461727 851494
  945204  83070 490239 610298 700415 310668 994708 687254 353403 637615
  125546 979772 975353 697826 381497 690894 205327 269605 368783 708252
@@ -8991,7 +8991,7 @@
  952138 175768 218581 597577 100402 218410 219916 578803 183218 834451
  946285 871076 898884 519777 183665 311761  97906 368281 332446    621
  321075 202849 267127 236400 749775 310811 884698 312127 143259 391936
- 697294 199274 278090  20861 926275 531459 485174 332204 312722 165276]</t>
+ 697294 278090 199274  20861 926275 531459 485174 332204 312722 165276]</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -9021,10 +9021,10 @@
           <t>[ 89978  88023 596468    567 596526 551459 982912 694637  15513 877506
  341323  10026 498444 438931 911530 974925 909279   1071 991881 949002
  133186 293631    663  72902 191142  95553 416587 661344 151001 832579
- 197446 276262 832163 983514 488756 482082  44645 341349 473876 861092
+ 276262 197446 832163 983514 488756 482082  44645 341349 473876 861092
  621476 393638 488560 609508 191112 578545 393977  10327 982708 227023
  549005 368010 487226 743695 871416 831693  95378 999356 362231 923994
- 539004 551262 551069 367731 572981 195438 274254 572980 832622 439420
+ 539004 551262 551069 367731 572981 274254 195438 572980 832622 439420
  486611 452359 803235 572958 468511 942193 133303 967636 437788  81735
  510217 452254 396242  33719 191221 508764 191309 485372 481677 836257
   86800 915630 181240 563326 310901 727749   1496 191170 932094 457197]</t>
@@ -9099,7 +9099,7 @@
  113962 449522 504792 211083 983640 216063 427395 321940 705961 187323
  246604 221595 422827 401802 618188  95961 860639 985825 921120 296473
  426929 607840 387598 487088 426954 229627 295133 569659  44510 993783
-  65029 280698 212317 296391 196653 275469 569417   5039 112903 364150]</t>
+  65029 280698 212317 296391 275469 196653 569417   5039 112903 364150]</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -9128,14 +9128,14 @@
         <is>
           <t>[958347  90102 324654 597793 584392 921855 569106 131838 233914 976124
  336018 370456 784297 935574   1694  39703 297615 555396 783927 325516
- 535509 192757 271573 230356 474603 958230 252161 194622 273438 239919
+ 535509 271573 192757 230356 474603 958230 252161 273438 194622 239919
  535627 229857 436026 555522  69679 311834 710470 249609 680970 437497
- 879397 513515 193108 271924 523955 183753 436213 937543 196096 274912
+ 879397 513515 271924 193108 523955 183753 436213 937543 196096 274912
  205174 269452 131523 964433 929376 296789 239852  11001 823353 480933
   62285 253598 250598 248091 918933  17012 180439 260576 919580 931080
   81510 122971 230786 216755 877828 286020 938725  60083 614725 232225
- 232145 949427 498202 593637 203082 267360 710817 233468 598936 199183
- 277999  39751 325128 929573 369532 665115 734619 511607 860145 214355]</t>
+ 232145 949427 498202 593637 203082 267360 710817 233468 598936 277999
+ 199183  39751 325128 929573 369532 665115 734619 511607 860145 214355]</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -9164,7 +9164,7 @@
         <is>
           <t>[844991 776246  21635 697109 711630 161623 128532 195010 273826  98532
  326414 695399 484012 590264 362065 679868 716030 960954 381483 181764
- 867855 846100 202174 266452 641891 629508 461397 591114 531557 544018
+ 867855 846100 266452 202174 641891 629508 461397 591114 531557 544018
  386615 165775 180939 888210 810187 607459 868632 245948 461664 156878
  940889 324189 942491 184694 461628 565563  75440 370842 598414 298678
  196868 275684 871987  71679 182343 595995 381410 366449 462964 598355
@@ -9199,13 +9199,13 @@
       <c r="B245" t="inlineStr">
         <is>
           <t>[182827  10747 827581 978134 890304 884386 148224 226838 965521 784323
- 252395  41269 659161 194174 272990 359977 358496 978231  49604 870950
+ 252395  41269 659161 272990 194174 359977 358496 978231  49604 870950
  164824 877447 856888 485976 966268 632566 827736 890563 113454 824167
   81130 247169 945938 887533  78348 877296 981791 877410 965691 347250
   59736 913116 635089 829111 164450 224384 889443 827389 481678 893621
  827688 804386 998805 884342 164417 823909 565945 217742 440140 632464
- 153567 902382 399857 197469 276285 219866 616652 633499 187503 482083
- 824082 875018 862182 546167 400463 198772 277588 553084 542262 334533
+ 153567 902382 399857 276285 197469 219866 616652 633499 187503 482083
+ 824082 875018 862182 546167 400463 277588 198772 553084 542262 334533
   59319 100953 827568  91288 632307  56011 471510  40087 971727 889467
  388547 206063 270341 877633 164032 131928 165335  41575 250552 828289]</t>
         </is>
@@ -9239,7 +9239,7 @@
  956271 167703 662817 861192  17441 522566 631167 392825 752774 285198
  113390 143167 257325 683727 625004  18992 348548 332892 864241 209904
  518047 378179 131014 916352 462223 371019 145737 193174 271990  19948
- 287498 200152 264430  91115 752665 798903 135504 200507 264785 124207
+ 287498 200152 264430  91115 752665 798903 135504 264785 200507 124207
  124459 179331 806798  97118 837125  28130  17743 806812 463433 780911
  802174 334872  66603 322004 367420 751271 370018 135571  11257 823846
  247314 845034 516773 584401 282444 775975 943624 556905 628771 674836
@@ -9271,7 +9271,7 @@
       <c r="B247" t="inlineStr">
         <is>
           <t>[116311 323689 230215 434088 730679 694973 160967 434845  63740 465579
- 737379 732408 715458 434825  64391 331905 192467 271283 322932 229243
+ 737379 732408 715458 434825  64391 331905 271283 192467 322932 229243
  721066 116782 737155 325616 323455 182734 240640 181928 732751 488929
  225919 528844 262420 631884 397887 183437 324149 529020 737007 732519
  726454   6736 313902 498792 911914  55022 900139 928841 720421 811928
@@ -9312,10 +9312,10 @@
  122351 128729 162297 156538 384946 678295 520289 833614 173764 632736
  484698 192849 271665 369039 421717 546323 294274 401031 140413 790613
  342026  77743 973860 726344 511235 142671   9622 523024 531074 460427
- 574858 573836 514735 809256 838855 659853 191411 600859 239720 205322
- 269600 663838 122737 528604 552507 694005 436438 530007    689 170208
+ 574858 573836 514735 809256 838855 659853 191411 600859 239720 269600
+ 205322 663838 122737 528604 552507 694005 436438 530007    689 170208
  230836 520963 635588 132617  61400 505414 132121 305633 532014 291440
- 553742 197953 276769 529492 340081 411220  14778 339410 306475 783179]</t>
+ 553742 276769 197953 529492 340081 411220  14778 339410 306475 783179]</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -9351,7 +9351,7 @@
  222215 822565 584808 551029  41770 633566 735651 428374 787926 942031
  500453 545273    338 860730 943529 481516 162130 133372 876642 465449
  687767 682096 914554 483934 160775 806582 564582 541993 411786 413565
- 417445 700960 914750 419724  89174 627892 199631 278447 740096 540493]</t>
+ 417445 700960 914750 419724  89174 627892 278447 199631 740096 540493]</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -9380,12 +9380,12 @@
         <is>
           <t>[806419  88525 738796  59376 490414 925679  60242 496227  59744 930732
   19974  75935 806286 925160  17908 566492 744169  85146 744510 140554
-  90633 806741 464530 199564 278380 746396 144904 909636 105724 549800
+  90633 806741 464530 278380 199564 746396 144904 909636 105724 549800
  748660 157039  87410 198872 277688 420658 598301 924887  21650 158296
- 693295 201148 265426 515509 527328 309709 110231 727396  83963 753382
- 199175 277991 602668 111915 125231 846868 226384 236325 122681 288478
+ 693295 201148 265426 527328 515509 309709 110231 727396  83963 753382
+ 277991 199175 602668 111915 125231 846868 226384 236325 122681 288478
  179827 502356 766696 792173 494876 668844 822748 553050 661341 176018
- 622799 122005 198908 277724 528589 108348 899786  83167 529271  84425
+ 622799 122005 277724 198908 528589 108348 899786  83167 529271  84425
  392659 475556 850080 338194 868359 386589  66409 910124 595518 665034
  927155 719815 718461  65898 204205 268483  20215 480578 124961 750198]</t>
         </is>
@@ -9420,8 +9420,8 @@
  449200 560594 126391 252670 448824 448558 950406 679188  31535 151482
  636946 633823  68964 188335 293438 559040 398652 517055 905751 442336
  612535 434363 128784 130718 419535 678964 564456 714407 706592 792996
- 633456 715793 698488 529441 951318 984570 188334 176902 747438 197890
- 276706  30829 429517 189846  30647  31221 491288 841145 828016 307131
+ 633456 715793 698488 529441 951318 984570 188334 176902 747438 276706
+ 197890  30829 429517 189846  30647  31221 491288 841145 828016 307131
  950405 419839 913162 973583 366203 408603 615888 630915 727971 458879
  550324 756651 146825 806096 376679  30152 559275  32280 679265 615936]</t>
         </is>
@@ -9452,11 +9452,11 @@
         <is>
           <t>[750376 150126 749492 746828 149589 166034 603950 727942 972522 996673
   48525  48717 703323 485894  17581  73750 226964 815122 592810 714476
- 338382 172119  73942 573555 323362 614274  78426 959941 492017 493746
- 590200 714167 633102 748145 512433 765902 312297 192856 271672 307403
+ 338382 172119  73942 573555 323362 614274  78426 959941 493746 492017
+ 590200 714167 633102 748145 512433 765902 312297 271672 192856 307403
  753150 181183 241698 316376 533445 835339 224742 484692 730755 112478
   95799 224889 964683 614016 490939 174189 839962 744433 974697 465281
- 242923 660969 928511 458968 530198 385912 512853 203339 267617 949687
+ 242923 660969 928511 458968 530198 385912 512853 267617 203339 949687
  533864 993442  91064 796044 455706 314277 927249 325940 636757 408627
  841242 407833 807264 788065 750755 425237  48681 530286 413259 726306
   95488  29884 974145 806956 344951 496390 509620 928531 181874 175337]</t>
@@ -9488,10 +9488,10 @@
         <is>
           <t>[  2322 793416 700373 701125 226518 400771 378225 164061 403935 533785
  525381 164989 844474 204643 268921 792552  92504 723693 939548 698778
- 203382 267660 224669 934791 592849 725701 391656 681525 161379 377089
+ 203382 267660 934791 224669 592849 725701 391656 681525 161379 377089
   35867 172624 721191 564788 810283 611386 553535 440014 950441 431262
  371274   1655 816454 816903 524480 177644 361491 613541 817079 493387
- 162117 192541 271357 949360 404357 723007 553553 108139  14410 728184
+ 162117 271357 192541 949360 404357 723007 553553 108139  14410 728184
  468498 560245 356545 303488 431048 287255  18414 469884 935254 857668
  180441 604439 168948  64085 163945 696481 663385 548883 724107 549522
  263746 148385 467577  15836 549713 209007   1137 925673 148792 402092
@@ -9526,7 +9526,7 @@
  485275 868588 147235 375997 324674 480723 147037 498700 939352 934441
  352341 170102 468432 868547 890007 293699 342396 531637  61423 703075
   63999 628232   3205 246882 516341 393205 480852 247023 282900  82572
- 573361  84382 823744 325223  74710 196318 275134  98739 936772 324278
+ 573361  84382 823744 325223  74710 275134 196318  98739 936772 324278
  242498 280236 524166 325470 294359 690447 440904 440872 195008 273824
   82151 595448 214871 279899 705244 971144 498632 376044  62913 703195
  357439 308021 889959 936255 441966  79940 305808 703574 658999 823707
@@ -9567,7 +9567,7 @@
  847504 664527 532809 883765 957053 927609 921532 993309 390580 251984
  455819 758805 462933 621796 332806 263017 368262 943201 114480 707426
  320280 651723 589727 932621 600355 824745 717104 706755 783932  18147
- 949647 699794 651536 847863 202588 266866 317429 942795 601182 249177]</t>
+ 949647 699794 651536 847863 266866 202588 317429 942795 601182 249177]</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9672,9 +9672,9 @@
  951283  94205 261042  87595  81971 152002 694426 787106 936962 911904
  254325 115047 691701 126244 578412 752291 436271 838004  72564 316791
  984809 129402 953745 598954 369918 416214 258350 692431 936270 948868
- 781114 866481  17910 561226  48430 333866 472591  73615 974554 589853
+ 781114 866481  17910 561226  48430 333866 472591 974554  73615 589853
  496271 953767 746452  48811 548026 500808 681564 485801 247039 295705
- 694546 781841 999947 185472 870119 436153 838063 204011 268289  90842
+ 694546 781841 999947 185472 870119 436153 838063 268289 204011  90842
  922590 917248 299492 494436 124577 291626 173497 300466 732866 435577]</t>
         </is>
       </c>
@@ -9708,7 +9708,7 @@
  419519  96142 771597  10358 436097 489459 574703 286221 692588 622847
  225437 724794 969980   3178 299973 645228 172092 346750 931060 449257
  818836 238491 580121 706725 310958 888763 798629   2790 419456 117938
- 864317 699009 850595 597152 225034 740928 133618 387087  17976 261074
+ 864317 850595 699009 597152 225034 740928 133618 387087  17976 261074
  850236 461414 578418  88266  67641 938389 434989 436427 678661 213883
  698540 359834 614273 771099 212982  23151 171192 235919 769696 486579
  843040 789033 625966 581659 944914 370843 990629 612326  95837 577555]</t>
@@ -9776,7 +9776,7 @@
         <is>
           <t>[795030 337664 177287 389908 846635 748669 451523 389994 339348 177641
  799489 338001 803821 350895  98677 787889 964707 748044 795152 479722
- 795045 799307 404691 822020 544116 199522 278338 869801 535229 544113
+ 795045 799307 404691 822020 544116 278338 199522 869801 535229 544113
  719230 964730 637815 279486 965085 404622 469158  15506 153329 720846
  450802 723075 430832 799405 389910 964737 404628 413619 350492 719963
  283646 830085 389930 719539  65786 459153 513023 663927 178504 790792
@@ -9850,7 +9850,7 @@
  868094 577473 542487 991217 666230 465021 736357 783150 435153 414948
  525916  20713 361532 866449 730787 917684 512832 844426 941609 863332
  800953 282695 386598 990982 542381 677754 366995 988332 983879 575814
- 801023 489977 455489 434273 493960 576458 193966 272782 386985 843037
+ 801023 489977 455489 434273 493960 576458 272782 193966 386985 843037
  982452 808727 628718 488893 390273 771340 519336 941814 382229 921710
  677904 111113 690338 946258 594559 194932 273748 282905  62366 564487
  173278 919388 286572 561402 484505 683619 930566 525877 177104 532582
@@ -9962,7 +9962,7 @@
  160389 179823 810080 441046 875535 772051 143505 795283 859780 784187
  849287 596604 200808 265086 147617 995496 816613 776920 753233 908706
  374696 779313 542163 137931 915715 979103  23757 627082 573800 402708
- 360048 618404 405419 562145  25978 498907 992050 878543 200593 264871
+ 360048 618404 405419 562145  25978 498907 992050 878543 264871 200593
  621105 398608 902656 300582 412294  23868 970848 161461 122768 366565]</t>
         </is>
       </c>
@@ -10029,12 +10029,12 @@
           <t>[975035 975507 638229 942004 848893 424530  45930 819416 554247 484214
  403575 819832 988882 974978 205474 269752 845549 855195 485461 943321
  783140 927728 988403 853107 899965 209256 239408 962728 960506 796217
- 821527 215234 564826 638065 484537 696385 205463 269741 485296 783074
+ 821527 215234 564826 638065 484537 696385 269741 205463 485296 783074
  554284  15786 798456 804101 129268 656814 910303 848945 947558 102392
  729499 728687  13935 796844 989185 963640 919423 204878 269156 883764
  941090 893715 913631 712716 954208 856707 893338 804109 620492  12697
- 209408  89062  16039 209071  13819 954566 564455 102699 918841 197575
- 276391 403863 403028 209907 167789 594348 778918 942905 390955 851017
+ 209408  89062  16039 209071  13819 954566 564455 102699 918841 276391
+ 197575 403863 403028 209907 167789 594348 778918 942905 390955 851017
  858439 831508 166881 821536 660947 453589 249185 389703  60770 900439]</t>
         </is>
       </c>
@@ -10067,7 +10067,7 @@
  222427  81903 295856  82309 484107 698918 902649 415284 912960 564823
  783215 554129 284378 700272 971465 408766 535314 692874 162431 433868
  252024 102144 501619 760942 280017 936176 859792 353734 859851 464315
- 201153 265431 293850 865399  52430 343438 586831 200373 264651 735422
+ 265431 201153 293850 865399  52430 343438 586831 264651 200373 735422
  864707 491121 525183   7417 485283  61365 525161 463523 484152  96010
  488464 997857 501205 932221 539388 895777 507846 902403  94839 110012
  761204 872312  56483 222943 105043 323891 936263 919436 358017 101690
@@ -10099,7 +10099,7 @@
       <c r="B270" t="inlineStr">
         <is>
           <t>[842588 932069 587382 931723 169655 678602 745943 861419 628581 140608
- 932130 201515 265793  90398 178212 843430 842835 169747 933027 368700
+ 932130 265793 201515  90398 178212 843430 842835 169747 933027 368700
  628245 433259 755004 219731 549775 548686   8643 886631 714851 860269
  682028 584102 543067 435343 928420 348334 923410 708399 731182 125556
  122031 681729 123059 883107 522078 587345 751231 261036 473335 185231
@@ -10176,8 +10176,8 @@
   95527 173379 168490 880594 598927 565575 513090 967527 989171 104683
  987493 855467 900657 419244 496415 987743 658520 874066  14430 529913
  437726 297909 716177 947169 727456 713179 887690 693430 900077 195998
- 274814 561965 943736 658790 704790 198707 277523 521733 930011 728556
- 987381 194583 273399 594455 942387 317260  88605 748238 733482  20320
+ 274814 561965 943736 658790 704790 277523 198707 521733 930011 728556
+ 987381 273399 194583 594455 942387 317260  88605 748238 733482  20320
  173823 394678 629428 227757 574178  14846 529234 413581 916275  13585
  403952 432656 729440  93135 751134 320606 259124 691990  13526 935439]</t>
         </is>
@@ -10247,8 +10247,8 @@
  541918 404736 572967 787530 198348 277164 386398 569707  44645 100931
   86719 224322 572880 103530 318015 539000  94219 499554 472212 572908
  862259 102479 746932 790818 168176 404701 784871  62412 563944 199701
- 278517 974925 783787 198778 277594 797350 462081 706679 392543 958257
- 867646 199075 277891  44674  96639 481133  74065 302160 877203 167144
+ 278517 974925 783787 277594 198778 797350 462081 706679 392543 958257
+ 867646 277891 199075  44674  96639 481133  74065 302160 877203 167144
  784868 787511 572958 560850 811769 228821 640948 641155 100164 842168
  964187 868239 839776 910454  96948 864299  44353 822653 758671 573224
  557809 874353 993597 555012 415400 785138 957209 473068 252271 703815]</t>
@@ -10315,9 +10315,9 @@
       <c r="B276" t="inlineStr">
         <is>
           <t>[128826 948156 690187 155932 955206 862110 181432 595951 135715 579965
- 981871 424215 932530 681678 112565  82577 576595 859446 203431 267709
+ 981871 424215 932530 681678 112565  82577 576595 859446 267709 203431
  690057 693404 493327 474561 869965  61947 251864 439202 803076 481190
- 954852 684238 201152 265430 893334 731735 981230 822942 823775  82144
+ 954852 684238 201152 265430 893334 981230 731735 822942 823775  82144
  166845 333251 802845 202082 266360 520334 314358 887495 887430 132476
  871816 450512 485837 181337 205755 270033 728515 474509 514369  19311
  728930 628579 145468 170574 939673 594541 574013 999291 689335 795287
@@ -10386,10 +10386,10 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>[180780 389041 458580  79862 151367 439627 519770 205279 269557 740698
+          <t>[180780 389041 458580  79862 151367 439627 519770 269557 205279 740698
  452490 523752 326805 292622 346001 453532 421343 740617 292772 986594
  698936 298634 170755 732394 452967 944365 636815 721140 454157 466123
- 220761 435321 203173 267451 636859 493101 290643 453237 349589 452813
+ 220761 435321 267451 203173 636859 493101 290643 453237 349589 452813
  941647 729419 947905 955030 518715 427403 237645 517039  14864 124311
  905292 742039  12573 432489 958686 746628 453898 548489  79796 699063
  292496 343194 724261 509966 175256 454929 719634 524812 455387 765301
@@ -10462,12 +10462,12 @@
  128301 964661 484736 352364 415978 895898 309119 196627 275443 893254
  435568   9176 416022   8844 635105 281639 233456 647348  70468 174025
  221398 902475 839482 895649 197906 276722 697072 900176 254484 742048
- 531414 116296 140114 171583 184700  16029 505865 287560  73464  96065
- 556252 456127 119263 517163 455907 454347  58796  77636 482674  13967
+ 531414 116296 140114 171583 184700  16029 505865 287560  96065  73464
+ 556252 456127 119263 517163 455907 454347  77636  58796 482674  13967
  419891 203848 268126 438264 968444 286738 108561 597366 484843 408443
  501625 737711 987974 823732 551497 436759 383993 130821 308098 110431
  225062 188732 608101 728491 681126 697496 999314 477557   4286 532583
-  14138 732374 204946 269224 913307 363065 827079 408575 385749 463342]</t>
+  14138 732374 269224 204946 913307 363065 827079 408575 385749 463342]</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -10496,13 +10496,13 @@
         <is>
           <t>[670056 886398 913252 869884 886879 746920 732670 781360 879325 489011
  904664 679172  16397 379954 914683 814130 904170 225558 209596 909268
- 472202 868281 739915 679863 927610 379606 197856 276672 183845 488515
+ 472202 868281 739915 679863 927610 379606 276672 197856 183845 488515
  182761 880260 122925 104398 703231 908007  88062 985632 742123 930507
  840260 379671 996503 691001 381414 316809  12131  72119  61758 753999
  124331 450458  90134  60610 142791 743908 223791 705775 820085 921566
- 194160 272976 789455 843010 407001 309062 861490 864388 742948  11367
- 539697 155803 670150 514591 473399 935004 472272 534224 739735 204104
- 268382 871286 225958 962273 203959 268237 937216 868082  92794 174393
+ 272976 194160 789455 843010 407001 309062 861490 864388 742948  11367
+ 539697 155803 670150 514591 473399 935004 472272 534224 739735 268382
+ 204104 871286 225958 962273 268237 203959 937216 868082  92794 174393
  929223 879855 400165 704995 860796 509521 916366 840386 122234 503927]</t>
         </is>
       </c>
@@ -10539,7 +10539,7 @@
  249490 864738 183049 142222 633074 373918 170085 417137 401486 660667
  450200 357277 871734 117378  60042 801886 677837  34477 605777 330585
  838770 141452 712348 450347 178951 886490 180525   9813 484232 237568
- 330420 883507 691901 883726 129344 594880 753194 362471 198084 276900]</t>
+ 330420 883507 691901 883726 129344 594880 753194 362471 276900 198084]</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -10568,7 +10568,7 @@
         <is>
           <t>[801154 680307 125847  90331 694975 406838 778956 126099 146168 406767
  316837 752283 742114 968417 460057 120970 145365 800582 605907  22889
- 522347 783530  91947  23300 286610 807647 303679 735444 203853 268131
+ 522347 783530  91947  23300 286610 807647 303679 735444 268131 203853
  195583 274399 750737 968799 600262 578555 317210 336473 534238 531910
  528201 437155 256166 119461 943689 146998 449449 917316  93632 457507
  109265 314504 313478 263272 314959 626597 800938 522955 122636  14107
@@ -10602,11 +10602,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>[333651 490582 440516 335090 962617 286516 353006  21588 115182 181535
+          <t>[333651 490582 440516 335090 962617 286516 353006  21588 181535 115182
  181499 962228 328649 867895 203729 268007    862 237773 837046 304774
- 466540 307534 839200    381 754302 178404 335442 298076   3096 612153
+ 466540 307534 839200    381 754302 335442 178404 298076   3096 612153
  404037 571154 183168 651659 570832  12808 525999 182728 844047 578941
- 326740 783491 626229  73181 258827 203545 267823 355748 403775 285137
+ 326740 783491 626229  73181 258827 267823 203545 355748 403775 285137
  105826 466444 392017 392756  14486 400008 816019 797887 623422 399705
  498333 145843  71625 647557 317067 370522 933663 551289 182000 726783
  651121  72207 439581 904680 461948  75130 395095 112815 403513  27747
@@ -10646,7 +10646,7 @@
  297800 584865 240597 132012 857074 202759 267037 122840 746570 704720
  720492 811864 961071 664983 833556 739900 405845 240802 263012 843322
   58385 534144 397565 932504 542037 833428 508372 662309 847324 483397
- 112822 241489  93468 541935 192816 271632 227464 580073 416830 823900
+ 112822 241489  93468 541935 271632 192816 227464 580073 416830 823900
  452715 848536 584084 482390 940653 746355 878618 852169 860969 513981]</t>
         </is>
       </c>
@@ -10674,16 +10674,16 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>[401420 400966 206339 270617 980582 401199 563743 850404 121002 561351
- 864451 198559 277375 397817 401711 691206  14983 126268 466930 629431
+          <t>[401420 400966 270617 206339 980582 401199 563743 850404 121002 561351
+ 864451 277375 198559 397817 401711 691206  14983 126268 466930 629431
  203028 267306 488069 304483 381500 486387 545654 680970 871842 872497
  766517 517863  15006 231687 499770 470978 196080 274896 432173 479608
  698341 615536 984691 475402 927263 965931 397183 617570 197754 276570
- 380307 389098 850332 381368 401350 499777 204078 268356 168722 473271
+ 380307 389098 850332 381368 401350 499777 268356 204078 168722 473271
   62482 291243 456753 863944 777991 495610   9158 873386 974766 236145
  401842 657567 481157 221159 155166 499485 396829 753486 311834 613623
- 400991 263997 194524 273340 632612 204912 269190 214355 433148 606592
- 198993 277809 549049 652351 515414 944359 597440 290445 380323 676238]</t>
+ 400991 263997 273340 194524 632612 269190 204912 214355 433148 606592
+ 277809 198993 549049 652351 515414 944359 597440 290445 380323 676238]</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10750,9 +10750,9 @@
  618162 153567 671094  18378 358250  46065 495264  90614  52708 515522
  728758  18182 206014 270292 379200  19074 872794 137582 540297 864420
  889346  36295  52865 543358 899472 540284 285736  25235 540282  91288
- 126038  78334 206515 270793  89459  64725 414523 618310 362101 543197
+ 126038  78334 270793 206515  89459  64725 414523 618310 362101 543197
  349902 954213  63565 407441 823499 540286 234058 772756 285881 745334
- 684576  49660 823520 132524 540035 186875 978006 910265 539991 772808
+ 684576  49660 823520 132524 540035 978006 186875 910265 539991 772808
  865547 906224 899360 380450 660440 376073 493603 385129 530857 732713
  379184 803092 248562 880012 363227 202583 266861 334645 541838 285960
  684033 910192 571280 543211 302392 236430 933738  88709 741936  86848]</t>
@@ -10788,7 +10788,7 @@
   80641 956818 738159 681719 129309 187742 702577 598383 848264 963095
  727657 691283 631282 967016 336288 706138 171582 492654 338758 645905
  430818  99936 849744 222283 630078 929947 988580 850056 800867 187675
-  12447 513969 346309  26569 245419 390919 221885 196970 275786 155266
+  12447 513969 346309 245419  26569 390919 221885 196970 275786 155266
  987187 800403 760889 466074 632914 372949 977232 631276 407856 401365
  130761 598835 360492  31583  34282 692688 573085 332940  26932 734625
  745518 482768 347946 930494 494399 843926 570938 370965 331685 108936]</t>
@@ -10855,7 +10855,7 @@
       <c r="B291" t="inlineStr">
         <is>
           <t>[978603 395843 460376 978144 932460 963829 704348 461765 216503 692436
- 875157 932342 109307 978139 909916 204844 269122 963046 911646 916352
+ 875157 932342 109307 978139 909916 269122 204844 963046 911646 916352
  872065 325799 371910 347870  15828 710066 342817 498261 287878 932378
   13788 698607 366551 863490 532417 253904 217161 330450 420527 618590
   26933 951168 472324 158129 210166 289813 733628 497472 346576 691535
@@ -10898,8 +10898,8 @@
  801300 498010  58763 432587 879696 939688 942621 670207 615027 564285
  801028 670185 830948 917978  58064 860155  13578 685857 614977 668421
  940070 986992 853377  70797 834089  16784 988563 856612 990004  15860
- 397321 837051 636451 754901 958143 225978 221641 481810 561196 202068
- 266346 735353 988365 522238 913337 907294 102908 853495 932971 397572]</t>
+ 397321 837051 636451 958143 754901 225978 221641 481810 561196 266346
+ 202068 735353 988365 522238 913337 907294 102908 853495 932971 397572]</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10935,7 +10935,7 @@
  667914 863986 940809 642624 704405 843821 960030 867629 878542 104263
  301663 261247 406154 705259  99965 957538  76437  16155 689830 842005
  989740 885849 932476 905999 906455 842223 871248 224177 725080 883107
- 434161 125556 994374 474489 880669 636449 781524 976618 122503 872343]</t>
+ 434161 125556 994374 474489 880669 636449 781524 976618 872343 122503]</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -11036,12 +11036,12 @@
         <is>
           <t>[877820 878116 503232 226216 381458 684895 746834 735116 838923 574288
  913939 126730  17117 561022 561318 109315 632727 743909 257693 561052
- 543040 645200 940704  64931 963968 223543 203191 267469 895023 541753
+ 543040 645200 940704  64931 963968 223543 267469 203191 895023 541753
   61871  15330 389785 977809 575624 964577 972749 426370 128160 738315
   13390 944039 734522 687466 838360 617937 110994 259240 930471 504108
  677866 849950 212428 239276 885744 971697 169603 851333 103063 871208
  856677 517084 898061 448757 492633 762257 880842 845809 223580 709647
- 195628 274444  99475 977506 762139 199830 264108 842838 885775 950201
+ 274444 195628  99475 977506 762139 264108 199830 842838 885775 950201
  923268 112139 737923 493513 107479 950769 709680 135149 505319 635650
  801723  15400 542633 344325 811987 108284  14819 855864 302038 691734]</t>
         </is>
@@ -11109,7 +11109,7 @@
           <t>[514702 732195 742001 741612 529322 452534 533221 543092 452334 486592
  262880 514193  14271  15737 141856 620431 693551 551806 401209 397297
  400937 130457  16291 799824 823699 713684 736509 868129 532718 964750
- 452552 497239 177193 189302 547012 693097  23196 690783 533154 466897
+ 497239 452552 177193 189302 547012 693097  23196 690783 533154 466897
  599348 301926 689062 134502 468337  59541 397360 188615 481098 466625
   59796 195604 274420 687781 697838 525086 544306  81320 870384 475127
  653314  30602 932540 279458 262609 552019 187705 228098 560438 688232
@@ -11219,11 +11219,11 @@
  987321 748971 744463 400020 690313 840629 868659 805709 878265    270
  211229 879796 375906 880294  71524 628234 525255 886809  91425 867722
   36302 598083 869187 731423 627783 843471 940712 129119 861718 159177
-  10398 677879 987525 845064  17112 914322  60624 880348 668165 399365
+  10398 987525 677879 845064  17112 914322  60624 880348 668165 399365
  211447 123812  32543 391452 754746 860268 925790 564144 988386 884066
  152328 964853 688771 987551 847693 735714 912799 957566 158528 211241
  907459 843301 882704  99630 195673 274489 957537 773713 867769 151909
- 831340 707463 670368 940664 627807 391054 909523 194395 273211 746933]</t>
+ 831340 707463 670368 940664 627807 391054 909523 273211 194395 746933]</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -11259,7 +11259,7 @@
   69955 682365  13915 396243 682818 636493 732611   2783  16869 868063
  957941  15922 987575  16251 844790 860251 663271 178537 459656 845374
  803381 941453  80612  75796 243390 887501 860819 734619 811628 514793
- 252162 233505  69084 596007 798276 455787 109743 839990 888506 195408]</t>
+ 252162 233505  69084 596007 798276 455787 109743 839990 888506 274224]</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -11289,9 +11289,9 @@
           <t>[670527 997117 473943 670279 441564 473383 283377 680014 640100  58119
  813416 444448 640150 682082 444593 600543 444757 653662 929665 225166
  631242 239393 435181 708923 668589 282052 681011 223719 995697 682287
- 421968 742969 481849 939456 831065 197003 275819 736819 841251 929474
+ 421968 742969 481849 939456 831065 275819 197003 736819 841251 929474
  541891 633183 942871 872622 445573 921389 668832 668095 642133 226930
- 759704 832094 253202 670160 201852 266130 596260 884510 783444 441327
+ 759704 832094 253202 670160 266130 201852 596260 884510 783444 441327
  768230 666642 733794 884434 216621 224085 379756 283569 523695 224656
  759443 408252 949669 215842 536444 974402 123445 899085 783437 772593
  412748 669671 224246 980445 800988 251952 472563 485713 919013 705582
@@ -11322,7 +11322,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>[432345 210071 876751 919075 436790 888064 198272 277088  18358 894829
+          <t>[432345 210071 876751 919075 436790 888064 277088 198272  18358 894829
  224301 207363 843310 595867 432148 787413 207322 438304 913346 948592
  767820 788487 619243 796930 510693 439888 842221 377605 844584 976025
  952056 514334 574955 919066 330248 246404 249202 210277  13199 919914
@@ -11330,8 +11330,8 @@
  465130 262915 952470 930805 574774 494062 712413 978298 317346 843542
  210383 313541 807227 741406  32378 202196 266474 432709  65897 241527
  456220 992141 531882 227737  14743 989330 842315 617962 868560 865203
- 199882 264160 930393 313375 748972 671851 217982 832752 312543 542513
- 596574 916338 917472 868228  17134 837939 390545  11886 206272 270550]</t>
+ 930393 264160 199882 313375 748972 671851 217982 832752 312543 596574
+ 542513 916338 917472 868228  17134 837939 390545  11886 270550 206272]</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -11367,7 +11367,7 @@
   56788 922531 825043  53052 493208 575872 911095 923037 481388 122209
  481542 706587  75073   1980 457439 485981 143146 899353 553788 858707
  883875 588457 678566 121033 539397 228771 585020 868996  54732 121650
- 932924 180721  76501 245186  14821 200975 265253 480440 941907 509853]</t>
+ 932924 180721  76501 245186  14821 265253 200975 480440 941907 509853]</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -11394,14 +11394,14 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>[523552 483683 500546 201133 265411  71536 765951  73703 853327 396482
+          <t>[523552 483683 500546 265411 201133  71536 765951  73703 853327 396482
  972350 117742 741748 412378 205843 270121 629459 702244 516417 450934
   66046 844286  16041 741614 522897 724923 522974 412298 117832 721390
- 425653 625246 419620 116892 438518 916688 692652 240359  70754 106667
+ 625246 425653 419620 116892 438518 916688 692652 240359  70754 106667
  724688 481631 161649 372880 910928 125726  68590  90141 254461 361602
  617123 694849 380215 741549  93325 749633 720295 411893 297891 468307
   67653 173765 332607  91327 411857 823432  43923 396020 510062 316847
- 483872 100284 833911 210015 701323 504382 745522 350495 822715  68191
+ 483872 833911 100284 210015 701323 504382 745522 350495 822715  68191
  519694 627404 141379 524002 321948 371979 591245 220506 808217 173162
  498009 278834 822980  91909 173719 517664 419590 145352 385548  90180]</t>
         </is>
@@ -11437,7 +11437,7 @@
  963329 971719 481454 401223 761079 449715 971609 299790 452782 230857
   10451 616362  16115 692089 462773  22516 616884 582006 805134 885649
  839102 972484 251863 947140 210216 721232   1458 694846 805810 836973
-  14513 193727 272543 983806 678337 581059 878972 645190 374953 485970
+  14513 272543 193727 983806 678337 581059 878972 645190 374953 485970
  512207   1064 529758 682465 142830 839656 947827 762731 743661 585850
  957840 953967 929988 883249 888335 617967 630070 848014 915497 598716]</t>
         </is>
@@ -11502,7 +11502,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>[129935 124139 127090 205296 269574 535637  89957 127729 392116 459568
+          <t>[129935 124139 127090 269574 205296 535637  89957 127729 392116 459568
  744170 457670 234895 658600 574799 175227 378120  80440 453638 926375
  486625  80132 724816  15272 484562 746397 404046 478841 625740 738460
  381260 400075 950944 281015 698967 178804 948212 512906  88787 508308
@@ -11538,14 +11538,14 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>[907698 908416 731306  71749  61454 537874 537589 206743 271021 428649
+          <t>[907698 908416 731306  71749  61454 537874 537589 271021 206743 428649
  873330 329126 738275 734657 456108 120751 440557 527514 295129 662898
   64727 681271 341863 126999 512091 460001 865020 924241 924087 165656
   66527 340101  64314 448769 858237 253702 486138 124203 154591 592602
  167884 377177 924019  64752 551156 683567 767212 631972 237049 679979
  399203 156081 110117 303652 108375  68774 947108 338779 451290 597736
- 346371 596405 481934 448918 597719 132735  64109 798041 476510 200652
- 264930 537052 779858 959538 630678 923691  15895 440915 714379 827538
+ 346371 596405 481934 448918 597719 132735  64109 798041 476510 264930
+ 200652 537052 779858 959538 630678 923691  15895 440915 714379 827538
  454744 817401 139193  99014 456073 797742 551930 328331 738820 692225
  714508  59750 606155 626750 729082 806563 454245 990693 780932 160862]</t>
         </is>
@@ -11576,14 +11576,14 @@
         <is>
           <t>[843267 452266 506245  16124 683607 452338 977969 254201 510385 731641
  393249  87227 877803   5072 527043 588219  81678 983444 795569 966640
- 442347 184936  83049 683425  94399 535058  81685 212948  78968 322505
+ 442347 184936  83049 683425  94399 535058  81685 212948 322505  78968
  529265 983011 635987 381125 574112 860763 731010 603641 128394  85895
  224079 649785 610487 979299 501084 109066  65891 973876 933907 500000
  639350 122584 393005 731745 338724 732077  12167  87745 516979 828060
  897706 535392 442508 398020 284766  84366 984959  79404 467804 389730
  528169 859681 822151   6234 706695 507302 874331 696081 105082 123840
  109716 454341 254360 163522 466916 639137 459009 111694 666140  82409
- 452249 542796 637920 182414 719381 636276 192752 271568 129804 479957]</t>
+ 452249 542796 637920 182414 719381 636276 271568 192752 129804 479957]</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -11647,10 +11647,10 @@
       <c r="B313" t="inlineStr">
         <is>
           <t>[739560 456300 812169  73438 520173  74598 750203 865298 157068 628676
- 531087 831412 595826 695755 801440 174177 100575 197874 276690  62232
+ 531087 831412 595826 695755 801440 174177 100575 276690 197874  62232
  457261 735388 752367 887488 899129 516249 184052 596806 948574 699289
  181703 759933 187842 126881 170807 185065 964894 628644 802425 803229
- 204985 269263 752187 562759 598797 655189 396718  76037 629934 519647
+ 269263 204985 752187 562759 598797 655189 396718  76037 629934 519647
  155467 940991 595558 988733 739306 981965 629081 541966 947510 187723
  119666 916045 987528 915925 686781 668858  73982 727671 988596  63670
  966808 637964 518942 439869 688034 394643 819835  18259 396533 184463
@@ -11689,9 +11689,9 @@
  399467 372456 604726 786219 203178 267456 408329  44761 375230 110376
  398011 482995 401297 309594 604179 575296 303260 229316 968859  77353
  967769  97070 382312 503315 779699 807083  77717 632500  92844  68718
- 196523 275339  95397 972315 376368 798897 633959 192564 271380 684370
+ 275339 196523  95397 972315 376368 798897 633959 271380 192564 684370
  503628 465860 964191  68906 466395 379899  66531 593063 937562 871637
-  15561   8874 527290 529785 317413 202236 266514 478858  73176 200597]</t>
+  15561   8874 527290 529785 317413 202236 266514 478858  73176 264875]</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -11722,7 +11722,7 @@
  483187 963795 795317 226615 832326 574160 394111 868220 244804 178812
  117679 933668 594466 595060 537429 908244 394269 296196 932770 416363
  438886 679120 400057  16102 131817 852179 224630 770561 930490 771043
- 559995 193111 271927 745974 729583 165467 919381 842594 511532 823860
+ 559995 271927 193111 745974 729583 165467 919381 842594 511532 823860
   10479 432910  37523 804385 935610 317638 232065 691156 708000 705841
  669062 919615 537799 395301 697597 368346 120562 936115 982853 132277
  618450 112891 148613 963776 175763 290893 973809 573257  15386 224529
@@ -11763,7 +11763,7 @@
  983478 347686 729004 146342 209906 153811 291627 921570 164339 742630
  990702 774150 776900 622827 468570 604212 416855 736856  81479 319452
  162832 980496 686577 737178  28802 736967 674401 766010 481453 489682
- 304118 755916 667542 197801 276617 502894  64496 904093 836627 767512]</t>
+ 304118 755916 667542 276617 197801 502894  64496 904093 836627 767512]</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -11794,7 +11794,7 @@
  230970 373082 525933 232202 552840 416395 525635 933350 671332  64401
  669078 371864 390458 723855 206552 270830 293660  12915  14350  17241
  390270 629828 943126  96548 595675 225897  15008  13096 528335 630783
- 228937 876294 240681 647129 371375 204957 269235 786259 365198 812536
+ 228937 876294 240681 647129 371375 269235 204957 786259 365198 812536
  877203 573953 932215  76011 786664 243394 316904 140907 416220 832622
  168913 449606 689263 707433 540222 249965 131391  68304 948119 488866
  753372 225873   7990  13473 403951 491096 767196 647089 468732 619274
@@ -11907,7 +11907,7 @@
  514986 837097 101000 959771 976551 100481 975857 488714 902471  14223
  390396 399971 864143 868051 895022 756226 596736 215753 222208 709504
  229650 862823 780042 100379 884881 160437 208639  16129 780893   3933
- 191220 863374 199360 278176 762677 802958 678321 597452 480973 161476]</t>
+ 191220 863374 278176 199360 762677 802958 678321 597452 480973 161476]</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -11937,13 +11937,13 @@
           <t>[683492 841562 846381 955807 846472  68616 226459 595476 689489 852770
  172461 543380 154107 153594 695503 947907 225636  58947 669972 852004
  111636  95834 686091 543498 689711  68725 629629 956451 848001 201866
- 266144 430496 169650 727697 201426 265704  21847 669836 847794 830935
- 847336 950295 872684 941195 636589 806973 934804 609389 194397 273213
+ 266144 430496 169650 727697 265704 201426  21847 669836 847794 830935
+ 847336 950295 872684 941195 636589 806973 934804 609389 273213 194397
  941350 752116 944417 844176  20390 904711 791419 860619 506962 430175
- 433258 168696 698237 931623 518133 680131 597654  96217 200244 264522
+ 433258 168696 698237 931623 518133 680131 597654  96217 264522 200244
  611388 861070 843932 669806  72951 988658 805133 843477 691200 169654
  948846 154445 130455 191545 955881 918781  21852 756419 173786 511690
- 205421 269699 749174 506559 955588 347040 201396 265674 999925 948735]</t>
+ 269699 205421 749174 506559 955588 347040 201396 265674 999925 948735]</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -12008,9 +12008,9 @@
         <is>
           <t>[111843 504233 398792 128533 399191 753082 589796 402941 698983 171696
  318694  97451 872233 225363 845288 871150  76667 872684 468105 660802
-   3229 712226   2766  97603 698930 168696 168718 947346 202440 266718
- 138609 119697 399522 313620 631146 845016 399361 689651 629473 194942
- 273758 784314 750452 466244  12966  14238 791419  19190 634735 436567
+   3229 712226   2766  97603 698930 168696 168718 947346 266718 202440
+ 138609 119697 399522 313620 631146 845016 399361 689651 629473 273758
+ 194942 784314 750452 466244  12966  14238 791419  19190 634735 436567
  969503 329438 372255 806579 806504 980014 173032 493434 489355 845169
    2088 515974 948683 883139 403160 988906 503555 889012 742950 503360
  112730 849595  86699 729538 403106  85472 395192 144820 660902 262318
@@ -12047,7 +12047,7 @@
  917530 934730 609441 871655 397344 868677 844496  75042 967131 561316
  787833 932920 171652 208258 461480  72450 594402 209005 314220  62655
  634654 235756 354983 713281 632096 208312 919037 637400 499422 139142
- 657195 594565 401270 630304 637656 204938 269216 690226 868427 342491
+ 657195 594565 401270 630304 637656 269216 204938 690226 868427 342491
  390966 634511 809638 844174  60314 476402 695511 819619 597440 696621
   68860 708495 147396 807111 226149 957557 698365 400951 489396 448566
  634501 787666 316022 202082 266360 781391 679630 208338 868405 498714
@@ -12114,13 +12114,13 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>[ 15904 416422 720952 564102 720081 548828 541882 193986 272802 678002
+          <t>[ 15904 416422 720952 564102 720081 548828 541882 272802 193986 678002
  561095 485612 804390 416348 485485 700384 560997 257048 630679 169727
  484962 536099 400952 670389 284669 397256 193076 271892 668285  16589
  329636 634535 543528 917189 671725 809242 800970 117248 806733 116163
  486367 720449 595883 536035 875316 842041 288152 596861 540302  14256
    2571 223887  61610 597223 258592 739305 780923 258123 504190 157787
- 206537 270815 542460 711318 244876  12321 564322 917466 224955 881928
+ 270815 206537 542460 711318 244876  12321 564322 917466 224955 881928
  589258 390685 720557 662410 400885 255881 922854 316431 536254 243646
  732134 511824 671163  74261 507046 887167 397345 888484 903847 946260
  506405 883462 516849 196045 274861 632085 629238 187078 893572 332503]</t>
@@ -12151,7 +12151,7 @@
       <c r="B327" t="inlineStr">
         <is>
           <t>[ 13660 122277 313933  94066 488889 311910  19562 514196 550312 551683
- 205418 269696 635558   6815 596415 748090    515 670937 420088 869027
+ 269696 205418 635558   6815 596415 748090    515 670937 420088 869027
  805557 122559 513673 398645 671641 603416 670679 341450 242145 514176
   13806 805767 305841 712491 223705 224098 549172 998213 226635 158348
  550207 836866 803879 603455 684417 573413 427817 515241 152716 431272
@@ -12194,7 +12194,7 @@
  696176 895933 684954 616087 785335 525983 860326 740152 151309  75276
  115585 371479 694355 851616 731063 785419 565007 439140 615756 235916
  952209 134444 863946 228832 713805 359905 820988 516931 133020 695368
-  21108 294472 367360  73114 806874   7052 297218 203782 268060 700905
+  21108 294472 367360  73114 806874   7052 297218 268060 203782 700905
  960312 565485 779103 692576 635915 758058  81978 535466 700676 600555]</t>
         </is>
       </c>
@@ -12265,7 +12265,7 @@
  452228 534478 427111 160463   7805 365629 415446 452286 554342 321773
  505480 516527 308685 415431 292078 507107 634505 525029  71728 487646
  312840 487555 179025  16528  94357  94345 520128 804071 161097  36486
- 427557 653615 279273 305138 194489 273305 716560 804021 697059  23661
+ 427557 653615 279273 305138 273305 194489 716560 804021 697059  23661
  256137 208632 363377 280321 350751 426565   8189 179083 258073 305097
  526279 321640 599132 430598 261876 957031 255800 495266  94333 594042]</t>
         </is>
@@ -12298,9 +12298,9 @@
  486495 399415  76447 935662 193091 271907 687541 192855 271671 804960
  365065 393243 804447 403314 844056 599684 504527 113863 920616 951825
  523779 792668 905949 471599 173294 940725 322267 804844 141088 134464
- 604603 584645 762067 309350 688529 329969 192772 271588 951613 663068
+ 604603 584645 762067 309350 688529 329969 271588 192772 951613 663068
  599697 518248 311827 812739 345843 584510  89833 498935 201641 265919
- 613888 907093 508680 688451 815875 938114 938735 306462 123238 292697
+ 907093 613888 508680 688451 815875 938114 938735 306462 123238 292697
  484082 620287 284189 819905 327790  86679  78761 196668 275484 485919
  741543 229583 941991 904342 517708 810896 485470 672758 954316 915242
  318014 235133 871922 816264 178285 948323 458383 237349  71138 714310]</t>
@@ -12333,13 +12333,13 @@
           <t>[ 16949  18182 313757 823936 901349 344057  18378 755401  37450  44889
  343001 897081 392176 774012 250823 823957 937900 256833  42303 479986
  965327 813774 773459  99092 493852 220865 607632 628201  19074 574871
- 396423 397367 608859 805111 788021 575395 543306 770812 546152 937000
+ 397367 396423 608859 805111 788021 575395 543306 770812 546152 937000
  807483 318725 132944 131928 965485 593979 543276 579577 788321 773733
  469440 974425 373762  42465 900251 817450 770728 523013  46296 578306
  829982 995354 373816 710302 828032 253814 773073 858347   9344 787608
  556106 805198 329720 896880 575355 834343 769353 133776 329980 134394
- 200871 265149 710531 756177 897464 810729 259156 247369 757635  54410
- 964983 543091 142731 570792 934384 772352 974435 603195 543322 233335]</t>
+ 265149 200871 710531 756177 897464 810729 259156 247369 757635  54410
+ 964983 543091 142731 934384 570792 772352 974435 603195 543322 233335]</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -12371,8 +12371,8 @@
   84706  30181 808829 365563 940574 527725 993977  91795 363863 513712
  546966 392737  84286 723270 952393 224095 221013 698609 283777 224159
  645264 517740 366057 282612 723673  97440  59200 517201 658218 110380
- 192732 271548 722975 107577  96134 645334 876866  94563 989464  18567
- 195476 274292 220155 214283  84308 306101 260595 662442 141498 521738
+ 271548 192732 722975 107577  96134 645334 876866  94563 989464  18567
+ 195476 274292 220155 214283  84308 306101 662442 260595 141498 521738
  628658 470132 993735 658192 430358  93533  90583 754892 283519 971331
  593974 122159  98772 876831 534726 175290 568463  89584 776801 748079
   77759 293019 402386 305732 192828 271644 767385 732233  23715 524773]</t>
@@ -12403,12 +12403,12 @@
       <c r="B334" t="inlineStr">
         <is>
           <t>[844212 210166 539737 789472 209842 209946 869713  88776 725447 497472
- 391453 404132 796040 628248 223928 209735 223811 628584 481864 195202
- 274018  52052 861900 705503 831956 862476 224810 564191 872639 224881
+ 391453 404132 796040 628248 223928 209735 223811 628584 481864 274018
+ 195202  52052 861900 705503 831956 862476 224810 564191 872639 224881
   17831 203665 267943 502875 564754 226582 104399  72751 224712 203212
  267490 543596  72120  99980 223617 110670 989277 869142 862033 539754
  224484  13246 628068 225113 885506 564135 224268 865866 628436 362226
- 197374 276190 869754 223633 223522  48042 725585 865734 730584 224215
+ 276190 197374 869754 223633 223522  48042 725585 865734 730584 224215
  871271 868610 482450 411553 473332 566135 842517 514588 469965 725070
  621130   3138 868699 181016 372774  99804 223484 198818 277634 861624
  920344 225062 929695 219366 196584 275400 904272 932773 904071 210566]</t>
@@ -12441,11 +12441,11 @@
           <t>[931631 931702 389882 174778 489130 922388 486208  17475 178886  16611
  174603 389856 700001 370046 432050 487151  18078  16744 770538 240459
  372279 307162 180635 257074 708851 526778 219259 931687 393390 237971
- 701072 490523 598744 714332 238662 174806 531309 370022 389920 200523
- 264801 324172  43879  43895 599740 547044 132275 200664 264942 104586
+ 701072 490523 598744 714332 238662 174806 531309 370022 389920 264801
+ 200523 324172  43879  43895 599740 547044 132275 264942 200664 104586
  300703 439809 548387 174900 173636 698430 923621  60486 483674 228485
   81560 923801  81162 547037 689815 954637 170541 924257 487696 921503
-  80933 389901 820992 208791 174976 464920  62334 711805 193005 271821
+  80933 389901 820992 208791 174976 464920  62334 711805 271821 193005
  174617 208444 727909 792871 299868 782202 227157 684820 230335 974593
  321636 306087 351601  95050 417031 975196 438947 216830 678365 627840]</t>
         </is>
@@ -12483,7 +12483,7 @@
  767564 636548 497621 543163 176372 678757 634133 244424 783520 504903
  709587 971948 840734 533770 990094 389883 510343 821937 527149 784707
  419583 452661 137982 835391 486423 658521 749600 533242 438788 986929
-  30525 602475 199522 278338 510310 381930 208663 193454 272270 338434]</t>
+  30525 602475 278338 199522 510310 381930 208663 272270 193454 338434]</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -12518,7 +12518,7 @@
  620110 170265  71142 180676 466964 140484 690220 133549 695198  73177
  825597 907749 323130 151144 141954 730974 488494 929396  80648 683917
  685228 219141 755607 404712  31239 193385 272201 430924  24684   8629
- 685935 659617 332321 177044 193630 272446 174929 177470 859397 399566
+ 685935 659617 332321 177044 272446 193630 174929 177470 859397 399566
  809284 415060 668837 425831 725555 769693 983054 692667 228537  24851]</t>
         </is>
       </c>
@@ -12554,8 +12554,8 @@
  783081 542372 907046 941069 973120 704175  14912 517513 466435 868862
  883251 512122 560907 224411 725448 203310 267588 560865 868656 948349
  870960 511837 564162 882542 130137 867705 564022 704972 548158 953757
- 876858 110270  71096 862083 203579 267857 191298 867503 207109 929400
- 110341 732205 202009 266287 605599 100569 666197 996476 210899 100854]</t>
+ 876858 110270  71096 862083 267857 203579 191298 867503 207109 929400
+ 110341 732205 266287 202009 605599 100569 666197 996476 210899 100854]</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -12582,14 +12582,14 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>[ 91707 205497 269775 890377 883181  16979 955483 941816 947807 560914
+          <t>[ 91707 269775 205497 890377 883181  16979 955483 941816 947807 560914
  669023 880326 948217 956054 901633 947553 830722 503108 617892 836813
- 408628 890850 194848 273664  19575 223919 542872 561445  17562 204866
- 269144 722025 957018 617951 948452 668110  60365 597492  18678 842410
-  17970 948397 561301 844213  18375 214526 206013 270291 195155 273971
+ 408628 890850 273664 194848  19575 223919 542872 561445  17562 269144
+ 204866 722025 957018 617951 948452 668110  60365 597492  18678 842410
+  17970 948397 561301 844213  18375 214526 270291 206013 195155 273971
  998203 955549 941611 844063 691541 733939 879959 348334 857951 917538
  281360 548482 205267 269545 193697 272513 880842 941462 963573 885660
- 194129 272945 885669 933009 871510 965036 704076 156100 125849 956799
+ 272945 194129 885669 933009 871510 965036 704076 156100 125849 956799
  916319 220605 948140 942903 695152  60891 888566 127713 127966 126773
  109194  25060 830802 890374 842040 887501 791551 831605 916780 259414]</t>
         </is>
@@ -12623,7 +12623,7 @@
  141445 518371 503126 525613 521746 451483 427210 245411 690694 258273
   59797 208463 424938 283553  59542 618544 510751 719777 517547  19064
  794924  26467 636333 121993 214585 636631 797332 201130 265408 809542
- 484774 194831 273647 923252 560314 237190 771521  59433 202582 266860
+ 484774 273647 194831 923252 560314 237190 771521  59433 266860 202582
  262879 806165 350652 124128 513720 363794 176157 795038  73086  36708
  808324 168563  79600 861140 751606 797416 300426 392739 825596 525544
  157350 174757 427816 781335 771387 516068 168589  30939 261841  96776
@@ -12691,9 +12691,9 @@
       <c r="B342" t="inlineStr">
         <is>
           <t>[223580 743909 542633 109315 738315  15330  64931 564329  13390 912547
- 916308  17117 302038 196240 275056 950769 144207  14819 561022 235755
+ 916308  17117 302038 275056 196240 950769 144207  14819 561022 235755
  239729 561117  99440 632727  61871 197301 276117 849950 503870 737923
- 916745 988644 204866 269144 198554 277370 373672 564192 885010  17898
+ 916745 988644 269144 204866 277370 198554 373672 564192 885010  17898
  681775 544079 396304 930598 862112 212428 225680  14139 698195 840874
  224663  14959 781797 249356 913939  18678 856677  92450 112139 226216
  543667 564530 392001 223217 923268 517084 527130 842087 906338 681748
@@ -12727,7 +12727,7 @@
       <c r="B343" t="inlineStr">
         <is>
           <t>[ 88629 180821 695057 862675 180808 862391  88909 870831 180895 730202
- 425174 515892 730196 696196 181117 205054 269332 208802 594471 242438
+ 425174 515892 730196 696196 181117 269332 205054 208802 594471 242438
  302733 887780 604386 170057 730428 448786 836434 215217 577392 694520
  880005  70405 827361 803789  59135 958216 825691   1271 836823 801612
  994394 543225 918986 134995 522906 919141  60940 932692 182491 782224
@@ -12765,7 +12765,7 @@
           <t>[850738 953695 822790 431581 481347 886081 502804 130872 223520 571979
  542319 868016 532929 831359  95834 539273 141147 842040   9901 392744
  845166 223482 870335 342930 681819 618339  17356  93363 879806 130921
- 391117 729467 855642 809977 514167 416940 194706 273522 869753  99383
+ 391117 729467 855642 809977 514167 416940 273522 194706 869753  99383
  223830 378578 519195 347180 100028 836303 830825 223606 340496 431503
  844063 293530  96217 704082 878232 539366 879932 904204  95874 618906
  855176 518118 436630 563014 856231 392419 505695 432869 423666 970213
@@ -12800,13 +12800,13 @@
         <is>
           <t>[ 17479  16574  16594  16801  16903 751270 883474 331024 747063 595468
  678633 377753 461870 747216 583759 920748 598473 226397 725012 893724
- 677973  94180 744533 486911 933496 215624 883821 677913 201344 265622
+ 677973  94180 744533 486911 933496 215624 883821 677913 265622 201344
   11344 482455 744718 202593 266871 893739 796171 619122 528978 923671
  140998 797248 210552 379691 678113 727053 215607 872345 646414 944294
  946259 751973 247313 191772 210067  20478 179630 215549 160936 882929
  557113 295545 355735 582603 957024 395842 398678 219628 784710 160533
  481741  68622 379507 529709 798994 246942 939054 919472 248754 951029
- 209918 686650 934681 200811 265089 539526 712780 225218 723064  70707
+ 209918 686650 934681 265089 200811 539526 712780 225218 723064  70707
   20611 141137 529301 400760 541324 956812 682642 508408 140905 529213]</t>
         </is>
       </c>
@@ -12946,7 +12946,7 @@
  279113 518396 298751 726114 694254 311123 806665 309583  16702 593093
  279000 633610 138330 690763 330625 806278  22308 746918 518438 690353
  523565 280668 602580  52918 694218 208806 441935 532192 155173 694188
- 699111 955030 282593 292378 431299 605584 115367  63753 502510 905292
+ 699111 955030 282593 431299 292378 605584 115367  63753 502510 905292
  337604 307334 339118 431949 238074 822251 369185 227818 736910  52719
   95752 868956 720549 803390 121040 698754 433294  45556 350611 466862
   79485 488270 350980 173796 530067 327929 364786 495131 820987 795474
@@ -12984,7 +12984,7 @@
  742212 159261 525198 235761 762336 698361 687507  87916 234799  89698
  602806 716543 122958 736233   3050 891005 754216 684491 638075 698697
  453244 481176 521715 427896 830100 742228 470001 220564 698374 720836
-  86013 157033 193880 272696 261454 924299 698450 808825 982353 853948
+  86013 157033 272696 193880 261454 924299 698450 808825 982353 853948
  385161  36796 762046 693953 698660 397444 292643 926806 692846 453198
  823574  95081 511414 234883  23543   2993 460198 429779 548989 535230
  806142 578709 438276 293364 971553 694688 703133 850475 104505 164578]</t>
@@ -13014,7 +13014,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>[ 16540 659008  97076  16557 188729 569251 351193 431305 192979 271795
+          <t>[ 16540 659008  97076  16557 188729 569251 351193 431305 271795 192979
   80891 188705 321636 469473 152108 524956 554607 416262 321586 514999
  998860 286215 554697 529968  23682 502164  16521 499756 522441 151597
   77733  23762 569164   6455 140923 566193 429784 180038 303549 748068
@@ -13056,9 +13056,9 @@
  886266 691283 526553 867985 147151 550426 310402 201376 265654 124331
  252317  89432 819468 123761 873959 343270 868361 707081 712468 223618
  678353 868256 104809 856799 911618 855465 929669 544934 523162 185507
- 798994 916500 197741 276557 524245  72989 987187 390712 516498 844211
- 199916 264194 403959 223501 203213 267491 661413 913252 807107 193331
- 272147   9692 842090 789473  73205 551368 487042 895519 183845 876779
+ 798994 916500 276557 197741 524245  72989 987187 390712 516498 844211
+ 264194 199916 403959 223501 267491 203213 661413 913252 807107 272147
+ 193331   9692 842090 789473  73205 551368 487042 895519 183845 876779
  144872 212050 947934 843010 842120 573085 896855 943304 833041  64282]</t>
         </is>
       </c>
@@ -13089,8 +13089,8 @@
           <t>[ 22186 842268 931774 528935 803804  70343 207588 842320 940607 548765
  528761 906487 933819 503384 880843 748417 207613 564080 496857 462845
  598853 318780 899898 562248 842137 563998 376265 223734 823270 502783
- 206011 270289 224203 561468 376505 496770 529214 315265 914877 594451
- 683034 204864 269142  19358 911890 376391 405090 851758 946969  18170
+ 270289 206011 224203 561468 376505 496770 529214 315265 914877 594451
+ 683034 269142 204864  19358 911890 376391 405090 851758 946969  18170
   42311 658444 506967 867673 842132 480918 955285 560975 658485 596305
  224169 631976 906858  99153 940618 780675 561977 867706 725967 939966
  522148 940784 959935 842284 544361 867684 917937 876511 442094  19323
@@ -13122,16 +13122,16 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>[551368 789473 840260 203213 267491 842597 842090 871064 467195 849833
+          <t>[551368 789473 840260 267491 203213 842597 842090 871064 467195 849833
  566002 147151 690446 251005 941723 482034 512215 870568 524245 394287
  211092 144872 893635 522698 249512 876860 261182 203965 268243 525572
  390947 789455 851948 225424 566136 691001 725448 886398 941259 691898
  140662 413847 702763 219365 563808 783752 842874 660831 413819 877019
  449278 511922  16434  15840  48041 931637 941336 956618 401146 541335
- 349389 205247 269525 431231  20466 197856 276672 847597 725072 226443
+ 349389 269525 205247 431231  20466 197856 276672 847597 725072 226443
  304440 466757 348413 840925 862809  61758 934467 538731 630695 210541
  210167 219494 704704 538721 885507 840687 931708 562642 630335 862553
- 544978 373686 220040 904170 931373 411572 105547 869690 544906 929223]</t>
+ 544978 373686 220040 904170 931373 411572 105547 869690 929223 544906]</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -13165,7 +13165,7 @@
  843348 408958 130958 667887    218 538762 919303 251005 374428 391424
   51338 914876 885516 312207 191569 922942 411572 232514 678513 861231
  715906 842056 670436 843822 223501 975236 543760 944025 929328 490386
- 932456 193968 272784 718990 390535 922662  19362 127044 565712 988297
+ 932456 272784 193968 718990 390535 922662  19362 127044 565712 988297
  997054 562582 739121 932519 977075 433308 456354 495499 411708 997025
  542817 840995 997220 858838  43177  11367 249512 349250 668539 752004]</t>
         </is>
@@ -13194,14 +13194,14 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>[202621 266899 942907 314226 629873 201035 265313 943203 251418  71320
- 514224 238039 843911 201044 265322  84247 965761 974098 658358 732452
- 205554 269832 258749 942762 239127 483418   8940 281833 709708 618576
+          <t>[266899 202621 942907 314226 629873 201035 265313 943203 251418  71320
+ 514224 238039 843911 265322 201044  84247 965761 974098 658358 732452
+ 269832 205554 258749 942762 239127 483418   8940 281833 709708 618576
  596102 855574 918910 947262 141947 485352 657008 987163  89551 514459
  396691 483556 949598 697661 868501 857335 522369 223779 843866 803409
  199104 277920 490385 658552 522864 122150 200004 264282 813933 940805
   85460 703919 541632 176302  93267 955345 224198 860155 630286  18438
- 194569 273385  23333 842831 435838 975185 844807 867986 519429 948619
+ 273385 194569  23333 842831 435838 975185 844807 867986 519429 948619
  223956 483589 191432 596076  90970  59334 150925 482070 856019 798718
  564261 523133 844874 919074 254428 929400 920286 518181 514584 670185]</t>
         </is>
@@ -13232,10 +13232,10 @@
         <is>
           <t>[ 93285 546442 522561 372224 809508 336706 973019  87252  93905 336630
  236398 371270 803242  86526 321950  88925 140364  83721 246811 199557
- 278373  68054 198572 277388 200436 264714 321553  64102 554301 511635
+ 278373  68054 198572 277388 264714 200436 321553  64102 554301 511635
  616226  83901 810002 547634  25033 522870  30203 525357 812333 966989
- 280149 184024 965994 200563 264841 631077 515548  82209 681129 248076
- 201236 265514  94312 170144 724016 254263  83226 943749  86513 371208
+ 280149 184024 965994 264841 200563 631077 515548  82209 681129 248076
+ 265514 201236  94312 170144 724016 254263  83226 943749  86513 371208
  924920 941406 603081 195872 274688 623933 217995 559438 508631 339903
  723608 153063  92298 690953 506138 676189  84367 989951 146479  84137
  430857 170032 407778 527681 832803 602838 720245 719846 800169 105808
@@ -13268,7 +13268,7 @@
         <is>
           <t>[ 16995  16576 929179 376762 377321 469810 576496 469827 419329 838997
  784289 929907 393175 168552 517326 504571 769096 470030 259489 923727
- 724157 523499 682844 310106 486914 195522 274338 614216 990468 469849
+ 724157 523499 682844 310106 486914 274338 195522 614216 990468 469849
  977971 703791 236317 988871 821495 902297 326430 886904 143837  21548
  813572 294854 158433 914480 662865 773084 177184 850911  16728 419321
  455528 611262 466020 485667 685193 801536 929480 418787 355074 956078
@@ -13311,7 +13311,7 @@
  440808  60050 886221 792329 193967 272783 844636 223505 133047 533285
  730971 777477 131949 367740 393719 957391 620895 930439 377051 584935
  830330 837480 932299 842805 870945 678507 769508  64911 935494 769819
- 131045 837296 542414 153163 894971 203964 268242 994056 989779  69774]</t>
+ 131045 837296 542414 153163 894971 268242 203964 994056 989779  69774]</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -13418,7 +13418,7 @@
  879361 892586 774095 950556 436821 122217 395721 584626 964144 395143
  526087 185424 356725 143715 560725 836720 515122 944344 746821 551220
  212155 709672 124714 464214 956306 616377  17247 778106 949464 737372
- 202596 266874 865595 803940 616525 802856  96013 950491 629627 584296
+ 266874 202596 865595 803940 616525 802856  96013 950491 629627 584296
  918407 295100 322601 713045 560248 341059 427240 944681 532529 901845]</t>
         </is>
       </c>
@@ -13521,13 +13521,13 @@
           <t>[876815 554423 553443 851428 484938 810586 851841 934087 932536 966109
  608021 609985 408945 833157 895216 550817 878395 224039 809784 948437
  553788 827584 406157 851406 868678 454739 238644 808575 878248 777524
- 541923 989026 853803 899489 373710 808616 809737 239166 517503 651131
+ 541923 989026 853803 899489 373710 808616 809737 239166 651131 517503
  373708 405845 997735 584481 878898 375370 405874 594566 756328 974184
  481381 283937 314930 941192 998946 608145 880272 840045 258711 375673
  224328 829131 375414  96656 932869 756930 855499 540574 658031 594398
  974434 940984 993813 755648 827435 973601 880017 485467 632442 828893
  829981 542037 482157 124955 896362 402194 878618 973782 858108 625295
- 375109 941377 564053 869935 827898 209069 483730 765879 426413 992940]</t>
+ 375109 941377 869935 564053 827898 209069 483730 765879 426413 992940]</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -13629,11 +13629,11 @@
           <t>[883795 952132 999785 224080 499108 412988 490422 944781 188279 223784
  495867 830532 980180 345254 924342 694327 974943 705691 985375 974871
  883856 101352 302364 481881 291984  75405 584883 124496 226227 919361
- 286930 219962 993283 944895 171988 333165 231842 923088 196914 275730
- 658228 554447 346484 731862 527481 199711 278527 861014 458514  17401
+ 286930 219962 993283 944895 171988 333165 231842 923088 275730 196914
+ 658228 554447 346484 731862 527481 278527 199711 861014 458514  17401
  995071 344895 598302  95360 100154 908068 639136  86425 252345 325481
  113648 892582 947815 513478 458850 413093 922349 522456 586104 591708
- 397406 165038 370972 524361 913151 216214  26561 358151 200401 264679
+ 397406 165038 370972 524361 913151 216214  26561 358151 264679 200401
  222574 115406 182310 454851 368831 287677 127006 533231 958103 507745
  543462 604590 124304 512181 101313 914599 862565 508333 224352 344488]</t>
         </is>
@@ -13665,12 +13665,12 @@
           <t>[753678 836559 918678 532411 466537 951209 576325 407351 575731 129950
  754301 451114  35791 736902 491261 513494 689926 407734 918652 764064
  961741 473066 739583 401828 471837 939885 753680 957238 414336 930216
- 630476 357874 814048 296188 402792 409007 473040 773651 902099 194659
- 273475 407299 126464 746539 973464 628486 451905 197342 276158 986132
+ 630476 357874 814048 296188 402792 409007 473040 773651 902099 273475
+ 194659 407299 126464 746539 973464 628486 451905 276158 197342 986132
  558175 669137 942931 949751 401213  68718 601697 471000 185483 681401
  330018 354321 297869 948170 401024 382352 747649 770321 533594 649202
  661487 188156 826209 500184 407411 633596 633000 992928  65486 466529
- 205848 270126 128868 986663 456656 931582 770552 883548 525732 763756
+ 270126 205848 128868 986663 456656 931582 770552 883548 525732 763756
  155532 135343 579915 832881 898939 945495 754300 898658 332936 753672]</t>
         </is>
       </c>
@@ -13738,7 +13738,7 @@
  485897 519472 108515 482730 947257 218249 538712 467910 125397 424268
  484531 561859 922871 941085 564847 219239 926907 845145 153237  59900
  509322  17171 126965 155134 848368 538750 181761 364369 518290 731818
- 940678 933514 157702 163547 731384 199786 278602 731282  93553 713384
+ 940678 933514 157702 163547 731384 278602 199786 731282  93553 713384
   16870 805338 524109 687075 635551 695058 766934 628748 921242 867801
  487325 947004 632578 514684  60553 842991 497843 784571 897180 156760
  869182 199573 278389 152661 994367 967312 482782 432261 680704 728103
@@ -13777,9 +13777,9 @@
  705759 595680 663407 487698 481663 481035 989049 678304 385597  22746
   58485  54118 424733 861985 199549 278365 849277 865530 857044 861082
  385519  14155 760371 586341 751653 631508 849082 670877 618052 958066
- 210434 416715 200477 264755 635551 528911 519865 851715 527178 919062
+ 210434 416715 264755 200477 635551 528911 519865 851715 527178 919062
  847674 422489 940641 913820  20383 949300 386221 867909  15815 835296
- 111329 631910 224853 192586 271402 252482 330138  60301 771110  13044]</t>
+ 111329 631910 224853 271402 192586 252482 330138  60301 771110  13044]</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13809,7 +13809,7 @@
           <t>[ 16914  16947  17311  17347  17087 593559 146223 146283 241834 226294
  595193  60811 110251 434712 430348 131163 214954 170195 917854 293666
  250708 432626  60936 389351 499757 967369 461209 261818 125060 770647
- 485439 524929 748079 431215 433370 162080 538849 723760 170364 463131
+ 485439 524929 748079 431215 433370 162080 723760 538849 170364 463131
  183597 513488 512331 511441 226969 345127 546787 546966 101321 430787
  887564 830371 222170 424331 400676 546715 146634 307090 808430 424899
  106725 480667 500113 529637 732597 260988 466577 311468 501837 115293
@@ -13849,7 +13849,7 @@
  678067 840716 463360 824641 325524 775698  27030  11206 778594 122564
  185478 575664 829665 114017 249137 307662 993548 679727 112818 397430
  199285 278101 829145 141903  12665 621882 911514 191525 896808 250969
- 889665 183519 795070  25140  75413  76622 196414 275230 254808 430690
+ 889665 183519 795070  25140  75413  76622 275230 196414 254808 430690
  619052   2990  68885  12703 163554 970131 213899 778270 824678 933634
  535954 366785 843414 167056 431053 304172 523485 464358 382239 528281]</t>
         </is>
@@ -13885,7 +13885,7 @@
  514182 419768 729983 363862 529030 315763 994018 528770 248840 541218
   30938 104987 764563 152096 515788 605061 409555 500109 363623 525144
  409495 702971 524824 604877 151241 400625 230198 584227 237175 340204
- 494580 546375 430371 658196 603410 530485 243318 323249 822704 282603
+ 494580 546375 658196 430371 603410 530485 243318 323249 822704 282603
  311418 141009 524768 754214  79772 190423 227242 286815 514109 830085
  179610 497757 429827 459759 128437 152552 406539 493970 430505 227423]</t>
         </is>
@@ -13953,7 +13953,7 @@
           <t>[513478 649767 800707 112038 246356 517499 548112 176074 192291 171586
  176201 690489 182310 392774 232275 725047 724912 698661 176437 122719
  941140 566494 196874 275690 503063 926559 525986 668086 511028 933822
- 196914 275730 156188  17416 935030  95107 222630 468381 363744 795967
+ 275730 196914 156188  17416 935030  95107 222630 468381 363744 795967
  186127 117160    879 750790 624957 393516 553062 820722 600389 550538
  392598 310817 941507 600051 465141 172883  92765 182651 600151 843694
  182668 337781 392270 185640  69386  63741 526805 441506 392048 952069
@@ -13987,14 +13987,14 @@
       <c r="B378" t="inlineStr">
         <is>
           <t>[111927 742041  82549 372223 547694 209990 776308 956518 201237 265515
- 700506 111074 408758 102266 200564 264842 200437 264715 371269 682273
+ 700506 111074 408758 102266 264842 200564 200437 264715 371269 682273
   66668 136238 217864 491718 337009 860692  91699 169183 430355 177710
  321552 192162 844909  90237 695110 227341 969366 548286 470907 162221
  662658  93759 218543 969743 862121 407833 151239 170033  63293  89860
  725197 969192 790603 199558 278374 701480  86700 510558 216578 306088
   12575 297950 466740 812626 217471 182993 150568 419626 325833 210089
   97240 372856 305032 522871 354112 317973 256695 263366 771204 174009
- 231514 411405 915687 863552 925234 966990 494877 198573 277389 810116
+ 231514 411405 915687 863552 925234 966990 494877 277389 198573 810116
  386825 292688 997391 306391 459743 256106 511910 754103 337190 457043]</t>
         </is>
       </c>
@@ -14060,7 +14060,7 @@
         <is>
           <t>[ 18639  18874 405479  35927  43298 379104 106194 379332 613611 865702
  401250  34308 478528 614384  43478 405899 527367 721468 101736   9282
- 794245 617576 538628 164937 773441 198139 276955 163146 865806 831268
+ 794245 617576 538628 164937 773441 276955 198139 163146 865806 831268
  495794 535845 723423 754830 190455 540411 162407 126898 310267 400931
  126748  28952 936016 381084  43122  33873 101704 495249 397305   7838
  400106 465077 398604 163102 241129 163702 616986 776302 109714 415336
@@ -14101,7 +14101,7 @@
  865948 826111  63348 970578 229953 764961 789330 550741 498468 204267
  268545 751133 438551 868480 598314 298567 795774 596727  65429 843677
  203859 268137  10294 826056 680496 681615  79571 971349 954918 399760
- 749958 430295 178434 195478 274294 388007 515263 941311 954200 412901
+ 749958 430295 178434 274294 195478 388007 515263 941311 954200 412901
  127097  15843 962964  32673 190735 111739 751298 596875 961921 507263
  165405 730949 630099 981964 293567  62957 687007  92501 301683 358273]</t>
         </is>
@@ -14138,7 +14138,7 @@
  216578 871696 241597 526367 556371 760480 321617  58990 279598 889016
  295181 292223 846280 395802 696367 244092  79558 783164 317722 293097
  235307   6866 365827 183053 704346 191811 551470 346294 201472 265750
- 759204  80021  59664 690748 526411 692871 467384 350636 459452 861222
+ 759204  80021  59664 690748 526411 692871 467384 459452 350636 861222
  263941 526862 491052 811510 587363 343612 395930  79425  59910 821271]</t>
         </is>
       </c>
@@ -14240,12 +14240,12 @@
         <is>
           <t>[403592 399540 947327 112913 662266 156705 300677 598083  13383 532889
  482316 399238 155698 877439 170147 834052 839936 940996 984983 535687
- 513449 971686 196879 275695 561163 934874  62755 425479 708182 452781
+ 513449 971686 275695 196879 561163 934874  62755 425479 708182 452781
   75033 864010  14551 694623 840487 818661 584109 900656 206569 270847
  694299  74967 866052 340098 867243 614758 585142  22914 210319  14512
  532347 951781 930095 751670 866818 590413 196471 275287 813435 129464
  933976 358628 940511 578550 228855 173645   2628 922062  13131 797664
- 201456 265734  14601 401258 403370 550712 533299  74357  13156 866394
+ 265734 201456  14601 401258 403370 550712 533299  74357  13156 866394
   20283 836241 678153 513031 247929  78378 180954  66086 247389 170046
  560527 396413 129506 751135 900076  21078 888425 483060 652966  14947]</t>
         </is>
@@ -14279,10 +14279,10 @@
  542411 473503 941675 682712 784584 197266 276082  99826  60266 857412
  961456 947568 395042 664018 223896 182224 441956 842258 872584 869965
  929897 842221   9824 858370 950999 223904 704722 658922 867630 194586
- 224168 273402 111053 997098 979011 195244 274060 191160 930393 679258
+ 273402 224168 111053 997098 979011 274060 195244 191160 930393 679258
   11621 899014 929554   9842 443162 191114 259682 871467 855036 723733
  886664 868171 100388 225412 922312 546486  12753 886923 748972 997918
- 951423 190620 336408 197477 276293 564040 871439 195856 274672 564462
+ 951423 190620 336408 197477 276293 564040 871439 274672 195856 564462
  523163 703232 903834 857221  13356 864486 663285 930243 191025 979827]</t>
         </is>
       </c>
@@ -14314,12 +14314,12 @@
  352126 797842 195545 274361 693363 482088 679659 482914  15420 841888
  962540 975251 249591  97959 260025 631997  76501 335567 518132 631067
   68032 245254  61564 334625  75041 724318 378199 873698 936083 100484
- 193627 272443 386954 937250  80652 802852 462416 636452  65499 772812
+ 272443 193627 386954 937250  80652 802852 462416 636452  65499 772812
  814140 437118 773488 283853 196911 275727 955390  15139 525991 681266
  333451 834496 915485  16412 629851 170164 921116 483667 841929 425135
  512965 613845 194784 273600 758063 742244 456134 746613 702333 515113
  955740 979804 730248 195351 274167 809930 806411 826546 878324 286331
- 308911 751851 955575 482931  80270 678641 708834 515819 200449 264727]</t>
+ 308911 751851 955575 482931  80270 678641 708834 515819 264727 200449]</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -14350,9 +14350,9 @@
  844131 961527 158160  12366 869306 377861 225473 873837 430460 867947
  558116 747994 869392 703232 224340 373512  13886 162792  60068 551146
  139402 123542 842358 528746 208496 875659 308551  14953  82139 209483
- 840259 203665 267943 805478 598790 842431 882932 919033 194161 272977
- 870502 543377  13727 528627 226275 948920 842225 350327 642623 206674
- 270952 956832 872819 161834 942501 784959 917478 882931 540545 679303
+ 840259 267943 203665 805478 598790 842431 882932 919033 272977 194161
+ 870502 543377  13727 528627 226275 948920 842225 350327 642623 270952
+ 206674 956832 872819 161834 942501 784959 917478 882931 540545 679303
  856777 842517 208739 671834 755153 426165 433610 200195 264473  14836
  920580 830935 842232 570959 128546 139855 965082 104465 940810 525881
  839695  92410 375908 947167 787538 805360 703685 868230 887097 863325]</t>
@@ -14388,10 +14388,10 @@
  741556 543488 517928 543701 709721 856842 542851 708021 938527  75925
  878418 594121 947541 255051 543427 415400 818190 835727 810788 905974
   61699 564846 999301 629121 707408 918949 600373 704866 171029  58563
- 597104 195066 273882 678801 600260 600550   1852 988960 481481 620158
+ 597104 273882 195066 678801 600260 600550   1852 988960 481481 620158
  895283  64527 704156 977696    348 561599 452865 679773 930595 380434
  387755  11885 470804 778202 595362 819187 868318 220925  15722 869513
- 517765 352390 598738 881174 679582 459193 899135 503101 202197 266475]</t>
+ 517765 352390 598738 881174 679582 459193 899135 503101 266475 202197]</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -14418,7 +14418,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>[600164 131717 297702  17684 504516 198982 277798 483311 727424 546713
+          <t>[600164 131717 297702  17684 504516 277798 198982 483311 727424 546713
  868423 922857 725788 138280 305732 197950 276766 300403 956414  64182
  485085 117428 738518 169971  86974 364144 738370  97994 585566 551816
  551965 438699  84121  11446 220764   4083 756152 185864 169104 368270
@@ -14463,7 +14463,7 @@
  741971 542298 998198 223493 394039 416400 861824 241488 934433 102130
  727137 416365 696128 649598 158092 198200 277016 542295 247721 906688
  948789 998368 684585 677821 541921  20740 939637 933688 554671 123601
- 946906 560866 691551  11767 723899 376506 157708 314784 915998 856463]</t>
+ 946906 560866 691551  11767 723899 376506 157708 915998 314784 856463]</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -14499,7 +14499,7 @@
  616998  99185 734839 614958 821069 751035 434989 601112 178352  17695
  686974 424885 315080 430237 112853 138169 797854  61860 292071 429789
  805576 173764 407030 751708 348051 192342  78354 731417 204986 269264
- 130486 398662 542384 435898 198997 277813 281013 391251 455186 529641]</t>
+ 130486 398662 542384 435898 277813 198997 281013 391251 455186 529641]</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -14530,7 +14530,7 @@
  836436 932694  16020 665253 137134 193352 272168 527019 843071 749261
  299795 148014 376926 651442  59931 750055 929951  15605 585618 506504
  384423 796218 339054 531626 921542  13571 920128 531162 920373 136479
- 954267 147700  13329 617330 561944 193636 272452 197848 276664 711469
+ 954267 147700  13329 617330 561944 272452 193636 197848 276664 711469
  182344  13465 155964 951887 543580 759609 529767 842178 287779 344800
  801664 802136 678082 106335 609403 798457 797107 796845 652304 699348
  136316  64246 221599 960089 669497 494697 543744  85926 965318  34988
@@ -14565,12 +14565,12 @@
           <t>[502450  32084 169053 735409    607 294314 630795 377030 449605 140494
  584510 420226 874839 420414 740197 795158 174612 703532 174729 480480
  201923 266201 767235  98771 185865 977781 685198 371667 178611 422101
- 583956 521926 196553 275369  96822 725950 232923 141135 630176 470723
+ 583956 521926 275369 196553  96822 725950 232923 141135 630176 470723
  360842 573688 691521 575552 925392 726344 107079 514323 834646 465430
  158153 719958 106267  98697 517021   1213 932707 232972 548661 678394
  511451 180787 604915 729008 308055 176157 822881 246959 363980 804044
- 690078 201624 265902 706196 125469  81908 810056 193102 271918 684522
- 822705 684324 525214 847247 244780 713864 482448 177900 796991 574374
+ 690078 265902 201624 706196 125469  81908 810056 271918 193102 684522
+ 822705 684324 525214 847247 244780 713864 482448 796991 177900 574374
  842668 151640 525854 684332 514195 514941 188432 970762 110509 448667]</t>
         </is>
       </c>
@@ -14598,13 +14598,13 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>[912111 204864 269142 207619  46521 803804  22304 683017 842007 737922
+          <t>[912111 269142 204864 207619  46521 803804  22304 683017 842007 737922
  863524 683033 962218 906487 890345  99384 122843 503868 226598 872550
  743908 842325 671380 473350 743789 922314 880843 970690 430423 961563
- 508324 509521 929692 204185 268463 933111 100029 206260 270538 868804
+ 508324 509521 929692 204185 268463 933111 100029 270538 206260 868804
  223791 868862 918804 868656 911890 889579 879711 906345 389533 705453
- 863049 910071 842555 564330 561591 879763 534100 870341 560971 206257
- 270535 886060 842137 909120 564531 749272  47096 961676 930194  45825
+ 863049 910071 842555 564330 561591 879763 534100 870341 560971 270535
+ 206257 886060 842137 909120 564531 749272  47096 961676 930194  45825
  872954 510697  17502 871659  71545 921017 482773 906339 226676  56982
  564334 905982 712212 871593 708075 933819  56221 922555  14462 919466
  597351 671298 472336 682748  60550 842085 131321 932394 708740 449521]</t>
@@ -14634,12 +14634,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>[636151 633946 205027 269305 633703  12979 491934 736840 202691 266969
- 204781 269059  72549  14339  74331 587675 906647 912160 630816 733541
+          <t>[636151 633946 205027 269305 633703  12979 491934 736840 266969 202691
+ 204781 269059  72549  14339  74331 587675 906647 912160 733541 630816
   68691 391493 742733 912405 742334 976350 587435 845387 491630 492768
  998818 237518 321331 294312 374231 524450 204663 268941 252254 440494
  733245 698972 840803 631150 848793 874833 780743 434472 999550 225447
- 667971 967519 917703 613383 785028 998865 899186 203487 267765 869531
+ 667971 967519 917703 613383 785028 998865 899186 267765 203487 869531
  736552 770581 169819 942028  12873 286921 858036  70616 771123 231870
  587873  15580 294598 918995 694497 893028 594542  59672 782467 982386
  839925 521094 298084 868770 331887 333424 491779 997451  63655   2478
@@ -14676,10 +14676,10 @@
  771024 503716 972070 519375 517402 209847 844465 563376 696633 706772
  932199 886123 551981 899569 596124 880282 422594 412292 394827 832118
  541632 840548 564455 856131 899503 840954  59345 780660 361756 886667
- 832092 238633  16278 517248 223942 172925 563525  70094 868016 192494
- 271310 831793 689119  72926 843137 424140 807359 424328 863472 912526
+ 832092 238633  16278 517248 223942 172925 563525  70094 868016 271310
+ 192494 831793 689119  72926 843137 424140 807359 424328 863472 912526
   16199 213390 875444 195491 274307  58613 480271  94646  15576 900426
- 880405 430654 205348 269626 732141 187556 871047 594161 224515 635551]</t>
+ 880405 430654 269626 205348 732141 187556 871047 594161 224515 635551]</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -14707,13 +14707,13 @@
       <c r="B398" t="inlineStr">
         <is>
           <t>[251606 198476 277292 598881  28295 873000 376237 870659  45501 930622
- 510042 204559 268837 250844  99441 196823 275639 491613 595506 122150
- 195646 274462 199972 264250 530355  16094 546489 203858 268136 758513
+ 510042 268837 204559 250844  99441 196823 275639 491613 595506 122150
+ 195646 274462 264250 199972 530355  16094 546489 268136 203858 758513
   69690 598752 929988 934023 551532   9724  15633 392365  22468  22452
- 376392 239721 205856 270134  99575 759173 495260 919569 196618 275434
+ 376392 239721 205856 270134  99575 759173 495260 919569 275434 196618
   15642 983157  23333 930096 286511 929821 527667 496365 127481 287372
  676884 705089  96333 105314 988645 846412 784584  16663 888483 238080
- 889114 966411 877021  64202 780605 988195 193122 271938 541962 474279
+ 889114 966411 877021  64202 780605 988195 271938 193122 541962 474279
  921901 978808 978311 868015 339087 863164 544015 416258 871004 391412
   52810 843034 676199 385520 760654 943004 199868 264146 223483 966916]</t>
         </is>
@@ -14744,9 +14744,9 @@
         <is>
           <t>[920718 920940 316309 454789 875798 316026 377355 915259 315922 288113
  625303 752921 377342 307450 841559 370872 315147 314249 874009 565772
- 196550 275366 174243 314939 519928 194846 273662 863904 679088 923749
+ 275366 196550 174243 314939 519928 273662 194846 863904 679088 923749
  173708 373645 482152 220374 679297 157595 679336 351889 624670 457742
- 206265 270543 438842 204450 268728 719712 689579 328205 435048 887248
+ 270543 206265 438842 204450 268728 719712 689579 328205 435048 887248
  576166 858664 915980 679408  13491 348089 935166  15259 920709 129671
   47516 317635 152606 580157 909983 228547 354221 338841  70447 690729
  703430 203806 268084 859108   1426 455196 199547 278363 372207 170229
@@ -14784,7 +14784,7 @@
  950124 933489 918180 486708 839146 539287 957139 244614  31815  73076
  599943 838298 357519 846191 618095 869009 328979 552134 943919 947362
   83009 491337 539090 230053 492353 608533 515007 981078 721182 784161
- 841493  31293 496454 697228 660670 438635 839175 199192 278008  92427
+ 841493  31293 496454 697228 660670 438635 839175 278008 199192  92427
  981064  14685 539289 947686 451113 514898  11851 919434 562643 503009
  257446 648541 846010 986869 240532 239554 232630 980302 468283 999020
  743250 886548 867871 617994 594393 977233 743614 508436 403921 424954]</t>
@@ -14850,7 +14850,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>[ 72793  71712  73807 455333 415976 748184 200220 264498 201396 265674
+          <t>[ 72793  71712  73807 455333 415976 748184 264498 200220 201396 265674
   91171 812414  67198 854886 678913 378542 527019 818543 461821 254507
  780659 908073 859350 890359 838254 853324 416147 867782 914272 454681
  303643 604380 746949 899682 299764 913492 397132 502406 518766 909018
@@ -14891,9 +14891,9 @@
  219922 635389 519773 157163 219141 112443 769693 286405 288511 490489
  426072 175346 286063 242866 992474 570986 159517   7641 593988 157727
   63421 390054 700736 412961 992218 518960 527004 544492 840194 408819
- 472936 143600  19324 253881 509545 122252 668801 199723 278539 538780
+ 472936 143600  19324 253881 509545 122252 668801 278539 199723 538780
  389451 523456 630796 569971 190207 574074 570245 534726 117696 834874
- 812436 719511 714127 193690 272506 547934 854556 490813 159784 338811
+ 812436 719511 714127 272506 193690 547934 854556 490813 159784 338811
  668135 550148 700903 430549 337749 177804 354132 523588 169931 522637
   85975 524198  68341 694335 549167  68317 769707 844736 323636 871811]</t>
         </is>
@@ -14929,7 +14929,7 @@
  703242 437212  14263 298263 869442 636718 867050  77432 698800 705427
  868332  93459 705280 865355 198468 277284 845207   2731 617927 844058
  531596 845070 613570 168262 624211 886984 466522 887616 185906 171688
- 555572 130858 172345 757698   2553 700815 532004 112191 206465 270743
+ 555572 130858 172345 757698 700815   2553 532004 112191 270743 206465
   66637 692721 857076 708273  91115 433539 844667 923323 617986 318499
  419979 329170  19804 213757 868094 785399 739330 287932  20467 573398]</t>
         </is>
@@ -14963,7 +14963,7 @@
   17357 746815 724196  21405 513560 405491 390089 222713 631037  14956
  210389 877769 845685  13633 842759 561700 844176 938527 450096 854864
  539678 396595 855414 853066 562145 109173 697322 855313 285568 306771
- 405090 202242 266520 185902 595914 747085  84749 596562 690644 723791
+ 405090 266520 202242 185902 595914 747085  84749 596562 690644 723791
  856881 489522 814017 506230 102017 627852 299475 906813 886795  91999
   61197  99766 202725 267003 858686 997093 436257 628259 185731 866846
  517195 172218 704763 886981 526341 977871 458911 840258 854967 425486
@@ -14997,7 +14997,7 @@
           <t>[249712 386439 386308 287614 283336 284857 859646 230943 283443 570475
  595696 346467 259063 154989 534351 111496 127216 358426 378223  78975
  967964 347309 291061 283001 524330  68254 386526 289345 110434 403901
-  17543 126396 225741 154349 288853 259627 967224 330853  45440 111520
+  17543 126396 225741 154349 288853 967224 259627 330853  45440 111520
  250972 240851 156478 370005 896979 754893 859621 314115 540235 539590
  595754 332065 122702 346260 570723 340727 123548 104461 314941 563164
  314523 595656 301854 352529 524415 540191 302133 572984 967321 157734
@@ -15030,13 +15030,13 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>[ 15144 465936 735989 123402 867869 843644 735792 196077 274893 811170
+          <t>[ 15144 465936 735989 123402 867869 843644 735792 274893 196077 811170
  822998 226719  98898 702927  64070 796485 544622  13847 797225 732080
  584437 702992 844377 628961  18887 690765 161228 128532 511646 958623
- 395757 977259 543933 703179  14183 511403 511411 692047 125848 206002
- 270280 746931 692104 408323 742100  65312 926333 986979 764198 544514
- 658968 736289 753107  66426 958632 520328 110166 732938 740184 122638
- 150164 867879 670653 155024  97420 205167 269445 198347 277163 628540
+ 395757 977259 543933 703179  14183 511403 511411 692047 125848 270280
+ 206002 746931 692104 408323 742100  65312 926333 986979 764198 544514
+ 658968 753107 736289  66426 958632 520328 110166 732938 740184 122638
+ 150164 867879 670653 155024  97420 205167 269445 277163 198347 628540
   15522  59409 466181 503432 291375 880533  11503 503394 330590 530125
  838094  11742 526553 703103 864532   1884 503109 679268 508693 935169
  796495 844211 209547 206509 270787 239382 391277 973550 226879 977448]</t>
@@ -15107,8 +15107,8 @@
  703923 739171 211167 977557 576028 430362 487653 542066 185300 432717
  986308 950338 185263 906552 431309 843117 621920 513757 430223 949068
  106290 211415 106406  89023 488451 510813 467908 880059 458817 988084
- 724471 194431 273247 871335 728360 742654 872548 729464 864847 242211
- 597977 170545 725415  75676 246327 202026 266304 868321 391659 732183
+ 724471 273247 194431 871335 728360 742654 872548 729464 864847 242211
+ 597977 170545 725415  75676 246327 266304 202026 868321 391659 732183
  741324 867863 260179 598828 239238 487563 157229 307003 594404 877558
  879861 882743 237257 921144 209786  61131 978179 618948 401094 739012
  461298 539081 960703 887621 621561 797638 538929 130885 202235 266513]</t>
@@ -15178,12 +15178,12 @@
  265439 867635 913129 989706 989629 628233 960371  36358 989857 721252
    2433 539802 843578 844920 707463 749464 846610 959647 826721 828824
    2700 628451 683371 867638 932570 879682   3792 539531 472081 960854
- 210917 678768 202183 266461 473307 554147 677783 884066 914106 192722
- 271538 989823 885713 691585 883150  94625 594303 958246  71522 916518
+ 210917 678768 202183 266461 473307 554147 677783 884066 914106 271538
+ 192722 989823 885713 691585 883150  94625 958246 594303  71522 916518
  833167  96218 830261 911888 948348 748218 584527 867648 893202 125444
   58650 133892 930087 171477  88357 933722 202435 266713 843385 677798
  989614 887676 824362 690947 989942 879798 425203 191501 844057 503295
-    402 867665 940809 202564 266842  58001 473246 899684 223856 194395]</t>
+    402 867665 940809 266842 202564  58001 473246 899684 223856 273211]</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -15211,10 +15211,10 @@
       <c r="B412" t="inlineStr">
         <is>
           <t>[761604 885820  78495 761241 396403  74338 536253 544186 729249 885773
- 604670 988194 439187 707604 919143   1879 876666 653299 196414 275230
+ 604670 988194 439187 707604 919143   1879 876666 653299 275230 196414
  383902 899625 536068 805460 739418 225638 998510 619052 141903 707478
  844917 695384 933887 895643 887593 919568 621882  61976 706371 544274
- 155317 988458  59845 197536 276352 889665 502985 496901 155400 480360
+ 155317 988458  59845 276352 197536 889665 502985 496901 155400 480360
  654297 903941 430118 166546 920445  14286 245448 840711  86491 252723
  746237  75909 904817  68956 225933 132534 917485 832529  99367 971257
  562614 513497 970131 535936 706944 999741 485163 732007  12979 777192
@@ -15247,7 +15247,7 @@
       <c r="B413" t="inlineStr">
         <is>
           <t>[159977 325003 389776 979574 337424 202630 266908 636967 183250  10151
-  10017  81712 203139 267417 635689  91588 187218 223060 337072 351100
+  10017  81712 267417 203139 635689  91588 187218 223060 337072 351100
  635448 146653 507202 372055 203148 267426 345924 416569 160524 409446
  324143  93012 351568 159521 943371  94262 143107 232719 680458 948782
  213105 546965 698921 667748 600707 187578 709041 180554 714378 160948
@@ -15255,7 +15255,7 @@
  854705 639162  54513 326546 550398 372935 233936 250497  99224 322723
   81727 914907 279974 637190 780895 845815 965417 338018 386453 551046
  808481 181518 143949 442275 574385 289943 770070 280120 233759 107449
- 496745 552604 685601 717013  99790 284499  70388 323576 328052 673965]</t>
+ 496745 552604 685601 717013  99790 284499  70388 328052 323576 673965]</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -15286,7 +15286,7 @@
  231870 934457  68691 489924 110028 226510 481181 751136 797777 594874
  393898 569787 306489 752960 393590 174584 871361 144843 749688 356943
  867318 934223 509199 350285 806274 382095 262669 865839 431276   1679
- 871418 390775 489070 702844 227039 386457 788599 491630 726311 325016
+ 871418 390775 489070 702844 227039 788599 386457 491630 726311 325016
  873798 852419 251911 874210 131809 313980 239800 917703 349351 110742
  124330 154118  83800 402397 448034 106630 904180  65330 165838 579369
  192455 271271 935649 224145 210149 688855 990334 693645 709851 105535
@@ -15318,7 +15318,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>[480651 166921 972936 932766 205372 269650 139025 987048  96069  96680
+          <t>[480651 166921 972936 932766 269650 205372 139025 987048  96069  96680
   36498 521979 803225  87919 696869 526103 927248 180732 158646 662336
  430579 339348 632995 525802 489439 988995 106256 307756 579004 338001
  799104 936443 283052  94089 159359 432207  87387 529755  82106 454111
@@ -15327,7 +15327,7 @@
  927271 482011 101487 242292 466852  86732 664564 470206 526851 696559
  726074  69884 178705 165223 754697 682222 696596 833558 527579 525923
  703818 547506  18558 555453 366059 158985 282486 345106  43928 932999
- 195447 274263 695609 127447 721451 468693 499369 527807 280696 843517]</t>
+ 274263 195447 695609 127447 721451 468693 499369 527807 280696 843517]</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -15392,11 +15392,11 @@
         <is>
           <t>[663562 632828 632623 491293 811407 787137 162541 699827 670275 811428
  531872 395786 671260 577424 699497 576071 658681 401783 778981 375923
- 705518 607882 242769 523549 699660 194698 273514 196418 275234 451186
-   1982 194897 273713  21347 723832   1578 607482  96065 735444 398877
+ 705518 607882 242769 523549 699660 273514 194698 275234 196418 451186
+   1982 273713 194897  21347 723832   1578 607482  96065 735444 398877
  751454 972462 968535  59292 853468 769665 694851 631469 737733 486041
  659334 518616 632706 959966 692589 329640 675709 717373 967559   2039
-   3528 139143 150739 299697 200313 264591 287514  20725 100737 807293
+   3528 139143 150739 299697 264591 200313 287514  20725 100737 807293
  189791 798169  99795 121139 282267 806441 190008 664381 182714   4180
  700168  77368  59264 543169 513970 658745 317968  23277 525468 934815
  402944 504005 231431 944389 302761 589001 663411 344279 295731 403958]</t>
@@ -15434,7 +15434,7 @@
  237511  95047 418538 225985 957013 438213 191529 191695 505560 808844
  122088 566652 440272 365400 431223 161100 574063  30458 991131 759405
  143031 143485 815758 609828 817883 921585 714787  30450 432837 160671
- 337398 920179 237812 547866 708869 192842 271658 254471 426521 652935
+ 337398 920179 237812 547866 708869 271658 192842 254471 426521 652935
  878307 674657 281298 991406 314210 815668 311676 575092 248009 539264]</t>
         </is>
       </c>
@@ -15468,7 +15468,7 @@
  290812  79511 947876 882505  16374 863598 689252 803396 710779 628712
  803742 810351   8000 670839 941146 925441 681264 834416 687474 185680
  870770 987918   3074 862669 840131 390285 774088 257436 209892 633373
- 704037 327335 210173 288600 861753 145824 169876 594544 205028 269306
+ 704037 327335 210173 288600 861753 145824 169876 594544 269306 205028
  329228 163098 321840 855976 987928 328641 564904 286775  70084 354980
  964006 868378 685210 156412 112155 142277 869699 776480  66293 582456
  397723  96738  69642 833112 920055 324321 351890  96068 967384 484448]</t>
@@ -15502,11 +15502,11 @@
  723592 388080 765081 873434 314681 366405 368582 240728 314143  16092
  954966 167676 384329 934685 483506 334448 179757 939250 705200 485185
   17640 694222 312880  96141  86087 700389 797797 936890 517447 988995
- 192794 271610 740777 575543 482040 598562 943926 944366 463162 574704
+ 271610 192794 740777 575543 482040 598562 943926 944366 463162 574704
  753202  18295 697902 938030 316872 398653 153608 455528 238815 128228
   63438 950388 361057 581036 510480 459533 527637 481455 118380  15603
  813114 706531 463678 586319 393701 788095 952557 625933 240180 113984
-  86489 574865 407974 192593 271409 874192 253250 482647 166144 325499
+  86489 574865 407974 271409 192593 874192 253250 482647 166144 325499
  182700 989203 873142 335237 147297 218902 234162 285358 692098 831801]</t>
         </is>
       </c>
@@ -15612,7 +15612,7 @@
  635785 518616 666088 875708 477686 234086 872331 876219 788561 880825
  991601 396183 485353 788349 776274 197088 275904 580098  12356 227729
  335334 989456  55260 711437 811018 689278 697117 252381 475404 158888
- 633174 114505 198037 276853 412270 299262  56937 505117 625845 491078
+ 633174 114505 276853 198037 412270 299262  56937 505117 625845 491078
  948839 871732 490269 864193 160016 813340 775312 345570 335378 707628
  287901 775564 870558 776451 536370 880646 304253 412195 334186 368474
  231270 202264 266542 386864 703125 237255 606543 556129 470328 486291]</t>
@@ -15650,7 +15650,7 @@
  518747  59468 369798 293683 505222 513548 340915 370879 510467 903131
  177943 700661 617832 848883 327427 211089 971677 323903 491576 922588
   97079 523338 488161 326817 921797 631671 663022 736388 617947 500016
- 438513 798024 448885 116614  68503 817812 514034 179143 296813 765644
+ 438513 798024 448885 116614  68503 817812 514034 296813 179143 765644
  720790 313988 863267    111 503294 304301 458001 832996 391050 903290]</t>
         </is>
       </c>
@@ -15680,10 +15680,10 @@
         <is>
           <t>[729154 481712 698418 222380 197467 276283 713946 872706 867039 850147
  860402 749198 981178 536872 505610 923772 221226  16293 846781 982082
-  49067 781114 196959 275775 287446 331953 781841 192512 271328  70378
- 724727 290234 723147 322716  14461 206640 270918 859886  49361 228982
+  49067 781114 196959 275775 287446 331953 781841 271328 192512  70378
+ 724727 290234 723147 322716  14461 270918 206640 859886  49361 228982
  803570  49185 518411 230035 391408 248826 963500 235988  11599 799030
-  69714 867015 419331 197050 275866 107018 248213 874200 303355 480716
+  69714 867015 419331 275866 197050 107018 248213 874200 303355 480716
  752291 516230 683728 509256 235587 803839 866016 305839 875987 240665
  520335  13856 820327 192476 271292 625147  63245 960394 434485 585723
  343129  95829 610322 632159 620982  67255 480714 166297 307676 521596
@@ -15715,15 +15715,15 @@
       <c r="B426" t="inlineStr">
         <is>
           <t>[968826 168760 171119 704246 844032 171736 669708 881048  14053  16023
- 455955 600554 681619  18753 671842  18246 991517 437399 203020 267298
- 619276 483957  13841 549209 671798 526078 162973 543628 205210 269488
+ 455955 600554 681619  18753 671842  18246 991517 437399 267298 203020
+ 619276 483957  13841 549209 671798 526078 162973 543628 269488 205210
  947705 857782 111797 836726 864090 965620 451958 454237 372208 731365
- 598309 636635 454866  37300 889289 681364 376802 455031 199212 278028
+ 598309 636635 454866  37300 889289 681364 376802 455031 278028 199212
  942162 636732 376361 585737 882389 964284 596353 543507 883334 496004
  452144 107481 636744 530507 989334 539820  88879 858758 461027 317935
  679206 430399 607484 521629 635906 543666  71308   9175  37113 842865
  108286 690839 294030  18091  86581 220440 224957 866475 203049 267327
- 844514 183942 842909    733 626938 694291 707492 205336 269614 931442]</t>
+ 844514 183942 842909    733 626938 694291 707492 269614 205336 931442]</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -15758,7 +15758,7 @@
  629363 912602 805383 852088 583338  31650 948431 387433 387591 756268
  222367 494031 623327 112510 855131 105141  33439 731731  93958  61355
  177966 303082 420347 514851 877513 514825 138250 193340 272156 696530
- 839500 196674 275490 843052 467829 573065 694171 437896 430398  67326
+ 839500 275490 196674 843052 467829 573065 694171 437896 430398  67326
  188788 416042 599653 905153 904303 122779 769038 647177 805482 415588]</t>
         </is>
       </c>
@@ -15861,8 +15861,8 @@
           <t>[598341 329170 741712 670766 739730 739428 868003 539092 765269 885981
  843328 539001 511005  14130   2312  77432 664734 886016  21642 668541
  110271 473815 704912 843244 878185   2607 989245 210314  49974  21657
-  76070 205088 269366 891733  12816 845298  13788  72675 741876 577435
-  74847 511108 843053 742103 535919  50055 383744 802978 202885 267163
+  76070 269366 205088 891733  12816 845298  13788  72675 741876 577435
+  74847 511108 843053 742103 535919  50055 383744 802978 267163 202885
  207560 898969 670634 211727 684075  15830 998290 708273 211556 473173
  839763 946734 958117 891826 538722 593992 538985 406115 712977 598394
  482862 868424 849480 472966 669550 298574 130596 711715 670710 224993
@@ -15894,14 +15894,14 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>[693557 492911 209204 205333 269611 938491 335275 692714 945970 778534
+          <t>[693557 492911 209204 269611 205333 938491 335275 692714 945970 778534
  125133  36152 507044 813007 725736 214911 491352 231285 355643 938604
  354566 480092 173451 231461 208943 692063 687847  34926 386905 337918
  571927 352695 973265 916286 408016 801293 201083 265361 109012 381891
  337929 521669 196220 275036  86087 731339 479544 903475 625397  51720
  351901 434585 339781 532572 633196 108542 451043 586968 205689 269967
  707293  56980 208816 973543  55257 952795 648975  39385 150540 259747
- 744984 214780  55233 813628 534249 434892 789760 197007 275823 585849
+ 744984 214780  55233 813628 534249 434892 789760 275823 197007 585849
  110262 751450 904438 904153 296725 570448 337886  90485 979733  36845
   74807 103175 357096 460580 571047  86489 303259 939338 999680 938212]</t>
         </is>
@@ -15930,14 +15930,14 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>[209984 128487 236186 410147 198331 277147 326955 669313 937863 392652
+          <t>[209984 128487 236186 410147 277147 198331 326955 669313 937863 392652
  835018 491899 882369 960904 391431 196610 275426    176 848344 415103
  511091 399424 735417  13210  97627 196115 274931  11155 415409 399130
  918242 749750 500972  97516  97485 918058 101542 556134  84558 807272
  927123 392839 180536 546162  60620  15153 100236 778912 149889 486524
   59343 236220 984844 844391    226 249155  71967 185212 225007 377094
  881873 511209 874751 484851 385964 296677 466262 543736  64864 490571
- 376966 203714 267992  72210 392929 702075 385367 304729 392436 325407
+ 376966 267992 203714  72210 392929 702075 385367 304729 392436 325407
  765771 834922 688738  73849 823427 205740 270018 465526 537154 408181
  616866 522731 378953 308833 348131 129400 509889 868238 890509 222417]</t>
         </is>
@@ -15970,12 +15970,12 @@
  833145 512120 572871 848914 516086 183026 842164 919056  60280  17970
  718417  19054 859952 953663 621218 915922  61367 944519  17110 441282
  868467 441438 532035   9843 298423 842106 908841 888734 299772  62150
- 866809 703681 474108 541961 197507 276323 931735 194504 273320 919406
- 393364 518268 194193 273009 960266  81001 943898 196013 274829 940676
+ 866809 703681 474108 541961 276323 197507 931735 194504 273320 919406
+ 393364 518268 960266 273009 194193  81001 943898 274829 196013 940676
  915724 929155 919034 556141 122815  59075 704095 524458 485555 906338
  740861 844846 210801  81437  14877 594201 532308 912547 865996 946934
  532985  12873 842185 105343 525882 841501 918466 921176 404581 832271
- 747123 966467 870550 198722 277538 350036 857157 941084   9825 729615]</t>
+ 747123 966467 870550 277538 198722 350036 857157 941084   9825 729615]</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -16010,7 +16010,7 @@
  639544 172629 382245 906474  67651 920474 866950 412043 843886 392297
  455104 984338 598889 562870 690503  65136 194323 273139  66342  60510
  156627 727289 287377 202410 266688  18765 787407   6223  79240 128513
- 690967 202430 266708 481236  18478 537235 197547 276363 358512 371410
+ 690967 266708 202430 481236  18478 537235 276363 197547 358512 371410
  453112 625513 793795 312170 257384 451117 202627 266905 504599 932464]</t>
         </is>
       </c>
@@ -16079,11 +16079,11 @@
   24333 964835 514361 721861 610550 603386 235630 305823 833603 426978
  176815 964774 710548 722951 742824 898334 452137  42572 738163 769643
  113696 426925 450134  30442 803994 823657 397561 533551 305997 486592
- 635471 583886 805207 385147  64800 804009 514183 668862 136554 422044
- 125007 228190 670664 413830 129934 603407 193716 272532 727983 738645
- 734476 549524 748148 321874 194956 273772 210787 740187  30391 152134
+ 635471 805207 583886 385147  64800 804009 514183 668862 136554 422044
+ 125007 228190 670664 413830 129934 603407 272532 193716 727983 738645
+ 734476 549524 748148 321874 273772 194956 210787 740187  30391 152134
  401896 424538 183945 414443 459623  19481 710220  59796 512626 734846
- 193473 272289 744324 243916 691523 964785 125504 483578 535819 699590]</t>
+ 272289 193473 744324 243916 691523 964785 125504 483578 535819 699590]</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -16117,8 +16117,8 @@
  522186 976766 897027 235491 594746 867749 678874 504882 891907 413580
  869051 435995 607693 595912  72108 853324 939137 563975 840733  94498
  169179 715781 987295 314245 867722 182573 887813 886122 879839 564171
- 259413 566069 861447 507810 932601 884066 349550 689797 842165 484865
- 970452 799157 936839 865930 512441 864947 123042 206524 270802 850640
+ 259413 566069 861447 932601 507810 884066 349550 689797 842165 484865
+ 970452 799157 936839 865930 512441 864947 123042 270802 206524 850640
  931653 182885 715567 876482 170405 844153 823304 489158 915482 931948]</t>
         </is>
       </c>
@@ -16257,13 +16257,13 @@
           <t>[ 21191 245694 529932 802150 308366 810942 323454 130338 243142 299731
  307714 368234 365554 415202 693682 576103  78081 365963  17427 531290
  340522 465231 367392 925391  65128 484032 564776 515315 327212 976676
- 574572  63147 924969 155258 236218 196541 275357 238732 142376 308521
- 518786 707871 386146 112598 194804 273620 403953 166850 174118 465910
+ 574572  63147 924969 155258 236218 275357 196541 238732 142376 308521
+ 518786 707871 386146 112598 273620 194804 403953 166850 174118 465910
  175055 811190 305029 810918 459258 924326 752143 669249  68079 419931
- 433647 458877 923602 285333 549289 460725 198054 276870 806355 326363
- 363020  68556 923439 196702 275518 351265 201016 265294 322251 530084
+ 433647 458877 923602 285333 549289 460725 276870 198054 806355 326363
+ 363020  68556 923439 275518 196702 351265 265294 201016 322251 530084
  576434 365329 518509 529718  96545 548754 389873 285571 466838 315132
- 263850 204430 268708 366118 628101 606775 118362 357298 187121 532169]</t>
+ 263850 268708 204430 366118 628101 606775 118362 357298 187121 532169]</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -16327,11 +16327,11 @@
       <c r="B443" t="inlineStr">
         <is>
           <t>[ 21033 613785 936930 300338  97425 824398 956348  98050 296787 437899
- 943982 756568 204977 269255 337782 743203  68701 322995 234659 125778
- 242665 737751 441655 202503 266781 332570 301911 401466 368957 435569
- 739403 524506 945057 242617 548330  68797 162608 202381 266659 371241
+ 943982 756568 269255 204977 337782 743203  68701 322995 234659 125778
+ 242665 737751 441655 266781 202503 332570 301911 401466 368957 435569
+ 739403 524506 945057 242617 548330  68797 162608 266659 202381 371241
  679466 451371 522514 235969 425427 233058 417847 548689 195768 274584
- 484931 232563 519470 206207 270485  69093 234250 926581 306423 330008
+ 484931 232563 519470 270485 206207  69093 234250 926581 306423 330008
  402037 525613 232617 488393 251956 966875 224464 242356  73086 171327
  595940 824198 333711 185128 359712 249484  95938 436304 737154 401099
  160635  16602 506491 890163 293929 317627  95843 340331 197013 275829
@@ -16365,7 +16365,7 @@
           <t>[876481 562068 406879 929132 224710 564079 929470 930435 207750 920538
  823156 560907 563997 512000 191113 939637 940367 102130 741971 994163
  208242 929157 929240 914886 385783 224939 313936  11070 100569 512136
-  72730 680451 234076 546467 886121 862979 223904 886000 564162 842104
+  72730 680451 234076 546467 886121 862979 223904 886000 842104 564162
  134859 955307 959964 223949 513813 226289 910948 987883 910118 405089
  921807 934039 903834 226677 931760 480331 381555 931606  36326 930546
  755152 911020 831538 708738 546770 985199 940674 919830 311749 594616
@@ -16443,7 +16443,7 @@
  202472 266750 183483 714083 193789 272605 263916 407612 516769 825615
  973246 455082 484661 599192 851764 364975  81312 514320 168671 349463
  432077 514924  70712 170870 440958 466013  75221 278861 955839 391999
- 144549 413002 281626 193540 272356 294212 594951  67838 432256 557180]</t>
+ 144549 413002 281626 272356 193540 294212 594951  67838 432256 557180]</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -16511,9 +16511,9 @@
   65499 541846 859585 107169 936838 628239 859765 128539 970241 620401
  581661 250374 501088 377772 500852 510214 543551 543588 541944 374527
  391654 888425 244861 841080 782459 483969 665574 414949 897175 779606
- 511196 869724 156907 619658 192538 271354 886625 172387 722919 753008
+ 511196 869724 156907 619658 271354 192538 886625 172387 722919 753008
  159631 310861 543843  12894 131391 586489 960064 351396 566095 125531
- 619474 888631 250946 599002  12971 666369 600524 349128 103147 855697
+ 619474 888631 250946 599002  12971 666369 600524 349128 855697 103147
  401909 872173 497167 929456 132910 884115 628681 224573 859596 484763
  844613 477519 391939 138189 989109 961239 226475 152369 618029 368010]</t>
         </is>
@@ -16542,16 +16542,16 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>[ 21572  21606  21836 252624 905414 206525 270803 997220 202252 266530
-  36146 883798 204320 268598 912526 997025 424267 879316 832433 219186
+          <t>[ 21572  21606  21836 252624 905414 270803 206525 997220 202252 266530
+  36146 883798 268598 204320 912526 997025 424267 879316 832433 219186
  842648 842779 910948 223884 867908 843486 860226 390262 623902 868325
  561222 843176 432869 735226 822974 947227 839923 960335 917936 883107
-  59592 205054 269332 253260 225112 509884 878974 823235 883023 913920
+  59592 269332 205054 253260 225112 509884 878974 823235 883023 913920
  260691 795136 239070 875168  92250 391052  94646  59425 596304 509323
  224403 883035 845775 132955 940927 914703 887116 594095 912396 795318
- 846998 859067 914971 933546 203213 267491 842250 623109 885852 205201
+ 846998 859067 914971 933546 267491 203213 842250 623109 885852 205201
  269479 871100 735715 594616  78804 956833 906565 195243 274059 406258
- 193484 272300 406154 967336 189000 595645 906604 189031 935262 901741]</t>
+ 193484 272300 967336 406154 189000 595645 906604 189031 935262 901741]</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -16584,8 +16584,8 @@
  691581 989969 695007 296666 809116 609939  25583 757545 668006 468468
  507204 816720 593489 372808 363330  23833 912473 258243 369207 748110
  245961  19104 231377 488341 494351 740398 748138 733204 702246 279360
- 379826 464932 961187 397581 192857 271673  33843 339045 297711 364032
- 617072 437447 117325 563631 547188 244120 777283 815977 571195 433140
+ 379826 464932 961187 397581 271673 192857  33843 339045 297711 617072
+ 364032 437447 117325 563631 547188 244120 777283 815977 571195 433140
   97350 529101 966929 245992 616821 499390 910702  91245 242842 263018
  242448 976241 617055 788388 195292 274108 873717 279741 507148 987102]</t>
         </is>
@@ -16657,7 +16657,7 @@
  181740 543933 353286 907568 722381 598234 964160 934752 842455 785139
  986118 878000 624582 582730 564655 929201 372908 143741 439594 962782
  699969 726506 999418 111731 979313 534904 678803 594303 731582 108688
-  22655 541988 203075 267353 172996  11695 703084 343374 354518 428576
+  22655 541988 267353 203075 172996  11695 703084 343374 354518 428576
  471608 432013  84809 355348 325231 339924 702989 124792 343423 572943
  147640 497772 702992 425667 997218 364910 876032 989896 585350 877662]</t>
         </is>
@@ -16726,7 +16726,7 @@
  224171 788662 678944 806658 261888 376904 805237 882945  21851 111125
   37397 168020 121121 296574 293474 750182 788833 722990 166675 187407
  254468 431801 596762 529394 882954  36726 709566 825946 521822 566494
- 281398 549435 529140 956053 171592 285361  59298 352799 548717 390724
+ 281398 549435 956053 529140 171592 285361  59298 352799 548717 390724
  338703 293563 468692  59003 262048 546601 283294 371108 726122 950435
  807248 106332 390347 802257 632144 885153 627314 214407 799103 372821
   13308 365470 524310 525112 519923 467312 398545  15757 984415 883916
@@ -16797,13 +16797,13 @@
           <t>[947836 435485 948407 575653 805576 434847 174429 951727  16479   4260
  942073  64741 530299 949476 812445 948071 140466 377767 596565 788382
  140305 391251 467051 377581 157098 396898 182599 120744 157072 516072
- 419808  16723 190142 193454 272270 685928 398052 921536 788773 364678
+ 419808  16723 190142 272270 193454 685928 398052 921536 788773 364678
     899   1910 402081 948651 709577 168948 859823 942528 788543 497585
     636 419878 349377 168622 723607   1655 662871 111169 132920 725916
  285713  16559  18414 359401 710825 250083 682132 391773 382450 582519
  723592 523455  34824 168684 965060 767510  62774 687403 811960 550669
  408671  20645 941845 679291 186147 822079 958722 243657 595150  18167
- 208504 806360 163887 615839 203375 267653 108591 681537 806477 518895]</t>
+ 208504 806360 163887 615839 267653 203375 108591 681537 806477 518895]</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -16836,7 +16836,7 @@
  895772 332495 845695 843522 203008 267286 904680 766105 612525 927672
  397357 335880 789933 632026 556705  75130 692636 197536 276352 836746
  555204 612153 281531 936588 764758   3136 856574 985595 618774 366743
- 984423 578621 148161 704145 128024 254188 329334 553833 729315 388798
+ 984423 578621 148161 704145 254188 128024 329334 553833 729315 388798
  438519 555604 696025 881548 938997 324645 117787 551475 392515 298076
  239614 846651 150725 565294   1322 108308 864811  98779  23373 823464
  797756  33592 872971 561500 566014 563312 390462 579238 197047 275863]</t>
@@ -16946,7 +16946,7 @@
  376863 914153 884984  64126 398952 884483 846100 145807 571673 802422
  860333 967572 972487 800941 835564 284393 867822 335708  62905 774453
  411191  62289 812107 774079 624239 450620 374073 590986 101414 939890
- 620120 944921 628364   7639 491585 473072 679008 812491 855397 757966
+ 944921 620120 628364   7639 491585 473072 679008 812491 855397 757966
  855680 598355 377916 370562 179658 785589 281829 620989 705724 145012]</t>
         </is>
       </c>
@@ -16976,9 +16976,9 @@
         <is>
           <t>[515288 514918  70773  15915 408599 837147 932806 546860 877418 181116
  399514 203754 268032 877214 517368 515780 836877 337956 440658  17526
- 397273 724428 631144 206843 271121 182062  70160 887277 799135 181291
+ 397273 724428 631144 271121 206843 182062  70160 887277 799135 181291
   23370 551787 389705 517980 486847 397589 947598 485574 929652 121817
- 451402 373655 194548 273364 425717 181507 556145 563995  87555 426178
+ 451402 373655 273364 194548 425717 181507 556145 563995  87555 426178
  967237 233735 549737 199642 278458  87321 701989 373633 945535 351374
  546887 930441 734784 561302 259820 401287 405821 509334 557408 549606
  425721 399878 880519 967527 456782  47297 929417  90510 772385  74053
@@ -17010,11 +17010,11 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>[683266 984835 633370 683235 683375 493610 413224 797431 944445 198868
- 277684 254862 813050 433298     70 985149 510620 679106 632274  39997
- 694972 201567 265845  65125 510542 168505 469459 462455 433847 168458
+          <t>[683266 984835 633370 683235 683375 493610 413224 797431 944445 277684
+ 198868 254862 813050 433298     70 985149 510620 679106 632274  39997
+ 694972 265845 201567  65125 510542 168505 469459 462455 433847 168458
  749211  96988  96486 632405 713269 632493 726766 713404 938550 142910
- 196523 275339  79165 683396 122449 154547  97245 569645 168766 940233
+ 275339 196523  79165 683396 122449 154547  97245 569645 168766 940233
  147733 632954 848850 157161 636337 194266 273082 679323  15589  15178
  168581 247254 736125  90827 412793 198865 277681 457758 731037 635766
  416520 453876 520218 168456 464555 787810  15467  62421 687119 726914
@@ -17232,9 +17232,9 @@
  748167 554697 741745 247233 407555 862548 708763 941582 859478  67166
  469522 535227 369250 469591 548627  44670 293737 524781 737460 467452
  704103 156836 964806 703069 395082 511709  45325 158515 661341 254202
- 260023 921704 236911 548418 714249 307031 714645 780335 510906  71844
+ 260023 921704 236911 548418 714249 714645 307031 780335 510906  71844
  229168 322781 237100 350992 668763  15805  92054 314225 239719 416210
- 221051 617739 240300 459112 427589 460242 694554 703067 530589 434961
+ 221051 617739 240300 459112 427589 694554 460242 703067 530589 434961
  158265 236934 617796  89211 416531 666122 706910 227164 465774 448632]</t>
         </is>
       </c>
@@ -17442,11 +17442,11 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>[617534 201529 265807 709344 751478 449218 449827 630845  45835 219191
- 469286 488061 525278 279660 482313 192628 271444 507355  96743 646206
+          <t>[617534 265807 201529 709344 751478 449218 449827 630845  45835 219191
+ 469286 488061 525278 279660 482313 271444 192628 507355  96743 646206
  621815 505534 713376 376030 485143 280199 365267 143197 699174 187968
  151417 515896 430270 630920 116072  93148 438122 352842  21902 509433
- 632076 955225 504695  99494 420897 488416 379203 687095 293113 599079
+ 632076 955225 504695  99494 488416 420897 379203 687095 293113 599079
   16844 550210 245871 242555 843678 153475 326950 716678  46231 964108
  217676 420973 532172 803997 645611 337692 385183 415199 200172 264450
  727322 452362  81183 547062  87403 419527  45696 748013 567932 747814
@@ -17487,7 +17487,7 @@
  384996 104125 698200 621996 917236 697116 461946 894121 668087 767618
  880415 804003 697190 913549 133102 657373 893344 980637 801709 995260
  657388 570874 881583 783017  86073  99974 914166 803976 807324 636910
- 896753 881874 882394 192774 271590 905610  98874 943027 872393  57578]</t>
+ 896753 881874 882394 271590 192774 905610  98874 943027 872393  57578]</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -17550,7 +17550,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>[297045 156520 614525 461510 205103 269381 699721 883254 540543 125518
+          <t>[297045 156520 614525 461510 269381 205103 699721 883254 540543 125518
  124056 925756  52165  80983 728967 614516 462770 753916 692296 333494
  218745 297261 156799 809852  77508 295323 616014 659156 387660 461956
  295458   1383 822638 468675 155391 155847 861017 461683 904698 904495
@@ -17625,13 +17625,13 @@
           <t>[161189 297183 158392 799650 962720 750968 228363 312090 183061 114302
  697246  28504 248153 827846 880607 136281 238951 161504 902732 737321
  137584 415926 166692 578429 511165 402720 827250 117864 878709 748413
- 167333 409873 326039 328026 289479 503700 238064 972395 195113 273929
+ 167333 409873 326039 328026 289479 503700 238064 972395 273929 195113
  404771 831159 408757 158271 412950 900507 120398 880778 160899 595024
- 967611 674140 841197 143916 239252 341158 114848 188696 672530 229203
+ 967611 841197 674140 143916 239252 341158 114848 188696 672530 229203
  284281 398942  26851 109344 353941  27811 748902 685879 162739 749927
  119901 838224 503378 401168 606824 784240 373966 579347 563351 953964
  873627  19462 116429 375683 880790 118764   4033 314125   3716 711632
- 293104 568222 975937 132419 594982 730532 240385 353662 194532 273348]</t>
+ 293104 568222 975937 132419 594982 730532 240385 353662 273348 194532]</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -17734,8 +17734,8 @@
  830326 759416  24183 568701  24066 834178 568013 373736 567978 676947
  999166  27395 373717 830227 755508 834472 858628 673820  27808 612724
  141269 566988 830349 135759 569542 817829 544598 567498 757789 375237
- 613966 824414 595314 833162 759357 824405 838944 114104 610162 117808
- 758986  24909 568170 568914 673214 826431 190972 870592 761858 759298
+ 613966 824414 595314 833162 824405 759357 838944 114104 610162 117808
+ 758986  24909 568170 568914 673214 826431 870592 190972 761858 759298
  759603 566911 373721 757801 673944 838613 673405 568081 545478 544766
  836243 567472 672683 544831 824395 785742 839001 135816  27475 191728
  568095  27872 673500 830340 469437 818165 765557 613613 567246 623116
@@ -17769,7 +17769,7 @@
           <t>[186456 650615 603972 649137 766400 426639 656395 703044 652679 651054
  498699 186239 825565 703076 648851 899380 766812 714134 261657 499289
  894693 610554 140902 919177 743228 767688 300810 899441 846490 610391
- 762081 757262 648415 424526 717047 994459 278716 199066 277882 647533
+ 762081 757262 648415 424526 717047 994459 278716 277882 199066 647533
   83256 554305 771894 610588 755921 926925 647434 261586 913212 218251
  611121 529912 673594 811567 756736 721290 474463  41741 993953 740456
  572169 124220 529095 912886 759221 391931 637464 300877 653435 900192
@@ -17880,7 +17880,7 @@
  440906 489795 491475 423370 493521 242549 487746 228041 498323  67686
  389116 430729 425287 997433 998735 487476 488452 310141  27152 776197
  315173 175073 493702 490348 490097 497982 412339 423940 491395 781435
- 431160 324841 775860 487725 310595 735369 175047 997998 445151 356342
+ 431160 324841 775860 487725 735369 310595 175047 997998 445151 356342
  351203 355821 487900 514745 780262 497592 103545  66894 306424 308381
  907029 630033 488070 518612 430782 997530  69672 234759 502829 487918
  487970 937359 355595 232538 775074 233641 998018 534765 489808 527812]</t>
@@ -17986,7 +17986,7 @@
  584624  44437 585834  68062 618188 421325 699387 528804 563286 529106
  503787 851313 105975  82309 325785  62980 433295 123745 876720 216554
  105643  62664 973169 417917 893189 237011 618124 489584 181250   1876
- 212317 142658 618703 894143  44719 281900  56254 154143 871012  81917
+ 212317 142658 618703 894143 281900  44719  56254 154143 871012  81917
   96020  81903  44371 621023  44729 659060  96825  40010 508719 568813
   88549 217331 618668  25956 292847 428699 303900 177426 177787 619653
  278981  44863 212110 421631  69631  83588  63991 229627  87727 426998
@@ -18026,8 +18026,8 @@
  164243 866235 691689 916467 916805 209976 748705 782554 844746 595144
  681512 949014 312691 495446 229199 209004 208464 582803 671982 491541
  870635 181953  75082 978765 620957 947186 671903 538452 748610 701818
- 381096 205715 269993 735890 862567 756929 123977 198921 277737 200837
- 265115 396085 623940 243069  16978 395675 489357 208776 369013 869906]</t>
+ 381096 205715 269993 735890 862567 756929 123977 277737 198921 265115
+ 200837 396085 623940 243069  16978 395675 489357 208776 369013 869906]</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -18057,7 +18057,7 @@
           <t>[622213 528045 186408 642962 546852 550051 439442 172794 981002 186595
   60699 106140 485386 943673 108468 626006 626316 124689 818617 387117
  693009 638635 345670 393055  74716 979625 691959   2144 487254 370476
-  71829 310007 204399 268677 408696 651336 287652 334247 136483 868902
+  71829 310007 268677 204399 408696 651336 287652 334247 136483 868902
  936311 973881 460461 226466 622175 209808 746903 838529 943877 616185
  950210 462544 985302 914896 106630 213285 957941 873902 783360 988596
   13466 214716 453836 147381 105535 573847 620076 879511  15590 488837
@@ -18170,7 +18170,7 @@
  634999 581549 578937 786368 869298 283864 787939 285165 579426 793183
  495940 558703 914611 529201 558678 674539 924148 579213 494141 634870
  419283 823954  29775  43120 419457 558793 428166 632499 499298 252544
- 793105 488425 347026 531119  43020 915140 793666 292788 569209 452486
+ 793105 488425 347026 531119  43020 915140 793666 569209 292788 452486
  473796 470016 660164 929803  80333 325955 834764 674113 768049 970092]</t>
         </is>
       </c>
@@ -18272,7 +18272,7 @@
         <is>
           <t>[353227 386337 991895 366192 187020 697511 353353 476652 897209 861895
  388348 496176 903526 343898 322776 567449 353968 564743 699129 427941
- 577252  77215 777139 939522 860280 774095 693304 755068 656184 953165
+ 577252 777139  77215 939522 860280 774095 693304 755068 656184 953165
  368797 374714 621508 340125 566199 693609 697421 533712 325919 981900
  251975 368236 777275 339683 730726 108029 538377 386002 973584 881261
   78721  78470 683452 978558 419717 355870 764047 125989  60410 564993
@@ -18346,7 +18346,7 @@
   71111 694334 453555 549266 833388 581053 497650  65116 841388 525282
  797732 688898 691277   4898 322118 771170 533791 466903 508870  95697
  147110   5854 841082 704019 531646 965283 172825  17409 541648  18002
- 730788 171887 389566 198010 276826 183671 392616 697019 171720 525500
+ 730788 171887 389566 276826 198010 183671 392616 697019 171720 525500
  844977 406218 561167 298659 680381 414148 406322 433208 371253 457091
    7456 307292 913296 620206 795962 439887 840301 481326 549127 434307
  525895 168833 172080 615406 994387 739350 333622  14317 173756 512399
@@ -18419,7 +18419,7 @@
  871944 877278  91462 837027 921427 734215 968331 775291 540941 483856
  198141 276957 455030 819767 593106 134272 873653 645544 743673 872619
  875614 620482 834548 401833 344017 858842 669304 246305 704586 455271
-  96881 703482 403714 391102 161930 533633 823391 995253 872506 816101
+  96881 703482 403714 391102 161930 823391 533633 995253 872506 816101
  959575 620049 241537  20485 178882 997947 749955  10423 621603 223813
  351791 932519 134287 866798 287659  58134 956130 373992 454865 627211
  704964 775368 564977 288737 393549 394363  52921 620874 133778 317267
@@ -18631,14 +18631,14 @@
       <c r="B507" t="inlineStr">
         <is>
           <t>[986642 964378 153849 533393 840004 296132 152891 939534 812885 110242
- 206151 270429 235830 236413 128162 980738 725574 981739 300472 507959
+ 270429 206151 235830 236413 128162 980738 725574 981739 300472 507959
  439559 298151 813752 958840 531885 126732 928696 435615 554686 586960
  530431 491583 767421  42800 918425 301447 533487 858887 676743 880469
   94035 985714 532767 961640  90343 304236 951022 700842 468480 695364
  302096  77647 785801 843989 222790 679458 389611 577997 751051 979813
  440498 362752 373281 685981  84457 724903 793957 107481 930036   3491
  439754 728320 294400 215993 858607 656153 687969 523131 532453 918432
- 433664 532221 694765 194661 273477 349301 708284 500518 844865 438749
+ 433664 532221 694765 273477 194661 349301 708284 500518 844865 438749
  748356 925999 843166 389757 530723 850190 142560 773560 533790  82361]</t>
         </is>
       </c>
@@ -18704,7 +18704,7 @@
         <is>
           <t>[ 94268  93180 902991 709667 911967 650641  47228 777857 505310 119719
  953546 748771 905772 914249 940486 865275 438144 902687 813643 413902
- 902214 801077 822160 900075 545638 316251 347258 201289 265567 173486
+ 902214 801077 822160 900075 545638 316251 347258 265567 201289 173486
  859078 695491 436640 672867 291560 793817 813350 694775 777861 462381
  326911 715539 715622 313033 293149 460132 500919 905494 794051 789883
   47122 546115 789057 895224 778481  94306  91587 337089 129983 694330
@@ -18740,14 +18740,14 @@
         <is>
           <t>[652973 575399 684485  42637 308712 757062 390725 186908 436066 756859
  325644 100397 879439 472304 529117 130169  66228  68107 450755 879071
- 431204 662723 662336 547506 195879 274695 684302 671718 376676 494575
+ 431204 662723 662336 547506 274695 195879 684302 671718 376676 494575
  467205 903823 522509 552585 769310 860133 999420 529674 435766   1077
- 472214 662896 199234 278050 521906 237140  85044 236807 740145 178705
+ 472214 662896 278050 199234 521906 237140  85044 236807 740145 178705
  808264 802751 149571 350795 441275 106256 501977 170631 730634 509203
  732211 467509 152761  88969 725716 551605  96680 551967 724099 523837
  487470 808712 785418 638154 195114 273930 365424 570006 176675 166676
  528617  96069  19718 925213 157424 546718    116 525628 683972  68540
- 833727 194844 273660  62825 717763 295645 285631 278913 525453 812356]</t>
+ 833727 273660 194844  62825 717763 295645 285631 278913 525453 812356]</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -18851,7 +18851,7 @@
  305483 343923  81069 689815 258138 708804 418617 292831 485832 531662
  370529 684127 214583 735826 363795 594956 100499 459845  96774 394635
  696460 305433 548362 452643 188431 305154 822491 214848 178035 888615
- 305297 693954 514260 787890 572497  31800  88260 747010  68535 727438
+ 305297 693954 514260 787890 572497  31800  88260 747010 727438  68535
   80736 188322 375767 363686 363537 370251 569970 422100 700736 242422
    5161 780575 953859 371448 249847 822341 550958 512541 309791  94434
  279440 433857  94406 983104 887588 420079 305024 729212  31354  15280
@@ -18922,10 +18922,10 @@
  275730 315456 702356 974327 952308 683451 503915 451272 913468 215765
  435670 582147 233639 299647 248990 500231 952248 687528 683488 599666
  361328 223993 216167 136152 299672 220965 844660 570952 293959 562884
- 529302 607322 196431 275247 493794 683328  26281 805633 434844 926616
- 429049 822578 903721 626905 742366 358601  98368 199711 278527  60236
+ 529302 607322 275247 196431 493794 683328  26281 805633 434844 926616
+ 429049 822578 903721 626905 742366 358601  98368 278527 199711  60236
  512383 249950  21298 608615 976080 442509 592466 416267 966921 592450
- 293411 925829 607857 580083 974510 198646 277462  61446 578936 599527
+ 293411 925829 607857 580083 974510 277462 198646  61446 578936 599527
  515613 980074  21364 626805 695650 471026 939907 284599 822352 385321
  293828 224358 169146 901912 516073 247872 718155 981126 792611 663251]</t>
         </is>
@@ -18961,7 +18961,7 @@
  544597 379155  98203 892178 478488 917853 576053 476775  38419   9193
  786942 918583 790496 207432  38529 605507 667364 521306  39341 892532
  768565  39379 178728 476254 918609 892145  54993  39416 941769  54954
- 902887  37903  24100 769324 478665 512718 902002 604487 114219 480164
+ 902887  37903  24100 769324 478665 512718 902002 604487 480164 114219
   39460  38566 478492  38348 478255 611040 512544 106125 918666 755560
  886373 448194 895734 218826  39576 638244 521287  39537 559355  38147]</t>
         </is>
@@ -18991,8 +18991,8 @@
       <c r="B517" t="inlineStr">
         <is>
           <t>[700863 495941 991250 494142 237375 450117 228098 413953 230202 305776
- 577913 238432 480960 904587 619877 730278 923148 466824 895814 201597
- 265875 530614 819656 480758  62336 868800 231902 487727 607817 635392
+ 577913 238432 480960 904587 619877 730278 923148 466824 895814 265875
+ 201597 530614 819656 480758  62336 868800 231902 487727 607817 635392
  868529 803630 130340 450566 484916 819386 499001 297619 724896 405604
  238135 510012 188805 131071 581336 584162 238697 742168 472809 658786
  282432 282037 575322 700625 237457 620549 753982 466696 527563 201474
@@ -19034,8 +19034,8 @@
  241748 168191 103427 694616 217250 258159 964982 530401 166798 965484
  709437 709431 966281 473460 209255 215305 968270 519761  47201 115665
  723615 218019 999309 551007   9649 529154 880401 837770 486992 455102
- 917222 696486 709505 779384 505068 892661 101556 695948 486001 194808
- 273624 251485 349248 251566 726599 533056 663815 771155 726400 151402]</t>
+ 917222 696486 709505 779384 505068 892661 101556 695948 486001 273624
+ 194808 251485 349248 251566 726599 533056 663815 771155 726400 151402]</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -19069,9 +19069,9 @@
  373150 375050 760930 759057 447339 447223 569107 447588 375144 862663
  830253 758456 666826  82011 863036  24846 957357 862036 375201 446009
  853347   9887 114388 190678 217498 830128 946610 871401 229757 871512
- 827146 594220 952402 945269 871786 446930 666779 446907 447344 446805
+ 827146 594220 952402 945269 871786 446930 666779 447344 446907 446805
  447578 446347 862943 836795 830137 447858 871829 943504 101908 446963
- 446351 190708 446681 904392 447631 768106 446870 447995 447489  24513]</t>
+ 446351 446681 190708 904392 447631 768106 446870 447995 447489  24513]</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -19136,12 +19136,12 @@
         <is>
           <t>[426846 458018 989828 974889 811500 914668 790838  24339 941454 433722
  629213 334628 426676 292581 961376 606944 292094 292498 708865 426612
- 133252 228655 458159 352016 363953 364012 989877 684136 194096 272912
+ 133252 228655 458159 352016 363953 989877 364012 684136 194096 272912
  348216 157776 540740 122282 282993 370145 604005  30541 947957 122755
  903248 942697 283537 555293 238055 221526 572765 334696 504586 897377
  517597 426730 337938 235349 322262 539946 458046 101253 625595 724649
  923996 496970 497086 305089 606980 678643 665928 558656 443264 391896
- 310185 177263 101242 896802 350570 428436 368975 369826 764693 971220
+ 310185 177263 101242 896802 350570 428436 369826 368975 764693 971220
  180669 534623 601689 355965 960919 708401 353021 351916 470617 467122
   30104 572590 782969 114604 219605 228949 282765 182587 220623 657992]</t>
         </is>
@@ -19179,7 +19179,7 @@
  662725 229371 212843 366237 169191     17 822764  22308 540924 666240
  946042 714060 139380 241640 716771 516854  44759 242174 426567 927717
   68666  59393 433329 349814  79478 784963 517141 413825 946497 513597
- 903119 531426  94684 698721 140385 194000 272816  68526 258297 201138]</t>
+ 903119 531426  94684 698721 140385 194000 272816  68526 258297 265416]</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -19214,7 +19214,7 @@
  955233 920921 854196 959121 760069 838074 543043 103700 642638 995267
  640027 444921 641592 846358 876942 217218 103063 837719 853976 989913
  444368 446661 851154 449535 876845 973861 854618 856847  56368 252613
- 763191 838320 885706 444405 641486 876818 762871 762840 639953 116095
+ 763191 838320 885706 641486 444405 876818 762871 762840 639953 116095
   44249 445430 103991 444589 824381 443535 216507 103093 821468 870987]</t>
         </is>
       </c>
@@ -19427,9 +19427,9 @@
  110764 796107 636924 870925 920767 901246 113243 814380 718474 111829
  785471 757797 814374 109903 970484 798065 693820 447147 937900 446488
  814576 870037 814420 832957 636941 613027 468998 871630 135104 112407
- 830286  25992 952643 952858 849272 900975  24722 960157 852772 447543
- 984193 769165 535439 826910 115374 814512 920011 448016 962001 113533
- 429501  52231 142734 762415  42241 861891 444885 447896 447276 901281
+ 830286  25992 952643 952858 849272 900975 960157  24722 852772 447543
+ 984193 769165 535439 826910 115374 814512 920011 448016 962001 429501
+ 113533  52231 142734 762415  42241 861891 444885 447896 447276 901281
   24915 448214 685278 788014 814457 861955 447372 448122 830137 755537
   24627 847738 191254 761724 755535 869292 674472 826976 536657 217341]</t>
         </is>
@@ -19502,7 +19502,7 @@
  243196 691997 346870 725569 903670 791503 231463 550295 701118 425645
  143067 691401 463043 631801 392441 328572 346024 710063 845388 976343
  702319 967362 342349 535572 622646 712093 956173 965287 253917 728729
- 603595 185987 184585  44991 725373 588807 828096 193516 272332 941001
+ 603595 185987 184585  44991 725373 588807 828096 272332 193516 941001
  751335 109561 166890 462713 612100 955906 615831 679335 727791 243777]</t>
         </is>
       </c>
@@ -19678,7 +19678,7 @@
   12306 853174 886006  36270   7524 863713 904414 473657  13959 834705
  401146 813958 146354 858602 895095 997365 919119 849242 851228 858838
  223966 922662  55037 441217 922295 681763 636763 708860 997124 849089
- 853202 858193 825049 911618 854883 850114 201376 265654  51287 962032
+ 853202 858193 825049 911618 854883 850114 265654 201376  51287 962032
  833041 899032 449278  71276 911610 963316 842612 994430 899561 849733
  872231 962590 551368 800648 563808 899136 922942 851948 123048 915406
  997053 102248 935441  64117 239524 538762 885836  20466 205595 269873
@@ -19716,7 +19716,7 @@
   88339  82512 291891 525053 292956 504435 151293 525373 803951  87692
  459097 109123 522451  68562  84907  92731 108026  83139 563903 156381
  305717 569422 563945 566338 279867  94753 815580 514159 780096 107165
- 107346  23434 430153 525319 208570 122545 863028 720200 563938 279892
+ 107346  23434 525319 430153 208570 122545 863028 720200 563938 279892
   83265  23464 504930 200659 264937 158061  89636  93495 945941  89830
  294382 291884 246656  94342 397433 724685 280458 720257 124936  87498]</t>
         </is>
@@ -19781,7 +19781,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>[127184 639578  44786  44582 639621 573690 740774 771994 128634 168016
+          <t>[127184 639578  44786 639621  44582 573690 740774 771994 128634 168016
  869208 802613 522852 600511  12667 661996 683296  12625 737113 167241
  716894 502433  65141 786030 467976 524926  14542 107780 525925 584834
  174693  10117 311230 156895 514966 636426   3669 489201 294360 695125
@@ -19790,7 +19790,7 @@
  690239 604027 634143 628752 704006 467617 182145 495765 987304 573362
  286646 524908 732210 282788 440873 514610 158238 211154 432235  20241
  772063 525112 698684 514389 525676 744434 695361 321904 921718 391816
- 182011 440409 286338 213793 932649 430227 848388 168831 203746 268024]</t>
+ 182011 440409 286338 213793 932649 430227 848388 168831 268024 203746]</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -19926,7 +19926,7 @@
       <c r="B543" t="inlineStr">
         <is>
           <t>[397070 336801 940945 353119 200993 265271 104389 497239 122296 636056
- 723372 917878 736403  20891 153905 306722 738465 201253 265531 598300
+ 723372 917878 736403  20891 153905 306722 738465 265531 201253 598300
  947069 350491  20245 336732 356935 515087 684156 784931 522700 996735
   20862 422588 419425 429594 421974 940730 772761 148107 799280 368938
    4391 174664 376059 470797 525139  81032 480974 605230 465730 658255
@@ -19970,7 +19970,7 @@
  570747 777069 111239 701842 455410 418018 229968 364489 653113 833302
  263982 515671 532190 418476  91919 498563 236910 228130 141407 311667
  603405 806379 104363 716543 515516 473328 130882 228840 151206 364926
- 525190 227189 431786 615907 512013 733594 200938 265216 228327 632769]</t>
+ 525190 227189 431786 615907 512013 733594 265216 200938 228327 632769]</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -20000,7 +20000,7 @@
           <t>[784848 784819 658137 363403  79612 825635 528614  79509 982233  51541
  364114 422873 720636 911333  24185 640173 953077 427617  68708 826066
  363391 535012  32244 430777 421106 658158 421480  95416 446522 825735
- 776966 200585 264863 550337 892702 105003 426678  32340 427119  51833
+ 776966 264863 200585 550337 892702 105003 426678  32340 427119  51833
  156457 745981 869348  23823 426652 262325  31427  23972 993672  23606
  535022 733074 535225 212095  20770 422785 422796 956469 564082  44164
  104785 748803 658130 742176 603369 352417 566393 525469 104840  51683
@@ -20035,7 +20035,7 @@
         <is>
           <t>[915991 101006  99731  99856 168710 223802 987146 180807 753545 987248
  916418 281960  91036 922394 840387  41424 323468  19899  14265 468754
-  44232 459472 100249 569719 397134 962341 197635 276451 225661 281498
+  44232 459472 100249 569719 397134 962341 276451 197635 225661 281498
  253071  41002 911190 640197 452702 452792 767194 745962 424364 504993
   64346 735930 512335 923045 895427 849627 559611 474447 878749 824565
  224907 857502 824716 963848  43341 735621 751305 465662 827798 895352
@@ -20111,7 +20111,7 @@
  724509 526565  70166  81966 997004 989377 833699 407631 340023 535750
  546837 397091 358435 466963 603367 822157 716776 261753 712203 690615
  912560 214965 262650 682707 514133  84855 690744   5539 799601 693914
- 237315 200033 264311 631744 516535 516068 948841 420479 455230 323999
+ 237315 264311 200033 631744 516535 516068 948841 420479 455230 323999
  609417 997908 390204 498692 555207 744941 130997 154569 678666 325943
  290694 157366 208489 338932 739261 234434 363946 690510 430720 338697
  526152  22254 389959 496742   1232 682515 532522 293992 351296 226102]</t>
@@ -20258,7 +20258,7 @@
  295157 503706 339130 314764 238206 365498 715746 353739 280756 108859
  364626 337753 307191 257513 313194  24379 829476 227141 236868 236901
  877582 227453 364196 684137 352180 923156 363952 234706 247871 655922
- 364843 194097 272913 232398 740266 345848 228879 238802 349115 122859]</t>
+ 364843 272913 194097 232398 740266 345848 228879 238802 349115 122859]</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -20329,7 +20329,7 @@
  326196 723428  79994 396857 602757 151379 604010 828704  79580 738444
  177360 292634 141551 323245 365370  87409 522025 106804 261528 565725
   29965 487529 658258 321695 663113 151174 510323 310708 688334 738536
- 105109 910769 347625 528829 123712 911769 520724 322497 261587 471472
+ 105109 910769 528829 347625 123712 911769 520724 322497 261587 471472
  351182 784864 306499 558372 389617 351135 363581 325185 526572 515211]</t>
         </is>
       </c>
@@ -20436,7 +20436,7 @@
  964023 576909 782586 988463 912625 774712  66312 627082 580505 164525
  844551 397318 301744  33254 124917 165788 920165 613321 485843 623626
  434328 485571 916223 702855 121437 598211  64064 194400 273216 126306
- 772754 198695 277511 559877 570252 978794 924819 365956 630823 395342
+ 772754 277511 198695 559877 570252 978794 924819 365956 630823 395342
  162148 781813 155433 992987 911750 805531 776402 121815 977983 330481
  774598  72504 377236  13909 757181 975655 559150 430331 846988 773185]</t>
         </is>
@@ -20473,7 +20473,7 @@
  219860 967205 109306 465908 879255 634854 917510 382409 140140 199920
  264198  34431  68906 372763 680218 945233  33746 692576 145420 832066
  733887 699806 392812 454520 127420 952036 580019 738558 515006 702154
- 499750 199821 264099  77975 217762 737236 408101  33260 925866 748527
+ 499750 264099 199821  77975 217762 737236 408101  33260 925866 748527
   72715 713169 686433 483334 485492 180712  32317 605367 336951 670055]</t>
         </is>
       </c>
@@ -20574,15 +20574,15 @@
       <c r="B561" t="inlineStr">
         <is>
           <t>[900580 370539 694380 482908 832498 684844 553482 331647 995410 542108
- 553117 776261 370781 824420 195161 273977 331841 995916 553318 166268
+ 553117 776261 370781 824420 273977 195161 331841 995916 553318 166268
   23274 300162 404179 995320 405213 543533 374650 821512 995458 795994
-    369 750762 195259 274075 921968 614438 751569 108754 134904 374041
+    369 750762 274075 195259 921968 614438 751569 108754 134904 374041
  554158 138508 553127 613699 843638 198846 277662    670 821486 135165
    4238 603060 164327 142699 553688 114461 726810 405237 510563 797170
- 660803 195665 274481 877363 795964 248707 284680 132959 569801 569977
+ 660803 274481 195665 877363 795964 248707 284680 132959 569801 569977
  327021 374083 284513 694388 130223 374346 557739 709962 161046  91061
   31254 917309 499922 995491 374331 916705 721402 405417 195682 274498
- 149837 319452 832391 763816 192044 196490 275306 541934 113710 602836]</t>
+ 149837 319452 832391 763816 192044 275306 196490 541934 113710 602836]</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -20614,8 +20614,8 @@
  235339 773695 309140 780911 253228 974866 120745 296546 284281 390355
  509477 188753 199988 264266 293740 406297 774518  43809 341158 948435
  344597 968679 705298 340106  68693  12829 988934 502876 530907 822841
- 199918 264196 649225 975755 200507 264785 171724 976313 576361 198642
- 277458 527805 498108 840779 180063 975795 521096 305666 497509 823068
+ 199918 264196 649225 975755 264785 200507 171724 976313 576361 277458
+ 198642 527805 498108 840779 180063 975795 521096 305666 497509 823068
  680821 680005 563351 235871 713885 704306 287486 424353 183705 247950
  197623 276439 334855 492661 463433  14683 967471 253763 561091 853374
  402688 776487 287878 300642  47041 968620 563890 574311 729405 948994]</t>
@@ -20654,7 +20654,7 @@
  519684 658357  63974 723199 625496 861695 728018 465576 466904  30692
  309896 105133 789024 403766 360496 612450 788086  31469 129847 459980
   69803 184175 329930 742574 502698 658203 688154  33866 890697 419839
- 622193 109632 785882  31840 204017 268295  96137 283887  97784 855692]</t>
+ 622193 109632 785882  31840 268295 204017  96137 283887  97784 855692]</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -20722,7 +20722,7 @@
  695392 698835 370234 599060 481591 983007 916066  68567 780451 175479
  530303 536637 549224 177388  69522 454606 752167 974479 249833 436716
   34790 698727 297040 455228 148848 173946 290695 524667 396940 955534
- 327942 397158 144814 804788 278882 126634 736058 192469 271285 695799
+ 327942 397158 144814 804788 278882 126634 736058 271285 192469 695799
  523256 135634 170901 484844 402210 722267  22504 287252 134502 121179
  243391  20915 549702 915978 703636 307493 175630 723657 699595 143619
  120076 305979  70255 805639 710935  59942 616999 521793 525619 689062
@@ -20760,7 +20760,7 @@
  316047 992894 602111 599327 775725 246164 480895 834921 754759 106745
  468015 874827 939724 718323 489125 281819 478116 665005 846904 847552
  715579 314547 387988 808150 454214 557515 152786 387605 438672 420025
- 950270  80920 530763 489356 808540 912461 482951 195167 273983 194062
+ 950270  80920 530763 489356 808540 912461 482951 273983 195167 194062
  272878 679434 135688 938743 388512  75387 228097 407461  28391 371456
  557044  33468 107476 529576 695334 475269 541010 897114 517838 706280]</t>
         </is>
@@ -20789,7 +20789,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>[ 67579 399070 181355  67924 751220 723615 392378 197718 276534 694616
+          <t>[ 67579 399070 181355  67924 751220 723615 392378 276534 197718 694616
  601300 181110  61086 335394 391430 121390 580918 282157 799224 766000
  404368  23266 749969 500936 797224 494352 217250  45403 481237 239471
  726700 750847 797812 752250 653644 777428 633876 586400 160388 408762
@@ -20825,15 +20825,15 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>[ 70761 173010 965763 506393 184593 194545 273361 659847  65110 765126
+          <t>[ 70761 173010 965763 506393 184593 273361 194545 659847  65110 765126
   48790 233697 473624 658847  33318 666405 150171 297536 531375 413441
  934891 609065 370936 128905  88597  72109 602593 998277 983666  33194
  175870  73294 534072 548959  28360  32997  34098 187061 965523 369085
  894320 835563 242612  95361 477886 368180 479161 788809 598104  35438
  364400 242918 927160  16118  31510 400914 999073 549752  31429  90025
  508115 738725 366703 701612  88544 150527 678218 179144 166914 403052
- 974028 775072 262431 401951 544247 955568 636092  34373 402081 203680
- 267958 710571  20623 748479 731458 238570 521332  26912 118067 381600
+ 974028 775072 262431 401951 544247 955568 636092  34373 402081 267958
+ 203680 710571  20623 748479 731458 238570 521332  26912 118067 381600
  530299 749223 324157 499784  32107 763957 588880 510311 420495 813117]</t>
         </is>
       </c>
@@ -20935,9 +20935,9 @@
         <is>
           <t>[783652 559483  32952 865660 783144 783958 139722  65745 630096 849829
  829322 946771 979517 102009  32483  64746 416360  49721 652218 495494
- 629902 675816 469187 931403 677501 875057 577919 629455 162141 203258
- 267536 849768 174148 302233 405668 928625 887189 874153 545029 134763
- 162790 161382 675461  62929 838568 109245 203624 267902  63911 735266
+ 629902 675816 469187 931403 677501 875057 577919 629455 162141 267536
+ 203258 849768 174148 302233 405668 928625 887189 874153 545029 134763
+ 162790 161382 675461  62929 838568 109245 267902 203624  63911 735266
      87 167289 853093 879475  42385  29461 743835  42739 887698 737899
   28818 609671 853040 466600 577286 734439 860330 325114 314589 637743
  419146 921263 202079 266357 420526 252803 405614 134429 369011 887378
@@ -21044,11 +21044,11 @@
           <t>[  6379 533371 945260 307019 949663 815150   6033 371510 806216 187549
  781851 678015  35672 389955 806326 929204 153387 871087 482839 864112
  873436  33040 178440 806227 600197 218401 533584 309404 678175 810579
- 203362 267640 903997 782302 293902 366404 478757  34564 436311  12418
+ 267640 203362 903997 782302 293902 366404 478757  34564 436311  12418
  787817 177717 860363    242 544139 291970 638000 234581 701394 312289
  242797 576841 292892 436782 947124 860654 940848 798490 243030 345650
- 782166 235237 948281 870815 367109 949045 177042 787970 124487 408976
- 820947 417050 163668 203004 267282 587693 400867  30459 132275 177463
+ 782166 235237 948281 870815 367109 949045 177042 787970 408976 124487
+ 820947 417050 163668 267282 203004 587693 400867  30459 132275 177463
   96993 660714 208353 737750 862899 637955 638085 943912 478732 372615
  964788 170225 322649 178138 360643 184573 835442 348296 306181 498434]</t>
         </is>
@@ -21084,7 +21084,7 @@
  156956 419760  31223  61254  84877 420018 379125 517920 419928 501517
  703147 379500 736730 156268 401344 802148 547951  26715 733256  60688
  353501 477537 905590  23430 399203 153219 523134 815816  82706 429017
- 831522 129288 420378 544117 726974 189189 442418 732828   4872 496280
+ 831522 129288 420378 544117 726974 442418 189189 732828   4872 496280
  476016  84061 732064 740612 322126 965179 188012 830968 184478 433731
  347330 524767 141856 732870  85623 351995  82504  92026 427610 189244]</t>
         </is>
@@ -21113,13 +21113,13 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>[498871 497958 988372 497576 551108  61077  15395 987917  60613 198207
- 277023 901970 505255 698784 106599 541060 710378 530048 364835  59852
-  43602 198490 277306 710224 214161  67768 284896 242655  15586 487883
+          <t>[498871 497958 988372 497576 551108  61077  15395 987917  60613 277023
+ 198207 901970 505255 698784 106599 541060 710378 530048 364835  59852
+  43602 277306 198490 710224 214161  67768 284896 242655  15586 487883
  503934 487942  70351 658227  13397  63316 416788 755861 522576 527354
-  66886 550812 396276 504451 432512 544370 646510 541143 203424 267702
+  66886 550812 396276 504451 432512 544370 646510 541143 267702 203424
  681454 432464 875839 503871  70705 777602 929833 351324 823125 504528
- 516221 520024  70666 243022 760198 172537 777702 279703 924953 164614
+ 516221 520024 243022  70666 760198 172537 777702 279703 924953 164614
  182968 990141 230631 310546  71355 978314 434245 418523 392448 431192
  710391 658299 710730 836749 435247  13350 756938 535602 364873 310694
  840249 464259 337888 412299 262111 963515 214964 211248  74382  31142]</t>
@@ -21150,10 +21150,10 @@
       <c r="B577" t="inlineStr">
         <is>
           <t>[796110 527231 233505  72797 622855 516134 795740 189904 393055  74521
- 227528 796245 403863 666583 601459  15973 748807  71685 205022 269300
+ 227528 796245 403863 666583 601459  15973 748807  71685 269300 205022
  515647  71633  61769  18720 187344 591265 748541 562707  71126  14075
  527740 511986 538791  16161 681710 124378 752141  18739 929353 623697
- 205294 269572 196470 275286 196878 275694 795620  18630 885959 227683
+ 205294 269572 196470 275286 275694 196878 795620  18630 885959 227683
  330940 247048 748688 695503 750835 731494 358070 393086 140840 246751
  931480 805679 633875 948880 358512 752533 386713 625718 626542 237584
  887709 598953 931251 805739 843838 417138 840167 167009 507676 601739
@@ -21260,8 +21260,8 @@
           <t>[263339 398348 616562 314980 148962 187831 187799 505339 784700 819054
  691724 300624 784615 333190 966609 163097 715135 949055 108473 552229
  505595 429163 927786 493651 626494 398045 819025 179157 244340   7403
- 551274 164694 799126 248956 608416 845196 179945 149361 714492 949750
- 386218 614380 692687  47694 115370 144074  28282 199959 264237 100166
+ 551274 164694 799126 248956 608416 845196 179945 149361 949750 714492
+ 386218 614380 692687  47694 115370 144074  28282 264237 199959 100166
  456001 598050 387281  18827 255166 596794 506145  53199 819524 173052
  712146 917866 521451 885207 568564 634455 750895 752113 343351  57037
  504795 362821 284892 178254 257265 135526  47756 499544 166932 934397
@@ -21403,13 +21403,13 @@
         <is>
           <t>[ 36223 883324 540134 631369 671066 795133 914338 449243  83200 131965
  426974 883320 415380 668882 715898 695628 936386 504018 993103 894205
- 679575 180196 669100 974941  15578 131659  76390 259567 670500 722519
- 922072 935767 975107 502814 668217 724307 378881 181744 402148 100686
+ 679575 180196 669100 974941  15578 131659  76390 259567 670500 922072
+ 722519 935767 975107 502814 668217 724307 378881 181744 402148 100686
  773278 805528 389363 378199 399006 505571 894162  75355 679719 820587
  240755 334834  36335 855564 967869 543258 109065 967048 854392 387647
   19771 869805 429101 775857 387996 796563 409602 809771 762114 671342
- 196858 275674 514288 502973 662445 204538 268816 370711 376958 192735
- 271551 917750  42656 451773 735552 967709 215020 416775 506158 286189
+ 196858 275674 514288 502973 662445 268816 204538 370711 376958 271551
+ 192735 917750  42656 451773 735552 967709 215020 416775 506158 286189
  313821 581045 153425  16058 684798 106474 839054 404868 137988 527259]</t>
         </is>
       </c>
@@ -21438,14 +21438,14 @@
       <c r="B585" t="inlineStr">
         <is>
           <t>[194897 273713 690061 205022 269300 452099 989445 333322 343787 741591
- 989255 314114 255091 194944 273760 340563 315936 457879 636032 890872
+ 989255 314114 255091 273760 194944 340563 315936 636032 457879 890872
  973291 257109 416541 230603 670078 723832 745328 332941  11907 411807
  343599 756497 255729 295594 747219 890502 343182 343264 735866 756656
- 198707 277523 632354 250424 509233 636194 235514 632239 252838 353766
+ 277523 198707 632354 250424 509233 636194 235514 632239 252838 353766
  259416 860929 254013 690676 648953 289528 127237 214219 634702 334679
- 689532  71633 670010  71685 632432 484229 616781 999149 288464 944389
+ 689532  71633 670010 632432  71685 484229 616781 999149 288464 944389
  745027 408755 309777 581948  10105  59292 595437 334735 122210 290574
- 675477 359622  26862 481443 396296 198212 277028 567717 294473 953668
+ 675477 359622  26862 481443 396296 277028 198212 567717 294473 953668
  395608 616429 756637 406289 172343 861164 241288 912047 416713  36275]</t>
         </is>
       </c>
@@ -21480,7 +21480,7 @@
  458183 195964 274780 463508 310024  20032 381964 221540 198208 277024
  925255 120222 484930 740849 174829 125212 494105 262381  80717 803317
  307114 125093 511469 251325 243987 581528 175253 173161    888 519609
-  45628 200536 264814 253931 749244  84739 193678 272494 893771 740858
+  45628 264814 200536 253931 749244  84739 272494 193678 893771 740858
  251652 845379 117634 319860 482264  97194 501284 337870 549101 704020
    1726 144004 175040 705540 860974 521974 633259 369212 118032 710315]</t>
         </is>
@@ -21514,9 +21514,9 @@
   36767 534309 998723 588348 263828 454756 669377 240381 651962 729173
  394277 743728 187735 187691  36761 531827 986736 772690 151105 486622
  772320  43947  61657 590141 462393 968433 838728 717678 971156 386484
- 241852 976368 874701 775550 734502 200554 264832 565624 586336 459742
+ 241852 976368 874701 775550 734502 264832 200554 565624 586336 459742
  807810 983680 187700 586883 571139 201031 265309 793604 231123  44010
- 590007 851919 792709 200491 264769 108070 363203 998168  54981 584620
+ 590007 851919 792709 264769 200491 108070 998168 363203  54981 584620
  386312 639664 792069 486886 373063 587567 962176 495954 585678 381652
  743537 406136 586421 586114 659944 928340 533982 577051 986016 914662]</t>
         </is>
@@ -21546,7 +21546,7 @@
       <c r="B588" t="inlineStr">
         <is>
           <t>[ 36797  37062  36631 209201 965966 203838 268116 151430 965309 314076
- 204689 268967 209889 814094 708582 223298 678120 808865  71297  28682
+ 268967 204689 209889 814094 708582 223298 678120 808865  71297  28682
  214868 829845 690304 720085 401520 401004 526965 146282  21293 464865
   30072 175555 822195 401171 662684 946326 226292 529143 550287 588756
  151468 366065 336634 208380  33332  26170 694695 550540 748335 528439
@@ -21625,7 +21625,7 @@
  170595  36796 256375 796926 721770 460385 174835 802636 497892 809607
  911753 498618 432564  62452 459225 282049 855619     30 142542 398417
  705231  95716 183095 324694 737146 753924 763511 134969 799652 689345
- 426747  97754 468540 512345 903077 723939 742820 806236 106580 965740
+ 426747 468540  97754 512345 903077 723939 742820 806236 106580 965740
  188809 549167 794668 831522 694225 765686 703819 393318 425653 489372]</t>
         </is>
       </c>
@@ -21698,7 +21698,7 @@
  252554 342198 821116 968144 739474 885495 578005 857132 522591  33276
   31857 449713 719205 327992 856127   8541 359234  99496 337767 822531
  251684 498426 368583 884560 293846 343946 553990   6085 435875 104485
- 352582 419430 435433 200221 264499 369946 366094 896546 603390 311101]</t>
+ 352582 419430 435433 264499 200221 369946 366094 896546 603390 311101]</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -21840,7 +21840,7 @@
  753719 574079 321862 534688 804239 869470 645657 327291  96405 112854
  278858 940454 694398 325734 232285 785578  95325 784846 102836 422712
  502775 862725 221923 337035 212181 848363 890063 939887 884363 180984
- 363491 202697 266975 940486  54153  44781 306396 978044 313047 871357
+ 363491 266975 202697 940486  54153  44781 306396 978044 313047 871357
  536632 964762 713563 658626 436091 859139 719059 354587 472094  95200
  249326 227640 112206 280942  95236 852918 869376 292536 174674 280015]</t>
         </is>
@@ -21981,12 +21981,12 @@
  583912  59003 144602 430346 590706 323497 696630 416447 523330 430085
   37397 341020 169125 310405 990651 411301  37846 611498 519484 645082
  989828 222084 467959  52494  56547 583948 807141  69322  60164 550242
- 237776  71367 193327 272143 325763 307554 519270 484996 219942 143416
- 731416 319787 336949 519425 426740 676714 192762 271578 698871 429764
+ 237776  71367 272143 193327 325763 307554 519270 484996 219942 143416
+ 731416 319787 336949 519425 426740 676714 271578 192762 698871 429764
  322646 426884  71865 132466 665387 628261 560264 328456 482677 497599
  466538 339824 530883 160571 632201 262382 316772 914172 547117 628155
-  52588 287383  72519 192568 271384 210143 193564 272380 338862 204740
- 269018 219855 215078 195114 273930 934344 320709 282598 504756 915988]</t>
+  52588 287383  72519 271384 192568 210143 193564 272380 338862 204740
+ 269018 219855 215078 195114 934344 273930 320709 282598 504756 915988]</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -22013,7 +22013,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>[ 60219 300526  63164 574044 192584 271400 436881  60086 686581 452713
+          <t>[ 60219 300526  63164 574044 271400 192584 436881  60086 686581 452713
  321653 245668  69489  84058 398549 573490 430328  23267 363708 182747
  995002 458967 530096 458692 487350 433785 453899  30355 180989 504769
  196602 275418 575157 562767 181097 580214 543098 497130 502964  97763
@@ -22086,7 +22086,7 @@
       <c r="B603" t="inlineStr">
         <is>
           <t>[350498  80857 379729 336671 379502 704982 179496 169689 488295 776800
- 352141 193669 272485 243219 439434 726491 159498 400259 418109 488686
+ 352141 272485 193669 243219 439434 726491 159498 400259 418109 488686
  193143 271959 197318 276134 635518  59330 516816 152134 966754 806498
  379542 632679 397084 599095 491155 390054 846736 518746 209266 699321
  324009 750980 805154 698558 237021 242774 791143  58718 690167 122264
@@ -22130,7 +22130,7 @@
  242603 279508 140522 525143 822706 187618 232781 203448 267726 815638
  698905 430038 522031 304775 279304 964939 337520 350902 137812 397437
  340573 685608 924046 541248 616004 111889 804930 284997 883662 686025
- 103237 293672 690991 795406 515192   3665 525649 201165 265443 747593]</t>
+ 103237 293672 690991 795406 515192   3665 525649 265443 201165 747593]</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -22160,13 +22160,13 @@
           <t>[560395 188551  36933 117671  68032  36750  64728 361933 830073 112811
   99067  48400 411632 702348  99046 894367 118296 339940 537773 357647
  678707 889424 561823 357464 827332 947817 947953 975731 537400 475422
- 212913 952500 193560 272376  22310  51532 450992 358780 936083 472724
+ 212913 952500 272376 193560  22310  51532 450992 358780 936083 472724
  193541 272357 824355  52587 537678 898484  52717 367842 332923 240585
  989891 895471 356602 904556 299701 104130 503087  49282 247210 974073
  773903 316959 224237 894176 392961 829027 232380 787439 678833 377672
  668487 637863 869566  51680 606687 808544 650349 450531 889343 773722
  808237   4966 719058 930502 742812 893450 989663 351812 916876 826770
-  67422 289995 686227 648945 890177  54099 113585 537586 194383 273199]</t>
+  67422 289995 686227 648945 890177  54099 113585 537586 273199 194383]</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -22232,12 +22232,12 @@
           <t>[ 20957 705067 705240 488532 186917 618661 974818 186763 686254 509261
  114431 234121 488642 238426 394602 293660 987970 365198  12862 722007
  989088 196416 275232 172416  16418 619855 125849 173869 968985 299896
- 493388  17697 194019 272835  15081 115182 462163 761760 834835 229153
+ 493388  17697 272835 194019  15081 115182 462163 761760 834835 229153
  293669 413392  91355 462076 147155 411181 988525 975044 659072 774200
  187189 293791 377105 697744  61960 229763 991382 526081 582236 551188
  133764 943345 989057 704737   2358 169706 780638 705724 601814 596337
  231746 381549 377209 598107  95506 136453 988658 127895 526803 488935
- 402397 969696 514921  66141 110186 747027   4015 483403 193826 272642
+ 402397 969696 514921  66141 110186 747027   4015 483403 272642 193826
   59373  37107 394124 436172 869145 124123 550826  72407 528093 115194]</t>
         </is>
       </c>
@@ -22265,16 +22265,16 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>[994886 491663  99455  99755 201269 265547 373674 618233 202689 266967
+          <t>[994886 491663  99455  99755 201269 265547 373674 618233 266967 202689
  425887 243739 320853 994846 543577 541821 864481 836105  26754 995069
  530718 618426 200907 265185 681796 865676 525468 251349 811736 616187
  243545 869449 629428  27863 152593 243277 672116 480660 175292 819615
- 403555 630749 525390 205363 269641 127516 781402 880326 735807 597883
+ 403555 630749 525390 269641 205363 781402 127516 880326 735807 597883
  510178 619436 164079 153181 863081 425629 455761 791929 988556 758977
  205287 269565 221336 723078 373681 378424 917316 861257  21873 853975
- 220473 251971 562533 480945  60913 550916 927338 940789 403958 389732
- 812226 759830 225074 880221 723127 519080 196205 275021 533347 130782
- 251713 160109 872434 856434 748562 563060 610940 330772 193875 272691]</t>
+ 220473 251971 562533 480945  60913 550916 927338 940789 403958 812226
+ 389732 759830 225074 880221 723127 519080 196205 275021 533347 130782
+ 251713 160109 872434 856434 748562 563060 610940 330772 272691 193875]</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -22309,8 +22309,8 @@
  928891 218868 217524 913829 600810 999976  48178 823626 462764 742754
  551215 462806 296883 616812 168462 771899 219053 228798  30900 775225
  939218 803286 601350 434454 328625 601895 717803 928162 959697 698175
-   9429 442170 192094 857078 663480 176154 781383 587451 120587 204760
- 269038 654723  43320  22398 316510 485347 169336 687667  35209 954899]</t>
+   9429 442170 192094 857078 663480 176154 781383 587451 120587 269038
+ 204760 654723  43320  22398 316510 485347 169336 687667  35209 954899]</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -22374,11 +22374,11 @@
       <c r="B611" t="inlineStr">
         <is>
           <t>[ 37488  36938 795211 560987 761223  32011 551352  36946  59077  16348
- 934106 723550 849366 812412 835846 857787 758172 340666 199754 278570
+ 934106 723550 849366 812412 835846 857787 758172 340666 278570 199754
  623398 843586 382313 550117 210433 253343 835417 708616  34579 835445
  522135 354819  96633 858465 655557 436476 902565 130982 785399 757346
  902211 679263 932168  32304 131085 565644 339329  63901 864978 125865
- 563491 565887 200489 264767 437105 117588 465923 885056  13248  31965
+ 563491 565887 264767 200489 437105 117588 465923 885056  13248  31965
  549604 975915 303367 967415 809617  74997 721991 201222 265500 694520
  497375 622105 340576 842504 253039 395293 915125 970275 103132 498465
  194128 272944 491837 182930 345287 926173 858282  12748 564703 382908
@@ -22411,7 +22411,7 @@
         <is>
           <t>[ 37476 298221 376957 196385 275201  37556  37449 731564 322280 634692
  254710 569933  77522 320280 881334 670541  22847 930901 509077 100579
- 318553 195742 274558 247337 861238  99023  99131 403556  36090 464722
+ 318553 274558 195742 247337 861238  99023  99131 403556  36090 464722
  114959 797424 731876 247370   9168 419241 401816 580335 668629 686443
  398478 563487 788887 810473 397946 322391 429042 137758  78301   9343
  263058  15564 704293 771662 683080 419078 711821 458144 359326 292811
@@ -22445,13 +22445,13 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>[491664 491906 541819 201267 265545 629429 404364 455762 819679 518620
+          <t>[491664 491906 541819 265545 201267 629429 404364 455762 819679 518620
  510179 373672 453464 871428 681797 533945 563915 862551 541848 863082
  563911 518720 543484 120937 796942 916320 543386 560807 883071 425886
   16078  10148 149482  18959 745806 560830 143995 840014 923993 108332
  746010 819464 628729 220905 108284 480665 618443 782258 378103 219158
  254931 925174 917539 147084 925217 804277 107479 916781 762057 952649
- 792422 838848 378008 877215 990803 877089 630750 200905 265183 791928
+ 792422 838848 378008 877215 990803 877089 630750 265183 200905 791928
  219692 964829 492633 856677 629960 987193 243302 560823 964820  12986
  918796 563954 391122 119727 525466 586744 403705 377722 723125  16295
    2606 823234 343343 399005 762048 952250 927376 735849 550840 332033]</t>
@@ -22522,10 +22522,10 @@
  179662 686334 790827 874785 769286 544238 872162 416718 544240 876035
  790935  61051 791286 133895 139210 769253 798135 603547 139967  76085
  317979 930008 769474  75479 260429 284061   1247 231042  60027 872504
- 286322 242258 870382 251341 923214 285190 749385 429354 411465 201999
- 266277 397362 431542 465521 324742 862315 628653 523579 308295 602677
+ 286322 242258 870382 251341 923214 285190 749385 429354 411465 266277
+ 201999 397362 431542 465521 324742 862315 628653 523579 308295 602677
  632982   6056  61543 525431  79362  60718 504289 526191 611206 499432
- 581900 368584 871277 663635 259699 586003 749452 202317 266595 793092
+ 581900 368584 871277 663635 259699 586003 749452 266595 202317 793092
  170106 242961 703492   6168 911496  24452 225748 706583 480538 798649]</t>
         </is>
       </c>
@@ -22553,13 +22553,13 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>[198631 277447 122926 199734 278550 196638 275454 122342 225073 195408
+          <t>[198631 277447 122926 278550 199734 275454 196638 122342 225073 195408
  274224 867998 430107 863874 224755 122311 569836 934433 430045 570081
- 570423 682470 864775 570365 193732 272548 405884 867933 196805 275621
+ 570423 682470 864775 570365 193732 272548 405884 867933 275621 196805
   58542 868604 927831 935908 343295  22304  86924 868666 863659 512285
   76211 391650 511780 258288 932177 704175 431255 888601 513641  22186
- 226442 310675 122341 452843 513684 207705 512122 225366 511949 194284
- 273100 202233 266511 868966 865218 864456 871439 193693 272509 806912
+ 226442 310675 122341 452843 513684 207705 512122 225366 511949 273100
+ 194284 202233 266511 868966 865218 864456 871439 272509 193693 806912
   15815 215255 732205 194370 273186  73275 208986 111053  85705 486156
  523064  15918 671478 598853 487129  15929 513170 859366 871470 928976
  730353 806018 780528  15917 543775 935291 526287  14698 863813 225947]</t>
@@ -22629,7 +22629,7 @@
  950886 634658 435949 210397 424140 424328 836442 564016 914307 244256
  868482 158277 982992  58763 691261 913838 466435 629310 985500 854099
  251702 728355 527433 966321 471336  58824 416996 471331 914731 603661
- 932925 909423 845971 298698 561006 913562 856285 836971 833277 226255
+ 932925 909423 845971 561006 298698 913562 856285 836971 833277 226255
   36388 520275 971045 677864 854167 106812 834038 593744 513767 868836
  998791 307950 101338 244775 889214 594514 215277 613795 985139 450702
  999046 993525 173922 224365 904415 215778 957506  15867  58956 311052
@@ -22667,7 +22667,7 @@
  630767 633444 917500 869904 392079  46652 242584 210215 769805  12564
  152738  15200 728365 954599 691829 320374 259451 851847 152373 973763
  191998 513455 405544 405589 297617 551349 493275 839101 425560 518241
- 195974 274790 388056 833416 362677 151842 576887  83075 402051 513824
+ 274790 195974 388056 833416 362677 151842 576887  83075 402051 513824
  115866 957962 228760 703497 628439 123146 767647 390564 987363 629595
  616885 575569 971628 858461 863449 517834  23751 979727 192606 271422
  595587 542192 196251 275067 553261 152769 239714 639567 856360 992495]</t>
@@ -22700,8 +22700,8 @@
           <t>[853283 853564 259987 129223 338716 579950 137040  66869 298010 668657
  327749 325779  99741 916923 891687 402966  33393 255515 324306 326232
  870132 798099 334073 171657 880884 857679 307404 670908 356562 974940
- 162573 461681 718940 315889 384420  12480 869806 195166 273982 559209
- 315254  42018 505067 489777 687655 719038 198583 277399 916480 463276
+ 162573 461681 718940 315889 384420  12480 869806 273982 195166 559209
+ 315254  42018 505067 489777 687655 719038 277399 198583 916480 463276
  359376 735962 719582   8273 772666 189425 358960 492994 671170 722688
  928193 681427 515915 319488 984818 812954  43366 128719 829863 925547
  109121 476252 137109 320511 989416 126897 149728 128649 156078 357044
@@ -22921,7 +22921,7 @@
  674970  53582 602042 685247 693807 823680  52307 674062 477488  50274
  877294 673779 993633 477459  52320  50883  52237 701908 537726 559189
  559502 993643  51113 536745 134277 676378 537813  53787 351877 673835
-  56418 676343 601894 540423 497083  53663 768011 536316 559530 247225
+  56418 676343 601894 540423 497083  53663 768011 559530 536316 247225
   46556 823503 307746 823532 701666  38574 601513  56588 601208  52395]</t>
         </is>
       </c>
@@ -23096,8 +23096,8 @@
           <t>[207406  39491 476269  39429  38432 480079 478204 477435  39493 476148
  477124 478615  39470 207259 207489  38582 918270 476775 769742  39460
  218930 217921 478410 217383  39441  38566  38363 512386 480164 478663
- 480055  55237  39416  39435 541689 476695  39357  37903 473733 477374
- 478255 477041 512544 476254 416137 544597  51046 478632 857146   7633
+ 480055  55237  39416  39435 541689 476695  39357  37903 478255 477374
+ 473733 477041 512544 476254 416137 544597  51046 478632 857146   7633
  667539 476424 769812 468688 892145 476751  38419 880419  54954 479962
  918583 638244 559355 255806 768408 114491  38147 411356 218486 416006
   51059  39375 559162 411093 476802 693452 559491 917853 478488  39572
@@ -23136,9 +23136,9 @@
  729026 735929 682792 572004 477057 379007  10814 667569 617267 110198
  418536 416774 187233 466239 412896  43108  56582 418489 768877 865324
  210427 513316 769146 513942  52628 443253 478408 348983 885244 407083
- 105962 513785  45393 378849 743834  56250 466448 207555 106080 743721
+ 105962 513785 378849  45393 743834  56250 466448 207555 106080 743721
  166407 652272 885359  42618 626796  46260 823498 823787 165926  51034
- 702035 541207 251609  55155 687313 155852 124316  55216 187289 406991]</t>
+ 702035 541207 251609  55155 687313 155852 124316  55216 406991 187289]</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -23165,16 +23165,16 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>[ 39440 892146 476774 480163   7634 476423 477123 623140 476801 768407
+          <t>[ 39440 892146 476774 480163   7634 476423 623140 477123 476801 768407
  477514  39378 478254 476253 768386  38455   9471 476268 512385 130209
  477193  54953 480078 768161 626156 768262 768251 480276  38374 477085
  892533  51045  38433 477434 638245   6998 478664 478409 779641  54992
  874415 207909  37902 768311 826528 129199  39209 613256 917852 829224
  478203  51058   9192 835386 768213 521305 768325 909566 667023 768182
- 768515 611995 448272  38575 834270  38114 768564 521537 207977  39211
+ 768515 611995 448272 834270  38575  38114 768564 521537 207977  39211
  667361 768069  24099 918665 448121  39490 448015 447884 918269 218825
  654277  55017 447457 540200 190673 476147 114492 446878 448138 768434
- 892179 758177 190830 478662 826750 448024  55019 447666 666838  51010]</t>
+ 892179 758177 190830 478662 826750 448024 447666  55019 666838  51010]</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -23351,7 +23351,7 @@
  656658 654834 824700  49393 654894 384241 824364 654481 657584 646065
  442331 824188 654472 994716 789669 560619 655637  40893 572800 654673
  554803 655954 655102 824890  42954 820668 602788 795080 654645 826074
- 824952  40863 861804 516870 667204 907278 601747 825379 654979 421082
+ 824952  40863 861804 516870 667204 907278 825379 601747 654979 421082
  816597 610669 994908 130923 820659 423212 655413 824610 106035 442759
  906707 421053 421729 893185 421188 610646 657341 654262 794428 883294
  769482 517077 826951 656156 218193 814239 423362 445908 820643 820651]</t>
@@ -23497,7 +23497,7 @@
    6136 566298 107328 890275 152926 794213 290957 125246  53668 794763
  224012 501455 425975 870304 322021 814594 718524 474497   5432 908166
  189730  51379 943102 718013 657043 648461 128773  45096 480153 151902
-  44962 425830 480151  44887 216253 848858 862063 566334 853132 611978
+  44962 480151 425830  44887 216253 848858 862063 566334 853132 611978
   39937 942801 753611 814592 566452 110468 716051  56820  50636 570904]</t>
         </is>
       </c>
@@ -23604,7 +23604,7 @@
  488517 971276 224335 985466 782467 848976 929270 191092 748612 207635
  566379 855550 632302 479492 951402 191660 947917 348895 668415 853173
  853933 780873 449280 900649 677889 831812 912148 962203  14770  12876
- 103630 957626 410083 199102 277918 544253 687317 885654 919222 618624
+ 103630 957626 410083 277918 199102 544253 687317 885654 919222 618624
  885965 962397 960782 957715 992856 545926 515461 880196 668967 239527
  997275 780634 999428 391400 535920 857342 919285 609327 782939 635441]</t>
         </is>
@@ -23633,7 +23633,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>[540571 220290 579563 197397 276213 366301 237583 966377 966044 221612
+          <t>[540571 220290 579563 276213 197397 366301 237583 966377 966044 221612
  746439 794244 225702  69774 889769 131045 668982 865393 776534 221320
  220553 225303 833573 540568 740531 561104 721466 400502 757272 667715
  542414 738698 493234 835087 744788 735127 793814 661296 702995 122312
@@ -23676,7 +23676,7 @@
  352686  22162 337015 338020 429476 364043 140083  30670 572723 448493
  780332 713570 423109 809521  80970 600669 833889 958070 475293   4327
  516565 686723 703346 755158 516571 139324 188406  81610 790967  21912
- 614954 559575  30067 602351 152014 281510 450990 422419 341516 141096
+ 614954 559575  30067 602351 152014 450990 281510 422419 341516 141096
  560756 542826  21043 379371 776106 787750 215647 297501 245720 534464
  291913  98719 431069 790904  98948  87395 422786   3978 336805 336747]</t>
         </is>
@@ -23709,11 +23709,11 @@
  510313 193962 272778 602374 397122  53886 426643  40882  96537 471369
  524731 518540  54109 955237 400831 602220  95097  78854 634572 470871
   82439 472374 451745 174317 754193 547071 173401 338927 820661 337408
- 534725 911298 957597 176664 471370 600687 787525 471372 560616 426748
+ 534725 911298 957597 176664 471370 787525 600687 471372 560616 426748
  242140  23513 163255 685911 156500 567753 242280 617639  61496 151376
  262304 567737 754281   5525 218669 158233 535931 567775 806305 248231
  754615 822271 717458 141551 823922 816478 770991  81138 129999 375845
- 483661 723624 472893 558524 723116   4853  43870  30329 977290 354947
+ 483661 723624 472893 558524 723116  43870   4853  30329 977290 354947
   85465  53562 487924 924450  29962 233800 482731 828704 689861 499522]</t>
         </is>
       </c>
@@ -23742,7 +23742,7 @@
       <c r="B649" t="inlineStr">
         <is>
           <t>[ 40784  40696  40575 253531 724173 860466  65542  16769  15194 691638
- 869933 496482  40612 197061 275877 988877 972622 870091 591631 597939
+ 869933 496482  40612 275877 197061 988877 972622 870091 591631 597939
  243134 232602 324962 298811 591973 243489 483284  15145 232385 968468
  981469 950438 844033 853706 889132 440455 257895 647979  20611 298237
   34491 888792 244337 661995 873526 624328 121644 193810 272626  12544
@@ -23783,7 +23783,7 @@
  723803 731550 313404 754176 790607 419898 496316 335019 255944 289865
  907248 592779 339706 731760 687558 678628 868963 385662 598098 174320
   73154 887755 538451 643891 664158 528296 724134 632136 579864 391380
- 141264 192632 271448 820008 481451 728026 715898 225730 839054 310663
+ 141264 271448 192632 820008 481451 728026 715898 225730 839054 310663
  538169  73157 487233 483147  32663 193198 272014 309921 661479 405627
  889622 541670 938181 465078    363 424289 161180 634529 561721 187988
  909694 156750 988233 977681  61615 161057 895499 222866 457292 679651]</t>
@@ -23853,8 +23853,8 @@
  401712 398685  39652 717671 648216 968740 134999 393391 126361 285876
  304375 890425 402719 166682 966318  40993 402249  41015 141039 932350
  304260 392742 979969  95063 980518 870325 408297 892430 257539 127145
- 649253 934608  25865 557899  82071 414712 195267 274083 773926 167818
-  10288 819128 136260 574061  41329 167535 623848 319571 194310 273126
+ 649253 934608  25865 557899  82071 414712 274083 195267 773926 167818
+  10288 819128 136260 574061  41329 167535 623848 319571 273126 194310
  832323 890928 131486 252154 787381 688328 170683 659311 750190 221234
  789777  12650  14609 967982 134171 465410 954250 323408 240450 322786
   39647 141182 960236 528256 116474 974874 621254 403186 922776 898703
@@ -24037,7 +24037,7 @@
  745818  55823 209810 261809 444677 379457  79695  55899 397385 732921
  420955  79559 473947  55792 632813 181799 353103 985155  80187 106135
  698362  80223  79989  97827 217817 471430 252422 690268 653609 422128
-  79878 614904 776985 217952 832552 364127 583998 279024 472438 407135]</t>
+  79878 614904 776985 217952 832552 583998 364127 279024 472438 407135]</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -24107,8 +24107,8 @@
   79730 699021 832931 280054 804161 473932 222782 472383 828382 822775
  690558 432789 385216 804206 745818 183350  94820 550326 615287 175936
  517167 204800 269078 615361 724573 517743 180205 472398 529711 140255
- 200134 264412 662626 400774 426928  79993 583998 832910 378695 804011
- 526927 481098  80630 364127 104586 517332 828462 518655 719448 997568
+ 264412 200134 662626 400774 426928  79993 583998 832910 378695 804011
+ 526927 481098  80630 364127 517332 104586 828462 518655 719448 997568
  517699 632813 459300  98710 965375 525086 173401 262408 510296 653344]</t>
         </is>
       </c>
@@ -24356,7 +24356,7 @@
  930679  10251 749099 376435 330469 376813 935759 645831 987877 868736
  718369 582012  93526 786419  10456 717536 531928 441554 181073 968269
  941901 987237  25021 974326 579768 440156 489980 786121 966255 121247
- 490181  92472 817527 630832 435179 465556 211728 701763  91827 777445
+ 490181  92472 817527 630832 465556 435179 211728 701763  91827 777445
  788952 997535 140056 714948 439704  21513 834599 742380 378507 941148
  838745 344940 943878 285750 467696 923400 973562 632519 825601 107390
  328120 824657 332203 163811 354535 777209  23234 706537 294983 356528
@@ -24464,7 +24464,7 @@
  990922 799790 652750 607966 869371 996427 655235 672868 902820 824167
  840389 902792 615956 543897 641616 769899 541927 640096 552905 442688
  777383 767435 386312 905673 641530 783474 639925 954128 650707 543352
- 543207 889578 541905 767349 885266 655835 674046 545843 613639 722467
+ 543207 889578 767349 541905 885266 655835 674046 545843 613639 722467
  799973 546955 763162 542897 840759 553084 164450 557753 978134 889764
  673666 983148 769908 840899 569962 640437 165335 217649 615047 410347
  827688 996457 673785 887434 639897 989962 627867 410234 673624 885297
@@ -24533,8 +24533,8 @@
       <c r="B671" t="inlineStr">
         <is>
           <t>[237418 230197 605227 584402 584226 351327 428619 448381 428583 427123
- 448488 448383 745981 584161 306919 518833 492447 719266 307008 200050
- 264328 365552 168460 472377 729982 151766 262029 498051 525600 232473
+ 448488 448383 745981 584161 306919 518833 492447 719266 307008 264328
+ 200050 365552 168460 472377 729982 151766 262029 498051 525600 232473
  662406 567735 365647 433970 205383 269661 702970 719504 426708 240018
  364081 352608 529029 352417 156983 101249 168470 427214 667941 228131
    4507 364365 151205 809545 343924 397694 370793 807937 665367 151240
@@ -24568,14 +24568,14 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>[895794   1536 795545 247809 933044 640935 640389 200263 264541 771625
+          <t>[895794   1536 795545 247809 933044 640935 640389 264541 200263 771625
   39902 895789 447798 895639 959064 251852 104231 632630 642168 877935
  808943 446425  98870 484707  28378  39774 252394 642281 799325 974240
  541911 586329 658925 640403 541896 313794 104270 102855 781885 880280
   31005 861937 771619 881697  22440 311982 696417 135981 880148 642458
- 889442 206028 270306 247269  19979 896805 809042 566976 895916 791995
- 186432 641305 911027 841690 809624  81838 247186 191235 191069 200345
- 264623 312923 809566 880192 539883 257228 641668 657401 718570 242436
+ 889442 270306 206028 247269  19979 896805 809042 566976 895916 791995
+ 186432 641305 911027 841690 809624  81838 247186 191235 191069 264623
+ 200345 312923 809566 880192 539883 257228 641668 657401 718570 242436
  640809 433060 539774 244405 436639 890636 611133 876515 880172 191058
  998565 933964 725627 799410 640698 210797 640439 600385 880587 641391]</t>
         </is>
@@ -24612,7 +24612,7 @@
  216366 655596 831229 511803   7077 921950 467724 442403 538605 503393
  606539 137276 787157 919835 858724 655816 129569 891608 813510 890750
  442671 833457 869831 681804 735563 442676 893974 674036 904276 657631
- 675750 799354 106459 896433 114579 558429   8074 397166  53386 655077
+ 675750 799354 896433 106459 114579 558429   8074 397166  53386 655077
  122927 675098  52270 657977 656359  55961 831308  24768 442709 854374]</t>
         </is>
       </c>
@@ -24648,7 +24648,7 @@
  530742 707470 944814 179030 983396 801248 714182 313527 638945 102870
  123322 804936 709547 794443 607630 287269 591365 717611 101541   3566
  137626 787891 850820 579322 710121 633505 636073 560257 661664 255392
- 102975 282157 252774 644572 717632 124231 530504 285261 633364 144484
+ 102975 282157 252774 717632 644572 124231 530504 285261 633364 144484
  142763 102838 315624 638622  99243 625017 794528 894762 125354 779482]</t>
         </is>
       </c>
@@ -24793,7 +24793,7 @@
  736347 516030 306618 440859 259882 180873 110857 790267 609684 735214
  531734 967067 181606 449403 619577 876886 417923 806393 407761  55792
  635581 745799 572393 763787 599149 111766 854054 633115 181512 521117
- 515810 196022 274838  62166 227951 441513 669368 181009 866738 433586]</t>
+ 515810 274838 196022  62166 227951 441513 669368 181009 866738 433586]</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -24901,7 +24901,7 @@
  187123  82276 860504 601483 465044 295989 854810 737383  10632 791178
  696648 283623  55617 456788 985259 626318 697309 151737  85564 365639
  590161 151519  89200 754926 687199 754691 331163  86580 464998 441766
-  10306 200928 265206  82975 947543 490892 762209 987733 731575 122830]</t>
+  10306 265206 200928  82975 947543 490892 762209 987733 731575 122830]</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -24928,16 +24928,16 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>[ 41821 702286 318396  61136 701468 204578 268856 580614 150204 434439
+          <t>[ 41821 702286 318396  61136 701468 268856 204578 580614 150204 434439
   61528 976822 315124 998396 513896 886081 659335  85074 858077 150316
- 203277 267555 297358 853910  85331 858439 453163 630696 579198 842074
+ 267555 203277 297358 853910  85331 858439 453163 630696 579198 842074
  225378 842069 631092 886563 717642 100755 213160 390273 346479  87668
  999352 360587 460635  89062 513748 920235 150564 686794 833063 636365
  589277 315638 167959 214013 362540 330348 966492  69606 973535 746622
- 821536 597708 710945 126965 144198  60388 460759 199754 278570 200780
- 265058 804669 151027 107848 858199 484239  90214 592831 123024 347266
+ 821536 597708 710945 126965 144198  60388 460759 278570 199754 265058
+ 200780 804669 151027 107848 858199 484239  90214 592831 123024 347266
  237853 955724 501756 345432 985924 177204 123230  87961 854529 312593
- 956012 202827 267105 203860 268138 330012  42529 110499 735633  71646]</t>
+ 956012 202827 267105 268138 203860 330012  42529 110499 735633  71646]</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -25115,9 +25115,9 @@
  665069  40463 356400 962760 189470 541196 483461 212795 531868 259533
  957666 986172 189498 703180 581788 204640 268918 901667  40119 258691
  217249 670414 759621 604254 976372  40474 420496 531147 249033  61488
- 642655 631037 598538 952373 690363 899113 399980 664203 555599 880323
+ 642655 631037 598538 952373 690363 899113 399980 664203 880323 555599
  398313 468610 639331  11164 261329 703243  77325 837522 105521 952179
- 703001 362774 690291 225957 195894 274710 195732 274548 660484 355416]</t>
+ 703001 362774 690291 225957 274710 195894 274548 195732 660484 355416]</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -25186,8 +25186,8 @@
  848774 854760 543164  67849 652391 833536 868678 541686 397592 762413
  239842 868135 539793 947264  22072  41006 819407 849252 653747  29585
  985407 373708 762400 218228 485048 540457 479738 846922 259423 251694
- 848347 859024 810686 822227 541147 248417 858638 940754 541657 260884
- 618685 826280 868994 854565 253008 997404 533829 373710 248735 484352
+ 848347 859024 810686 822227 541147 248417 858638 940754 541657 618685
+ 260884 826280 868994 854565 253008 997404 533829 373710 248735 484352
  777524 238640 541757  13159 887108 251990 997735 994983 859452 541836
  765841 483730 858932 858904 406157 534214 767612 880325 895131 852707]</t>
         </is>
@@ -25225,7 +25225,7 @@
  933797 509109 303233 679644 714239 236409 433591 377929 892581 561096
  721214 570548 671919 714518 301518   9738 577031 547653 296768 698149
  288160 842961 922773 303686 899461  29448 617502 664154 953929 961222
- 608035 549277 713985 737767 672079 988553 312490 394171 494438 819946]</t>
+ 608035 549277 713985 737767 672079 988553 394171 312490 494438 819946]</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -25469,7 +25469,7 @@
       <c r="B697" t="inlineStr">
         <is>
           <t>[106315 373524 129769 642049 736715 815083 106198 102622 458892 906085
- 914398 761917 991050 516575 792856 104770 905896 715988 890619 815120
+ 914398 761917 991050 792856 516575 104770 905896 715988 890619 815120
  232407 113754 736822  41071 761920 714416 426659 373450 200060 264338
  991735 827001 422820 663612  38169 339931 477570 822302 428272 826445
  892356 426910 869562 146567 904500 717542 474852 423656 117929 890229
@@ -25505,15 +25505,15 @@
       <c r="B698" t="inlineStr">
         <is>
           <t>[489402  42973 216553  82105 488680 284196 292376  97492 652965 655230
- 499458 720262 540990  94091 917048 193173 271989 129438 217285  16918
- 252197 916459 504027  34923 203952 268230 541232 292482  24748 578500
+ 499458 720262 540990  94091 917048 271989 193173 129438 217285  16918
+ 252197 916459 504027  34923 268230 203952 541232 292482  24748 578500
  976929 879581 284162 793295 283667 308647 684475 498757 281953  83960
- 734980 395039 292681 904898 503556 236225 198867 277683 211485 204855
+ 734980 395039 292681 904898 503556 236225 277683 198867 211485 204855
  269133  83082 653218 322678 286766  92137  45528 574954  91926 992912
  637092 712411 124039 809654 503590  24379 430855 469166 292313 466633
  735050 431473 322065 652917 780785  92986  85453 358138 488883  87282
  498265  43632  83593 877845  25197 504932 140606 258717  43865 310994
- 810041 575432 194164 272980 338360 280309 500218 977416 544897 669834]</t>
+ 810041 575432 272980 194164 338360 280309 500218 977416 544897 669834]</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -25544,7 +25544,7 @@
  907721 576549 828353 868364 576346 829036 792586 540434 881455 782741
  633193 632846 540430 613773 374668 925918 540385 846780 540546 635445
  540404 926211 470075 838184 827970 962830 623976 470079 325869 540390
- 190851 792088 193321 272137 849465 632973 327015 649432 540595 732878
+ 190851 792088 272137 193321 849465 632973 327015 649432 540595 732878
  709881 791872 374620 469162 963411  29760 808905 539418 375703 540431
  470799 837920 135686 836637 763581  27416 540353 827494 638648 133296
  927651 145410 836893 841683 540143 630971 539087 374170 148702 540450
@@ -25616,8 +25616,8 @@
  541996 540403 868364 782741 828353 540546 829036 540430 540358 540434
  469162 576549 190851 470075 925918 926211 827970 962830 540385 633193
  470079 838184 576346 540404 792586 374668 732878 881455 539418 540595
- 632846 470799 638648 649432 763581 836637 837920 103213 709881 193321
- 272137 540390 327015 963411 849465 115172 375703 375409 374620 808905
+ 632846 470799 638648 649432 763581 836637 837920 103213 709881 272137
+ 193321 540390 327015 963411 849465 115172 375703 375409 374620 808905
  544085 827494 639072 635445 630971 914962  29760 853805 792088 114331
  657511 540353  27416 623976 632973 638903 841683 853905 836624 779514
  374410 622997 325869 954262 540431 102335 846601 927651 791872 637277
@@ -25723,7 +25723,7 @@
           <t>[223530 732345 637906 690201 879703 879698 598613 441677 970602 441474
  541814 842126 689981 521989 544357 911685 220225 481942  36160 667757
  870166 943210 898060 896836 498115 119399 482558 219598 961343 905992
-  72621 502977 907265 882925 151032 206586 270864 878227 223549 478452
+  72621 502977 907265 882925 151032 270864 206586 878227 223549 478452
  379447  36139 716389 667747 949341 896849 207099 413904  13797 882935
  783120  51639 635026 907636 704164 947274 760972 375132 870546 541794
  899139 716337 919149 976850 882731 573066  92080 669810 919530 862523
@@ -25830,7 +25830,7 @@
         <is>
           <t>[698937 337447 365338  56094 600697 903019 408889  81418 601097 213216
  332721 350412 241640 602908  81662 634574  73273 421577  55996  55494
- 791002 364665 203718 267996 337880 261447 240803 448921 113801  55854
+ 791002 364665 267996 203718 337880 261447 240803 448921 113801  55854
   58867  48927  79646 339137 337921 954119  79659  30275  77356 253978
  600672 606865 335170 166741 227695 426577 151208 606753 599111 204950
  269228  70283 959920  79770  81242 350435  80397 220201  80763 220311
@@ -25872,7 +25872,7 @@
  479208 683066  24027  52465 715989 479439 716001 518489  69705 680104
  453339 573183 300944 796482  69166 569337 854768 535556 467532 191313
  476587 320001 687856 990471 736578 742642  84321 535910 472137 373218
- 742613 474765 105841 712969 733365 982829 247034 476858 804653 472119
+ 742613 474765 712969 105841 733365 982829 247034 476858 804653 472119
  477569 915651 452299 101577 479331 899928 717425 789195 757768 129498]</t>
         </is>
       </c>
@@ -25901,7 +25901,7 @@
       <c r="B709" t="inlineStr">
         <is>
           <t>[473314  56265 189868 897969  86023 915554 340887 922513 881345 796433
- 249004 250060 198698 277514 808169 608000  35384 325750 211084 472938
+ 249004 250060 277514 198698 808169 608000  35384 325750 211084 472938
  473214 473662 569703 718272 216456 678911 511900 473675  56463 244546
   83505 642083 473671 131158 989366  56178 607839 378734 897636 715355
  472932  92694  56226 311865 410353 222217  91790 373297 569418 378589
@@ -26051,7 +26051,7 @@
  919998 920953 961321 741720 500370 899667 251352 739458 102017 565451
  115287 704724 225139 914665 680010 556691 204956 269234 525673 205267
  269545 233780  12773 679327 844035 843655 628475 482281 927757 432472
- 526959 752141  14598 102390 596213 862771 751640 961930 737135 699533
+ 526959 752141  14598 596213 102390 862771 751640 961930 737135 699533
  919254  17549 956293 923656  59481 460387 987493 921140 443252 731831
  704855 931781  59032 361523  32943 867139 932234  13893 841829 620693]</t>
         </is>
@@ -26088,8 +26088,8 @@
  466230  45595 844897 962450  24010 480800 254608 392205 105211 938399
  384347  82316 142517  12740 637042 680061 591708 827517 839817 511151
  976733 633317 380234 439143 658535  88948 127308 598306 140481 105728
- 109027 826196 159575 124664  77717 531991 722123  18095 341672 696441
- 577156 385404 109715  86285 572219 204109 268387 452548  97976 214636]</t>
+ 826196 109027 159575 124664  77717 531991 722123  18095 341672 696441
+ 577156 385404 109715  86285 572219 268387 204109 452548  97976 214636]</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -26261,15 +26261,15 @@
       <c r="B719" t="inlineStr">
         <is>
           <t>[925156 941812 932843 948461 520365 109150 783196 550668 598187 930989
- 382449 299130 588572 487836  84978 338093 484720 727490 193262 272078
+ 382449 299130 588572 487836  84978 338093 484720 727490 272078 193262
  314859 420583  31421 692253 730925 396468 220791 463370 506763 300709
  951840 308441 525728  34521 280689 594465  35084  11831 630689 248849
-  32684 694663 687935 548069 775771 781647 205157 269435 219382 719176
+  32684 694663 687935 548069 775771 781647 269435 205157 219382 719176
  532707 515230 197974 276790 462436 597197 576545 936009 615284 438835
  680980 285033 698457  31532 688919 502571 250382 396396 497708 491288
   72110 110940 728014 598302 691833 416883 219019 550515 581616 792270
  840902 615936 174625 172508 709191 549695 941261 596910 692400 325021
- 956935 955966  82749 244141 396618 171308 707460   1827 999016 392175]</t>
+ 956935 955966  82749 396618 244141 171308 707460   1827 999016 392175]</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -26448,8 +26448,8 @@
   36896 380234  30971 237466 700963 945495 630388 591708  12740 826196
  902530  71443 719672 351179  77353 531991 620163  62148  96742 936499
  388303 630269 574123 154862 281786  45595 433134 542567 801914 937562
- 174934  36843 214636 197006 275822 723542 691133 153841 813836 119442
- 669137  14818 573607 175955 392205 201977 266255  25973 943872 716430]</t>
+ 174934  36843 214636 275822 197006 723542 691133 813836 153841 119442
+ 669137  14818 573607 175955 392205 266255 201977  25973 943872 716430]</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -26481,7 +26481,7 @@
  259138 781039 662648    725 780835 821151 184027 396952 800128 467386
  111718 662640 152214 569480 167783 754462 803971 439121 181731 536344
  690783  98664 402445 106838 401896 754492  98858 730731 615452 940945
- 123626 130589 733136 838734  62380 719164 150268  61497 693378 850870
+ 130589 123626 733136 838734  62380 719164 150268  61497 693378 850870
  464809 742212 671097 261765 285084 787774 742228 404712 464964 467414
  242325 174798 637814 668837 261680 982623 788851  61098 430259 825597
  184568 806652 609415 852724 704188 168473 803982 547844 149449 941429
@@ -26557,7 +26557,7 @@
  421023 311043 228893 901773 558759  71534  38128 808113 540985 300930
  552106  54757 818711 795981 942606 733942 600024  39159 310962  73682
  741500 600058 541011 645926 884347 881592 893309 897158   5474 797598
-  51061 884536 165327 197809 276625  94128  91815 637397 369059 410171]</t>
+  51061 884536 165327 276625 197809  94128  91815 637397 369059 410171]</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -26584,12 +26584,12 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>[612926 649845 245152 966849 747661 202517 266795 233697 711730 586020
+          <t>[612926 649845 245152 966849 747661 266795 202517 233697 711730 586020
  949543 110340 711433 744786  12162 129559 583665 465928 598104 377978
   61447 522803 747318 531375 473499 988854 702391 194545 273361 475034
  966796 431909 451273 991022 142436 549424 912377 513369 323768 396154
  468220 451664 619563 465371 683327 245547 732544  31478 592848 279844
- 490757 204485 268763 110615 325188 599876 101517  79143 697839 860289
+ 490757 268763 204485 110615 325188 599876 101517  79143 697839 860289
  951804 631299 851562 912583 730845 732601 421419 324606 473624 260192
   56955 683487  84716 128221 531077 483642 408364 518821 699724  15782
  746092 101643 237574 178876 696529 500009 500460 492404 630027 805733
@@ -26656,13 +26656,13 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>[932544 933125 312738 831902 194126 272942 489466  16342 489355 871505
+          <t>[932544 933125 312738 831902 272942 194126 489466  16342 489355 871505
  330959 184339  10696 692298 703327   2454  96816 806553 754683 438716
  929577 460479 550172 491151 109967  86727 392920 933071 926617 116133
- 177636 706563 330879 938907 167136 730452 798759 194591 273407 200552
- 264830 371611 722451 531234 312459   5600 178306 184739 730259 596580
- 520361 392515 907869 189849 461781 461474 381475 180921  13647 256872
- 626189 885139 743113 600475 317888 735606 200973 265251 985623 725062
+ 177636 706563 330879 938907 167136 730452 798759 194591 273407 264830
+ 200552 371611 722451 531234 312459   5600 178306 184739 730259 596580
+ 520361 392515 907869 189849 461781 461474 381475 180921 256872  13647
+ 626189 885139 743113 600475 317888 735606 265251 200973 985623 725062
  335825  16355 333384  61020 159071 678770 691848 368371 506507 263954
   11179 887708 294707 966822  95756 512581  34997 725118 966512  81179
  129787 581770 906407  66425 475200 712524 143472 492497 212449 731748]</t>
@@ -26728,9 +26728,9 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>[483520  44303 231189 200612 264890 285509  96105 121404 930414 935944
+          <t>[483520  44303 231189 264890 200612 285509  96105 121404 930414 935944
  404294 231710 106835 781308 372176  69632  71164 382835 183672 403306
- 167872 112743  35906 229206 298033  35112 192713 271529 548956 987612
+ 167872 112743  35906 229206 298033  35112 271529 192713 548956 987612
  843086 770738 106257 126367 172394 597098 878292 177920 914173 620830
  962943 224613  32739 727362 393808  44615  32900 142511 562734 407585
  632040  13976  76066 685173 359401 988100 146014 232457 124068 239049
@@ -26768,7 +26768,7 @@
  272874 633029 736393 498343 569078 972658 733100 298336 972161 432565
  717891 662946 106360  83332   4712 827184 632441 717127 135641  96661
  521867 740449 337374 140267 669904 310021 775866 905627  83684  85281
- 531109 544203 635013 842459  88432  89279  84474  91642 206248 270526
+ 531109 544203 635013 842459  88432  89279  84474  91642 270526 206248
   89780 156980 934478 311444 994479  30252 497306  85857 733137 280414
  453631 465947 740375 548264 323417  82674  84633 282204 742379 460492
  363980 531244 616200 307196 110848 426684 799450 357064  81670 814970
@@ -26842,8 +26842,8 @@
  816710 446341 445550  42367 814366 447175 446066 446734 814413 905633
  427412 655027 447743 654706 965293 643813 446048 657056 657666 837254
  446444 447235 445681 615316 101624 781640 446095 644427 445753 639934
- 446165 650608 654227 447118 907509 445267 816704 965754 445843 643076
- 446824 657029 446485 643987 445757 446899 447291 675300 721411 965136
+ 446165 650608 654227 447118 907509 445267 965754 816704 445843 643076
+ 446824 657029 446485 643987 445757 446899 675300 447291 721411 965136
   43851 445242 445585 667189 912952 656739 446230 654701 656545 448028
  446923 654213 655652 667678 993890 446199 447871 447441 655067 655887]</t>
         </is>
@@ -27125,13 +27125,13 @@
         <is>
           <t>[436304 368957 383431 437263 370642 707536 202381 266659 436275 296185
  382637 232541 114758 397145 364775 400782 299301 172211 804962  22723
- 241845 700563 171327 706333 298092  22854 339000    236 321064 202503
- 266781 306423 999884 285482 297698 366438 260937 212613 817431 294555
-  78870  66134 384555 883841 919898 311168 292893 287927 193598 272414
+ 241845 700563 171327 706333 298092  22854 339000    236 321064 266781
+ 202503 306423 999884 285482 297698 366438 260937 212613 817431 294555
+  78870  66134 384555 883841 919898 311168 292893 287927 272414 193598
  374595 582266 521449 328303 511300 929205 417326 299730 301516 890095
  921894 369874 240824 242358 368362 806392 417439  28162 241043 511717
- 916197 404962 347139 338937 522916 204977 269255 602589 329247 391839
- 934348 290093 745755 848825 372274 923396 197379 276195  58811  74605
+ 916197 404962 347139 338937 522916 269255 204977 602589 329247 391839
+ 934348 290093 745755 848825 372274 923396 276195 197379  58811  74605
  883637 438370 475641 292448 871565 809245 759055 228868 369148 933623]</t>
         </is>
       </c>
@@ -27167,8 +27167,8 @@
  326294 344055 824101 426736 447572 955368 592085  44956 884502 850424
  637223 104763 377336 645756 391896 343173 653141 799480 850282 985490
  911088 861372 296300 347160 443984 554820 528420 121981 112357 141120
- 947269 647368 236876 341833  44034 323106 193022 271838 570045 870338
- 995204 947381 965705 470942 364578 444223 157922 112262 454845 709469]</t>
+ 947269 647368 236876 341833  44034 323106 271838 193022 570045 870338
+ 995204 947381 965705 470942 364578 444223 157922 112262 454845 772038]</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -27236,11 +27236,11 @@
  634184 250686 997788 434943 337494  19656 181022 667959 302706 684740
  245909 988726 299968 975156 636093 931472 722267 402956 324035 486103
  485787 183593 483162 633765 149614 370792 128907 787467 205591 269869
- 588759 128893 694991 344623 204458 268736 634962 180357 794262 518108
- 349047 746608 209198 577338 746304 425640 187522 194036 272852 944413
+ 588759 128893 694991 344623 268736 204458 634962 180357 794262 518108
+ 349047 746608 209198 577338 746304 425640 187522 272852 194036 944413
  301912 780446 928757 399230 402568  80255 451442 187362 811022 310429
  531272 794034 134502 838666 668118 834195 485632 193362 272178 742051
- 418195 688067 414465 194832 273648 413911 746343 257378 708210 320491]</t>
+ 418195 688067 414465 273648 194832 413911 746343 257378 708210 320491]</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -27273,7 +27273,7 @@
  454709 788240 375209 557834 578461  75157 900855 899645 630609 581535
  696101 234410 808050 885401  90140  92094 900617 129003 450735 202464
  266742 623477 356704 828100 416322 641215 385811 578412 414530 459335
- 812575 206587 270865 361454 480027  38071  87834 999372 810710 637412
+ 812575 270865 206587 361454 480027  38071  87834 999372 810710 637412
  808222 409539 629814 491452 938835 281222 494256 260115 898421 901606
  986004 617035  85189  38931 381418 987859 811409 333797  49671 282737
  919625  94502  33063 501437 128332 352259 687537 282823 798320 530804]</t>
@@ -27340,14 +27340,14 @@
       <c r="B749" t="inlineStr">
         <is>
           <t>[168612 769595 437419 399066 168601 617659 437108 183266 839262 449474
- 968439 466905 205843 270121 169113 204970 269248 502390 502718 129577
+ 968439 466905 205843 270121 169113 269248 204970 502390 502718 129577
  176133 399722  35664 402649 807046 694163  71569 940154  91377 477618
  208953 950773 916617 724663 380931 425653 818040 596385  73713 399821
  937919 724919 399321 474942 520049 691301 951958 596890 916067 937109
  380649 227846 515725 694147 904366 877458  75429 617439 403007 200501
  264779 799840  32991   3756 262328 480231 751285 311444 237941 463661
- 148678 952041  90389 683799 152443 237702 184282 155026  32444 200191
- 264469 176808 185005 474744 599560  60134 169143 166669 111058 385311
+ 148678 952041  90389 683799 152443 237702 184282 155026  32444 264469
+ 200191 176808 185005 474744 599560  60134 169143 166669 111058 385311
  183525 508081 971195 200218 264496 975989  30668 435180 222672 515233]</t>
         </is>
       </c>
@@ -27383,7 +27383,7 @@
  177526  73413 483568 501163 677223 947779 461530 486268 808217 511788
  724920 531118 250032 195745 274561  92283 310143 940961 557154 999735
  187819  88688 416737 730563 808564 843220 756161 370099  94413  71504
- 987852  18059 465236 193262 272078 802670 437279 458697 302161  83239
+ 987852  18059 465236 272078 193262 802670 437279 458697 302161  83239
  931197 436299 940800 307518 866517 677172 128936 702614 426737 726530]</t>
         </is>
       </c>
@@ -27526,7 +27526,7 @@
  726037 566549 828906 145642 682536 547259  83332 890384 368301 599697
  877990 177748  74183 185682 146240 680034 666026 947200 685571 251416
  698931 567930 493189 343286 368507 448533   7511 703304 429879 727465
- 692841   9320 204706 268984 994499 771752  68553 427035 526783 304297
+ 692841   9320 268984 204706 994499 771752  68553 427035 526783 304297
  437252 231224 260191 524418 329912 853916 133114 211601 251225 646018
  879087 175392 623255 188884 698976 384791 421863 416476 177943 687541]</t>
         </is>
@@ -27600,7 +27600,7 @@
  118130 210949 345542  93837 449774  68649 778204 698423 127955 471956
  719198  96936 688149 804856 720020  77356  63384 659165 733400 740922
  234751 752033 742502 992426 101354 281803 242001 158322 963430 477206
- 427880 978054 676007 477209 199538 278354 658527 957690 158798 182970]</t>
+ 427880 978054 676007 477209 278354 199538 658527 957690 158798 182970]</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -27669,10 +27669,10 @@
  900638 251004 182376 844258 931756 681846 739411 867975 843661 606013
  308964 681907 857342  58734 921819  67111 191491 733578  97635 168573
   80310  15580 855750 968508 962142 994138  85719 690445 513422 969958
- 198798 277614 483257 157129 413849  14770  16405 960691 839563 831861
+ 483257 277614 198798 157129 413849  14770  16405 960691 839563 831861
   17562  59603 108835 523525 920777 739649 912405 495781 423935 538886
  838803 927611 843044 560900 837310 561275  36144 560957  16979 748568
-  80633 951402 519622 196575 275391 415401  12979 912160  42193 930433]</t>
+  80633 951402 519622 275391 196575 415401  12979 912160  42193 930433]</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -27704,7 +27704,7 @@
  757078 872454 473072 404826 980501 783411 685087 537269 766150 576421
  588616 899501 159060 834783 624185 846767 590679  64252 907036 369381
  919156 913970 880940 915582 169457  10725 934298 629035 857017 958757
- 204396 268674 561776 541500 764599 957657 621275 974914 989937 909264
+ 268674 204396 561776 541500 764599 957657 621275 974914 989937 909264
  854894 902089 880376 974489 411191 617023 835127 883870 202866 267144
  674313 628244 373381 992852 743958 751084 915405 950972 837890 728774
  991564 189496 826421 573420 540556 678591 565790 974196 577107 838369
@@ -27739,7 +27739,7 @@
  552034 160610 708236 138201 485149 521260   6018  46023 642029 764381
  122415 800778 906743 467877 492133 136991 520923 543415 315536 617455
  494534 640353 474800 847266 931226 712714  84212 641477 798764 520852
- 379209  38158 469973  54102 387606 334547  50015 875942  57130 452077
+ 379209  38158 469973  54102 387606 334547  50015 875942 452077  57130
  512608 378711 324947 617537 521265 414325 642064 897115  76524 376786
  314679 138979  51846 455174 569095  45600 426971  50979 960855 409961
   83495 537592 616683 796758 942857 477088 256140 692773 106912 243576
@@ -27808,15 +27808,15 @@
       <c r="B762" t="inlineStr">
         <is>
           <t>[330731 195855 274671 921206 123059 921494 749721  14837 874402 195243
- 274059 199367 278183 197265 276081 747995  14564 868856  17550 423641
-   9574 202980 267258 835235 198660 277476 845187 122319 202127 266405
+ 274059 278183 199367 197265 276081 747995  14564 868856  17550 423641
+   9574 202980 267258 835235 198660 277476 845187 122319 266405 202127
  869811 122511 873348 730408 912798 461222 888106 182040 241494 908803
    3996 907458 957286 572806 481481 201834 266112 122292 127215 398924
  522078 931733 678980 750484 918323 495214 915620 107349 399451 201456
- 265734 863795 983018 223575 196013 274829 397207 492630 872001 562616
+ 265734 863795 983018 223575 274829 196013 397207 492630 872001 562616
  844725 377666 862587 419178 886223 872878 725285 399349 728245 496661
  869714 922487 196212 275028 403310 733843 877594 886076 730498 844188
- 403027 868247 209283 749448 516062  13631 727181  97635 538940 205496]</t>
+ 403027 868247 209283 749448 516062  13631 727181  97635 538940 269774]</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -27851,7 +27851,7 @@
  808382 801124 568716  56363 642313 762839 498682 162804 814861 718440
  211733 610542 807563 475176 486552 899830 872673 876721  77253 402541
   44864  27927  61584 212086 352321 799452 288070 863669 187386  28689
- 700408 809999 568812  27508 429424  56838 192739 271555 181249  82881
+ 700408 809999 568812  27508 429424  56838 271555 192739 181249  82881
  815001 760869 422416 250064 698128 899784 526656 693603 756184 868819]</t>
         </is>
       </c>
@@ -27887,7 +27887,7 @@
  683453 876855 775187 964991 916317 908735 600910 453040 983642 587918
  629277 534906 756041 544690 710182 960479 757779 207552 374638 545634
  835246 709183 659216 757187 251662 594679  27818 876863  27154 920207
- 847916 404664 709623 481628 833074 544587 195125 273941 291788 659593
+ 847916 404664 709623 481628 833074 544587 273941 195125 291788 659593
  304520 373942 629552 127817 546288 661429 755916 224777 618866 906021]</t>
         </is>
       </c>
@@ -27996,7 +27996,7 @@
  637029 636992 444642  30886 637500  93778 444016 444580 140694 444023
  444362 746366  23780  30729 997973 785373 751704 785137 740270 622539
  799530 877685 637017 787720 158454 443637  23586 131747  24418 979136
- 854442 444086 142441  30176  23555 785532 825527 637040  26504 443397]</t>
+ 854442 444086 142441  30176 785532  23555 825527 637040  26504 443397]</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -28172,10 +28172,10 @@
  268662 798251 151986  98540  14829 964486 973811 605185 553253 223592
  795818  14900 947139  72764 241634 343399 379344 434076 255400 488798
  371740 253792 553483 530748 517122 258275 563502 746670 197082 275898
- 223622 665893 234393 253432 847203 200888 265166 565158 403454 104218
- 203364 267642 807283 259305 143146 483537 459500 668687  68166 734165
+ 223622 665893 234393 253432 847203 265166 200888 565158 403454 104218
+ 267642 203364 807283 259305 143146 483537 459500 668687  68166 734165
  372588 241177 565574 993878 868066 795590 433849 553301 517676  72399
- 105483 202119 266397 962871 256238 868376 203169 267447 994244 554864
+ 105483 266397 202119 962871 256238 868376 267447 203169 994244 554864
  143789 377105 993869 974927 224373 590341  51262 518141 481978 681252]</t>
         </is>
       </c>
@@ -28203,7 +28203,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>[178545 324978 528468 743837 341293 528597 130845  29261  59992 524974
+          <t>[178545 324978 743837 528468 341293 528597 130845  29261  59992 524974
  106182 528533 605062 106647 730188 540633 338927  60073 596010 528611
  515141  40560  91341 525009 396850 815564 748628 524946 106596  82424
  364446 507419 517246 540619 367636 504474 151598 106531   5373 517432
@@ -28315,7 +28315,7 @@
  217178 447155 447179 994279 207069 654505 423149 446583 447311 446348
  447427 423662 605119 787939 446592 906823 907287 915274 559179 215911
  447721 785505 655614 994353 446517 667438 654858 994200 913497 447660
- 643015 206993  38121 788108 423262 787992 447419 446491 907949 915187
+ 643015 206993  38121 788108 423262 787992 447419 446491 915187 907949
  447383 656993 445936 445777 445783 424072 559198 412006 446261 953209
  446054 907034 215996 445898 857923 994224 447199 642297 785877 953211
  445944 787909 445958 785723 412180 787901 906324 192209 938505 217747
@@ -28348,13 +28348,13 @@
       <c r="B777" t="inlineStr">
         <is>
           <t>[833662 463833 833918 729574 727795 392692 383868 920661 588340 999594
- 919561 935090 182273 199240 278056 801568 392887 853796 694286 399427
+ 919561 935090 182273 278056 199240 801568 392887 853796 694286 399427
  381990 584056 875561 395839 551753 498894 888431 203949 268227 432240
  602437 936010 453953 369475 282842 588897 703728 202869 267147 157350
  692750  94270 493144 390641 175282 694814 725890 465732 581879  23345
  935091 306315 498025  93084 998040 738409 504729 837100 369542 200159
  264437 533429 623231 395770 461168 369083 834080 726996 611878 952156
- 726393 424682 755277 550803 736518 783720 434599 197276 276092 177174
+ 726393 424682 755277 550803 736518 783720 434599 276092 197276 177174
  550263 890955 854109 928365  19517 620364 417949 175380 679478 482028
   45330 117858 168586 934887 584031 339238  39666 149736 391187 612815]</t>
         </is>
@@ -28390,7 +28390,7 @@
  108246 806076 699272 815446 814715 279892 520721 487399 304988 815526
  516672 294938 615079 151447 526374 426599 520729 499801 547053 982506
  204172 268450 489512 487378 815482 450654 819529 278668  68643 815289
- 815279 929860 483146 824941 305045 215693  40560 614869 815295 815520
+ 815279 929860 483146 824941 305045 215693  40560 614869 815520 815295
  516813 389617  68314 363373 516840 487394  82537 104908 482791  82422
   30035 443387 487381 602544 697897 522575 151191 426447  82378 663436]</t>
         </is>
@@ -28535,8 +28535,8 @@
  148039 723109 945215 780795 321184 845182  20710 708323 947837 618180
  823810 239010 281936 430445 887053 944471 506331 921696 482409 948004
  247252 796348  20342 783750 339831 435327 521974 886935 663939 527358
- 397244 519241 262421 949918 282891 817468 724971 133420 840784 744262
- 721484 844617 744429 349549 522049 795871 754334 176352 145866 683368]</t>
+ 519241 397244 262421 949918 282891 817468 724971 133420 840784 744262
+ 721484 844617 744429 349549 795871 522049 754334 176352 145866 683368]</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -28572,7 +28572,7 @@
   82786 627680 612852 735926 834076  46508 476272 838405 794146 830785
  572573 582734 164203 852345 830914 476758 216073 156244 414985 213561
  747477 864594 384363 563620 297749 510115 159852 735793 513950 606362
- 192783 271599 646299 477396 228636 719843 317634 829354 222088  51596]</t>
+ 271599 192783 646299 477396 228636 719843 317634 829354 222088  51596]</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -28607,7 +28607,7 @@
  884430 876895 915746 984320 763059 362119 903867 607073 449152 221125
   14975 603824 868960 884354 751012 457212 984375 730434 942284 278897
   70556 628895  14823 208210 243228 881275 455605 684968 762307 768856
-  80294 757456 489618 205623 269901 642006 986274 977622 899194 997255
+  80294 757456 489618 269901 205623 642006 986274 977622 899194 997255
  702965 915695 931943 986807 861533 892330 606932 327582 397290 576194]</t>
         </is>
       </c>
@@ -28636,15 +28636,15 @@
       <c r="B785" t="inlineStr">
         <is>
           <t>[959935  11070 909421 947227 853521 845851 873193 845802 680451 852387
- 755152 190726 954730 891517 876481 886000 204686 268964 886121 941432
+ 755152 190726 954730 891517 876481 886000 268964 204686 886121 941432
  800474 858369  36118 191113 769092 678033 823156 841564 956195 983749
-   9581  11588 512136 832998 443346 545163 886434 191160 190619 877757
+   9581  11588 832998 512136 443346 545163 886434 191160 190619 877757
  919448 542294 941675 919830 942054 708738 911020 997207 542297 443310
  905983 857492  11063 224926 947568 932934 869048 955307 868526   9937
  846544 199367 278183 997596 955989 546600 170159 858172 443162 444974
  948349 931877 562068 954620 443365 932474 931864 645862 224593 961563
   56222 410020 855258  56301 883263 998340 858343 905414 853636 886480
- 190691 908441 191904 541439 885850 207698 546770 973218 867781 679258]</t>
+ 190691 908441 191904 541439 885850 207698 546770 973218 867781 914192]</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -28677,8 +28677,8 @@
  875241 307783 143121 906793 716692 315033 688529 219157 783077 467518
  609655 721814 360081 220694 950955 220099 220035 187166 220589 964648
  599821 884792 804036 114878 900870 927282 114634 707600 608391 867380
- 704876 461768 599563 317515 608474 407288 387115 714967 574933  18907
- 260592 961725 604099 202795 267073 675723 643005 711653 906046 860544
+ 704876 599563 461768 317515 608474 407288 387115 714967 574933  18907
+ 260592 961725 604099 267073 202795 675723 643005 711653 906046 860544
  383433 694903 617832 872518 846022 939182 970337   6619 284978 397594
  945706 574930 119439 380406 575412 817642  25676 354102 997840 832951]</t>
         </is>
@@ -28745,11 +28745,11 @@
         <is>
           <t>[432083 511070 512911 922999 521870 521990 895271 921717 512145 732452
   19023 554284 843696 807384 696633 956634 312208 842903 922328 350327
- 732690 524246 497062 843042 480209 203986 268264 511346 923092 108837
+ 732690 524246 497062 843042 480209 268264 203986 511346 923092 108837
  886004 913999 540228 202105 266383 563093 915889 152715 932289 932320
  156485 921821 851386 956846 989924 904672 542409 736065 226289 310675
-  58594 389703 901334 187556  58530 957391 690421 511017 324581 195491
- 274307 940617 844636 324451 124306 238633 205639 269917 842217 155559
+  58594 389703 901334 187556  58530 957391 690421 511017 324581 274307
+ 195491 940617 844636 324451 124306 238633 205639 269917 842217 155559
  983310 704996  19133 865817 542992 982882 861019 309063 922433 170474
  977280 244307 521891  17394 839840 594114 205554 269832 678478 831508
  315100  18555 502478 154120 834462 920457 542624 919023 564428 223701]</t>
@@ -28856,7 +28856,7 @@
  391122 866393 335198 866817 440502 473817 764251  90100 544035 487186
  349048 531095 109118 543877 246439 223455  62091 434479 368950 461314
  199011 277827 701262 986710 484386 726904 576477 546174 507490 589302
- 687646 520518 203889 268167 144956 884019  93442 661566 566090 895687
+ 687646 520518 268167 203889 144956 884019  93442 661566 566090 895687
  212034 686540 704298 226997 317323 920366 671694 210761 213835 390343
  258753  63059 553680 390462 226703   2744 378435 932839  16696 255956
  668709 373078 485550 747939 251667 965008 869449 615668 708074 373361
@@ -28925,7 +28925,7 @@
         <is>
           <t>[ 49965  50077  47385 298819 930791 440078 542199 111378 805433  76362
  196465 275281 805672 749172 648927 214599 304492 760231 806909 619446
- 406967 957655 396264 112046 834827 784461 932719 172772 195360 274176
+ 406967 957655 396264 112046 834827 784461 932719 172772 274176 195360
  930280  49073 290153 406783 349882   3613 291403   4024   4412 386977
  169765 635801 564927 395823 463323 767166 577559  37198 406866 988527
  302610 169323 169887 508260 548551 648948 184475 171986 939612 204015
@@ -28967,7 +28967,7 @@
  263130  20245 439160 397647 413043 561758 473022 429999 521826 465290
   21643 146165 821077  21288 921535  97050  34321 349988 634615 565276
  107079  22790 164622 176103 812813 148899 413468  27227 402387 524690
- 682581 325134 917642 695355 136571 429461 696507  34161 407570 122632
+ 682581 325134 917642 695355 136571 696507 429461  34161 407570 122632
  940112 108532 173226 903072 612048 754756  34464 477539 116425  59568]</t>
         </is>
       </c>
@@ -29000,11 +29000,11 @@
  679063 752013 485490 929614  51331 184772 865138 672100 872916 708514
  626925  93332 841368 156449 743514 458170 853525 176624 118171 425844
  805385   3993 867434 426289 600233 402774 318967 118327 945433 962620
- 315135 948010 679344 595704  85654 669131 848070 676087 197739 276555
+ 315135 948010 679344 595704  85654 669131 848070 676087 276555 197739
  540832 847103 524256 910647 896573 674956 972744 851204 564030 841615
  620843 856148 145944 184255 357228 812211 738193 918967  19959 439253
  669203 888343 856169 669349 671338 594051 177721 328630 464246  14023
- 990648 677111 863504 200823 265101 336384  90668 164133 939802 861159]</t>
+ 990648 677111 863504 265101 200823 336384  90668 164133 939802 861159]</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -29033,14 +29033,14 @@
         <is>
           <t>[818602 823552 363372 889057 130748 761475 426620  95610 487394 566261
  566259  63657 637197 104851 814717 129610 304999  60260 130678 443492
-  82377  82536  94964 823667 451295 111921  95882  29997  29983 716534
+  82377  94964  82536 823667 451295 111921  95882  29997  29983 716534
  158032 496657 502123 363421   4646 567755  88444 482836 152518 636849
   29971 295270  68312  85848 683824 450653  94664 107988   4776 549430
  748050 815327 823528 814665  29965 106508 818968 363379 389813 450373
  187771 815298 151496 321943  30013 124739 429347 636834 337243 351043
  306381 569277 123297 280813 780243 153083 293307 559513 122124 107164
  780251 321594  68392 480691 522278 426598  30110 563902 152158 124451
-  29961 566419  83410  68371 204171 268449 662758 154477  94225 563905]</t>
+  29961 566419  83410  68371 268449 204171 662758 154477  94225 563905]</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -29074,8 +29074,8 @@
  543056 606763  42224  11145 765448 298443 636155 431393 221143 692002
  746332 369653 786128 930561 612661  80919 106882 245424 986990 608249
    9975 962254 566550 840923 661554 724894 954541 384887 533113 769558
- 311039  35208 831790 987153 716616 690895 299129 201373 265651 423069
- 997419 679603 994949 581533 194527 273343 460592 317650 353506 299547
+ 311039  35208 831790 987153 716616 690895 299129 265651 201373 423069
+ 997419 679603 994949 581533 273343 194527 460592 317650 353506 299547
   30868 868623  13566 969161 566518 409500 779122 548186 831222 389683]</t>
         </is>
       </c>
@@ -29112,7 +29112,7 @@
   45816 371809 823760 388812  57478 851209 874393 291675 252076  49903
  412313 814752  53147  56628 409954 640815 778975  46862 709701 188500
   10574  56709 541053 498367 419727  56651  53528 320844 474231 736601
- 239702 664653 417833 505376  46838 745379 193640 272456 913946 823129]</t>
+ 239702 664653 417833 505376 745379  46838 193640 272456 913946 823129]</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -29217,7 +29217,7 @@
  893195 672589 103953   7859 204950 269228  80084 311194 850314  70240
  208222 714374 350944 703271 924155 346971 669920  79570  16737 658309
   79770 428229 486865 658469 560389 599083 671805 671204 892665  30147
-  99564 448925 141003  42195 565762 785019  81573 923685 365592  73273
+  99564 448925 141003 565762  42195 785019  81573 923685 365592  73273
   55494 309272 215666 511904  30080 351690  99449 658261 282687 160305
   30130 990763 280571  52016 188776 529107 421577 688149 619301 692045
  474202   7549  98949  96048 560965 790965 607253 720800 599111 485289]</t>
@@ -29249,13 +29249,13 @@
         <is>
           <t>[ 50842  50775 298968 494746 687375 415646  10962 410247 207153 753931
  285223  11416  54707 914087 297648  46074 913795 753662 825274 875043
- 625537 521170 411897 195796 274612  51450 248521 754822 875663  54721
+ 625537 521170 411897 274612 195796  51450 248521 754822 875663  54721
  476974 410241 543489 715478 411786 754575 890655  54990 537115 440973
  476996 707844 159621 429336 753930  84125  54824 692410 811588 386865
  493817  45220 459306 421544 479626 419913   7118  50646 521066 920983
  101010 412161 823630 537080 693705  97931  10794 753838 892338  97468
  415670  49935  51392  50707 478028 344507 282937 543602 250640 190906
- 478122 568607 774215 866588  46569 131899 286465 543682 754031  44746
+ 478122 774215 568607 866588  46569 131899 286465 543682 754031  44746
  808202 901270  50862 324592 823629  43094  49306 861914  50727 503575]</t>
         </is>
       </c>
@@ -29323,7 +29323,7 @@
  402699 407722 415046 106139 468120 379937 983953 497327 372819 803887
  320056 333391 408140 407965 123983 982740 619666 757089 106954 468347
  497170 474658 105764 938039  11687  81370 127456 595901  21556 352727
- 345514 730918 296325 136576 737508 205113 269391 777600 873738 619482
+ 345514 730918 296325 136576 737508 269391 205113 777600 873738 619482
  408833 155469 138038 599946 614760 797130 560665 982895 694428 860891
  175959 948581 468664  21561 517634 137757  21816 711989 609952 730996
  261240 976436 475666 456124 467869 175592 520472 976438 664681 808185
@@ -29394,10 +29394,10 @@
           <t>[517041 339959 518477 186716 517652 925436 353678 500218 925047 520978
  406372  85207  62780 316587 736098  83861 357969 494838 884353 518710
  495121 735857 634122 629398 520556 749351  90005  87165 439778 435421
-  71875 193173 271989 173875 563873  51970  89598 237102 457712 635818
+  71875 271989 193173 173875 563873  51970  89598 237102 457712 635818
  477429 291593 862221  90224 284196 279529 665676 518428 625080 469577
  238993 340527 420493 405648 504837 282579 614277 947419  60962 500603
-  82544 192832 271648 810497  90471 895301 486509 217490  52563 520696
+  82544 271648 192832 810497  90471 895301 486509 217490  52563 520696
  406599 948440 469545  60025 551688 575104 467939 663502 504027  57271
  947252 186694 503556  87282 732817  87156 391675 899999 789678 111890
  226705  40873 841522 478300 976455 929978 696005 712411 899592 680295]</t>
@@ -29541,7 +29541,7 @@
  839357 905190 871660 669871 839048  58054 555337 554898 868805 450581
  366710 739111 871053 837235 842084 481825 719170 842393 872955 541975
  737182 839301 501428 572819  42873 780050 554799 576772 837461 996444
- 837276 555171 515257 554858 183916 837480 199743 278559 490254 451333
+ 837276 555171 515257 554858 183916 837480 278559 199743 490254 451333
  668093 685960 670377 931812 905358 899737 223497 879698  99153 780037
  931875 114519 212121 838265 415856 667803 664169 684248 743482 861353
  879764 223641 112201 449884 594797 572834 780076 584168 837813 554671]</t>
@@ -29643,7 +29643,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>[205480 269758 204350 268628 206841 271119  82410  83196  75566  82880
+          <t>[205480 269758 268628 204350 271119 206841  82410  83196  75566  82880
  651233  81760  81917 994701 192753 271569 868694 749468  84365 895665
  112324  64022 994731  52233 279033 470522 475817  84606 862802 749584
   83747 279099  53368  84831 854733 254734 994628 870633  82791 475603
@@ -29718,10 +29718,10 @@
           <t>[854738 226253 941121 548402 884456 599311 180935 394861 883423 869752
  614908 614870 596459 880270 884572 698579 564563  14130 120950 795647
  705501  64151 595971 795381 502765 555016 564571 705122 539711 317720
- 870266 771637 507367 947891  69370 580818 204493 268771 545876 643117
+ 870266 771637 507367 947891  69370 580818 268771 204493 545876 643117
  879903 667973 378582 598214 947562 545476 861624 869457 251618 379959
  668322 595274 986949 685681 574675  76503 197213 276029 671765 858796
-  87574 887530 668946 509647 548792 203374 267652 205392 269670 909656
+  87574 887530 668946 509647 548792 267652 203374 205392 269670 909656
  561234 595346 224061 214515   9897  58236  58345 862033 707398  69392
  874146 616450  60421 643815 879858 934066 669866 704167 840454 869507
  483940 670049 932867 194668 273484 863714 923329  20467 857958 514530]</t>
@@ -29795,8 +29795,8 @@
  890057 211423 472181 103384 213065  54546 892808 478159 909314 767829
  718936 472006  46422 684910 914850 856222  56045 171150 892830  52335
  559103 216659 442402 755192 847043 207166 655904 424677  51511 211322
- 112369 706817 992287 907812 814356  50516 413890 188036 207053 337652
- 203707 267985 582566 685896 186521 415554 641275 907280 850902 422219]</t>
+ 112369 706817 992287 907812 814356  50516 413890 207053 188036 337652
+ 267985 203707 582566 685896 186521 415554 641275 907280 850902 422219]</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -29864,7 +29864,7 @@
  979829 889515 997177 987712 679260 940783 915760 982894 191389 947240
  540253 985441 663513 911174 955305 955284 954443 921400 886894 905270
  985379 207587 680452 913387 914320 100681 918991 858269 864902 356312
- 919550 856107 637250 207146 663357 867770 204866 269144 855020  60825
+ 919550 856107 637250 207146 663357 867770 269144 204866 855020  60825
  406154 540558 946977 910948 124004 893591 995111 919004  15591 946961
  983934 207227 854096 846015 919057 867783 473502 997143 539637 931852
  841166 542302 984513 851049 858762  36196 869522 982885 191610 544533
@@ -29897,12 +29897,12 @@
         <is>
           <t>[899825 245807 608361 664794 644663 645036 569659 569455 428671 569356
  664029 907136 457962 245858 429090 900158 656365 540724 109999 643956
- 982598 151460 280773 689259 140903 606057 906780  44884 620718  41994
+ 982598 280773 151460 689259 140903 606057 906780  44884 620718  41994
  718737 570020 569235 212999 836682 464562 455519 574158 527192 641415
  536839 295029 587866 595699 607472 470229 786777 861037 718264 899396
  429423 643730 835961 594809 657872 545669  82006 569776  16812 570869
  464375 545991 644932 900789 734895 688714  11729 607951 816800 837058
- 906395 443097 601744 951631 570483 545360 427079 860365 447891 902261
+ 906395 443097 601744 951631 570483 545360 427079 860365 902261 447891
   46429 306806 600939 836575 141421 461756  86937 355661 133694 646029
  603832 607607 688656 198165 276981 985837 715206 448256 961852 606655]</t>
         </is>
@@ -30045,7 +30045,7 @@
  556861 156306 385891  30230 525557 784896 367185 711759 728315 748384
  281764 756150 869223 723633 788500 527509 246580 667762 974299  83920
  536595 460912 522920 780414 724015 469789 710898 748528 809442  42046
- 926528 522154 526962 192701 271517 356176 753924 306624  19085 336821
+ 926528 522154 526962 271517 192701 356176 753924 306624  19085 336821
   70807 740179 806236 322842 175733  86528 550209 525599 720246 740161
  133226 710342 482435 504755 499531 632995 510644 364364 974039 705007
  531695 685362 822006 391737 645681 787804 531754 297935 869367 708728]</t>
@@ -30079,8 +30079,8 @@
   87502 295095 719184 806101 293357 125476 336634 539523 529994 449937
   88232  68378 361724 279069  78719 389968 702934 815040 332653 525216
  352032 450611 354127  95999 450147 352969 451083 600998 348830 189138
- 396952  82448 551619 822270 994751 188530 151255 400665 236829 523844
- 525658 782203 228136 450185  88225 806138 401521 829845  85441 831877
+ 396952  82448 551619 822270 994751 188530 151255 400665 236829 525658
+ 523844 782203 228136 450185  88225 806138 401521 829845  85441 831877
   83596 525530 524662 321615 363368 352292 168412 246521 389361  86604
  350378 363395 942682 188786 337873 305964 520524  86808  84408  20768
   29942 281124 469122 830709 963319 539306 782841  84883 122522 929100
@@ -30189,7 +30189,7 @@
  689462 263999 492227 720452 111531 724674 719950 520415  90007 243147
  514583 326766  16708 235037 548868  93161 807158 104876 778641 435673
  209243 926430 859959  83980 725616  88089 351860 787736  16823 516303
- 206642 270920 617796 780019 321601 520425  83487 531312 365549 188801
+ 270920 206642 617796 780019 321601 520425  83487 531312 365549 188801
   73441 215355  76322 112080 499424 304826 787776 156836 711219 210355
  725016 693848 429598 279009 703689 815563 690953 850012 720041 567923
  806868 528443 522739 504424 489254 524781 133152 292507 454661 525658]</t>
@@ -30261,7 +30261,7 @@
  822300 438275 431834  84107 842812  84862 263731 529141 432494  55846
  291663 670522 345910 323692 380801 354601 694225 684181 876865 868442
  694976 822217 304778 519890 511812 292315 106629 430305 174765 293620
- 824109 997408 432804 200448 264726 482677 667881 385995  98698 336810
+ 824109 997408 432804 264726 200448 482677 667881 385995  98698 336810
  431346 214279 100762 105060 152966 385163 784929  19085  96271 740264
  966413  59085 413979  23961 474633 716522 512457 504756 739445 569479
  696596 293097  94552 380910  71865 876830 232269 106719 891125 309442]</t>
@@ -30330,7 +30330,7 @@
           <t>[ 68502  68806  69259 493060 380866 524750 379731  60830  91942  60293
   85970 350727  30724 498474  88432 432022  86401 653494 211101 294493
   84309 470231 764827  83369  69803 338086  87333 932784 923803 937187
- 574044 524694 903059 461494 247047 552012 203589 267867 521868 703620
+ 574044 524694 903059 461494 247047 552012 267867 203589 521868 703620
  108817 328532 678388 212014 497530  89265 361143 662077  85081 189579
  726994 402892 107075  30051 713962 636754 188364 525493 532094 923439
   30135 364559 470279 526260    898 352945  83287 828825 459420 808840
@@ -30372,7 +30372,7 @@
  482505  53621 898434 524790 755310 282645 899231  23888 882240 278998
  280016 524765  90973 779667 311515  28913 941762 342152 216445 280191
  699991 351630 418024 307927 828777 280040 683043 280580 151463 608862
- 156545 353362  20783 754127 305238 292004 292538 279646 698868 423163]</t>
+ 156545 353362 754127  20783 305238 292004 292538 279646 698868 423163]</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -30399,8 +30399,8 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>[406015 843696 899252 842903 736065 869999 223891 223985 604346 199778
- 278594 861948 547569 867844 912705 868849 205261 269539 899354 853685
+          <t>[406015 843696 899252 842903 736065 869999 223891 223985 604346 278594
+ 199778 861948 547569 867844 912705 868849 269539 205261 899354 853685
  842368 564078 851227 911960 853867 379607 480293 920855 881179 670975
    9542 596590 843011 900651 868264 913921 985199 920363  67751 957385
  996943 541921 253313 478356 706588 478378 380718 514114 906455 842137
@@ -30508,8 +30508,8 @@
       <c r="B837" t="inlineStr">
         <is>
           <t>[ 69235  68707   7549 475525  16742 422935 230415 423133  48484 232153
- 514125  16583 391789  68537 330918 322200 526789 719299 977324 193761
- 272577 279611 507107 964522 584424  30275  36752 500392 152697 475790
+ 514125  16583 391789  68537 330918 322200 526789 719299 977324 272577
+ 193761 279611 507107 964522 584424  30275  36752 500392 152697 475790
  603306 502987 594042 517242 618318 787912 415446 326037 977402  68657
   48437 715202  81561  79704 476042 475417   4673 493375 363024 531956
  601688  54055 599111 719456 323180 329429 204950 269228 421479  84336
@@ -30765,10 +30765,10 @@
  923348 214014 116595 169434 350855 420227 353119 350769 727213 693848
  192846 271662 560087 254302 233365 524619  71843 168431 746863 510622
  840896 663900  36575 177320 668283 189764 247981 215435 720085 572950
- 701406 742359 488738 389818 987724 233553 232984 249829 929521  97831
+ 742359 701406 488738 389818 987724 233553 232984 249829 929521  97831
  112082 518644 850343 742476  67759 421655 725877  36555 406377 522588
- 133217 195965 274781 170925 424312 392221 522778 194843 273659 226427
- 464801  32380 523793 247125  22254 109976 187618 143314  36419 193235]</t>
+ 133217 195965 274781 170925 424312 392221 522778 273659 194843 226427
+ 464801  32380 523793 247125  22254 109976 187618 143314  36419 272051]</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -30797,10 +30797,10 @@
         <is>
           <t>[ 68682  69260  58732 662468 142858 516209 608766 535494 554891 136817
  842325 346157 899049 226598 535083 121482 554926 879707 425724 137652
-  16841 842555 528701  11345 690014 847784 406331 193913 272729 197323
- 276139 147507 129201 832339  36418 899026 140590 527132 921875 668173
- 416318 555259 511180  16604 845145 343327 903751  99136 481016 194791
- 273607  59483  42219 416489 223611 391918 594029  58861  71600 223640
+  16841 842555 528701  11345 690014 847784 406331 272729 193913 276139
+ 197323 147507 129201 832339  36418 899026 140590 527132 921875 668173
+ 416318 555259 511180  16604 845145 343327 903751  99136 481016 273607
+ 194791  59483  42219 416489 223611 391918 594029  58861  71600 223640
   61762 939378 823444 529149  68327 207009 207809  16234 508842 862027
  865884 677775 846998 915733 496796 554794 846942 594046  14032 911448
  100860 659852 920854 977277 180737 518290 841166 362482    316 403668
@@ -30839,7 +30839,7 @@
  262383 590707 486832 110000 158347 107577 171956 151431 635432  68618
  452041 722505 525343 455441 616871 703531 853899 339844 113221 927248
  279552  94410 738898 294683  92208 743038 579004 432471 742694 720609
- 297213 723061 698192 262412 588817 719305 159606 242292 733324 389545
+ 297213 723061 698192 262412 719305 588817 159606 242292 733324 389545
  332028 769702 338011  75655 725245 389896 389764 855760 824781  69884]</t>
         </is>
       </c>
@@ -30875,8 +30875,8 @@
  806327 236855 132275 387303 326884 750999 657467 524272 751790 525543
  749045  43879 497650 360733 789102 748498 432940 228119 320006 417044
  584822 748512  43898 433191 704823 421102 525412 141866 921843 727025
- 584941 389856 198439 277255 803938 327827 316528 431916 200337 264615
- 487696 975468 432050 139192 754254 196863 275679 405188 706706 198132]</t>
+ 584941 389856 198439 277255 803938 327827 316528 431916 264615 200337
+ 487696 975468 432050 139192 754254 275679 196863 405188 706706 198132]</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -30906,13 +30906,13 @@
           <t>[ 69299  60184 918936 670208 668047 416419 519128 876179 868044 519429
  458863 519464 535565  60415 737898 939036 732456 807359 389593 389534
  807204 223502 798727  69955 668327  16961 912107 595004  20102 596247
- 194729 273545 670361 458808  99058 919019 842692 957332 842806 635988
+ 273545 194729 670361 458808  99058 919019 842692 957332 842806 635988
  544102 500742  15745 257700 180951 918933 795888 422594 707279 376160
  506006 198768 277584 147764  89433 461299 683871  65390 681523 497626
  503716 171642  69395 719019  60306  15856  71968 521758  91961 704105
  813933 679451 772312 939559 880221 416032 434467 223824 629352 919224
  831304 126502 390875  74591 693325 678769 396996 887344 199776 278592
- 497471 840954 880235 886868 203875 268153 704762  60819 596869 807720]</t>
+ 497471 840954 880235 886868 268153 203875 704762  60819 596869 807720]</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -30943,7 +30943,7 @@
  129472 140248 430152 208570  95027 214551 100280 525065  59574 799435
  304203  96411 155005  84310  82847 501174  86808 524700 350602 278663
  349665  88982  90715 364538 164270 349403  85587 279867  16857 317538
- 684499 363416 484724 521858 215307 732365 615105 168412 637235 419543
+ 684499 484724 363416 521858 215307 732365 615105 168412 637235 419543
   86167 291906  90283 691415 122021 214753  61236 524920 662785 350622
  468062 921033 524165 497211 112140  30046 105189 351277 151222 665040
   92837 168422 175401  82630  77232 151210 615037 515129 662767 350467
@@ -30978,7 +30978,7 @@
           <t>[ 16573  16504 541558 466664 293542 293880 922857 365573 293180 441885
  441742 235039 294729 701265 740030 314021 603893 462955  94260 705048
  379277 283763 502223 161092  42148 913683 249422 263926 233799 542866
- 108943 441150  31352 123845 768773 441322 504729 197114 275930 482396
+ 108943 441150  31352 123845 768773 441322 504729 275930 197114 482396
  514686 281728 363895 480492 699014 234335 110133 868438 510155 611261
  541513 263739 528940 525648 424899  94967 866648 717763 123906 589642
   44499 153877 661984 233366 438276 197472 276288 579457 559688 894093
@@ -31013,7 +31013,7 @@
         <is>
           <t>[877311 880029 112890  69426 393923 733016 914689  49886 933786 931992
  932344  91349 942785 506500 334413 736350 328029 618044 630865 205626
- 269904 308167 201685 265963 931644 204360 268638 325360 880293 779318
+ 269904 308167 265963 201685 931644 268638 204360 325360 880293 779318
   95481 877203 214428  18888  30238 909644  43828 562347  83276 989761
  507007 390639 804275 908003  72498 880491 971274 942786 573457 882947
  208565 972943  73516 393315 750063 872441 113853 908142 385761 926471
@@ -31050,7 +31050,7 @@
           <t>[ 69401  69812  70299  60859  60704  60251  61464 133979 379986 487395
   21949 141497 990137 292677 130897 929766 487459 174665 740062 435552
  522505 111720 496668 780311 404727 131479 408913 430633 658189  23701
- 155005 140923 292070 522701 322685 294085 780375 282523 292190 339142
+ 155005 140923 292070 522701 322685 780375 294085 282523 292190 339142
  321805 487372 833559 497354 307905 732267 311136  70375 404744 732276
  470791 771095 730380  69804 470807 496700 307481 704335 989989 542916
   98765 800194 678001 305127 460712 339351 391721 291880 141748 331409
@@ -31126,8 +31126,8 @@
  391791   4646 814899 473330 750335 539385 688829 526961 427623 525010
  823639 342254 615777   5651 814034 770827 822570 551312 367734  11472
  390114 370613 235429 772215 432638 527686 401106 350618 690536 439326
-  52997 451880 389392 430919 977350 358288 340781 228300 295140 547715
- 764184 344536  11739 524809 724549  90728 367405 108520 152026 114602
+  52997 451880 389392 430919 977350 358288 340781 295140 228300 547715
+ 764184 344536  11739 524809 724549 367405  90728 108520 152026 114602
  168554  37541 736750  80702 524410 240301 178431 597938 133225 121069]</t>
         </is>
       </c>
@@ -31161,7 +31161,7 @@
  745272 868041 687585 322257 414932 577360 385967 578939 797800 161734
  475604 338026 112507 160355 541162 684846  86445 452196 641232 920494
  600623 477865 341303 504462 452853  84673 922074   6234 453173 684826
- 323118 544013 820714 993699 385805 204351 268629 409589  57297 479560
+ 323118 544013 820714 993699 385805 268629 204351 409589  57297 479560
  337645 692829 306175 453619 552022 943054 464851 526436 453654   5072
  513241 401002 307546 637481 696751  85456 409370 453256 469935  38062
  803510 453715 897674 560584 542365  73251 422226 988216 585770 459145]</t>
@@ -31193,13 +31193,13 @@
         <is>
           <t>[254303 932436 919017 933756 174278  91961  13549 848159 543830 348549
  403287 970085 982466 932240 420116 932156 647023 947625 226233 865930
- 435994 210891 804560 647176 931755  12867 646107 987534 200240 264518
+ 435994 210891 804560 647176 931755  12867 646107 987534 264518 200240
  408865 538872  71080 801044 433746 857602 400374 941533 598691 843660
  831340 248902 704589  60160 862738 541983 546287 853185 934679 528976
  129604 214356 404731 513511 357197 122564 254147 833767 946994 314498
  377866 174787 705721 646063 690651 876505 347966 884659 772118 973621
  956720 627872 848843 896623 560332 543656 983629 889828 538739 578433
- 103820 480228 504966 786901 844512 832288 195759 274575 947463 834680
+ 103820 480228 504966 786901 844512 832288 274575 195759 947463 834680
  853579 863926 380321 581159 690829 462485 879065 560333 544093 997301]</t>
         </is>
       </c>
@@ -31235,8 +31235,8 @@
  888214 738236 536411 406156 343264 915486 827583 353877 714850 571709
  860083  41519 702212 477788 842919 108099 987623 577878 955574 641876
  307303 976133 819575 250658 495013 362710 373050 378386 336085 643232
-  24520 649487  41719 378347 642608 412551 976082 519140 500145  71286
- 140861 837794  61565 669052 154281  60672  55932 838400  13197 479026]</t>
+  24520 649487  41719 378347 642608 412551 976082 519140 500145 140861
+  71286 837794  61565 669052 154281  60672  55932 838400  13197 479026]</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -31299,11 +31299,11 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>[730006 991996 565745 751465 247203 197546 276362 248146 610802 813019
+          <t>[730006 991996 565745 751465 247203 276362 197546 248146 610802 813019
  902242 169534 515993 373989 565138 532156  76653 588519 115156 573353
  824914  73733 992591 585909 563021 657906 561477 853033  22914 251850
  112913 454515 144259 368176 387593 860981 811029 887497 247389 550479
- 623998  16079 659363 197174 275990 433216 150592 766509 812088 229718
+ 623998  16079 659363 275990 197174 433216 150592 766509 812088 229718
  865310 872173 533552 301790 733249 416291  96832 992578 828146  15608
   40329 519791 594295 730049 238586 169778 987429 662942 713742   1017
  738862 500781 993542  74926 619798 228853 249744 688161 711122  80594
@@ -31338,8 +31338,8 @@
           <t>[ 69575  75005  71693  60367  70446  63941  60656 106733 346247 608754
  680574 533127 344993 533424  41378 246364 599776  82142 836846 688600
  159000 132916 322928 499774 164445 811117 970804 897477 987105 563991
- 158499 125199 537046 835634 141769 252863 526050 678918 759855 196660
- 275476 253014 159194 679010 553446 795131 989358 388778 376496 483441
+ 158499 125199 537046 835634 141769 252863 526050 678918 759855 275476
+ 196660 253014 159194 679010 553446 795131 989358 388778 376496 483441
  800013 916386 689678 567433 158818 222424 125212 461815 831767 462325
  497528 936026 902822 186953 633796 882481 920759 125708 125093 192442
  271258 564274 498008 567389 301347 812721 370140 473535 292409 123840
@@ -31444,7 +31444,7 @@
       <c r="B863" t="inlineStr">
         <is>
           <t>[ 73753 528134 394883 152047 549819 723027 386386 506797 513324  68822
- 330425 518031 953189 658308 903052 197440 276256 119079  64984 262572
+ 330425 518031 953189 658308 903052 276256 197440 119079  64984 262572
  525685 860373 721523 903033 525567 116950 525919 986927 595459 776740
  211585 187667 321653 181011 658338 528332 186974 190413  19875 181115
  506187 804022 547712 469286 469799 420338 522247 166818 331791 419332
@@ -31480,14 +31480,14 @@
       <c r="B864" t="inlineStr">
         <is>
           <t>[ 70830  70247 448396 464841 551017 417093 448468 550353 417142 448471
- 464843 195618 274434 714827  25929  64177 284899 194811 273627 454448
+ 464843 195618 274434 714827  25929  64177 284899 273627 194811 454448
  417071  69552 160979 209497 338013 966521 522725 629606 452539 424454
  164735 999530 925952 353239 194298 273114 333325  62108 405403 283120
  967135 122955  76754 220188 818400 573006 396942 921431 780458 872565
  870564 305750 200495 264773 281115 701498 409229  78195 239740 474680
- 572869 153155 471346 701080  84419 999594 405297 120550  58638 192933
- 271749 408740 483007  83493 496513  18688 497675 242320 602437 305809
- 424154 508182 931062 701544 155496  49737 813653 192727 271543 355190
+ 572869 153155 471346 701080  84419 999594 405297 120550  58638 271749
+ 192933 408740 483007  83493 496513  18688 497675 242320 602437 305809
+ 424154 508182 931062 701544 155496  49737 813653 271543 192727 355190
  921572 701553 920216  61877 723157 440214 803782 324519 305340 251442]</t>
         </is>
       </c>
@@ -31517,14 +31517,14 @@
         <is>
           <t>[594438 260656 322965 968432 877828 597879 396684 235734 200553 264831
  987907 324562  38116 404296 874420 877586 140729 164178 987781 877676
-  60942 872752 263201 255333 571144 204794 269072 956262 243989 884209
+  60942 872752 263201 255333 571144 269072 204794 956262 243989 884209
  961872 940159 885947 835822 503436  57277 588100 956410 899060 451847
  352212  93534 562333 872822 147647 670176 115106 352239 520681 562725
  589148 577551 154836 772534 899056 132774  25460  69796 317086 970006
  241811 360457 667937 232860 460250   9580 200490 264768 228029 668071
  772910 258290 670190 987996 950887 772413 234054  26124 472216 844588
  772542 668944 872898 781947 373632   9835 386332 106863 820258 286007
-  70407 905018 358478 361483 373654 381809 204203 268481 211986 194859]</t>
+  70407 905018 358478 361483 373654 381809 268481 204203 211986 194859]</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -31556,11 +31556,11 @@
  829342 818370 589356  59738 722721 867470  69994  94211 822141 545821
  331495  62887 518470 606264 101310 684492 733870 692418  17008  71077
   70334 459941  69924 897047 564964  35182 282614 104433 499362 293713
- 875361 788864 203842 268120 315558  92802 681066 930910 290380 562873
+ 875361 788864 268120 203842 315558  92802 681066 930910 290380 562873
   69786 460118 948190 872279 767427 125330 332241 118741  65741 903246
  850662 432183 697718 634069 120477 523033  93296 946215 897436 606991
  597905 710670 103350 322126  89594 257004 206095 270373 334676 940883
-  66339 828067 205609 269887 519451 190547  16312 893892  71700 249334]</t>
+  66339 828067 205609 269887 519451 190547  16312 893892 249334  71700]</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -31629,7 +31629,7 @@
   30472 354365 279084 347171 965388 421079 110381 397623 989414 423441
  713182 678015 611050  16809 728487 514052 340624  30544 421011 723636
  956056 102450 281770 730788 169395 279957 179129 169210 700856 562913
- 196790 275606 481287 355369  22792 421101 627804 261783 436121 581562
+ 275606 196790 481287 355369  22792 421101 627804 261783 436121 581562
   78792 399028 915019 806175 795564 738989 225427 380089 360732 921431
  392238 997009 797732 421040 113760 678175 501293 212176 732928 686262
   37285 141135 511695 421077  37279 450761 250780 452667 695229 791648]</t>
@@ -31660,8 +31660,8 @@
       <c r="B869" t="inlineStr">
         <is>
           <t>[ 82779  88065 570953 899240 548100 425842 930257 679236 441674  88382
-  92538  89528  95245 195532 274348 556642  60119 497316  79877 416372
- 678864 731723 108457 206458 270736 834928   4734 683215  83802 943451
+  92538  89528  95245 274348 195532 556642  60119 497316  79877 416372
+ 678864 731723 108457 270736 206458 834928   4734 683215  83802 943451
  556723 632478 525594  82353 964168 605155  95891 871892 477642 679509
   96090 407782 977891  86378 523251 292617 598872 797032 977657 695090
   85564 523451 556438 586020  89124 516821 903658  87357 302856 109697
@@ -31697,12 +31697,12 @@
         <is>
           <t>[955543  61759 216175 315795 224017 296853 139029 913809  81173 921763
  514384 472761  75644 153603 145355 489853 106409 913232 529374 466567
- 192907 271723    889 254022 323142 867347 194210 273026 107231 424581
+ 271723 192907    889 254022 323142 867347 194210 273026 107231 424581
   77496 466571 463653 876191  66787 132761 232887 582747  81238  12949
  777703 513561 809508   2220 834319 842521 924847 125177 232160 322644
  278764  29805 297913 963456 501222 251329 378622 540974 197891 276707
  170415 521681 887562 966021 977558 297938 520594 378678 283488 513308
- 403541 192983 271799 945079 207529 476658 813588 525223 123227 684884
+ 403541 271799 192983 945079 207529 476658 813588 525223 123227 684884
  813040 423850 502106 866423 405603 292371 278703 860100 575778 315977
  684454 503210 600153 528921 528498 467209 539227 296772 860161 530353]</t>
         </is>
@@ -31775,7 +31775,7 @@
  969022 842704  84029 176046 419657 842400  71280 125557 802512 225694
  795220 842742 531883 320415 795109 801947 865821 728870 739448 168263
  130229 125531 962964 137446  14102  16638 948899 549526 127895 728166
- 462286 696189 205751 270029 747299 226746 929757 159071 692298 849319
+ 462286 696189 270029 205751 747299 226746 929757 159071 692298 849319
  947167 370787 171524 128539 424156 577648  13747 843331 488532 731359]</t>
         </is>
       </c>
@@ -31844,7 +31844,7 @@
  452421 730682 386670 113050 124062 390005 107002  70169   9138 903283
  408381  71186 751993  12736 752796 874009 677973 123795 873395 250021
  261942 869343 788877 977374 841239 386587 644290 719523 879336 502595
- 396500 729727 900582 608098 218481 386878 922668 712992 390179 682612
+ 729727 396500 900582 608098 218481 386878 922668 712992 390179 682612
  162324 922218 460272 934916 635630 746020 524297  81710 496507 390031
  896578 682703  12774 698320 868177  92091 661592 262505 850935 862654
  500804 692925 805232 775063 467909 587320 539859 921698  14332 822694
@@ -31883,7 +31883,7 @@
    3228 650015 175857 377418 904546 860659 717497 523528 360034  15616
  948477  94775 106776 826491 366599 108878  37007 927902 219349 859711
  573333 548930 927742 353042 852671 155819  10773 550957 500502 721668
- 689323 377929 727587 703593 194604 273420 492915 955627 637519 244185
+ 689323 377929 727587 703593 273420 194604 492915 955627 637519 244185
  465651 368072  74844 479911 727195 432829 612561 885256 303136 153547]</t>
         </is>
       </c>
@@ -31920,7 +31920,7 @@
  971742 419774 460943 693082 476738 441163 154851 735659 679423 489399
  585186 596298 109786  55817 682637 674426 281706 477308 572562 838499
   46646 627996 693273 283049 284531 756297 895625 740738 558504 480085
-  52482 964448 738979 892365 829833 255386 580041  39240 413400 870685]</t>
+ 964448  52482 738979 892365 829833 255386 580041  39240 413400 870685]</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -32026,7 +32026,7 @@
  955745 873047 855999 480324 982919 837694  94915 677832 598280 916245
   69299 977663  16404 842029 960027  10967    488  95527 852770 850203
  254989 568342 791975 704135 961881 756603 955174 905422  19550 748729
- 179003  46124 389656 997644 202614 266892 730771 543491 158969 171873
+ 179003  46124 389656 997644 266892 202614 730771 543491 158969 171873
  844167 851282  60548 843404 983114  14179 973829 748471 543218 813694
   70095 562084 730500  59303 836227 154225 815219 842289  59507 140663]</t>
         </is>
@@ -32169,7 +32169,7 @@
  329380 958452  33687 473043  77370 533441  47043  59229 750710 584573
  678495 791499 109435 697729 967489 455419 243321 500350 722028 944335
  691519 418917 376867 728369 562525 439011 599992 550548 498471 438576
- 637586 462698 832571 550740 674955 110915 915115 720988 206178 270456
+ 637586 462698 832571 550740 674955 110915 915115 720988 270456 206178
  154091 471606 765059 359466 300124 592187 700873 180483 586869 749365
  349112 383334 358333  33723 794940 987396 924386 696879  69047 904515
  930056 754274 621258 183393 542844 328889 754371 790676 931927 904389]</t>
@@ -32201,13 +32201,13 @@
         <is>
           <t>[565346 561777 317730 662083 917344 418595 997525 409156 197986 276802
  971519 589954 872272 834894 128820 312382  72775 657767 241684 848237
- 343913 462397 302016 239551 877833 345052 492779 661887 195667 274483
+ 343913 462397 302016 239551 877833 345052 492779 661887 274483 195667
  561645 527376 310296 863455 235869 197352 276168 732691 666312 236444
  579519 138543 686951 669327 564893 622748 711941 713435   5583 587694
  951379 711548  66467 878145 398109 340144 299966 888758 402686  75385
  579258 551229 583464 325701 315895 303002 583473 284079 308448  98616
  481111 388157 582075  93801  21103 685431 580154 328923   8204 997964
- 343741  59466 250358 900483 285209 204004 268282 617462 345451 409061
+ 343741  59466 250358 900483 285209 268282 204004 617462 345451 409061
  888932 626381   7711 284474 538284 857823 590917 394628   5466 860409]</t>
         </is>
       </c>
@@ -32235,7 +32235,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>[962339 401739 248735 936623 195923 274739 877082 248480 830659   3353
+          <t>[962339 401739 248735 936623 274739 195923 877082 248480 830659   3353
  670805 398205  96220 453855 841221 207469 866673 635591 930051 628338
  248417 921940 823338 971342 669000 893180  69581 971509 961695 874977
  893097 453270  51973 249122 652391 833680  40735 398053 574227 630937
@@ -32243,8 +32243,8 @@
  823290 801566 112526 838378 898804 151715 524303 151988 338924 543164
  257825 628586 671035 859024 801917 482534 631542 893247 972409 303137
  220479 232531 512570 538288 608021  69161 880083 604054 699680 574891
- 236392 240648 532423 863812 962624  21150 561041 939601 352123 199035
- 277851 593957 962024  40722  25709 605194 112793 538282 840868 670512]</t>
+ 236392 240648 532423 863812 962624  21150 561041 939601 352123 277851
+ 199035 593957 962024  40722  25709 605194 112793 538282 840868 670512]</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -32348,10 +32348,10 @@
  190786 278962 180574 951936 719924 364714  70474 726272 504635  17625
   88383 970668 489323 365524  88561 947063 124147 432603 279195 306168
  832555 658186 500179 440155 662791 911829 601753 725776 725487 903027
- 223599 951628 470002 661875 198907 277723 713628 598453 798294 981484
- 844202 789687 209720 921704 171960 174186 687633 506670 201839 266117
+ 951628 223599 470002 661875 277723 198907 713628 598453 798294 981484
+ 844202 789687 209720 921704 171960 174186 687633 506670 266117 201839
  431871 176045 429742 431761 114061 223662 696056 943484 747233 379123
- 292126 191341 376003 152109  91543 430704 223558 280697 509292 629399
+ 292126 191341 376003 152109  91543 430704 223558 509292 280697 629399
  392128 192565 271381 903177 903875 748128 790855 678389 470524 899790]</t>
         </is>
       </c>
@@ -32418,8 +32418,8 @@
           <t>[943319 178033 470468 433178 785753 116467 941809  79546 941525 390306
  771251 419634 433877 423732 483715 284673 511402 953531 351508 748318
  947979 191458 547606  10887 673561 174775 179315 686281 174941 850344
- 181613 789284 281603 862713 305951 222635 132353 480939 175144 199822
- 264100 432944 511732 449896 784889 351007 285084 221008   2552 396933
+ 181613 789284 281603 862713 305951 222635 132353 480939 175144 264100
+ 199822 432944 511732 449896 784889 351007 285084 221008   2552 396933
  282355 550583 431434 183802 850483 397350 792884 702913 738422  19526
  787073 400895 719242  17501 690852 222039 175429 629622 396384 475425
  723597 106836 531358 109296 725636 600478 515918 703133  30144 800435
@@ -32491,9 +32491,9 @@
  635661 705102 632567 899385 234668 229441 798875 115842  91351 359466
   75968 123149 679578  73297 962104 347464 834593 945171 586750  10594
  753263 176824 615877 507773 631891 420594 924872 740680 321101 459808
- 107025  91850 114884 565640 933491 712146 192534 271350 479260 507997
- 116527 199252 278068 279258 513166 938316 661549 256445 538039  79731
- 296017 914547 511407 143488 857810 936928 411912 726892 583698 916895
+ 107025  91850 114884 565640 933491 712146 271350 192534 479260 507997
+ 116527 278068 199252 279258 513166 938316 661549 256445 538039 296017
+  79731 914547 511407 143488 857810 936928 411912 726892 583698 916895
  327123 735385 407606 576215 824090 689726 188079 596150  11082 283288
  565461 382965 775563 321139 809939 126717 480764 988251 492969 232852
  381468  62384 551953 661365 107406 563650 699029 925948 867905  61655]</t>
@@ -32560,14 +32560,14 @@
       <c r="B894" t="inlineStr">
         <is>
           <t>[809232 219151 841708 612660 491332  16258 198608 277424  92908 197440
- 276256 219219 106074 551824 197656 276472 808995  89779 170176 306819
+ 276256 219219 106074 551824 276472 197656 808995  89779 170176 306819
  713551 507723 526970 982690 813037 709124 528895 983264  36529 109723
  525617 727019 184767 106457 662790 699584 769401 719816 172213 122874
  549655 168397 441135 321707 168623 872204 108961  89406 769039  83202
  514894 840743 716809 958265 984815 151580 381286 407234 840708 501020
  121588 377238 383975 727293 528007 548281 764827 515800 724893 105318
      51 168949 332741  94023 377290 352013  83848 156293 688600 514598
-  89263 515578 339571 305949  63267 354105 806496 728547 205295 269573
+  89263 515578 339571 305949  63267 354105 806496 728547 269573 205295
  941823 806477 724551 140972 940397 933962 994465 719369 303485  93179]</t>
         </is>
       </c>
@@ -32604,7 +32604,7 @@
  565863  10421  17218 340265 791030 874019  97920 455408 869074 617142
  352952 283407 587492  70189 303900 982969 983577 978017 494210 439621
  460215  39691  47102 353285 346343 737384 487041 865550 570458  87014
- 237293 969308 622991 738906 618613 196791 275607 474772 239233 585901]</t>
+ 237293 969308 622991 738906 618613 275607 196791 474772 239233 585901]</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -32640,7 +32640,7 @@
  453876  81760 526749 162785 921904 152357 498430 526419 794493 460042
  461459 586802 683086 464789 773226 308217 420658 452852 870263 762786
   81914 637164 889894 632403 877802 253407   5071 563693  16016  86407
- 689680 745271 914776  61583 437847 909490  86661  82372 710043 689366]</t>
+ 689680 745271 914776 437847  61583 909490  86661  82372 710043 689366]</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -32739,14 +32739,14 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>[ 71021 843840  76270 382052 200888 265166 804609 209608 833353 123000
- 741875 382582 196419 275235 486269 844400 598952 748891 372154 505411
+          <t>[ 71021 843840  76270 382052 265166 200888 804609 209608 833353 123000
+ 741875 382582 275235 196419 486269 844400 598952 748891 372154 505411
   19095 863204 497535 843831 488293 947139 224373 372396 372146 311657
  200332 264610 332363 833222  46652 123858 224317 302529 224392 313925
  798616 240877 554345 533070 459500 705235 620038 515646 633444 197368
  276184 960921 372842 124860 531129  71194 616885 728365 936881 377924
- 586483 880588 739306 508614 744125  67557 197602 276418 513018 229455
- 287135  18871 513867 809482 501685 197977 276793  75296 168785 195974
+ 586483 880588 739306 508614 744125  67557 276418 197602 513018 229455
+ 287135  18871 513867 809482 501685 276793 197977  75296 168785 195974
  274790 734925 738488 852600 105483 185502 681886 462772 929987 916097
  896619 205962 270240 399970 729004 630767 633876 263250 241381 722532]</t>
         </is>
@@ -32781,9 +32781,9 @@
   50826 295370  42577 629873 553956  69807 721124  67004 508600 494588
   66600 234374 932996 435764 231829 130348 922470 799969 295084 302138
  588179 235819 226770 594298 909168 456153 427544 499941 281833 821678
- 386375 754171 194569 273385 749948 184435 368044  69399 409213  50997
+ 386375 754171 273385 194569 749948 184435 368044  69399 409213  50997
   36697 380246 973606 886426 783378 789773 313619 531414 347737 922765
- 553926 507925 284890 235559 120081 193298 272114 372529 501625  70456
+ 553926 507925 284890 235559 120081 272114 193298 372529 501625  70456
    4286 339634  27104  37140  74090 377803 302197 553016 912789 463563]</t>
         </is>
       </c>
@@ -32816,7 +32816,7 @@
  178013  61492 425695 935801  90089 176161 678893 397378 226458 297374
  572434 546190  72414 241145 376264 544825  11122 574815 299963  10012
  936576 212768 494415 225661  97114 493278 459330 781139 302936 882280
- 987248 695914  64144 182501 193981 272797 181740 797983 628236 397264
+ 987248 695914  64144 182501 272797 193981 181740 797983 628236 397264
  257340 659395 324503  78508 937347 495252 772589  92467 185564 139003
  695078 694470 491191 707120 556495   9531 430244 844700 225018 432026
  552006 679370 949335 153611  72463 987146 348448 224902 545701 198506
@@ -32850,13 +32850,13 @@
           <t>[ 71681 174301 803263 536567 678340 678752 988632 397108 989405 393375
  528323  72977 176583 365075 583961 301287 536254   1068 564065 587355
  904911 542625 663153 974714 385028 681895 303704 312288 658374 516029
- 392658 797107 801212 780004 907410  16159 542993 911801 330139 529804
+ 797107 392658 801212 780004 907410  16159 542993 911801 330139 529804
  124335 741286 598572 225772 728871 299807 183790 242827  63349 619056
  888492 536069 316969 100253 327821 966449 327250 625987 494697 243646
  221339 542514 739166 385440 516419 598026 899745 560872 739264 393065
  386670 201506 265784 400449 224651   1292 629511 622330 750000 706169
  222408 876667 486002 317212 366893 623785 801658 403671 157595 304824
- 312354 195987 274803 681871 625167 762618 728707 739657 729530  98627]</t>
+ 312354 274803 195987 681871 625167 762618 728707 739657 729530  98627]</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -32888,8 +32888,8 @@
   92957 632202  60258 153391 807036 513009 635100 519694  94254 634813
  256775 512231 231272 512701 787763  98661  98660  98791 634694 256012
  281373 912266  80453 342197 310332 416931  48529 106532 927010 230420
- 105382 449497 367714 419629 153118  98693 632254 426842 426739 197023
- 275839 419620 223154 845168 433719  77126  48346 433437 152901 438086
+ 105382 449497 367714 419629 153118  98693 632254 426842 426739 419620
+ 197023 275839 223154 845168 433719  77126  48346 433437 152901 438086
  990734 514631 439579 295162 432228 822257  73517 105661 693918 635086
  487228 329601 327255 361894  14094 487405 694428 788241 109351 448411
  440222 454216 315285 107478  44732 747811 418812 698656 314973 840044]</t>
@@ -32995,7 +32995,7 @@
  449806 263401  64093 505227 215720 382879 328593 981013 381780 136745
   43130  63534 154894 981553 169831  72983 387587 671668 325646 730162
   36054 963108 125890 489471  76677 380840 173319 183028 385255  73242
- 367354 131269 307451 192553 271369  79353  65554 756453 883785 730189
+ 367354 131269 307451 271369 192553  79353  65554 756453 883785 730189
  191773 659758 687599  62224 192124 341864 440442  90474 458913 775292
  708421 866799 761759 417219    563 384491 619425 259518 897010  78922
     427 753645 710186 212808 458858 690322 326194 579230 701548 387511
@@ -33027,7 +33027,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>[ 71141  75172  61296  66519 322812  60563 204434 268712 338350  47973
+          <t>[ 71141  75172  61296  66519 322812  60563 268712 204434 338350  47973
  161500 665524 163339 105582 715192 182484  15140 133721 791181 704080
  167220 706396 436371 250002 636336 299037 321795 184304 679411 510173
  109787 184211 631579 538868 658204  44794 488760 678892 489623  72204
@@ -33036,7 +33036,7 @@
  404841 109106 485668 703697 247109 940101 533450 680265 633609 183566
  789640 944835  12005 399395 643619 658521 691126 127168 632176 392317
  808033 252275  74894 576617 741578 339785 404840 844631 452912 966439
-  19736 976724 398789 210082 538900 691466 795789 402152 203776 268054]</t>
+  19736 976724 398789 210082 538900 691466 795789 402152 268054 203776]</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
@@ -33139,7 +33139,7 @@
  763858 410029 286662 169403  60030 122298 794173 232573 633970 764490
  408895 437259  49429 123249 988727 929776 118873 935229 369234 393393
  214078 514631 728923 933104 354484 692159  87051 371197  17907 410119
- 468179 200212 264490 123983 930009 806884 368952  40838 449381 785875
+ 468179 264490 200212 123983 930009 806884 368952  40838 449381 785875
  687181 813388 311902 391485 812035 151992 105764 679640 681691 527977
  411510 661464 764290 687010 683062 684634 936938 992873 570250 228000
  693197 964245 999122 261688 342488   7400 628045 381995 233084  64034
@@ -33180,7 +33180,7 @@
  505803 819662 460551 199196 278012 901786 144364  31816 969066 860431
  144033 500268 748792 711267 483528 653382 659362 594847 653855  87219
  565184 665164 323064 915573 968643 915777 553913 527498 978414 498608
- 615508 196503 275319 327415 621957 436746 381414 826391 885635  18544]</t>
+ 615508 275319 196503 327415 621957 436746 381414 826391 885635  18544]</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -33209,7 +33209,7 @@
         <is>
           <t>[ 64434  71626 950971  60700  86996 393439  90231 326078  70152 980255
  180212 376690  13567 841304 933667 750208  15718 908243  11257  77048
- 956928 356608 462117 877331  30998 785982 605358 393923 562776 883964
+ 956928 356608 462117 877331  30998 785982 605358 562776 393923 883964
  779318 573818 605387 286517 935609 357739 865699 678947 877487 618438
  432473 584467 678156 941710 394910 897213 939626 402276 957271 930909
  160107 376279 286141 185513 229878 181212 558164 402740 149072  44537
@@ -33244,15 +33244,15 @@
       <c r="B913" t="inlineStr">
         <is>
           <t>[ 60993 804514  62187 834800  60196 179611 469475 400237 877701 724963
-  90454 522790 198638 277454  93105 200675 264953 124044 124575 549076
+  90454 522790 198638 277454  93105 264953 200675 124044 124575 549076
  550538 510077  65192 107609  72768 396627  93164 166451  81679 572171
   73005  95542 453712  89442 152718 439632  83387 683741 526138 342162
  690534  86444  84703 699653 916826 259093 950320 805123 654497 983347
  464402 634366 182413 626438 971714 628996 172738 106037 812969 966153
- 202787 267065 925679 490408 200717 264995 597172 554156 139203 953767
+ 267065 202787 925679 490408 200717 264995 597172 554156 139203 953767
  353325 459332 943452  92060 283276 631233 125572 454701 453193  73459
  619100 712846 517012  99160  84339 382099 834723 350936 434853 125430
- 158389 116245 382445 421160 595907  65733 154056 170761 513081 196333]</t>
+ 158389 116245 382445 421160 595907  65733 154056 170761 513081 275149]</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -33286,7 +33286,7 @@
   82186 376851 152747 229641 740654  85230 385108  58736 467153 429944
   75408 438776 177174 138093 598580 261201 911879 508569 482343 597645
   19137 954659 700863 574496 916688 738735 717666 740403 949442 859642
- 362258 376552 202040 266318 795252 397293   1640  19354 550982 721484
+ 362258 376552 266318 202040 795252 397293   1640  19354 550982 721484
  129910 744233 171825 630485 510208 789605 574150 936442 887906 941690
  541682 154506  61727 797741 683200 717395 629456 512648  36044 739837]</t>
         </is>
@@ -33357,7 +33357,7 @@
  259182 705809 577407 323548  93638 679142 458705 285950 763787 829006
  459358 516102 429885 633315  90602 119291 754071 401511 664276  93243
  924159 361374 710409 122240 105835 583496 311110 819955 411470 182236
- 339440 823706 365001 755031 468182 634430 185163 281137 522590  93360
+ 339440 823706 365001 755031 468182 634430 281137 185163 522590  93360
     356 335875 713599 169868 176634 516439 376485 761755 105138 731347
  978610 327836 333402 322161 696382 157970  22215  14493 210476 289288
  577938 130367 519731 107374 242879 800677 331039 515484 229968 113906]</t>
@@ -33390,11 +33390,11 @@
           <t>[398562 911613 920586  26068 163501 240841 407968  44542 235859 670155
  705438 339939 433014 869627 864286 606608 384086 704719 961245 408129
  431639 179138 804294 576989 479221 203886 268164 464699 178176 963093
- 316102 678181 231323  80688  66265 863759 903337 202679 266957 753054
+ 316102 678181 231323  80688  66265 863759 903337 266957 202679 753054
   81388 378739 546962 653559 975643 471828 156940 484086 594623 720727
  385267 970328 581180 226158 445162  80348 100588 240936 481308 606130
  590632 444315 241737 642217 754285 479177 203095 267373 568972 824418
- 479044 827595 640593 856613 212407 621026  80216 582031 940549 201884
+ 479044 827595 856613 640593 212407 621026  80216 582031 940549 201884
  266162 605010 202560 266838 381015 148692 219802 539163 670141 170868
  987116 245389 671375 909318 840335 724918 947311 905082 378728 231034]</t>
         </is>
@@ -33538,9 +33538,9 @@
  799452 520007 450518  95596  54978 384431 871975 418013 394534  42239
   89200 742758 323118 998236 421600 834955 663167 527000 871013 938576
  192862 271678  91974 872453  72327  83174 476652 798166 946014 955682
- 549792 218739 253928 281612 373310 476646  85346 602754  83837 891975
- 154176 590368 792627 188018 515341 122046  56253 409346 792869 199188
- 278004 422337 865229  61177 540807  84543 442894 475164 639440 953205]</t>
+ 549792 253928 218739 281612 373310 476646  85346 602754  83837 891975
+ 154176 590368 792627 188018 515341 122046  56253 409346 792869 278004
+ 199188 422337 865229  61177 540807  84543 442894 475164 639440 953205]</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -33574,8 +33574,8 @@
  111761 220535   8795 345345 659568 917967  32431 561744 503605  92243
  377696 248239 344891 160426 324343 314369 439284 981964 183352 548798
  704012  43700 679558 917768 156596 456432 665295  89338 147621 179412
-  14486  27919 726423 207404 222332  86361 526262 289771 615848  73078
- 652651 120605 755050 180540 148487 758928 509548 134254 344810  31994
+  14486  27919 726423 207404 222332  86361 526262 289771 615848 652651
+  73078 120605 755050 180540 148487 758928 509548 134254 344810  31994
  716332 873757 297681  43981 163647 886601 652879 811450 243914 680002]</t>
         </is>
       </c>
@@ -33683,7 +33683,7 @@
  843167 631785 958946 628977 679770 931873 431922 909691 843798 471939
  947546 970262 705123 685390 878724 920573 934164 541988 870547  75615
  463164 934737 539433 679127 316616 713510 207140 455762 581388 336064
- 883552 382041  22690  75243 373648 705500 497470 194825 273641 597029
+ 883552 382041  22690  75243 373648 705500 497470 273641 194825 597029
  862130 210415 680489 919758 405770 628525 400033 348352 861970   3122]</t>
         </is>
       </c>
@@ -33713,7 +33713,7 @@
         <is>
           <t>[325165 365217 393284 123157 763255 658533 719648 281574 122416 467604
  481436 736131 497123 105176 407177 718534 432488 106496 144406 628538
- 199902 264180 404991 151520 860999 231260 458907 301440 477555 339646
+ 264180 199902 404991 151520 860999 231260 458907 301440 477555 339646
  473056 666444 683459 287956 364498 113066 287979 850219 217336 548411
  830287 502737 216606 762679 351639 337919 514698 484536  48155 897321
  987716 780238 389689 338392 726307 353571 698713 664445    404 837161
@@ -33790,9 +33790,9 @@
  453179 823774 820462 849181 568712 993950 686962 476199 791800  57391
  568789 875663  54377 558427  51450 625537 543935 693532  53410 902736
  543489 825030 441295 467456 520982  90683 701712 882996 679197 476996
- 259453  56692 700549  53086 814474 411292 494746 489262 292533 204576
- 268854 685768 468970  52357 820797 849260 602866 440992 637719 760775
- 118049 861914  41770 250640  47681 196051 274867 324982 324592 477376]</t>
+ 259453  56692 700549  53086 814474 411292 494746 489262 292533 268854
+ 204576 685768 468970  52357 820797 849260 602866 440992 637719 760775
+ 118049 861914  41770 250640  47681 274867 196051 324982 324592 477376]</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
@@ -33819,7 +33819,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>[ 76263  65979 205930 270208 594721 410099 410367 912043 710940  11336
+          <t>[ 76263  65979 270208 205930 594721 410099 410367 912043 710940  11336
   11266 907083 596892 892505 832809 410177 668159 127741 634626 906310
  847715 970907 594463  64402  64137 223787 844371 769809 760089 207938
  522883 998321 902727 224608 780612 668404 908553   9949 671748 553782
@@ -33859,7 +33859,7 @@
  481267 224877 512635 199665 278481 224470 899630 425037 193332 272148
  662236 104190 513005 103831 859009 842089 668361 856377  72400 103717
  421629 425582 103668 528109 336289 350037 844874 116767  66077  13960
- 919355 103957 806970 197634 276450 691082 668453 199516 278332 843349
+ 919355 103957 806970 276450 197634 691082 668453 199516 278332 843349
  966434 103783 843011 501389 481962 545630  37143 661760 527377 663961
  681873 746716 481541 930869 199778 278594 103845  67751 421804 406343
  561297 647520 528203 208240 560355 516499 377730  16018 598471 517994
@@ -33896,11 +33896,11 @@
  520699 436339 436171 663981 224879 614044 374819  91827 234362 689102
  950413 230987 433420   9190 435079 375514 952466 499957  74410 613483
   93526 156432 114870 392869 622245   4045 437855 440726 817754 945414
- 195622 274438 963912 799179 878502 622597 160364 613601 442011 439686
+ 274438 195622 963912 799179 878502 622597 160364 613601 442011 439686
  170588 562793 879430  31509  92950 708343 806838 137818 950399 888968
  157019 749188 938211 225717 583305 497280 436187 362330 590048 896912
  728170 109084 664066 928515  65541 876271 127321  68011 284303 539196
- 597874 393346 304264 922369 886871 434893 797434 843346 194453 273269]</t>
+ 597874 393346 304264 922369 886871 434893 797434 843346 273269 194453]</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -33927,16 +33927,16 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>[ 70819  74730  70507  71983 753211 215255 194301 273117 208986 198431
+          <t>[ 70819  74730  70507  71983 753211 215255 273117 194301 208986 198431
  277247 565052 111991 550267 598315 550354 584871 725935 184771 872880
- 698014 462118 463948 111798 703545 194321 273137 958450 378240 869034
+ 698014 462118 463948 111798 703545 273137 194321 958450 378240 869034
  488258 309040 178107 679683 928004 552320 551821 868928 548893 725710
  617795 171620 847697 958860 210119 399899 806322 195226 274042 562295
  195880 274696 489419 185265 679023 177922 928093 834181 624514 462907
  767381 178384 705444 630595 516773 797612 681194 152345 806246 245677
- 143477 122582 150158 956271 119550 805740 168701  20626 526899 197479
- 276295 177229 707997 393340 681387 157188 385727 201171 265449 396000
- 377941 197935 276751 396041 108523 680844 222206 312350 450290 401594]</t>
+ 143477 122582 150158 956271 119550 805740 168701  20626 526899 276295
+ 197479 177229 707997 393340 681387 157188 385727 201171 265449 396000
+ 377941 276751 197935 396041 108523 680844 222206 312350 450290 401594]</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -34005,8 +34005,8 @@
  524376 223141  30492 558475 692377 309013 362543 227477 528543 519290
  981940 237756 969310 105224   7209 847236 994388 943948 691761 608279
   69187 621822 416596 689961 122519 836685 363654 370116 571935 800237
- 353266 926320 158331 249422  83448 222496 509576 646275 236894 204790
- 269068 175566 262067 124999 469745 312768 427986 499006 205934 270212
+ 353266 926320 158331 249422  83448 222496 509576 646275 236894 269068
+ 204790 175566 262067 124999 469745 312768 427986 499006 270212 205934
  522062 744086 283260 528551 509390 311533 743609 491711 781701 259903
  211215 338687 509771 167325  84034 845945 486548 290267 376394 516787]</t>
         </is>
@@ -34035,14 +34035,14 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>[ 73833 475169 193753 272569 835913 475531 576876 206875 271153 199451
+          <t>[ 73833 475169 272569 193753 835913 475531 576876 271153 206875 199451
  278267 688852 475989 818198  79522 243794 475741 244286 198210 277026
-  78127  21685 253742 194304 273120  92359 198556 277372 166666 475150
+  78127  21685 253742 273120 194304  92359 277372 198556 166666 475150
  579706 431561  23271 194512 273328  69601 140933 961630 135969  78290
  193780 272596 448683  23388 679640 371197 647320 685783  49069 835473
  888151 340487 550283 149755 197513 276329 290194 479129 678548 543974
    8885 505246 373061 663132 320056 873770 869841 691994 487096 120723
- 342394 693458 370499 804580 879621 203206 267484 617300 496684  79482
+ 342394 693458 370499 804580 879621 267484 203206 617300 496684  79482
  729370 422078 381422 477837 721703 413376  70795 613904  61326 438492
  564544 880527 479580 380284 449137 482153 510817 130161 787468 768286]</t>
         </is>
@@ -34080,7 +34080,7 @@
   10910 753239 257601  33527 662554 108939 502528 303838 478699 111788
  893942 957652 437394   4275 754542 123612  93911 353972  72366 516084
  945130 554423 873373 486003 124508 882179   1034 980341 124639 497965
- 770186 512625 100965 770123 261298 541883 858084  82071 347228 597828]</t>
+ 770186 512625 770123 100965 261298 541883 858084  82071 347228 597828]</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -34108,11 +34108,11 @@
       <c r="B937" t="inlineStr">
         <is>
           <t>[ 88685 304371 370005 829265 369965 606208 859621 494739 540363 456045
- 617801 418089 540327 302133 537652 204373 268651 375790 859570 859689
+ 617801 418089 540327 302133 537652 268651 204373 375790 859570 859689
  859646 128518 894440 894325 952770 360258 989399 455536 688933 259721
  311035 310769 800459 819825  55886 130020 441891 860096 303484  34352
  393647 540152 359221 462173 872300 469364 332065 976220 330853 944642
- 386526 204899 269177 137241 707381 576082 697009 863850 631900 508955
+ 386526 269177 204899 137241 707381 576082 697009 863850 631900 508955
  508061  49190 433485 472770 871683 463315 543411 412496 812425 808114
   83513 936313  51727 540191  75161 461563 540410 688188 177810 894562
  701582 688913 540389 796437 976537 540250 865111 517539 302531 386308
@@ -34150,9 +34150,9 @@
  249862 302901 159476 187344 631086   2455 982071 490169 736801 258898
  930289 472360 781189 744460 252897 916570 681710 949003 503767 488917
  742305 304971 948293 934306 511398 746186 920765 729287 168973 929576
- 466191 511033 223840 632068 250427 110864 205374 269652 929156 746195
+ 466191 511033 223840 632068 250427 110864 269652 205374 929156 746195
  246016 727748 736478 927707  76371 858256  19405 382856 389630 665951
- 506276 338116 691302  10747 201637 265915 632392 225445 250706 933909]</t>
+ 506276 338116 691302  10747 265915 201637 632392 225445 250706 933909]</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
@@ -34188,7 +34188,7 @@
  175560  73019 195036 273852  13806 528593 690741 687688 518800 730839
  138355  69305 523224 550873 441110 105197 806156 516518 553992 432501
  337853 664554 104973 432467 453316 393867 344256 308262 860392  84277
- 703659   4980 860046 678165 692123 679530 297974  21803 725459 312176]</t>
+ 703659   4980 860046 678165 692123 679530 297974  21803 725459 525107]</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
@@ -34221,9 +34221,9 @@
  508264 122432 203149 267427 204502 268780 924019 850198 903327 499943
  898184 494038 470953 472943 450730 168638 530430 145729 449221 203737
  268015 756095 168506 472924 714379 449054 312611 310038 296751 836478
- 203222 267500 435801 313105 410392 128388 723331 470919 169319 959762
+ 267500 203222 435801 313105 410392 128388 723331 470919 169319 959762
  639163 942671 839864 556845 834546 279011  12143 631563 434141  69046
- 635447 429730 384581 523849 196581 275397 392585 539514 635688 325166
+ 635447 429730 384581 523849 275397 196581 392585 539514 635688 325166
  108011  73825 734823 322181 472647 570790 696590 383235 451369 610091]</t>
         </is>
       </c>
@@ -34331,7 +34331,7 @@
  122496 439280 425731 490793 584849 109576 842150 210105  18888 844912
  821456 869142 932344 703393  85750   3855  70897 185493 596579 526357
  733016 682963 480646 875665   3815 595333 505138 752298 572959 932273
- 797462 383475 174387 189261 598555 934165  17831 736350 964284 880293
+ 797462 383475 174387 189261 934165 598555  17831 736350 964284 880293
  752906 966586 939232 219228 819082 727345  72719 619197 397424 869713]</t>
         </is>
       </c>
@@ -34360,10 +34360,10 @@
       <c r="B944" t="inlineStr">
         <is>
           <t>[ 74490  62420  73645  75291 345035 222417 405437 405272 880179 421935
- 260787 417928  62690 399424 200820 265098  63297  77583 405207 779763
+ 260787 417928  62690 399424 265098 200820  63297  77583 405207 779763
   66221 196834 275650 507573  77666 415083 420027 886985 385096  10637
  576358 456481 950697 872041 625538 417579 288239  74504 577641  66882
-  78996 957270 196052 274868 729812 413450  63092 773900 500454 479538
+  78996 957270 274868 196052 729812 413450  63092 773900 500454 479538
   78010 357106 587242 535404 908656 652615 147327 537154 642990 477831
  405040 555952 295707 507130 631231 147025 385449 724980  18344 508597
  506080 586124 395234  78779 901555 928046 555905 631272 950741 335158
@@ -34432,7 +34432,7 @@
       <c r="B946" t="inlineStr">
         <is>
           <t>[688911 688642 689464 566650  88995 832283 451936 245769 859240 876777
- 600201 610962 518176 201592 265870 604918 610191 888610 508767 566947
+ 600201 610962 518176 265870 201592 604918 610191 888610 508767 566947
   71125 687666  93857 674761 107845 938857 343700 217040 966257 448984
  797188 852048 240074 314134 287692 956166 890135 695950 866753 935752
  867470 878765 875033 890100 613586 986301 296215 900561 344720 933148
@@ -34511,7 +34511,7 @@
   48211 829989 457257 516916 751610 391994 899990  74067  18664 517051
  252385 439132 439037 592565 515403  64904 373634 364523 682009 918469
   77213 592151 434931 142200 707766 196042 274858 466741 182324 511985
- 439412 244730 525430 606685 199022 277838   4867 682159 592796 842482
+ 439412 244730 525430 606685 277838 199022   4867 682159 592796 842482
  880134 294483 118148 105811 490163 874807 923308 682029 501324 393962]</t>
         </is>
       </c>
@@ -34543,8 +34543,8 @@
  154285 861201  83733  41314 356750 606426  70454 325508 395170 137914
   70702 925477 149156  73626 702707  71584 402504 327569  17459 167357
  237091 149676 202244 266522 347208 359073 565536 503991 300706 562003
- 195501 274317 440388 135744 312673 682298 665274  86056 561828 195515
- 274331 457108 936344 370566 310866 171565 682157 305709  85000 728294
+ 195501 274317 440388 135744 312673 682298 665274  86056 561828 274331
+ 195515 457108 936344 370566 310866 171565 682157 305709  85000 728294
   84582  86888 476144 251251 925711 452776 250949 347075 483539 962003
  355113 841800 414035 254558 478497 748825 303785 761534  81470 259632
  345354 355626 372854 946594 634623 467261 609217 228199 331141  98069
@@ -34582,7 +34582,7 @@
  937240 358695 923325 872496 987558 224799 560708  41938 724297 792760
   17398 551973 786150 690545 365331 530674 261459 551832 497706 204440
  268718 862934 459670  86241 291939 607052 233860 957328  18019 749988
- 278750 204182 268460 843955 724727 793339 306146 120739 213214 702602
+ 278750 268460 204182 843955 724727 793339 306146 120739 213214 702602
  870287  88806 525268 132117 301929 938345  94771 832553 713544 509098
  140771 283036 500920  56013 123714  43217 530113 465741 623985  66236]</t>
         </is>
@@ -34620,7 +34620,7 @@
   61538 173335  92089 429774 695787 482418 338466 185303 517158 948017
   20757  30123 976328  86917 110757 310233 847778  92192 492588  84742
  369406 797735 336136 387315 903640 663829 596130 727711  85146 549289
- 193060 271876 307780  73103  97733 453958  80179 461152 481644 678397]</t>
+ 271876 193060 307780  73103  97733 453958  80179 461152 481644 678397]</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
@@ -34684,8 +34684,8 @@
       <c r="B953" t="inlineStr">
         <is>
           <t>[706660  19664 682203 333195 682097 319329 232031 975803  93776 923627
- 488815 198829 277645  50728 682314 628904  20213 286888 549063 494844
- 928471 308275 198377 277193  33390 507896 580504 324591  34516 975796
+ 488815 277645 198829  50728 682314 628904  20213 286888 549063 494844
+ 928471 308275 277193 198377  33390 507896 580504 324591  34516 975796
  575355 925177 733831 367237 325998 505583 486362 483942 283437 500174
  612537 700961 577131  96773 947331  17478 136159  94829 670260 700218
  901517 660351 357683 508579 383638  96084 505688 320565 684964 474064
@@ -34719,7 +34719,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>[ 70971  84214 202257 266535 678670 525905 385480 165074 698728 703507
+          <t>[ 70971  84214 266535 202257 678670 525905 385480 165074 698728 703507
  699913 703448   1431 262565 385392 702513 840775 109081 202532 266810
   75539 303170 504504 100884 158741 303543 241246 364937 728962 703641
  194840 273656 240870 951531 695946 461804 515176 112421 101233 143823
@@ -34762,7 +34762,7 @@
  628156 502694 404055  70243 489305  73966 704720 188271 329635 868540
  722717 702199 311064 535442 332501 572301  10183 708358  45746 488678
  258266 229875 731876 482859 920020 339940 519444 687013 355179 490044
-   9896 593664 734156 206071 270349 110417 380631 843218 257601 920840
+   9896 593664 734156 270349 206071 110417 380631 843218 257601 920840
  932684 867253 773683 396610 466929 900244 741954  81529 352238  72303
  628681 483934 729708 398497 327781 925589 731993 816927 689721 353767]</t>
         </is>
@@ -34833,7 +34833,7 @@
  746328 477607 922676 522981  43942 576030 577573 381547 465106 107228
  499818 474851 795351 102022 555794 353608 960071 217016 833617  44043
  609078 499705 827537 870954 299658 215893 293119 232306 922938 685547
-  53214 878269 666221  41504 176063 351056 302337 511517 192866 271682
+  53214 878269 666221  41504 176063 351056 302337 511517 271682 192866
  640311 913201 768118 307023 534242 505220 293534 197336 276152 673539
  159759 113674 859454 335064 406391 497886 462825 527585 909956 933842
  331444 246080 339720 518535 502069 294128 524521 147499 467162 152743]</t>
@@ -34908,7 +34908,7 @@
  868259 225134 842647 257399 851934 843381  68959 680245 136817 854934
  855971 846700 299435 596247 517093 725247 618381 480458 543876 224744
   15856 931846  90703 791843 434756 227057  47447 554486 833327  57769
- 668033 207251 416033 297614 223077 234563  15557 920731 215612 668643]</t>
+ 668033 416033 207251 297614 223077 234563  15557 920731 215612 668643]</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
@@ -34937,12 +34937,12 @@
         <is>
           <t>[ 75856 424176  17030  17344 248054 461524  71298 831328  78600 137469
  308575 726211 932088  93616 956404 622173 322010  18507 740972 461394
- 735684 461222 931719 139340 411369 955891 328245 843353 455027 198759
- 277575 491909 468095 283119 914698  72052 331268 411447 462653 321978
+ 735684 461222 931719 139340 411369 955891 328245 843353 455027 277575
+ 198759 491909 468095 283119 914698  72052 331268 411447 462653 321978
   67667 681437 681190 280159  77830 311022 931684 909577 214831  69134
  929109  80511 349408 333931 912302 463324 707124  33584 330464 128410
  647662 369756  89574 836525 285183 987488 234151 938270 929931  16318
- 371545 987270  18764 394278 681455 550848 946288 180439 199518 278334
+ 371545 987270 394278  18764 681455 550848 946288 180439 199518 278334
  171439  92117 225195 790314 324629 156841 461196 297491  88877 344281
  119574 369999 263244 424274 931751 929147 323146 691093 365115 929847]</t>
         </is>
@@ -34971,11 +34971,11 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>[667968 987828 195955 274771 987865 670288 864587 989325 701824 987068
+          <t>[667968 987828 274771 195955 987865 670288 864587 989325 701824 987068
  987417 842641 667786 593951 684323 207560 431108 130960 574741 685873
  942882 210263 140999 771421 932517 667790 226212 157304 769629 293670
  769415 678507 432119 668843 247914 224245 542630 624789 597254 317976
- 506958 471747  52882 879808 200011 264289  41825 888388 189010 769491
+ 506958 471747  52882 879808 264289 200011  41825 888388 189010 769491
  703564  18669 596464 880396 670850 844450 217982 507236 670397 771425
  495497 218406 133215 225219 502875 596278 539960 196945 275761 886880
  223820 670299  51337 180840 939316 216112 210445 465985 918101 737712
@@ -35010,12 +35010,12 @@
           <t>[ 73406  76167 627562 537732  75347 860517  37242 255831 860531 925440
  985886 865833 583216 771856 834807 382766 170997 440606 349165 671371
   37356 655770 887748 246433 737678 834187 392253 526695 789152 236010
- 451265 872120 198652 277468 413611 873273 451729 170349 182263 137157
+ 451265 872120 277468 198652 413611 873273 451729 170349 182263 137157
  500557 980931 743364 866040 984479 771745 500250 866650  99045 450893
  654758 866456 113061 812719 952934 584433 935852 860109 533828 652174
  178497 966141 671766 649673 131089 928889 550435 874844 500783 399727
- 860937 745007 435902 100911 194203 273019 183263  75876 512635 202881
- 267159 470757 345673 928596 650781 501495 769626 798354 734055 403126
+ 860937 745007 435902 100911 273019 194203 183263  75876 512635 267159
+ 202881 470757 345673 928596 650781 501495 769626 798354 734055 403126
  624449 659285 255822 741366 609593 880386 650931 753573 758205 677285]</t>
         </is>
       </c>
@@ -35051,8 +35051,8 @@
  188882 338327 153117 469899 873564 430953  45770 313668 868919 785839
  442121  25934 235496 453187 780473 502409 488280 869180  82056 736594
  306141 490081 488787 714375 458018 132290 511205 296128 740408 470791
- 615412 429318 155707 505365  25787 780486 490261 823670 703032 115738
- 215805 714529 455821 458480 423025  94528 493094 429302 518721 292669]</t>
+ 615412 429318 155707 505365  25787 780486 490261 823670 703032 215805
+ 115738 714529 455821 458480 423025  94528 493094 429302 518721 292669]</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
@@ -35116,7 +35116,7 @@
       <c r="B965" t="inlineStr">
         <is>
           <t>[ 73229  72010  75600 648046 956616 987160 157231 648045 987901 805470
- 466536 195880 274696 650687 725710 377117 987473 756273  12259 439986
+ 466536 274696 195880 650687 725710 377117 987473 756273  12259 439986
   71703 710568  93095  87743 100309 980255  34853 984856   4164 680206
   15352 396718  92453 454572  90231 854372 396522 323323 943510 468095
  435683 142013 558164 456091 985301 283429 784027 119868 281662 125830
@@ -35159,7 +35159,7 @@
  432022 684626 467261 678438 401058 201964 266242 153738 574375 442336
  391766 188668  32961 937187 526790 924629 529010 890283 842599  32634
  399736 340146  75503 695280 639111 170007 700984  30152 386777 306199
- 533707  23852  31689 529441  60134 703967 704556  30514 198266 277082
+ 533707  23852  31689 529441  60134 703967 704556  30514 277082 198266
  290106  25193 940741 552175 531573 615831  77480 833355 299548 399497]</t>
         </is>
       </c>
@@ -35193,7 +35193,7 @@
  375446 368638  75501  63867 627342 504246 687145 231005 951429 713076
  755964 915058 979038 375892 250381 563728 141781 943131 722515 438026
  288701 926264 599532 682283 989906 976112 503387 340440 989856 987990
- 673180 328722 205096 269374 495243 971240 392169 115957 123991 519761
+ 673180 328722 269374 205096 495243 971240 392169 115957 123991 519761
  239957 668325 833325 506402 895246 881795 378080   1028 155240 747604
     478 670285 747174 898061 598920 497483 919303 833588 438423 857101
  502978 439976 989716 922694 375821 291652 804255 250739  94034 596921]</t>
@@ -35227,11 +35227,11 @@
   65468 380439  92425 510353 907533 344757 486716 716446  65586  50669
  718234 715408 588906 510354 485367   8223   8367 818342 463938 946479
  483635 470121  50611   7929  50800 462724 461498  51409 528296 481690
- 380922 723523 875420 304348  83494 501149 368160 203968 268246 160496
+ 380922 723523 875420 304348  83494 501149 368160 268246 203968 160496
  489922 490492 461143 358489 953969 137152 962345 616255 715579 135688
  847552  51508 428938  62675 174448 505599   8493 754075 252775 489776
  666108 203519 267797 510700 147874 288770 334147 754730 493907 952780
- 510413  51036 846904 198584 277400 587674 483812 702662 479031 367995
+ 510413  51036 846904 277400 198584 587674 483812 702662 479031 367995
  129963 735577 755131 355188   8491 866878 189686 454214 320900 492132]</t>
         </is>
       </c>
@@ -35266,7 +35266,7 @@
  210111 504301 210441 997450 548402 548792 843759 549324 706232 478972
  958571 316643 138708 595553   8848 671215 975594 917366 862375  49920
  746620 210492  49974 226556 862476 916989 916526 202056 266334 751898
- 388925 895280 843941 871179 869754  49924 831086 664884 918563 391150
+ 895280 388925 843941 871179 869754  49924 831086 664884 918563 391150
   77988 543761 925684 285823 704167 219620 225245 925459 538836 249859
  984578 877655 191713 591112 577603 513516 173551 892268 843963 987376]</t>
         </is>
@@ -35303,8 +35303,8 @@
  925773  62661 595066 338133 520331 993085 286062 280590 124241 491268
  297260 613225 486195 296553 467142 145402 962974 807145 951998 680707
  317980 391282 682531  75923 326743  20672 770378 738256 253316 595136
- 938224 459898 406460 939513 503251 730576  76586 664374 806598  45669
- 501296 610363  24392 517413 786291 730482 396770  68015 286953 435475]</t>
+ 938224 459898 406460 939513 503251 730576  76586 664374 806598 501296
+  45669 610363  24392 517413 786291 730482 396770  68015 286953 435475]</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
@@ -35332,7 +35332,7 @@
       <c r="B971" t="inlineStr">
         <is>
           <t>[ 74452 875937 875081 175394  74657 768598 422195 125791 192137 707001
- 138860 201823 266101 696571 691046  28908 201479 265757 940320 333477
+ 138860 201823 266101 696571 691046  28908 265757 201479 940320 333477
  532004 818151 389372 655806 259246 476114 613311 630007 639085 414094
  332259 245125 598679 138310 330603 683268  65650 455285 320042 414115
  639082 316873 943978 461682 569191 580148  53648 148075 692277 706461
@@ -35371,7 +35371,7 @@
  249555 856868 757188  80547 304513 375379 583853 741955 256767 824931
  563325 940983 860109 858379 123585 367732 129268 124957 692173 941193
  756209 857829 375016 714816  63749 739791 256853 800840 400458 452322
- 629468 286357 696385 200350 264628  14150  16245 970435 120185 798489
+ 629468 286357 696385 264628 200350  14150  16245 970435 120185 798489
  450271 628240 506876 981416 961677 867718 930021  73894 519560 948438
  208941 609624 664399 392253  67278 214889 857087 210202 755873 664938
  709392 841688 658093 661849 839725 864338 709297 335395 452899 960922
@@ -35549,8 +35549,8 @@
         <is>
           <t>[882509 184675 595373 183977  92293 745101 467909 370264 932451 461282
   89431  86215  67667 217795 693308  71186 177608 881901  76906  11053
- 216655 295304 226018 195798 274614 160495 679937 741051 693390 193836
- 272652  82043 989409 168083 226649 260324 474213 197321 276137 895237
+ 216655 295304 226018 195798 274614 160495 679937 741051 693390 272652
+ 193836  82043 989409 168083 226649 260324 474213 276137 197321 895237
  459781 989516 247734 359365 416929 437502 228388 925505 739346 154125
  460398 210171 571918 670327 948056 131616 883221 209119 185893 223057
  368672 970165 394278 172909 391100 221158 246440 249629 733821 579357
@@ -35592,7 +35592,7 @@
  537586 732067  53702 246425  49314 666049 513612 510972 827103  87275
   44170 863221 666585  44339 899452 414730 870057 250443 478434 797605
  198389 277205 287776 939206 808370 295687 880988 474710 261098 391008
- 510889 197849 276665 491365  98365 642183  53673 312509 406457  44030]</t>
+ 510889 276665 197849 491365  98365 642183  53673 312509 406457  44030]</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -35621,7 +35621,7 @@
         <is>
           <t>[202613 266891 801816 991165  56087 598437 845047 879097 916294 171961
  797617 438770  13107 810166 797889 830411 799166 678369 844371 992023
- 932012 227060  14687  13676  15037 543220 192456 271272 320677 818515
+ 932012 227060  14687  13676  15037 543220 271272 192456 320677 818515
  430544 914409 732019 922017  16985 867070 100933 595093 836228 739972
  286086 393925 914411  20735 594655  10150 510470 394677 926344 283162
  561180 362292 955168 558561 594540 394987 776662 730195 957287 990409
@@ -35734,9 +35734,9 @@
   73562 489346 573134 715804 714978 518120 321142 285794 795907 607841
  635065 697394 303936  40141 489457 991074 209285 286354 485975 249161
  366205 416291 731015 386169 499663 245566 507887 490880 591973 764962
- 205060 269338 493735 120983 491978 545066 108649 715104 453077 171918
+ 493735 269338 205060 120983 491978 545066 108649 715104 453077 171918
  364532 161590 920448 224824 359080   2345 508528 506226 122488 177203
- 466389 999172 141173 957112 288151 205621 269899 934006 206178 270456]</t>
+ 466389 999172 141173 957112 288151 205621 269899 934006 270456 206178]</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -35807,7 +35807,7 @@
  507900 911299 645150 118872 910606 468698 329807 523083 330817 832344
   32562 614998 797828 216788 170932 548102 748629 922275 252677 754804
  113221 391759 723012 384471 658954 547862 459098 983348 679545 333067
- 745218 523038 104957 533648  95076  79224 199227 278043 664146 539280
+ 745218 523038 104957 533648  95076  79224 278043 199227 664146 539280
  803430 589289 521258  66177 850278 516636 182051 448703 306350 431701]</t>
         </is>
       </c>
@@ -35841,8 +35841,8 @@
  839256 196409 275225 377950 142198 839050 918613 146468 679828 117890
   99726 147931 492804 901606  22164  55770 124204 894226 969084 737543
   17910 873652 598167 734080 105969 988770  49011  56745 879149 159487
- 915208 484450 297771  66361 223433  56292  57274 450735 781114 198108
- 276924 655803 519039  55858 240130  42715 326314 449880 378310 944979
+ 915208 484450 297771  66361 223433  56292  57274 450735 781114 276924
+ 198108 655803 519039  55858 240130  42715 326314 449880 378310 944979
  227885 189867 378551 451544 300203 885029  55847 939829 803667 650512
   49636 693518 946487  87595 281222 874736 251815 592361 398594  56376]</t>
         </is>
@@ -35880,7 +35880,7 @@
  266715 500905 528381 577862 700855 451236 662565 965893 917300 263079
  515779 761870 725978 846059 289188 455647 687379 437469 936496 663542
   35570 837065  35197 497869  80152 915643 333629 806743 435000  72990
- 700341 489962 378232 198404 277220 947719 241552 129513 142547 193356]</t>
+ 700341 489962 378232 198404 277220 947719 241552 129513 142547 272172]</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
@@ -35911,7 +35911,7 @@
  318974 993383  66882 227036 500928  61110 488552 680282 617084 343957
  300700 344755 409649 495522 493152 246417 477743 398043   7855 317958
  494400 286157 351851 507091 553560 694771 349682  76008  10057 507455
- 205994 270272 794358 253326 315936  32880 492067 343787 517538 545935
+ 270272 205994 794358 253326 315936  32880 492067 343787 517538 545935
  879944 598134 925326 875063 397272 336354 809595 492868 646485 108267
  326469  72722 908344 838679 793491 917783 478132 633261 538620 930400
  449124  59395 503213 441768 169619  59264 493542 319740 680687 319007
@@ -35948,7 +35948,7 @@
   91990 515661 695575 153893 725535 495523  73769 591632 725158  61029
  437744 664770  96280 442247 328356 492038 589471 144265 637361 665146
   32964 981085 157160 718572  93839  93032 950432 676381 145233 729322
- 152752 517008 196678 275494  87805 921552 758967  67672  92202 508760
+ 152752 517008 275494 196678  87805 921552 758967  67672  92202 508760
   92660 382677 574146 727012 372036 338531 129106 190194 829328 878598
  206130 270408 386266  86947  66841  74562  61899 509366 496583  87736
   93508 356363 399865 473986 722531  93269  97429 897556 127015 471366
@@ -36128,9 +36128,9 @@
  628226 669269 684773 685502 696795 864014 695175 633158 618151 137394
  398645 179526 465531 159902 431468 924299 515729 412881  65786 164580
  498334 695560 197318 276134 525403  65990 165644 979273 844634 694566
- 377156 389577 466654 138836 464940 731368 625147 125009 196875 275691
+ 377156 389577 466654 138836 464940 731368 625147 125009 275691 196875
  154678 843421 726004 632966 554342 122424 160130  12275 105660  64077
- 157472 430562 397215    608 500464 804213 138549 193177 271993 186133
+ 157472 430562 397215    608 500464 804213 138549 271993 193177 186133
  600086  43762 158964 845369 377248 490490 628227 965744 182051 509958
  155657 472130 763944 510640 822025 466213 396974 685136 157255 633771]</t>
         </is>
@@ -36162,12 +36162,12 @@
           <t>[ 77084  67598  73282  75727  64451  71158  61558  61845 162381 143406
   62623 924863 438646 384843 467019 989670 158779 400157  71245 250433
  989584 823482 487010  73586 507375 531607  70484 356305 158864 308720
- 530273 348687 311380 209956 528840 158214 428925 140686 219936 141105
+ 530273 348687 311380 209956 528840 158214 428925 219936 140686 141105
  520925  78831 533607  42522  93858 689465  96598 529533 841895 484805
  441700 969037 442067 823339 762994 158838  95618 472829 907047 308943
  337258 296141 400288 458291 663531 462606 213063  94212 677688  45167
- 800686 385005 213028 382530 347867 355037  95327 735941 212667  12325
-  96456 510468 754044  35093 520895 327240 530068 158976 923773 916836
+ 800686 385005 213028 382530 347867 355037  95327 735941 212667  96456
+  12325 510468 754044  35093 520895 327240 530068 158976 923773 916836
   76186 140299 139006 824588  47556 468097 875195 706595 745394 346971]</t>
         </is>
       </c>
@@ -36195,7 +36195,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>[756518 519783 192533 271349 524222 735057 469434 986913 941456 527953
+          <t>[756518 519783 271349 192533 524222 735057 469434 986913 941456 527953
  499432 530886 880726 860271 167958 455349 888048 323240 504216 352714
   92765 248430 958987 765385  58644 598346 232151 587706 310762 970653
  285065 997628 450474 982284 529427 134280 970986 368489 308907 452030
@@ -36236,7 +36236,7 @@
  927482 388484 574779 383588 374951 587502 796689 331627 139225 142886
  652626 997322 554375 199588 278404 594495 375025 232803 170536 251502
  918117 564900 404560 619610 367427 891069 319901 545675 679697 702855
- 624001 263722 384605 199078 277894 245347 886157  81758 773913 117813
+ 624001 263722 384605 277894 199078 245347 886157  81758 773913 117813
  928740 772446  65169 989473  71706 833562 535742 122263 486987 284178
   59627 850158 867424 928673 130096 123559 602011 152163 563365 716963
  125984 123899 318718 331116 693777 137104 480387  60803 855560 775055
@@ -36304,14 +36304,14 @@
       <c r="B998" t="inlineStr">
         <is>
           <t>[408352 843944 346964 553950 335201 127212 144435 960193 614200 728775
- 727967 335532 198605 277421  72264 585437 596471 163515 153562 499646
+ 727967 335532 277421 198605  72264 585437 596471 163515 153562 499646
  115820 500507 624790 484827 402492 485830 343684  15486 485091  74637
  418942 371975 851588 493519 580914 562918  74961 798589 183346  13548
  126171 496307 500962 335714 163420 972687 950889 389295 518213 582955
  553561 584493 844334 377179 576048 336053 115590 613711 683526 506426
   20181 944033 906965 128520 487261 470264 860978 505411 495249 680219
  586993 568338 421276 680063  73808 138183 422058 372805 133820 171656
- 204715 268993 137532 568671 470126 205181 269459 538202 409551 303476
+ 268993 204715 137532 568671 470126 269459 205181 538202 409551 303476
  379131 451556 495794 596944 892640 111749 611758 892581 537133 394561]</t>
         </is>
       </c>
@@ -36384,7 +36384,7 @@
  301563 348106 314731 705159  49099 362491  19415 763256  13536 633790
  979311  48716 588999 984012 834845 598313 114913 295715 136354 954557
  799019 178121 293423  39359 116702 586795 462677 360081 171302 504859
- 317024  71364 205944 270222 494490 513300 231936 331561 593069 585520]</t>
+ 317024  71364 205944 270222 513300 494490 231936 331561 593069 585520]</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
